--- a/tranchedata.xlsx
+++ b/tranchedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Interest Payment</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
 </sst>
 </file>
@@ -404,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,13 +429,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2206533.818611111</v>
+        <v>3211689.229166667</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>342113000</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -450,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2135355.308333333</v>
+        <v>3318745.536805556</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>342113000</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -465,13 +459,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2206533.818611111</v>
+        <v>3211689.229166667</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>342113000</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2206533.818611111</v>
+        <v>3318745.536805556</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>342113000</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -495,13 +489,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2135355.308333333</v>
+        <v>3318745.536805556</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>342113000</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -510,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2206533.818611111</v>
+        <v>2997576.613888889</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>342113000</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +519,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2135355.308333333</v>
+        <v>3318745.536805556</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>342113000</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -540,13 +534,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2206533.818611111</v>
+        <v>3211689.229166667</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>342113000</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -555,13 +549,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2206533.818611111</v>
+        <v>3318745.536805556</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>342113000</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -570,13 +564,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1992998.287777778</v>
+        <v>3211689.229166667</v>
       </c>
       <c r="D11">
-        <v>56238662.32999992</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>285874337.6700001</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,13 +579,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1843810.068433259</v>
+        <v>3318745.536805556</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>285874337.6700001</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -600,13 +594,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1784332.32429025</v>
+        <v>3318745.536805556</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>285874337.6700001</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -615,13 +609,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1843810.068433259</v>
+        <v>3211689.229166667</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>285874337.6700001</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -630,13 +624,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1784332.32429025</v>
+        <v>3318745.536805556</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>285874337.6700001</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -645,13 +639,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1843810.068433259</v>
+        <v>3211689.229166667</v>
       </c>
       <c r="D16">
-        <v>4773800</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>281100537.6700001</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -660,13 +654,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1813020.384488815</v>
+        <v>3318745.536805556</v>
       </c>
       <c r="D17">
-        <v>19800000</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>261300537.6700001</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -675,13 +669,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1630950.855956917</v>
+        <v>3318745.536805556</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>261300537.6700001</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -690,13 +684,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1685315.884488815</v>
+        <v>2997576.613888889</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>261300537.6700001</v>
+        <v>509455000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -705,13 +699,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1630950.855956917</v>
+        <v>3318745.536805556</v>
       </c>
       <c r="D20">
-        <v>12185358.88</v>
+        <v>61562516.30000001</v>
       </c>
       <c r="E20">
-        <v>249115178.7900001</v>
+        <v>447892483.7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -720,13 +714,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1606723.704534725</v>
+        <v>2823588.865992083</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>249115178.7900001</v>
+        <v>447892483.7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -735,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1606723.704534725</v>
+        <v>2917708.494858486</v>
       </c>
       <c r="D22">
-        <v>53112509.89000002</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>196002668.9000001</v>
+        <v>447892483.7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -750,13 +744,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1141824.436714111</v>
+        <v>2823588.865992083</v>
       </c>
       <c r="D23">
-        <v>34398481.69</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>161604187.2100001</v>
+        <v>447892483.7</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -765,13 +759,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1042302.117452498</v>
+        <v>2917708.494858486</v>
       </c>
       <c r="D24">
-        <v>35770089.39000002</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>125834097.8200001</v>
+        <v>447892483.7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -780,13 +774,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>785414.493893167</v>
+        <v>2917708.494858486</v>
       </c>
       <c r="D25">
-        <v>104529610.99</v>
+        <v>50050000</v>
       </c>
       <c r="E25">
-        <v>21304486.83000007</v>
+        <v>397842483.7</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -795,13 +789,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>137408.0221404921</v>
+        <v>2508065.324325417</v>
       </c>
       <c r="D26">
-        <v>21304486.83000007</v>
+        <v>103000000</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>294842483.7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -810,13 +804,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1920694.029580708</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>26398244.93000001</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>268444238.77</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -825,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1692317.221912541</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>268444238.77</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -840,13 +834,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1748727.795976293</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>35477287.88999999</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>232966950.88</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -855,13 +849,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1517617.902378422</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>232966950.88</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -870,13 +864,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1370751.653761155</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>61611272.40000001</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>171355678.48</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -885,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1116263.248298255</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>20639452.19</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>150716226.29</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -900,13 +894,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>950140.2099032083</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>21262500</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>129453726.29</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -915,13 +909,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>843301.1283583151</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>129453726.29</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -930,13 +924,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>816097.8661532083</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>110000000</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>19453726.28999999</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -945,10 +939,10 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>126727.5172472041</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>19453726.28999999</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1337,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>716978.548611111</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1352,13 +1346,13 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>693850.2083333333</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1367,13 +1361,13 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>716978.548611111</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1382,13 +1376,13 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>716978.548611111</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1397,13 +1391,13 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>693850.2083333333</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1412,13 +1406,13 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>716978.548611111</v>
+        <v>641730.95</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1427,13 +1421,13 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>693850.2083333333</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1442,13 +1436,13 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>716978.548611111</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1457,13 +1451,13 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>716978.548611111</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1472,13 +1466,13 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>647593.5277777778</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1487,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>716978.548611111</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1502,13 +1496,13 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>693850.2083333333</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1517,13 +1511,13 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>716978.548611111</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1532,13 +1526,13 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <v>693850.2083333333</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1547,13 +1541,13 @@
         <v>14</v>
       </c>
       <c r="C76">
-        <v>716978.548611111</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1562,13 +1556,13 @@
         <v>15</v>
       </c>
       <c r="C77">
-        <v>716978.548611111</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1577,13 +1571,13 @@
         <v>16</v>
       </c>
       <c r="C78">
-        <v>693850.2083333333</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1592,13 +1586,13 @@
         <v>17</v>
       </c>
       <c r="C79">
-        <v>716978.548611111</v>
+        <v>641730.95</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1607,13 +1601,13 @@
         <v>18</v>
       </c>
       <c r="C80">
-        <v>693850.2083333333</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1622,13 +1616,13 @@
         <v>19</v>
       </c>
       <c r="C81">
-        <v>716978.548611111</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1637,13 +1631,13 @@
         <v>20</v>
       </c>
       <c r="C82">
-        <v>716978.548611111</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1652,13 +1646,13 @@
         <v>21</v>
       </c>
       <c r="C83">
-        <v>647593.5277777778</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1667,13 +1661,13 @@
         <v>22</v>
       </c>
       <c r="C84">
-        <v>716978.548611111</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1682,13 +1676,13 @@
         <v>23</v>
       </c>
       <c r="C85">
-        <v>693850.2083333333</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>99715000</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1697,13 +1691,13 @@
         <v>24</v>
       </c>
       <c r="C86">
-        <v>716978.548611111</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D86">
-        <v>99715000</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>34656781.27000007</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1712,13 +1706,13 @@
         <v>25</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1727,13 +1721,13 @@
         <v>26</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1742,13 +1736,13 @@
         <v>27</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1757,13 +1751,13 @@
         <v>28</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1772,13 +1766,13 @@
         <v>29</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>641730.95</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1787,13 +1781,13 @@
         <v>30</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1802,13 +1796,13 @@
         <v>31</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1817,13 +1811,13 @@
         <v>32</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1832,13 +1826,13 @@
         <v>33</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>687568.8749999999</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1847,13 +1841,13 @@
         <v>34</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>710487.8374999999</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>100314000</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>87767726.28999999</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2239,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>228594.5166666667</v>
+        <v>405051.5625</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2254,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>221220.5</v>
+        <v>418553.28125</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2269,13 +2263,13 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <v>228594.5166666667</v>
+        <v>405051.5625</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2284,13 +2278,13 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <v>228594.5166666667</v>
+        <v>418553.28125</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2299,13 +2293,13 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <v>221220.5</v>
+        <v>418553.28125</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2314,13 +2308,13 @@
         <v>5</v>
       </c>
       <c r="C127">
-        <v>228594.5166666667</v>
+        <v>378048.125</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2329,13 +2323,13 @@
         <v>6</v>
       </c>
       <c r="C128">
-        <v>221220.5</v>
+        <v>418553.28125</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2344,13 +2338,13 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <v>228594.5166666667</v>
+        <v>405051.5625</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2359,13 +2353,13 @@
         <v>8</v>
       </c>
       <c r="C130">
-        <v>228594.5166666667</v>
+        <v>418553.28125</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2374,13 +2368,13 @@
         <v>9</v>
       </c>
       <c r="C131">
-        <v>206472.4666666667</v>
+        <v>405051.5625</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2389,13 +2383,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>228594.5166666667</v>
+        <v>418553.28125</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2404,13 +2398,13 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>221220.5</v>
+        <v>418553.28125</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2419,13 +2413,13 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>228594.5166666667</v>
+        <v>405051.5625</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2434,13 +2428,13 @@
         <v>13</v>
       </c>
       <c r="C135">
-        <v>221220.5</v>
+        <v>418553.28125</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2449,13 +2443,13 @@
         <v>14</v>
       </c>
       <c r="C136">
-        <v>228594.5166666667</v>
+        <v>405051.5625</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2464,13 +2458,13 @@
         <v>15</v>
       </c>
       <c r="C137">
-        <v>228594.5166666667</v>
+        <v>418553.28125</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2479,13 +2473,13 @@
         <v>16</v>
       </c>
       <c r="C138">
-        <v>221220.5</v>
+        <v>418553.28125</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2494,13 +2488,13 @@
         <v>17</v>
       </c>
       <c r="C139">
-        <v>228594.5166666667</v>
+        <v>378048.125</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2509,13 +2503,13 @@
         <v>18</v>
       </c>
       <c r="C140">
-        <v>221220.5</v>
+        <v>418553.28125</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2524,13 +2518,13 @@
         <v>19</v>
       </c>
       <c r="C141">
-        <v>228594.5166666667</v>
+        <v>405051.5625</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2539,13 +2533,13 @@
         <v>20</v>
       </c>
       <c r="C142">
-        <v>228594.5166666667</v>
+        <v>418553.28125</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2554,13 +2548,13 @@
         <v>21</v>
       </c>
       <c r="C143">
-        <v>206472.4666666667</v>
+        <v>405051.5625</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2569,13 +2563,13 @@
         <v>22</v>
       </c>
       <c r="C144">
-        <v>228594.5166666667</v>
+        <v>418553.28125</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2584,13 +2578,13 @@
         <v>23</v>
       </c>
       <c r="C145">
-        <v>221220.5</v>
+        <v>418553.28125</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2599,13 +2593,13 @@
         <v>24</v>
       </c>
       <c r="C146">
-        <v>228594.5166666667</v>
+        <v>405051.5625</v>
       </c>
       <c r="D146">
-        <v>29996000</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>29996000</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2614,13 +2608,13 @@
         <v>25</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>418553.28125</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2629,13 +2623,13 @@
         <v>26</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>405051.5625</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2644,13 +2638,13 @@
         <v>27</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>418553.28125</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2659,13 +2653,13 @@
         <v>28</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>418553.28125</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2674,13 +2668,13 @@
         <v>29</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>378048.125</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2689,13 +2683,13 @@
         <v>30</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>418553.28125</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2704,13 +2698,13 @@
         <v>31</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>405051.5625</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2719,13 +2713,13 @@
         <v>32</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>418553.28125</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2734,13 +2728,13 @@
         <v>33</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>405051.5625</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -2749,13 +2743,13 @@
         <v>34</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>418553.28125</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>56355000</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>56355000</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3141,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>311491.7888888889</v>
+        <v>420417.625</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3156,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>301443.6666666667</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3171,13 +3165,13 @@
         <v>2</v>
       </c>
       <c r="C184">
-        <v>311491.7888888889</v>
+        <v>420417.625</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3186,13 +3180,13 @@
         <v>3</v>
       </c>
       <c r="C185">
-        <v>311491.7888888889</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3201,13 +3195,13 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <v>301443.6666666667</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3216,13 +3210,13 @@
         <v>5</v>
       </c>
       <c r="C187">
-        <v>311491.7888888889</v>
+        <v>392389.7833333333</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3231,13 +3225,13 @@
         <v>6</v>
       </c>
       <c r="C188">
-        <v>301443.6666666667</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3246,13 +3240,13 @@
         <v>7</v>
       </c>
       <c r="C189">
-        <v>311491.7888888889</v>
+        <v>420417.625</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3261,13 +3255,13 @@
         <v>8</v>
       </c>
       <c r="C190">
-        <v>311491.7888888889</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3276,13 +3270,13 @@
         <v>9</v>
       </c>
       <c r="C191">
-        <v>281347.4222222222</v>
+        <v>420417.625</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3291,13 +3285,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>311491.7888888889</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3306,13 +3300,13 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>301443.6666666667</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3321,13 +3315,13 @@
         <v>12</v>
       </c>
       <c r="C194">
-        <v>311491.7888888889</v>
+        <v>420417.625</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3336,13 +3330,13 @@
         <v>13</v>
       </c>
       <c r="C195">
-        <v>301443.6666666667</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3351,13 +3345,13 @@
         <v>14</v>
       </c>
       <c r="C196">
-        <v>311491.7888888889</v>
+        <v>420417.625</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3366,13 +3360,13 @@
         <v>15</v>
       </c>
       <c r="C197">
-        <v>311491.7888888889</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3381,13 +3375,13 @@
         <v>16</v>
       </c>
       <c r="C198">
-        <v>301443.6666666667</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3396,13 +3390,13 @@
         <v>17</v>
       </c>
       <c r="C199">
-        <v>311491.7888888889</v>
+        <v>392389.7833333333</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3411,13 +3405,13 @@
         <v>18</v>
       </c>
       <c r="C200">
-        <v>301443.6666666667</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3426,13 +3420,13 @@
         <v>19</v>
       </c>
       <c r="C201">
-        <v>311491.7888888889</v>
+        <v>420417.625</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3441,13 +3435,13 @@
         <v>20</v>
       </c>
       <c r="C202">
-        <v>311491.7888888889</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3456,13 +3450,13 @@
         <v>21</v>
       </c>
       <c r="C203">
-        <v>281347.4222222222</v>
+        <v>420417.625</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3471,13 +3465,13 @@
         <v>22</v>
       </c>
       <c r="C204">
-        <v>311491.7888888889</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3486,13 +3480,13 @@
         <v>23</v>
       </c>
       <c r="C205">
-        <v>301443.6666666667</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3501,13 +3495,13 @@
         <v>24</v>
       </c>
       <c r="C206">
-        <v>311491.7888888889</v>
+        <v>420417.625</v>
       </c>
       <c r="D206">
-        <v>37292000</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>37292000</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3516,13 +3510,13 @@
         <v>25</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3531,13 +3525,13 @@
         <v>26</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>420417.625</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3546,13 +3540,13 @@
         <v>27</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3561,13 +3555,13 @@
         <v>28</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3576,13 +3570,13 @@
         <v>29</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>392389.7833333333</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3591,13 +3585,13 @@
         <v>30</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3606,13 +3600,13 @@
         <v>31</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>420417.625</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3621,13 +3615,13 @@
         <v>32</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -3636,13 +3630,13 @@
         <v>33</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>420417.625</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -3651,13 +3645,13 @@
         <v>34</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>434431.5458333333</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>54102000</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>54102000</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4035,1818 +4029,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B242" s="1">
-        <v>0</v>
-      </c>
-      <c r="C242">
-        <v>351838.375</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
-      </c>
-      <c r="E242">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1">
-        <v>1</v>
-      </c>
-      <c r="C243">
-        <v>340488.75</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-      <c r="E243">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1">
-        <v>2</v>
-      </c>
-      <c r="C244">
-        <v>351838.375</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1">
-        <v>3</v>
-      </c>
-      <c r="C245">
-        <v>351838.375</v>
-      </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-      <c r="E245">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1">
-        <v>4</v>
-      </c>
-      <c r="C246">
-        <v>340488.75</v>
-      </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-      <c r="E246">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1">
-        <v>5</v>
-      </c>
-      <c r="C247">
-        <v>351838.375</v>
-      </c>
-      <c r="D247">
-        <v>0</v>
-      </c>
-      <c r="E247">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1">
-        <v>6</v>
-      </c>
-      <c r="C248">
-        <v>340488.75</v>
-      </c>
-      <c r="D248">
-        <v>0</v>
-      </c>
-      <c r="E248">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1">
-        <v>7</v>
-      </c>
-      <c r="C249">
-        <v>351838.375</v>
-      </c>
-      <c r="D249">
-        <v>0</v>
-      </c>
-      <c r="E249">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1">
-        <v>8</v>
-      </c>
-      <c r="C250">
-        <v>351838.375</v>
-      </c>
-      <c r="D250">
-        <v>0</v>
-      </c>
-      <c r="E250">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1">
-        <v>9</v>
-      </c>
-      <c r="C251">
-        <v>317789.5</v>
-      </c>
-      <c r="D251">
-        <v>0</v>
-      </c>
-      <c r="E251">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1">
-        <v>10</v>
-      </c>
-      <c r="C252">
-        <v>351838.375</v>
-      </c>
-      <c r="D252">
-        <v>0</v>
-      </c>
-      <c r="E252">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1">
-        <v>11</v>
-      </c>
-      <c r="C253">
-        <v>340488.75</v>
-      </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-      <c r="E253">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1">
-        <v>12</v>
-      </c>
-      <c r="C254">
-        <v>351838.375</v>
-      </c>
-      <c r="D254">
-        <v>0</v>
-      </c>
-      <c r="E254">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1">
-        <v>13</v>
-      </c>
-      <c r="C255">
-        <v>340488.75</v>
-      </c>
-      <c r="D255">
-        <v>0</v>
-      </c>
-      <c r="E255">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1">
-        <v>14</v>
-      </c>
-      <c r="C256">
-        <v>351838.375</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1">
-        <v>15</v>
-      </c>
-      <c r="C257">
-        <v>351838.375</v>
-      </c>
-      <c r="D257">
-        <v>0</v>
-      </c>
-      <c r="E257">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1">
-        <v>16</v>
-      </c>
-      <c r="C258">
-        <v>340488.75</v>
-      </c>
-      <c r="D258">
-        <v>0</v>
-      </c>
-      <c r="E258">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1">
-        <v>17</v>
-      </c>
-      <c r="C259">
-        <v>351838.375</v>
-      </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-      <c r="E259">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1">
-        <v>18</v>
-      </c>
-      <c r="C260">
-        <v>340488.75</v>
-      </c>
-      <c r="D260">
-        <v>0</v>
-      </c>
-      <c r="E260">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1">
-        <v>19</v>
-      </c>
-      <c r="C261">
-        <v>351838.375</v>
-      </c>
-      <c r="D261">
-        <v>0</v>
-      </c>
-      <c r="E261">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1">
-        <v>20</v>
-      </c>
-      <c r="C262">
-        <v>351838.375</v>
-      </c>
-      <c r="D262">
-        <v>0</v>
-      </c>
-      <c r="E262">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1">
-        <v>21</v>
-      </c>
-      <c r="C263">
-        <v>317789.5</v>
-      </c>
-      <c r="D263">
-        <v>0</v>
-      </c>
-      <c r="E263">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1">
-        <v>22</v>
-      </c>
-      <c r="C264">
-        <v>351838.375</v>
-      </c>
-      <c r="D264">
-        <v>0</v>
-      </c>
-      <c r="E264">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1">
-        <v>23</v>
-      </c>
-      <c r="C265">
-        <v>340488.75</v>
-      </c>
-      <c r="D265">
-        <v>0</v>
-      </c>
-      <c r="E265">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1">
-        <v>24</v>
-      </c>
-      <c r="C266">
-        <v>351838.375</v>
-      </c>
-      <c r="D266">
-        <v>38913000</v>
-      </c>
-      <c r="E266">
-        <v>38913000</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1">
-        <v>25</v>
-      </c>
-      <c r="C267">
-        <v>0</v>
-      </c>
-      <c r="D267">
-        <v>0</v>
-      </c>
-      <c r="E267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1">
-        <v>26</v>
-      </c>
-      <c r="C268">
-        <v>0</v>
-      </c>
-      <c r="D268">
-        <v>0</v>
-      </c>
-      <c r="E268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1">
-        <v>27</v>
-      </c>
-      <c r="C269">
-        <v>0</v>
-      </c>
-      <c r="D269">
-        <v>0</v>
-      </c>
-      <c r="E269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1">
-        <v>28</v>
-      </c>
-      <c r="C270">
-        <v>0</v>
-      </c>
-      <c r="D270">
-        <v>0</v>
-      </c>
-      <c r="E270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1">
-        <v>29</v>
-      </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
-      <c r="D271">
-        <v>0</v>
-      </c>
-      <c r="E271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1">
-        <v>30</v>
-      </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
-      <c r="E272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1">
-        <v>31</v>
-      </c>
-      <c r="C273">
-        <v>0</v>
-      </c>
-      <c r="D273">
-        <v>0</v>
-      </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1">
-        <v>32</v>
-      </c>
-      <c r="C274">
-        <v>0</v>
-      </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-      <c r="E274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1">
-        <v>33</v>
-      </c>
-      <c r="C275">
-        <v>0</v>
-      </c>
-      <c r="D275">
-        <v>0</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1">
-        <v>34</v>
-      </c>
-      <c r="C276">
-        <v>0</v>
-      </c>
-      <c r="D276">
-        <v>0</v>
-      </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1">
-        <v>35</v>
-      </c>
-      <c r="C277">
-        <v>0</v>
-      </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1">
-        <v>36</v>
-      </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
-      <c r="D278">
-        <v>0</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1">
-        <v>37</v>
-      </c>
-      <c r="C279">
-        <v>0</v>
-      </c>
-      <c r="D279">
-        <v>0</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1">
-        <v>38</v>
-      </c>
-      <c r="C280">
-        <v>0</v>
-      </c>
-      <c r="D280">
-        <v>0</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1">
-        <v>39</v>
-      </c>
-      <c r="C281">
-        <v>0</v>
-      </c>
-      <c r="D281">
-        <v>0</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1">
-        <v>40</v>
-      </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1">
-        <v>41</v>
-      </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1">
-        <v>42</v>
-      </c>
-      <c r="C284">
-        <v>0</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1">
-        <v>43</v>
-      </c>
-      <c r="C285">
-        <v>0</v>
-      </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1">
-        <v>44</v>
-      </c>
-      <c r="C286">
-        <v>0</v>
-      </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1">
-        <v>45</v>
-      </c>
-      <c r="C287">
-        <v>0</v>
-      </c>
-      <c r="D287">
-        <v>0</v>
-      </c>
-      <c r="E287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1">
-        <v>46</v>
-      </c>
-      <c r="C288">
-        <v>0</v>
-      </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1">
-        <v>47</v>
-      </c>
-      <c r="C289">
-        <v>0</v>
-      </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1">
-        <v>48</v>
-      </c>
-      <c r="C290">
-        <v>0</v>
-      </c>
-      <c r="D290">
-        <v>0</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1">
-        <v>49</v>
-      </c>
-      <c r="C291">
-        <v>0</v>
-      </c>
-      <c r="D291">
-        <v>0</v>
-      </c>
-      <c r="E291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1">
-        <v>50</v>
-      </c>
-      <c r="C292">
-        <v>0</v>
-      </c>
-      <c r="D292">
-        <v>0</v>
-      </c>
-      <c r="E292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1">
-        <v>51</v>
-      </c>
-      <c r="C293">
-        <v>0</v>
-      </c>
-      <c r="D293">
-        <v>0</v>
-      </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1">
-        <v>52</v>
-      </c>
-      <c r="C294">
-        <v>0</v>
-      </c>
-      <c r="D294">
-        <v>0</v>
-      </c>
-      <c r="E294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1">
-        <v>53</v>
-      </c>
-      <c r="C295">
-        <v>0</v>
-      </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
-      <c r="E295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1">
-        <v>54</v>
-      </c>
-      <c r="C296">
-        <v>0</v>
-      </c>
-      <c r="D296">
-        <v>0</v>
-      </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1">
-        <v>55</v>
-      </c>
-      <c r="C297">
-        <v>0</v>
-      </c>
-      <c r="D297">
-        <v>0</v>
-      </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1">
-        <v>56</v>
-      </c>
-      <c r="C298">
-        <v>0</v>
-      </c>
-      <c r="D298">
-        <v>0</v>
-      </c>
-      <c r="E298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1">
-        <v>57</v>
-      </c>
-      <c r="C299">
-        <v>0</v>
-      </c>
-      <c r="D299">
-        <v>0</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1">
-        <v>58</v>
-      </c>
-      <c r="C300">
-        <v>0</v>
-      </c>
-      <c r="D300">
-        <v>0</v>
-      </c>
-      <c r="E300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1">
-        <v>59</v>
-      </c>
-      <c r="C301">
-        <v>0</v>
-      </c>
-      <c r="D301">
-        <v>0</v>
-      </c>
-      <c r="E301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="A302" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B302" s="1">
-        <v>0</v>
-      </c>
-      <c r="C302">
-        <v>104365.375</v>
-      </c>
-      <c r="D302">
-        <v>0</v>
-      </c>
-      <c r="E302">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1">
-        <v>1</v>
-      </c>
-      <c r="C303">
-        <v>100998.75</v>
-      </c>
-      <c r="D303">
-        <v>0</v>
-      </c>
-      <c r="E303">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1">
-        <v>2</v>
-      </c>
-      <c r="C304">
-        <v>104365.375</v>
-      </c>
-      <c r="D304">
-        <v>0</v>
-      </c>
-      <c r="E304">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1">
-        <v>3</v>
-      </c>
-      <c r="C305">
-        <v>104365.375</v>
-      </c>
-      <c r="D305">
-        <v>0</v>
-      </c>
-      <c r="E305">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1">
-        <v>4</v>
-      </c>
-      <c r="C306">
-        <v>100998.75</v>
-      </c>
-      <c r="D306">
-        <v>0</v>
-      </c>
-      <c r="E306">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1">
-        <v>5</v>
-      </c>
-      <c r="C307">
-        <v>104365.375</v>
-      </c>
-      <c r="D307">
-        <v>0</v>
-      </c>
-      <c r="E307">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1">
-        <v>6</v>
-      </c>
-      <c r="C308">
-        <v>100998.75</v>
-      </c>
-      <c r="D308">
-        <v>0</v>
-      </c>
-      <c r="E308">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1">
-        <v>7</v>
-      </c>
-      <c r="C309">
-        <v>104365.375</v>
-      </c>
-      <c r="D309">
-        <v>0</v>
-      </c>
-      <c r="E309">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1">
-        <v>8</v>
-      </c>
-      <c r="C310">
-        <v>104365.375</v>
-      </c>
-      <c r="D310">
-        <v>0</v>
-      </c>
-      <c r="E310">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="1"/>
-      <c r="B311" s="1">
-        <v>9</v>
-      </c>
-      <c r="C311">
-        <v>94265.5</v>
-      </c>
-      <c r="D311">
-        <v>0</v>
-      </c>
-      <c r="E311">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1">
-        <v>10</v>
-      </c>
-      <c r="C312">
-        <v>104365.375</v>
-      </c>
-      <c r="D312">
-        <v>0</v>
-      </c>
-      <c r="E312">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1">
-        <v>11</v>
-      </c>
-      <c r="C313">
-        <v>100998.75</v>
-      </c>
-      <c r="D313">
-        <v>0</v>
-      </c>
-      <c r="E313">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1">
-        <v>12</v>
-      </c>
-      <c r="C314">
-        <v>104365.375</v>
-      </c>
-      <c r="D314">
-        <v>0</v>
-      </c>
-      <c r="E314">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1">
-        <v>13</v>
-      </c>
-      <c r="C315">
-        <v>100998.75</v>
-      </c>
-      <c r="D315">
-        <v>0</v>
-      </c>
-      <c r="E315">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1">
-        <v>14</v>
-      </c>
-      <c r="C316">
-        <v>104365.375</v>
-      </c>
-      <c r="D316">
-        <v>0</v>
-      </c>
-      <c r="E316">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="1"/>
-      <c r="B317" s="1">
-        <v>15</v>
-      </c>
-      <c r="C317">
-        <v>104365.375</v>
-      </c>
-      <c r="D317">
-        <v>0</v>
-      </c>
-      <c r="E317">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="A318" s="1"/>
-      <c r="B318" s="1">
-        <v>16</v>
-      </c>
-      <c r="C318">
-        <v>100998.75</v>
-      </c>
-      <c r="D318">
-        <v>0</v>
-      </c>
-      <c r="E318">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="1"/>
-      <c r="B319" s="1">
-        <v>17</v>
-      </c>
-      <c r="C319">
-        <v>104365.375</v>
-      </c>
-      <c r="D319">
-        <v>0</v>
-      </c>
-      <c r="E319">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="1"/>
-      <c r="B320" s="1">
-        <v>18</v>
-      </c>
-      <c r="C320">
-        <v>100998.75</v>
-      </c>
-      <c r="D320">
-        <v>0</v>
-      </c>
-      <c r="E320">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="1"/>
-      <c r="B321" s="1">
-        <v>19</v>
-      </c>
-      <c r="C321">
-        <v>104365.375</v>
-      </c>
-      <c r="D321">
-        <v>0</v>
-      </c>
-      <c r="E321">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="1"/>
-      <c r="B322" s="1">
-        <v>20</v>
-      </c>
-      <c r="C322">
-        <v>104365.375</v>
-      </c>
-      <c r="D322">
-        <v>0</v>
-      </c>
-      <c r="E322">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="1"/>
-      <c r="B323" s="1">
-        <v>21</v>
-      </c>
-      <c r="C323">
-        <v>94265.5</v>
-      </c>
-      <c r="D323">
-        <v>0</v>
-      </c>
-      <c r="E323">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1">
-        <v>22</v>
-      </c>
-      <c r="C324">
-        <v>104365.375</v>
-      </c>
-      <c r="D324">
-        <v>0</v>
-      </c>
-      <c r="E324">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="1"/>
-      <c r="B325" s="1">
-        <v>23</v>
-      </c>
-      <c r="C325">
-        <v>100998.75</v>
-      </c>
-      <c r="D325">
-        <v>0</v>
-      </c>
-      <c r="E325">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="A326" s="1"/>
-      <c r="B326" s="1">
-        <v>24</v>
-      </c>
-      <c r="C326">
-        <v>104365.375</v>
-      </c>
-      <c r="D326">
-        <v>10539000</v>
-      </c>
-      <c r="E326">
-        <v>10539000</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1">
-        <v>25</v>
-      </c>
-      <c r="C327">
-        <v>0</v>
-      </c>
-      <c r="D327">
-        <v>0</v>
-      </c>
-      <c r="E327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="A328" s="1"/>
-      <c r="B328" s="1">
-        <v>26</v>
-      </c>
-      <c r="C328">
-        <v>0</v>
-      </c>
-      <c r="D328">
-        <v>0</v>
-      </c>
-      <c r="E328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1">
-        <v>27</v>
-      </c>
-      <c r="C329">
-        <v>0</v>
-      </c>
-      <c r="D329">
-        <v>0</v>
-      </c>
-      <c r="E329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1">
-        <v>28</v>
-      </c>
-      <c r="C330">
-        <v>0</v>
-      </c>
-      <c r="D330">
-        <v>0</v>
-      </c>
-      <c r="E330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="1"/>
-      <c r="B331" s="1">
-        <v>29</v>
-      </c>
-      <c r="C331">
-        <v>0</v>
-      </c>
-      <c r="D331">
-        <v>0</v>
-      </c>
-      <c r="E331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1">
-        <v>30</v>
-      </c>
-      <c r="C332">
-        <v>0</v>
-      </c>
-      <c r="D332">
-        <v>0</v>
-      </c>
-      <c r="E332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1">
-        <v>31</v>
-      </c>
-      <c r="C333">
-        <v>0</v>
-      </c>
-      <c r="D333">
-        <v>0</v>
-      </c>
-      <c r="E333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1">
-        <v>32</v>
-      </c>
-      <c r="C334">
-        <v>0</v>
-      </c>
-      <c r="D334">
-        <v>0</v>
-      </c>
-      <c r="E334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="A335" s="1"/>
-      <c r="B335" s="1">
-        <v>33</v>
-      </c>
-      <c r="C335">
-        <v>0</v>
-      </c>
-      <c r="D335">
-        <v>0</v>
-      </c>
-      <c r="E335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="1"/>
-      <c r="B336" s="1">
-        <v>34</v>
-      </c>
-      <c r="C336">
-        <v>0</v>
-      </c>
-      <c r="D336">
-        <v>0</v>
-      </c>
-      <c r="E336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="A337" s="1"/>
-      <c r="B337" s="1">
-        <v>35</v>
-      </c>
-      <c r="C337">
-        <v>0</v>
-      </c>
-      <c r="D337">
-        <v>0</v>
-      </c>
-      <c r="E337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1">
-        <v>36</v>
-      </c>
-      <c r="C338">
-        <v>0</v>
-      </c>
-      <c r="D338">
-        <v>0</v>
-      </c>
-      <c r="E338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1">
-        <v>37</v>
-      </c>
-      <c r="C339">
-        <v>0</v>
-      </c>
-      <c r="D339">
-        <v>0</v>
-      </c>
-      <c r="E339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1">
-        <v>38</v>
-      </c>
-      <c r="C340">
-        <v>0</v>
-      </c>
-      <c r="D340">
-        <v>0</v>
-      </c>
-      <c r="E340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="1"/>
-      <c r="B341" s="1">
-        <v>39</v>
-      </c>
-      <c r="C341">
-        <v>0</v>
-      </c>
-      <c r="D341">
-        <v>0</v>
-      </c>
-      <c r="E341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="1"/>
-      <c r="B342" s="1">
-        <v>40</v>
-      </c>
-      <c r="C342">
-        <v>0</v>
-      </c>
-      <c r="D342">
-        <v>0</v>
-      </c>
-      <c r="E342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1">
-        <v>41</v>
-      </c>
-      <c r="C343">
-        <v>0</v>
-      </c>
-      <c r="D343">
-        <v>0</v>
-      </c>
-      <c r="E343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1">
-        <v>42</v>
-      </c>
-      <c r="C344">
-        <v>0</v>
-      </c>
-      <c r="D344">
-        <v>0</v>
-      </c>
-      <c r="E344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="1"/>
-      <c r="B345" s="1">
-        <v>43</v>
-      </c>
-      <c r="C345">
-        <v>0</v>
-      </c>
-      <c r="D345">
-        <v>0</v>
-      </c>
-      <c r="E345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="1"/>
-      <c r="B346" s="1">
-        <v>44</v>
-      </c>
-      <c r="C346">
-        <v>0</v>
-      </c>
-      <c r="D346">
-        <v>0</v>
-      </c>
-      <c r="E346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="A347" s="1"/>
-      <c r="B347" s="1">
-        <v>45</v>
-      </c>
-      <c r="C347">
-        <v>0</v>
-      </c>
-      <c r="D347">
-        <v>0</v>
-      </c>
-      <c r="E347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="A348" s="1"/>
-      <c r="B348" s="1">
-        <v>46</v>
-      </c>
-      <c r="C348">
-        <v>0</v>
-      </c>
-      <c r="D348">
-        <v>0</v>
-      </c>
-      <c r="E348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1">
-        <v>47</v>
-      </c>
-      <c r="C349">
-        <v>0</v>
-      </c>
-      <c r="D349">
-        <v>0</v>
-      </c>
-      <c r="E349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1">
-        <v>48</v>
-      </c>
-      <c r="C350">
-        <v>0</v>
-      </c>
-      <c r="D350">
-        <v>0</v>
-      </c>
-      <c r="E350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1">
-        <v>49</v>
-      </c>
-      <c r="C351">
-        <v>0</v>
-      </c>
-      <c r="D351">
-        <v>0</v>
-      </c>
-      <c r="E351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1">
-        <v>50</v>
-      </c>
-      <c r="C352">
-        <v>0</v>
-      </c>
-      <c r="D352">
-        <v>0</v>
-      </c>
-      <c r="E352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="A353" s="1"/>
-      <c r="B353" s="1">
-        <v>51</v>
-      </c>
-      <c r="C353">
-        <v>0</v>
-      </c>
-      <c r="D353">
-        <v>0</v>
-      </c>
-      <c r="E353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1">
-        <v>52</v>
-      </c>
-      <c r="C354">
-        <v>0</v>
-      </c>
-      <c r="D354">
-        <v>0</v>
-      </c>
-      <c r="E354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1">
-        <v>53</v>
-      </c>
-      <c r="C355">
-        <v>0</v>
-      </c>
-      <c r="D355">
-        <v>0</v>
-      </c>
-      <c r="E355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="1"/>
-      <c r="B356" s="1">
-        <v>54</v>
-      </c>
-      <c r="C356">
-        <v>0</v>
-      </c>
-      <c r="D356">
-        <v>0</v>
-      </c>
-      <c r="E356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="A357" s="1"/>
-      <c r="B357" s="1">
-        <v>55</v>
-      </c>
-      <c r="C357">
-        <v>0</v>
-      </c>
-      <c r="D357">
-        <v>0</v>
-      </c>
-      <c r="E357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="A358" s="1"/>
-      <c r="B358" s="1">
-        <v>56</v>
-      </c>
-      <c r="C358">
-        <v>0</v>
-      </c>
-      <c r="D358">
-        <v>0</v>
-      </c>
-      <c r="E358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1">
-        <v>57</v>
-      </c>
-      <c r="C359">
-        <v>0</v>
-      </c>
-      <c r="D359">
-        <v>0</v>
-      </c>
-      <c r="E359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1">
-        <v>58</v>
-      </c>
-      <c r="C360">
-        <v>0</v>
-      </c>
-      <c r="D360">
-        <v>0</v>
-      </c>
-      <c r="E360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1">
-        <v>59</v>
-      </c>
-      <c r="C361">
-        <v>0</v>
-      </c>
-      <c r="D361">
-        <v>0</v>
-      </c>
-      <c r="E361">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A2:A61"/>
     <mergeCell ref="A62:A121"/>
     <mergeCell ref="A122:A181"/>
     <mergeCell ref="A182:A241"/>
-    <mergeCell ref="A242:A301"/>
-    <mergeCell ref="A302:A361"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tranchedata.xlsx
+++ b/tranchedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Interest Payment</t>
   </si>
@@ -41,6 +41,21 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>PREF</t>
   </si>
 </sst>
 </file>
@@ -398,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,2336 +441,2344 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C2">
-        <v>3211689.229166667</v>
+        <v>1973728</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5014876</v>
       </c>
       <c r="E2">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>3318745.536805556</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>3211689.229166667</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>3318745.536805556</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>3318745.536805556</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>2997576.613888889</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>3318745.536805556</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>3211689.229166667</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>3318745.536805556</v>
+        <v>1782574.062453334</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>3211689.229166667</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C12">
-        <v>3318745.536805556</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>3318745.536805556</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C14">
-        <v>3211689.229166667</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C15">
-        <v>3318745.536805556</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>3211689.229166667</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C17">
-        <v>3318745.536805556</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C18">
-        <v>3318745.536805556</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C19">
-        <v>2997576.613888889</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>509455000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C20">
-        <v>3318745.536805556</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D20">
-        <v>61562516.30000001</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>447892483.7</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C21">
-        <v>2823588.865992083</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>447892483.7</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C22">
-        <v>2917708.494858486</v>
+        <v>1782574.062453334</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>447892483.7</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C23">
-        <v>2823588.865992083</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>447892483.7</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C24">
-        <v>2917708.494858486</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>447892483.7</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C25">
-        <v>2917708.494858486</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D25">
-        <v>50050000</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>397842483.7</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B26" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C26">
-        <v>2508065.324325417</v>
+        <v>801703</v>
       </c>
       <c r="D26">
-        <v>103000000</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>294842483.7</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C27">
-        <v>1920694.029580708</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D27">
-        <v>26398244.93000001</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>268444238.77</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C28">
-        <v>1692317.221912541</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>268444238.77</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C29">
-        <v>1748727.795976293</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D29">
-        <v>35477287.88999999</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>232966950.88</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C30">
-        <v>1517617.902378422</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>232966950.88</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C31">
-        <v>1370751.653761155</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D31">
-        <v>61611272.40000001</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>171355678.48</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C32">
-        <v>1116263.248298255</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D32">
-        <v>20639452.19</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>150716226.29</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C33">
-        <v>950140.2099032083</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D33">
-        <v>21262500</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>129453726.29</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C34">
-        <v>843301.1283583151</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>129453726.29</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C35">
-        <v>816097.8661532083</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D35">
-        <v>110000000</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>19453726.28999999</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C36">
-        <v>126727.5172472041</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D36">
-        <v>19453726.28999999</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B50" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>384976</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>377300</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>377300</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>377300</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C62">
-        <v>687568.8749999999</v>
+        <v>377300</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C63">
-        <v>710487.8374999999</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C64">
-        <v>687568.8749999999</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>710487.8374999999</v>
+        <v>377300</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C66">
-        <v>710487.8374999999</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C67">
-        <v>641730.95</v>
+        <v>377300</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C68">
-        <v>710487.8374999999</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>687568.8749999999</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C70">
-        <v>710487.8374999999</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C71">
-        <v>687568.8749999999</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C72">
-        <v>710487.8374999999</v>
+        <v>377300</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C73">
-        <v>710487.8374999999</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>100314000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B74" s="1">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C74">
-        <v>687568.8749999999</v>
+        <v>489215</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C75">
-        <v>710487.8374999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C76">
-        <v>687568.8749999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C77">
-        <v>710487.8374999999</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C78">
-        <v>710487.8374999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C79">
-        <v>641730.95</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C80">
-        <v>710487.8374999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C81">
-        <v>687568.8749999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C82">
-        <v>710487.8374999999</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C83">
-        <v>687568.8749999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C84">
-        <v>710487.8374999999</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C85">
-        <v>710487.8374999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1"/>
       <c r="B86" s="1">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C86">
-        <v>687568.8749999999</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C87">
-        <v>710487.8374999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1"/>
       <c r="B88" s="1">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C88">
-        <v>687568.8749999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C89">
-        <v>710487.8374999999</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1"/>
       <c r="B90" s="1">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C90">
-        <v>710487.8374999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1"/>
       <c r="B91" s="1">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C91">
-        <v>641730.95</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1"/>
       <c r="B92" s="1">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C92">
-        <v>710487.8374999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C93">
-        <v>687568.8749999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1"/>
       <c r="B94" s="1">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C94">
-        <v>710487.8374999999</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C95">
-        <v>687568.8749999999</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>100314000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1"/>
       <c r="B96" s="1">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C96">
-        <v>710487.8374999999</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D96">
-        <v>100314000</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>87767726.28999999</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1"/>
       <c r="B97" s="1">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B98" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>383059</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1"/>
       <c r="B99" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1"/>
       <c r="B100" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1"/>
       <c r="B102" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1"/>
       <c r="B103" s="1">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1"/>
       <c r="B104" s="1">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1"/>
       <c r="B105" s="1">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1"/>
       <c r="B106" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1"/>
       <c r="B107" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1"/>
       <c r="B108" s="1">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1"/>
       <c r="B109" s="1">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1"/>
       <c r="B110" s="1">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1"/>
       <c r="B111" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1"/>
       <c r="B112" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1"/>
       <c r="B113" s="1">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1"/>
       <c r="B114" s="1">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1"/>
       <c r="B115" s="1">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1"/>
       <c r="B116" s="1">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1"/>
       <c r="B117" s="1">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1"/>
       <c r="B118" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1"/>
       <c r="B119" s="1">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1"/>
       <c r="B120" s="1">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1"/>
       <c r="B121" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C122">
-        <v>405051.5625</v>
+        <v>83905</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1"/>
       <c r="B123" s="1">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C123">
-        <v>418553.28125</v>
+        <v>84823.75</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1"/>
       <c r="B124" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C124">
-        <v>405051.5625</v>
+        <v>84823.75</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1"/>
       <c r="B125" s="1">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C125">
-        <v>418553.28125</v>
+        <v>82087.5</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1"/>
       <c r="B126" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C126">
-        <v>418553.28125</v>
+        <v>84823.75</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1"/>
       <c r="B127" s="1">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C127">
-        <v>378048.125</v>
+        <v>82087.5</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1"/>
       <c r="B128" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C128">
-        <v>418553.28125</v>
+        <v>84823.75</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1"/>
       <c r="B129" s="1">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C129">
-        <v>405051.5625</v>
+        <v>84823.75</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1"/>
       <c r="B130" s="1">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C130">
-        <v>418553.28125</v>
+        <v>76615</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1"/>
       <c r="B131" s="1">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C131">
-        <v>405051.5625</v>
+        <v>84823.75</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1"/>
       <c r="B132" s="1">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C132">
-        <v>418553.28125</v>
+        <v>82087.5</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1"/>
       <c r="B133" s="1">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C133">
-        <v>418553.28125</v>
+        <v>84823.75</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1"/>
       <c r="B134" s="1">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C134">
-        <v>405051.5625</v>
+        <v>82087.5</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1"/>
       <c r="B135" s="1">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C135">
-        <v>418553.28125</v>
+        <v>84823.75</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1"/>
       <c r="B136" s="1">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C136">
-        <v>405051.5625</v>
+        <v>84823.75</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1"/>
       <c r="B137" s="1">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C137">
-        <v>418553.28125</v>
+        <v>82087.5</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1"/>
       <c r="B138" s="1">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C138">
-        <v>418553.28125</v>
+        <v>84823.75</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1"/>
       <c r="B139" s="1">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C139">
-        <v>378048.125</v>
+        <v>82087.5</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1"/>
       <c r="B140" s="1">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C140">
-        <v>418553.28125</v>
+        <v>84823.75</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1"/>
       <c r="B141" s="1">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C141">
-        <v>405051.5625</v>
+        <v>84823.75</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1"/>
       <c r="B142" s="1">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C142">
-        <v>418553.28125</v>
+        <v>76615</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1"/>
       <c r="B143" s="1">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C143">
-        <v>405051.5625</v>
+        <v>84823.75</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1"/>
       <c r="B144" s="1">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C144">
-        <v>418553.28125</v>
+        <v>82087.5</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1"/>
       <c r="B145" s="1">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C145">
-        <v>418553.28125</v>
+        <v>84823.75</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>56355000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B146" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C146">
-        <v>405051.5625</v>
+        <v>430544</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>56355000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1"/>
       <c r="B147" s="1">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C147">
-        <v>418553.28125</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>56355000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1"/>
       <c r="B148" s="1">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C148">
-        <v>405051.5625</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>56355000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1"/>
       <c r="B149" s="1">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C149">
-        <v>418553.28125</v>
+        <v>0</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>56355000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1"/>
       <c r="B150" s="1">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C150">
-        <v>418553.28125</v>
+        <v>0</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>56355000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1"/>
       <c r="B151" s="1">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C151">
-        <v>378048.125</v>
+        <v>0</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>56355000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1"/>
       <c r="B152" s="1">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C152">
-        <v>418553.28125</v>
+        <v>0</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>56355000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1"/>
       <c r="B153" s="1">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C153">
-        <v>405051.5625</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>56355000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1"/>
       <c r="B154" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C154">
-        <v>418553.28125</v>
+        <v>0</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>56355000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1"/>
       <c r="B155" s="1">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C155">
-        <v>405051.5625</v>
+        <v>0</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>56355000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1"/>
       <c r="B156" s="1">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C156">
-        <v>418553.28125</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>56355000</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>56355000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1"/>
       <c r="B157" s="1">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2764,13 +2787,13 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1"/>
       <c r="B158" s="1">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2779,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1"/>
       <c r="B159" s="1">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2794,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1"/>
       <c r="B160" s="1">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2809,13 +2832,13 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1"/>
       <c r="B161" s="1">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2824,13 +2847,13 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1"/>
       <c r="B162" s="1">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2839,13 +2862,13 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1"/>
       <c r="B163" s="1">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -2854,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1"/>
       <c r="B164" s="1">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2869,13 +2892,13 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1"/>
       <c r="B165" s="1">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2884,13 +2907,13 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1"/>
       <c r="B166" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -2899,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1"/>
       <c r="B167" s="1">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2914,13 +2937,13 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1"/>
       <c r="B168" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -2929,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1"/>
       <c r="B169" s="1">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -2944,28 +2967,30 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B170" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>321784</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1"/>
       <c r="B171" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -2974,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1"/>
       <c r="B172" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -2989,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1"/>
       <c r="B173" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3004,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1"/>
       <c r="B174" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3019,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1"/>
       <c r="B175" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3034,13 +3059,13 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1"/>
       <c r="B176" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3049,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1"/>
       <c r="B177" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3064,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1"/>
       <c r="B178" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3079,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1"/>
       <c r="B179" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3094,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1"/>
       <c r="B180" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3109,13 +3134,13 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1"/>
       <c r="B181" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3124,540 +3149,540 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A182" s="1"/>
       <c r="B182" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C182">
-        <v>420417.625</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1"/>
       <c r="B183" s="1">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C183">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1"/>
       <c r="B184" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C184">
-        <v>420417.625</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1"/>
       <c r="B185" s="1">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C185">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1"/>
       <c r="B186" s="1">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C186">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1"/>
       <c r="B187" s="1">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C187">
-        <v>392389.7833333333</v>
+        <v>0</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1"/>
       <c r="B188" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C188">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1"/>
       <c r="B189" s="1">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C189">
-        <v>420417.625</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1"/>
       <c r="B190" s="1">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C190">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1"/>
       <c r="B191" s="1">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C191">
-        <v>420417.625</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1"/>
       <c r="B192" s="1">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C192">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1"/>
       <c r="B193" s="1">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C193">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>54102000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B194" s="1">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C194">
-        <v>420417.625</v>
+        <v>1310238</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1"/>
       <c r="B195" s="1">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C195">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1"/>
       <c r="B196" s="1">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C196">
-        <v>420417.625</v>
+        <v>0</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1"/>
       <c r="B197" s="1">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C197">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1"/>
       <c r="B198" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C198">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1"/>
       <c r="B199" s="1">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C199">
-        <v>392389.7833333333</v>
+        <v>0</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1"/>
       <c r="B200" s="1">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C200">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1"/>
       <c r="B201" s="1">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C201">
-        <v>420417.625</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1"/>
       <c r="B202" s="1">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C202">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1"/>
       <c r="B203" s="1">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C203">
-        <v>420417.625</v>
+        <v>0</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1"/>
       <c r="B204" s="1">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C204">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1"/>
       <c r="B205" s="1">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C205">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1"/>
       <c r="B206" s="1">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C206">
-        <v>420417.625</v>
+        <v>0</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1"/>
       <c r="B207" s="1">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C207">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1"/>
       <c r="B208" s="1">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C208">
-        <v>420417.625</v>
+        <v>0</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1"/>
       <c r="B209" s="1">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C209">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1"/>
       <c r="B210" s="1">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C210">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1"/>
       <c r="B211" s="1">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C211">
-        <v>392389.7833333333</v>
+        <v>0</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1"/>
       <c r="B212" s="1">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C212">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1"/>
       <c r="B213" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C213">
-        <v>420417.625</v>
+        <v>0</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1"/>
       <c r="B214" s="1">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C214">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1"/>
       <c r="B215" s="1">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C215">
-        <v>420417.625</v>
+        <v>0</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1"/>
       <c r="B216" s="1">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C216">
-        <v>434431.5458333333</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>54102000</v>
+        <v>0</v>
       </c>
       <c r="E216">
-        <v>54102000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1"/>
       <c r="B217" s="1">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3666,375 +3691,20 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1">
-        <v>36</v>
-      </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-      <c r="E218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1">
-        <v>37</v>
-      </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-      <c r="D219">
-        <v>0</v>
-      </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1">
-        <v>38</v>
-      </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1">
-        <v>39</v>
-      </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1">
-        <v>40</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222">
-        <v>0</v>
-      </c>
-      <c r="E222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1">
-        <v>41</v>
-      </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-      <c r="D223">
-        <v>0</v>
-      </c>
-      <c r="E223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1">
-        <v>42</v>
-      </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-      <c r="D224">
-        <v>0</v>
-      </c>
-      <c r="E224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1">
-        <v>43</v>
-      </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-      <c r="D225">
-        <v>0</v>
-      </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1">
-        <v>44</v>
-      </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226">
-        <v>0</v>
-      </c>
-      <c r="E226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1">
-        <v>45</v>
-      </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-      <c r="D227">
-        <v>0</v>
-      </c>
-      <c r="E227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1">
-        <v>46</v>
-      </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-      <c r="D228">
-        <v>0</v>
-      </c>
-      <c r="E228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1">
-        <v>47</v>
-      </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-      <c r="D229">
-        <v>0</v>
-      </c>
-      <c r="E229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1">
-        <v>48</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230">
-        <v>0</v>
-      </c>
-      <c r="E230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1">
-        <v>49</v>
-      </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1">
-        <v>50</v>
-      </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-      <c r="E232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1">
-        <v>51</v>
-      </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-      <c r="D233">
-        <v>0</v>
-      </c>
-      <c r="E233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1">
-        <v>52</v>
-      </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
-      <c r="E234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1">
-        <v>53</v>
-      </c>
-      <c r="C235">
-        <v>0</v>
-      </c>
-      <c r="D235">
-        <v>0</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1">
-        <v>54</v>
-      </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1">
-        <v>55</v>
-      </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-      <c r="D237">
-        <v>0</v>
-      </c>
-      <c r="E237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1">
-        <v>56</v>
-      </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-      <c r="D238">
-        <v>0</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1">
-        <v>57</v>
-      </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
-      <c r="D239">
-        <v>0</v>
-      </c>
-      <c r="E239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1">
-        <v>58</v>
-      </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-      <c r="E240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1">
-        <v>59</v>
-      </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-      <c r="D241">
-        <v>0</v>
-      </c>
-      <c r="E241">
-        <v>0</v>
+        <v>77000000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A61"/>
-    <mergeCell ref="A62:A121"/>
-    <mergeCell ref="A122:A181"/>
-    <mergeCell ref="A182:A241"/>
+  <mergeCells count="9">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="A50:A73"/>
+    <mergeCell ref="A74:A97"/>
+    <mergeCell ref="A98:A121"/>
+    <mergeCell ref="A122:A145"/>
+    <mergeCell ref="A146:A169"/>
+    <mergeCell ref="A170:A193"/>
+    <mergeCell ref="A194:A217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tranchedata.xlsx
+++ b/tranchedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="15">
   <si>
     <t>Interest Payment</t>
   </si>
@@ -55,7 +55,10 @@
     <t>G</t>
   </si>
   <si>
-    <t>PREF</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,2912 +802,8183 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C26">
-        <v>801703</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C27">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C28">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C29">
-        <v>786018.7499999999</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C30">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C31">
-        <v>786018.7499999999</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C32">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C33">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C34">
-        <v>733617.4999999999</v>
+        <v>1782574.062453334</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C35">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C36">
-        <v>786018.7499999999</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C37">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C38">
-        <v>786018.7499999999</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C39">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C40">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C41">
-        <v>786018.7499999999</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C42">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C43">
-        <v>786018.7499999999</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C44">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C45">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C46">
-        <v>733617.4999999999</v>
+        <v>1782574.062453334</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C47">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C48">
-        <v>786018.7499999999</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C49">
-        <v>812219.3749999999</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>141625000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C50">
-        <v>384976</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>66000000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C51">
-        <v>389876.6666666667</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>66000000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C52">
-        <v>389876.6666666667</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>66000000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C53">
-        <v>377300</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>66000000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C54">
-        <v>389876.6666666667</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>66000000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C55">
-        <v>377300</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>66000000</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B56" s="1">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C56">
-        <v>389876.6666666667</v>
+        <v>801703</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C57">
-        <v>389876.6666666667</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C58">
-        <v>352146.6666666667</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C59">
-        <v>389876.6666666667</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C60">
-        <v>377300</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C61">
-        <v>389876.6666666667</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C62">
-        <v>377300</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C63">
-        <v>389876.6666666667</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C64">
-        <v>389876.6666666667</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C65">
-        <v>377300</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C66">
-        <v>389876.6666666667</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C67">
-        <v>377300</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C68">
-        <v>389876.6666666667</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C69">
-        <v>389876.6666666667</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C70">
-        <v>352146.6666666667</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C71">
-        <v>389876.6666666667</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C72">
-        <v>377300</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C73">
-        <v>389876.6666666667</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>66000000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="B74" s="1">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C74">
-        <v>489215</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C75">
-        <v>495136.7361111111</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C76">
-        <v>495136.7361111111</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C77">
-        <v>479164.5833333333</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C78">
-        <v>495136.7361111111</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C79">
-        <v>479164.5833333333</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C80">
-        <v>495136.7361111111</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C81">
-        <v>495136.7361111111</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C82">
-        <v>447220.2777777778</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C83">
-        <v>495136.7361111111</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C84">
-        <v>479164.5833333333</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C85">
-        <v>495136.7361111111</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1"/>
       <c r="B86" s="1">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C86">
-        <v>479164.5833333333</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C87">
-        <v>495136.7361111111</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1"/>
       <c r="B88" s="1">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C88">
-        <v>495136.7361111111</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C89">
-        <v>479164.5833333333</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1"/>
       <c r="B90" s="1">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C90">
-        <v>495136.7361111111</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1"/>
       <c r="B91" s="1">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C91">
-        <v>479164.5833333333</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1"/>
       <c r="B92" s="1">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C92">
-        <v>495136.7361111111</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C93">
-        <v>495136.7361111111</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1"/>
       <c r="B94" s="1">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C94">
-        <v>447220.2777777778</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C95">
-        <v>495136.7361111111</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1"/>
       <c r="B96" s="1">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C96">
-        <v>479164.5833333333</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1"/>
       <c r="B97" s="1">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C97">
-        <v>495136.7361111111</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>79750000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A98" s="1"/>
       <c r="B98" s="1">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C98">
-        <v>383059</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1"/>
       <c r="B99" s="1">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C99">
-        <v>387449.4097222222</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1"/>
       <c r="B100" s="1">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C100">
-        <v>387449.4097222222</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C101">
-        <v>374951.0416666667</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1"/>
       <c r="B102" s="1">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C102">
-        <v>387449.4097222222</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1"/>
       <c r="B103" s="1">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C103">
-        <v>374951.0416666667</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1"/>
       <c r="B104" s="1">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C104">
-        <v>387449.4097222222</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1"/>
       <c r="B105" s="1">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C105">
-        <v>387449.4097222222</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1"/>
       <c r="B106" s="1">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C106">
-        <v>349954.3055555556</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1"/>
       <c r="B107" s="1">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C107">
-        <v>387449.4097222222</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1"/>
       <c r="B108" s="1">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C108">
-        <v>374951.0416666667</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1"/>
       <c r="B109" s="1">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C109">
-        <v>387449.4097222222</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>59125000</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B110" s="1">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C110">
-        <v>374951.0416666667</v>
+        <v>384976</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1"/>
       <c r="B111" s="1">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C111">
-        <v>387449.4097222222</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1"/>
       <c r="B112" s="1">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C112">
-        <v>387449.4097222222</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1"/>
       <c r="B113" s="1">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C113">
-        <v>374951.0416666667</v>
+        <v>377300</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1"/>
       <c r="B114" s="1">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C114">
-        <v>387449.4097222222</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1"/>
       <c r="B115" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C115">
-        <v>374951.0416666667</v>
+        <v>377300</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1"/>
       <c r="B116" s="1">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C116">
-        <v>387449.4097222222</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1"/>
       <c r="B117" s="1">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C117">
-        <v>387449.4097222222</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1"/>
       <c r="B118" s="1">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C118">
-        <v>349954.3055555556</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1"/>
       <c r="B119" s="1">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C119">
-        <v>387449.4097222222</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1"/>
       <c r="B120" s="1">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C120">
-        <v>374951.0416666667</v>
+        <v>377300</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1"/>
       <c r="B121" s="1">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C121">
-        <v>387449.4097222222</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>59125000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A122" s="1"/>
       <c r="B122" s="1">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C122">
-        <v>83905</v>
+        <v>377300</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1"/>
       <c r="B123" s="1">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C123">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1"/>
       <c r="B124" s="1">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C124">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1"/>
       <c r="B125" s="1">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C125">
-        <v>82087.5</v>
+        <v>377300</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1"/>
       <c r="B126" s="1">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C126">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1"/>
       <c r="B127" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C127">
-        <v>82087.5</v>
+        <v>377300</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1"/>
       <c r="B128" s="1">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C128">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1"/>
       <c r="B129" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C129">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1"/>
       <c r="B130" s="1">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C130">
-        <v>76615</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1"/>
       <c r="B131" s="1">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C131">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1"/>
       <c r="B132" s="1">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C132">
-        <v>82087.5</v>
+        <v>377300</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1"/>
       <c r="B133" s="1">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C133">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1"/>
       <c r="B134" s="1">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C134">
-        <v>82087.5</v>
+        <v>377300</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1"/>
       <c r="B135" s="1">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C135">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1"/>
       <c r="B136" s="1">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C136">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1"/>
       <c r="B137" s="1">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C137">
-        <v>82087.5</v>
+        <v>377300</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1"/>
       <c r="B138" s="1">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C138">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1"/>
       <c r="B139" s="1">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C139">
-        <v>82087.5</v>
+        <v>377300</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1"/>
       <c r="B140" s="1">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C140">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1"/>
       <c r="B141" s="1">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C141">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1"/>
       <c r="B142" s="1">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C142">
-        <v>76615</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1"/>
       <c r="B143" s="1">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C143">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1"/>
       <c r="B144" s="1">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C144">
-        <v>82087.5</v>
+        <v>377300</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1"/>
       <c r="B145" s="1">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C145">
-        <v>84823.75</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>12375000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A146" s="1"/>
       <c r="B146" s="1">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C146">
-        <v>430544</v>
+        <v>377300</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1"/>
       <c r="B147" s="1">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1"/>
       <c r="B148" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1"/>
       <c r="B149" s="1">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>377300</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1"/>
       <c r="B150" s="1">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1"/>
       <c r="B151" s="1">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>377300</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1"/>
       <c r="B152" s="1">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1"/>
       <c r="B153" s="1">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1"/>
       <c r="B154" s="1">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1"/>
       <c r="B155" s="1">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1"/>
       <c r="B156" s="1">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>377300</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1"/>
       <c r="B157" s="1">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1"/>
       <c r="B158" s="1">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>377300</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1"/>
       <c r="B159" s="1">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1"/>
       <c r="B160" s="1">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1"/>
       <c r="B161" s="1">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>377300</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1"/>
       <c r="B162" s="1">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1"/>
       <c r="B163" s="1">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>377300</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
-        <v>53625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B164" s="1">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>489215</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>53625000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1"/>
       <c r="B165" s="1">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>53625000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1"/>
       <c r="B166" s="1">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166">
-        <v>53625000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1"/>
       <c r="B167" s="1">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>53625000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1"/>
       <c r="B168" s="1">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168">
-        <v>53625000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1"/>
       <c r="B169" s="1">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>53625000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A170" s="1"/>
       <c r="B170" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C170">
-        <v>321784</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1"/>
       <c r="B171" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1"/>
       <c r="B172" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1"/>
       <c r="B173" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1"/>
       <c r="B174" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1"/>
       <c r="B175" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1"/>
       <c r="B176" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1"/>
       <c r="B177" s="1">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1"/>
       <c r="B178" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1"/>
       <c r="B179" s="1">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1"/>
       <c r="B180" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1"/>
       <c r="B181" s="1">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1"/>
       <c r="B182" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1"/>
       <c r="B183" s="1">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1"/>
       <c r="B184" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1"/>
       <c r="B185" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1"/>
       <c r="B186" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1"/>
       <c r="B187" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1"/>
       <c r="B188" s="1">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1"/>
       <c r="B189" s="1">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1"/>
       <c r="B190" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1"/>
       <c r="B191" s="1">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1"/>
       <c r="B192" s="1">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1"/>
       <c r="B193" s="1">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>33000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A194" s="1"/>
       <c r="B194" s="1">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C194">
-        <v>1310238</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1"/>
       <c r="B195" s="1">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1"/>
       <c r="B196" s="1">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1"/>
       <c r="B197" s="1">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1"/>
       <c r="B198" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1"/>
       <c r="B199" s="1">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1"/>
       <c r="B200" s="1">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1"/>
       <c r="B201" s="1">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1"/>
       <c r="B202" s="1">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1"/>
       <c r="B203" s="1">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1"/>
       <c r="B204" s="1">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1"/>
       <c r="B205" s="1">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1"/>
       <c r="B206" s="1">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1"/>
       <c r="B207" s="1">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1"/>
       <c r="B208" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1"/>
       <c r="B209" s="1">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1"/>
       <c r="B210" s="1">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1"/>
       <c r="B211" s="1">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1"/>
       <c r="B212" s="1">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1"/>
       <c r="B213" s="1">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1"/>
       <c r="B214" s="1">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1"/>
       <c r="B215" s="1">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1"/>
       <c r="B216" s="1">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>77000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1"/>
       <c r="B217" s="1">
+        <v>99</v>
+      </c>
+      <c r="C217">
+        <v>479164.5833333333</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>79750000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="1">
+        <v>46</v>
+      </c>
+      <c r="C218">
+        <v>383059</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1">
+        <v>47</v>
+      </c>
+      <c r="C219">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1">
+        <v>48</v>
+      </c>
+      <c r="C220">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1">
+        <v>49</v>
+      </c>
+      <c r="C221">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1">
+        <v>50</v>
+      </c>
+      <c r="C222">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1">
+        <v>51</v>
+      </c>
+      <c r="C223">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1">
+        <v>52</v>
+      </c>
+      <c r="C224">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1">
+        <v>53</v>
+      </c>
+      <c r="C225">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1">
+        <v>54</v>
+      </c>
+      <c r="C226">
+        <v>349954.3055555556</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1">
+        <v>55</v>
+      </c>
+      <c r="C227">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1">
+        <v>56</v>
+      </c>
+      <c r="C228">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1">
+        <v>57</v>
+      </c>
+      <c r="C229">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1">
+        <v>58</v>
+      </c>
+      <c r="C230">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1">
+        <v>59</v>
+      </c>
+      <c r="C231">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1">
+        <v>60</v>
+      </c>
+      <c r="C232">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1">
+        <v>61</v>
+      </c>
+      <c r="C233">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1">
+        <v>62</v>
+      </c>
+      <c r="C234">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1">
+        <v>63</v>
+      </c>
+      <c r="C235">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1">
+        <v>64</v>
+      </c>
+      <c r="C236">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1">
+        <v>65</v>
+      </c>
+      <c r="C237">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1">
+        <v>66</v>
+      </c>
+      <c r="C238">
+        <v>349954.3055555556</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1">
+        <v>67</v>
+      </c>
+      <c r="C239">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1">
+        <v>68</v>
+      </c>
+      <c r="C240">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1">
         <v>69</v>
       </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-      <c r="D217">
-        <v>0</v>
-      </c>
-      <c r="E217">
-        <v>77000000</v>
+      <c r="C241">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1">
+        <v>70</v>
+      </c>
+      <c r="C242">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1">
+        <v>71</v>
+      </c>
+      <c r="C243">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1">
+        <v>72</v>
+      </c>
+      <c r="C244">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1">
+        <v>73</v>
+      </c>
+      <c r="C245">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1">
+        <v>74</v>
+      </c>
+      <c r="C246">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1">
+        <v>75</v>
+      </c>
+      <c r="C247">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1">
+        <v>76</v>
+      </c>
+      <c r="C248">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1">
+        <v>77</v>
+      </c>
+      <c r="C249">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1">
+        <v>78</v>
+      </c>
+      <c r="C250">
+        <v>349954.3055555556</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1">
+        <v>79</v>
+      </c>
+      <c r="C251">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1">
+        <v>80</v>
+      </c>
+      <c r="C252">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1">
+        <v>81</v>
+      </c>
+      <c r="C253">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1">
+        <v>82</v>
+      </c>
+      <c r="C254">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1">
+        <v>83</v>
+      </c>
+      <c r="C255">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1">
+        <v>84</v>
+      </c>
+      <c r="C256">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1">
+        <v>85</v>
+      </c>
+      <c r="C257">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1">
+        <v>86</v>
+      </c>
+      <c r="C258">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1">
+        <v>87</v>
+      </c>
+      <c r="C259">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1">
+        <v>88</v>
+      </c>
+      <c r="C260">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1">
+        <v>89</v>
+      </c>
+      <c r="C261">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1">
+        <v>90</v>
+      </c>
+      <c r="C262">
+        <v>349954.3055555556</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1">
+        <v>91</v>
+      </c>
+      <c r="C263">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1">
+        <v>92</v>
+      </c>
+      <c r="C264">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1">
+        <v>93</v>
+      </c>
+      <c r="C265">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1">
+        <v>94</v>
+      </c>
+      <c r="C266">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1">
+        <v>95</v>
+      </c>
+      <c r="C267">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1">
+        <v>96</v>
+      </c>
+      <c r="C268">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1">
+        <v>97</v>
+      </c>
+      <c r="C269">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1">
+        <v>98</v>
+      </c>
+      <c r="C270">
+        <v>387449.4097222222</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1">
+        <v>99</v>
+      </c>
+      <c r="C271">
+        <v>374951.0416666667</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>59125000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" s="1">
+        <v>46</v>
+      </c>
+      <c r="C272">
+        <v>83905</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1">
+        <v>47</v>
+      </c>
+      <c r="C273">
+        <v>84823.75</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1">
+        <v>48</v>
+      </c>
+      <c r="C274">
+        <v>84823.75</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1">
+        <v>49</v>
+      </c>
+      <c r="C275">
+        <v>82087.5</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1">
+        <v>50</v>
+      </c>
+      <c r="C276">
+        <v>84823.75</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1">
+        <v>51</v>
+      </c>
+      <c r="C277">
+        <v>82087.5</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1">
+        <v>52</v>
+      </c>
+      <c r="C278">
+        <v>84823.75</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1">
+        <v>53</v>
+      </c>
+      <c r="C279">
+        <v>84823.75</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1">
+        <v>54</v>
+      </c>
+      <c r="C280">
+        <v>76615</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1">
+        <v>55</v>
+      </c>
+      <c r="C281">
+        <v>84823.75</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1">
+        <v>56</v>
+      </c>
+      <c r="C282">
+        <v>82087.5</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1">
+        <v>57</v>
+      </c>
+      <c r="C283">
+        <v>84823.75</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1">
+        <v>58</v>
+      </c>
+      <c r="C284">
+        <v>82087.5</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1">
+        <v>59</v>
+      </c>
+      <c r="C285">
+        <v>84823.75</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1">
+        <v>60</v>
+      </c>
+      <c r="C286">
+        <v>84823.75</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1">
+        <v>61</v>
+      </c>
+      <c r="C287">
+        <v>82087.5</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1">
+        <v>62</v>
+      </c>
+      <c r="C288">
+        <v>84823.75</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1">
+        <v>63</v>
+      </c>
+      <c r="C289">
+        <v>82087.5</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1">
+        <v>64</v>
+      </c>
+      <c r="C290">
+        <v>84823.75</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1">
+        <v>65</v>
+      </c>
+      <c r="C291">
+        <v>84823.75</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1">
+        <v>66</v>
+      </c>
+      <c r="C292">
+        <v>76615</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1">
+        <v>67</v>
+      </c>
+      <c r="C293">
+        <v>84823.75</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1">
+        <v>68</v>
+      </c>
+      <c r="C294">
+        <v>82087.5</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1">
+        <v>69</v>
+      </c>
+      <c r="C295">
+        <v>84823.75</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1">
+        <v>70</v>
+      </c>
+      <c r="C296">
+        <v>82087.5</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1">
+        <v>71</v>
+      </c>
+      <c r="C297">
+        <v>84823.75</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1">
+        <v>72</v>
+      </c>
+      <c r="C298">
+        <v>84823.75</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1">
+        <v>73</v>
+      </c>
+      <c r="C299">
+        <v>82087.5</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1">
+        <v>74</v>
+      </c>
+      <c r="C300">
+        <v>84823.75</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1">
+        <v>75</v>
+      </c>
+      <c r="C301">
+        <v>82087.5</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1">
+        <v>76</v>
+      </c>
+      <c r="C302">
+        <v>84823.75</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1">
+        <v>77</v>
+      </c>
+      <c r="C303">
+        <v>84823.75</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1">
+        <v>78</v>
+      </c>
+      <c r="C304">
+        <v>76615</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1">
+        <v>79</v>
+      </c>
+      <c r="C305">
+        <v>84823.75</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1">
+        <v>80</v>
+      </c>
+      <c r="C306">
+        <v>82087.5</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1">
+        <v>81</v>
+      </c>
+      <c r="C307">
+        <v>84823.75</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1">
+        <v>82</v>
+      </c>
+      <c r="C308">
+        <v>82087.5</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1">
+        <v>83</v>
+      </c>
+      <c r="C309">
+        <v>84823.75</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1">
+        <v>84</v>
+      </c>
+      <c r="C310">
+        <v>84823.75</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1">
+        <v>85</v>
+      </c>
+      <c r="C311">
+        <v>82087.5</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1">
+        <v>86</v>
+      </c>
+      <c r="C312">
+        <v>84823.75</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1">
+        <v>87</v>
+      </c>
+      <c r="C313">
+        <v>82087.5</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1">
+        <v>88</v>
+      </c>
+      <c r="C314">
+        <v>84823.75</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1">
+        <v>89</v>
+      </c>
+      <c r="C315">
+        <v>84823.75</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1">
+        <v>90</v>
+      </c>
+      <c r="C316">
+        <v>76615</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1">
+        <v>91</v>
+      </c>
+      <c r="C317">
+        <v>84823.75</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1">
+        <v>92</v>
+      </c>
+      <c r="C318">
+        <v>82087.5</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1">
+        <v>93</v>
+      </c>
+      <c r="C319">
+        <v>84823.75</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1">
+        <v>94</v>
+      </c>
+      <c r="C320">
+        <v>82087.5</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1">
+        <v>95</v>
+      </c>
+      <c r="C321">
+        <v>84823.75</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1">
+        <v>96</v>
+      </c>
+      <c r="C322">
+        <v>84823.75</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1">
+        <v>97</v>
+      </c>
+      <c r="C323">
+        <v>82087.5</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1">
+        <v>98</v>
+      </c>
+      <c r="C324">
+        <v>84823.75</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1">
+        <v>99</v>
+      </c>
+      <c r="C325">
+        <v>82087.5</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B326" s="1">
+        <v>46</v>
+      </c>
+      <c r="C326">
+        <v>430544</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B327" s="1">
+        <v>46</v>
+      </c>
+      <c r="C327">
+        <v>321784</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B328" s="1">
+        <v>46</v>
+      </c>
+      <c r="C328">
+        <v>311666.6666666667</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B329" s="1">
+        <v>46</v>
+      </c>
+      <c r="C329">
+        <v>1100981.708612307</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B330" s="1">
+        <v>47</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B331" s="1">
+        <v>47</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B332" s="1">
+        <v>47</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B333" s="1">
+        <v>47</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B334" s="1">
+        <v>48</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" s="1">
+        <v>48</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B336" s="1">
+        <v>48</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B337" s="1">
+        <v>48</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B338" s="1">
+        <v>49</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B339" s="1">
+        <v>49</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B340" s="1">
+        <v>49</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B341" s="1">
+        <v>49</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B342" s="1">
+        <v>50</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B343" s="1">
+        <v>50</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B344" s="1">
+        <v>50</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B345" s="1">
+        <v>50</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B346" s="1">
+        <v>51</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B347" s="1">
+        <v>51</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B348" s="1">
+        <v>51</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B349" s="1">
+        <v>51</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B350" s="1">
+        <v>52</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B351" s="1">
+        <v>52</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B352" s="1">
+        <v>52</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B353" s="1">
+        <v>52</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354" s="1">
+        <v>53</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B355" s="1">
+        <v>53</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B356" s="1">
+        <v>53</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B357" s="1">
+        <v>53</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B358" s="1">
+        <v>54</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B359" s="1">
+        <v>54</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B360" s="1">
+        <v>54</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B361" s="1">
+        <v>54</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B362" s="1">
+        <v>55</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B363" s="1">
+        <v>55</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B364" s="1">
+        <v>55</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B365" s="1">
+        <v>55</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B366" s="1">
+        <v>56</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B367" s="1">
+        <v>56</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B368" s="1">
+        <v>56</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B369" s="1">
+        <v>56</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B370" s="1">
+        <v>57</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B371" s="1">
+        <v>57</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B372" s="1">
+        <v>57</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B373" s="1">
+        <v>57</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B374" s="1">
+        <v>58</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B375" s="1">
+        <v>58</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B376" s="1">
+        <v>58</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B377" s="1">
+        <v>58</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B378" s="1">
+        <v>59</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B379" s="1">
+        <v>59</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B380" s="1">
+        <v>59</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B381" s="1">
+        <v>59</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B382" s="1">
+        <v>60</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B383" s="1">
+        <v>60</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B384" s="1">
+        <v>60</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B385" s="1">
+        <v>60</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B386" s="1">
+        <v>61</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B387" s="1">
+        <v>61</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B388" s="1">
+        <v>61</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B389" s="1">
+        <v>61</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B390" s="1">
+        <v>62</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B391" s="1">
+        <v>62</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B392" s="1">
+        <v>62</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B393" s="1">
+        <v>62</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B394" s="1">
+        <v>63</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+      <c r="E394">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B395" s="1">
+        <v>63</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B396" s="1">
+        <v>63</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B397" s="1">
+        <v>63</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B398" s="1">
+        <v>64</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+      <c r="E398">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B399" s="1">
+        <v>64</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B400" s="1">
+        <v>64</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+      <c r="E400">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B401" s="1">
+        <v>64</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="E401">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B402" s="1">
+        <v>65</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B403" s="1">
+        <v>65</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+      <c r="E403">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B404" s="1">
+        <v>65</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="E404">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B405" s="1">
+        <v>65</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="E406">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+      <c r="E407">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+      <c r="E408">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+      <c r="E409">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B410" s="1">
+        <v>67</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+      <c r="E410">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B411" s="1">
+        <v>67</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+      <c r="E411">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B412" s="1">
+        <v>67</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B413" s="1">
+        <v>67</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B414" s="1">
+        <v>68</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B415" s="1">
+        <v>68</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="E415">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B416" s="1">
+        <v>68</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="E416">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B417" s="1">
+        <v>68</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+      <c r="E417">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B418" s="1">
+        <v>69</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B419" s="1">
+        <v>69</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B420" s="1">
+        <v>69</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+      <c r="E420">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B421" s="1">
+        <v>69</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+      <c r="E421">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B422" s="1">
+        <v>70</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B423" s="1">
+        <v>70</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="E423">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B424" s="1">
+        <v>70</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B425" s="1">
+        <v>70</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+      <c r="E425">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B426" s="1">
+        <v>71</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B427" s="1">
+        <v>71</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B428" s="1">
+        <v>71</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B429" s="1">
+        <v>71</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B430" s="1">
+        <v>72</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B431" s="1">
+        <v>72</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B432" s="1">
+        <v>72</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B433" s="1">
+        <v>72</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B434" s="1">
+        <v>73</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B435" s="1">
+        <v>73</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B436" s="1">
+        <v>73</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B437" s="1">
+        <v>73</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B438" s="1">
+        <v>74</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B439" s="1">
+        <v>74</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B440" s="1">
+        <v>74</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B441" s="1">
+        <v>74</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+      <c r="E441">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B442" s="1">
+        <v>75</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+      <c r="E442">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B443" s="1">
+        <v>75</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B444" s="1">
+        <v>75</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B445" s="1">
+        <v>75</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+      <c r="E445">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B446" s="1">
+        <v>76</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B447" s="1">
+        <v>76</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+      <c r="E447">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B448" s="1">
+        <v>76</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B449" s="1">
+        <v>76</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B450" s="1">
+        <v>77</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="E450">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B451" s="1">
+        <v>77</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B452" s="1">
+        <v>77</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B453" s="1">
+        <v>77</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B454" s="1">
+        <v>78</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+      <c r="E454">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B455" s="1">
+        <v>78</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B456" s="1">
+        <v>78</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+      <c r="E456">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B457" s="1">
+        <v>78</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+      <c r="E457">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B458" s="1">
+        <v>79</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="E458">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B459" s="1">
+        <v>79</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="E459">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B460" s="1">
+        <v>79</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B461" s="1">
+        <v>79</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B462" s="1">
+        <v>80</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B463" s="1">
+        <v>80</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="E463">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B464" s="1">
+        <v>80</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+      <c r="E464">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B465" s="1">
+        <v>80</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+      <c r="E465">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B466" s="1">
+        <v>81</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="E466">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B467" s="1">
+        <v>81</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B468" s="1">
+        <v>81</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B469" s="1">
+        <v>81</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+      <c r="E469">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B470" s="1">
+        <v>82</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+      <c r="E470">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B471" s="1">
+        <v>82</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B472" s="1">
+        <v>82</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+      <c r="E472">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B473" s="1">
+        <v>82</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="E473">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B474" s="1">
+        <v>83</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B475" s="1">
+        <v>83</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+      <c r="E475">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B476" s="1">
+        <v>83</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B477" s="1">
+        <v>83</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B478" s="1">
+        <v>84</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B479" s="1">
+        <v>84</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B480" s="1">
+        <v>84</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+      <c r="E480">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B481" s="1">
+        <v>84</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+      <c r="E481">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B482" s="1">
+        <v>85</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B483" s="1">
+        <v>85</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+      <c r="E483">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B484" s="1">
+        <v>85</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+      <c r="E484">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B485" s="1">
+        <v>85</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+      <c r="E485">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B486" s="1">
+        <v>86</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B487" s="1">
+        <v>86</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487">
+        <v>0</v>
+      </c>
+      <c r="E487">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B488" s="1">
+        <v>86</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>0</v>
+      </c>
+      <c r="E488">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B489" s="1">
+        <v>86</v>
+      </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B490" s="1">
+        <v>87</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B491" s="1">
+        <v>87</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B492" s="1">
+        <v>87</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+      <c r="E492">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B493" s="1">
+        <v>87</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B494" s="1">
+        <v>88</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
+      </c>
+      <c r="E494">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B495" s="1">
+        <v>88</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495">
+        <v>0</v>
+      </c>
+      <c r="E495">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B496" s="1">
+        <v>88</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+      <c r="E496">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B497" s="1">
+        <v>88</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497">
+        <v>0</v>
+      </c>
+      <c r="E497">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B498" s="1">
+        <v>89</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B499" s="1">
+        <v>89</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+      <c r="E499">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B500" s="1">
+        <v>89</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+      <c r="E500">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B501" s="1">
+        <v>89</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B502" s="1">
+        <v>90</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+      <c r="E502">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B503" s="1">
+        <v>90</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+      <c r="E503">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B504" s="1">
+        <v>90</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+      <c r="E504">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B505" s="1">
+        <v>90</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505">
+        <v>0</v>
+      </c>
+      <c r="E505">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B506" s="1">
+        <v>91</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+      <c r="E506">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B507" s="1">
+        <v>91</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+      <c r="E507">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B508" s="1">
+        <v>91</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508">
+        <v>0</v>
+      </c>
+      <c r="E508">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B509" s="1">
+        <v>91</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+      <c r="E509">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B510" s="1">
+        <v>92</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510">
+        <v>0</v>
+      </c>
+      <c r="E510">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B511" s="1">
+        <v>92</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>0</v>
+      </c>
+      <c r="E511">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B512" s="1">
+        <v>92</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512">
+        <v>0</v>
+      </c>
+      <c r="E512">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B513" s="1">
+        <v>92</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513">
+        <v>0</v>
+      </c>
+      <c r="E513">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B514" s="1">
+        <v>93</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514">
+        <v>0</v>
+      </c>
+      <c r="E514">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B515" s="1">
+        <v>93</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515">
+        <v>0</v>
+      </c>
+      <c r="E515">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B516" s="1">
+        <v>93</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516">
+        <v>0</v>
+      </c>
+      <c r="E516">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B517" s="1">
+        <v>93</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517">
+        <v>0</v>
+      </c>
+      <c r="E517">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B518" s="1">
+        <v>94</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+      <c r="E518">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B519" s="1">
+        <v>94</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+      <c r="E519">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B520" s="1">
+        <v>94</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520">
+        <v>0</v>
+      </c>
+      <c r="E520">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B521" s="1">
+        <v>94</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+      <c r="E521">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B522" s="1">
+        <v>95</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+      <c r="E522">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B523" s="1">
+        <v>95</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523">
+        <v>0</v>
+      </c>
+      <c r="E523">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B524" s="1">
+        <v>95</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B525" s="1">
+        <v>95</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525">
+        <v>0</v>
+      </c>
+      <c r="E525">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B526" s="1">
+        <v>96</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+      <c r="E526">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B527" s="1">
+        <v>96</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+      <c r="E527">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B528" s="1">
+        <v>96</v>
+      </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528">
+        <v>0</v>
+      </c>
+      <c r="E528">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B529" s="1">
+        <v>96</v>
+      </c>
+      <c r="C529">
+        <v>0</v>
+      </c>
+      <c r="D529">
+        <v>0</v>
+      </c>
+      <c r="E529">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B530" s="1">
+        <v>97</v>
+      </c>
+      <c r="C530">
+        <v>0</v>
+      </c>
+      <c r="D530">
+        <v>0</v>
+      </c>
+      <c r="E530">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B531" s="1">
+        <v>97</v>
+      </c>
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531">
+        <v>0</v>
+      </c>
+      <c r="E531">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B532" s="1">
+        <v>97</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532">
+        <v>0</v>
+      </c>
+      <c r="E532">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B533" s="1">
+        <v>97</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533">
+        <v>0</v>
+      </c>
+      <c r="E533">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B534" s="1">
+        <v>98</v>
+      </c>
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="D534">
+        <v>0</v>
+      </c>
+      <c r="E534">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B535" s="1">
+        <v>98</v>
+      </c>
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535">
+        <v>0</v>
+      </c>
+      <c r="E535">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B536" s="1">
+        <v>98</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+      <c r="D536">
+        <v>0</v>
+      </c>
+      <c r="E536">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B537" s="1">
+        <v>98</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537">
+        <v>0</v>
+      </c>
+      <c r="E537">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B538" s="1">
+        <v>99</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+      <c r="E538">
+        <v>53625000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B539" s="1">
+        <v>99</v>
+      </c>
+      <c r="D539">
+        <v>0</v>
+      </c>
+      <c r="E539">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B540" s="1">
+        <v>99</v>
+      </c>
+      <c r="D540">
+        <v>0</v>
+      </c>
+      <c r="E540">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B541" s="1">
+        <v>99</v>
+      </c>
+      <c r="D541">
+        <v>0</v>
+      </c>
+      <c r="E541">
+        <v>33000000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="A50:A73"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A98:A121"/>
-    <mergeCell ref="A122:A145"/>
-    <mergeCell ref="A146:A169"/>
-    <mergeCell ref="A170:A193"/>
-    <mergeCell ref="A194:A217"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A55"/>
+    <mergeCell ref="A56:A109"/>
+    <mergeCell ref="A110:A163"/>
+    <mergeCell ref="A164:A217"/>
+    <mergeCell ref="A218:A271"/>
+    <mergeCell ref="A272:A325"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tranchedata.xlsx
+++ b/tranchedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="15">
   <si>
     <t>Interest Payment</t>
   </si>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E541"/>
+  <dimension ref="A1:E537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,13 +447,13 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>1973728</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5014876</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>361495416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -462,7 +462,7 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>1973564.140573333</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -525,10 +525,10 @@
         <v>1909900.7812</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>14916211.36000001</v>
       </c>
       <c r="E7">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -537,13 +537,13 @@
         <v>52</v>
       </c>
       <c r="C8">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -552,13 +552,13 @@
         <v>53</v>
       </c>
       <c r="C9">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -567,13 +567,13 @@
         <v>54</v>
       </c>
       <c r="C10">
-        <v>1782574.062453334</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,13 +582,13 @@
         <v>55</v>
       </c>
       <c r="C11">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -597,13 +597,13 @@
         <v>56</v>
       </c>
       <c r="C12">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -612,13 +612,13 @@
         <v>57</v>
       </c>
       <c r="C13">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>58</v>
       </c>
       <c r="C14">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -642,13 +642,13 @@
         <v>59</v>
       </c>
       <c r="C15">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -657,13 +657,13 @@
         <v>60</v>
       </c>
       <c r="C16">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -672,13 +672,13 @@
         <v>61</v>
       </c>
       <c r="C17">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,13 +687,13 @@
         <v>62</v>
       </c>
       <c r="C18">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -702,13 +702,13 @@
         <v>63</v>
       </c>
       <c r="C19">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -717,13 +717,13 @@
         <v>64</v>
       </c>
       <c r="C20">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -732,13 +732,13 @@
         <v>65</v>
       </c>
       <c r="C21">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -747,13 +747,13 @@
         <v>66</v>
       </c>
       <c r="C22">
-        <v>1782574.062453334</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -762,13 +762,13 @@
         <v>67</v>
       </c>
       <c r="C23">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -777,13 +777,13 @@
         <v>68</v>
       </c>
       <c r="C24">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -792,13 +792,13 @@
         <v>69</v>
       </c>
       <c r="C25">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -807,13 +807,13 @@
         <v>70</v>
       </c>
       <c r="C26">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -822,13 +822,13 @@
         <v>71</v>
       </c>
       <c r="C27">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -837,13 +837,13 @@
         <v>72</v>
       </c>
       <c r="C28">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -852,13 +852,13 @@
         <v>73</v>
       </c>
       <c r="C29">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -867,13 +867,13 @@
         <v>74</v>
       </c>
       <c r="C30">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -882,13 +882,13 @@
         <v>75</v>
       </c>
       <c r="C31">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -897,13 +897,13 @@
         <v>76</v>
       </c>
       <c r="C32">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -912,13 +912,13 @@
         <v>77</v>
       </c>
       <c r="C33">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -927,13 +927,13 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1782574.062453334</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -942,13 +942,13 @@
         <v>79</v>
       </c>
       <c r="C35">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -957,13 +957,13 @@
         <v>80</v>
       </c>
       <c r="C36">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -972,13 +972,13 @@
         <v>81</v>
       </c>
       <c r="C37">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -987,13 +987,13 @@
         <v>82</v>
       </c>
       <c r="C38">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1017,13 +1017,13 @@
         <v>84</v>
       </c>
       <c r="C40">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1032,13 +1032,13 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1047,13 +1047,13 @@
         <v>86</v>
       </c>
       <c r="C42">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1062,13 +1062,13 @@
         <v>87</v>
       </c>
       <c r="C43">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1077,13 +1077,13 @@
         <v>88</v>
       </c>
       <c r="C44">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1092,13 +1092,13 @@
         <v>89</v>
       </c>
       <c r="C45">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1107,13 +1107,13 @@
         <v>90</v>
       </c>
       <c r="C46">
-        <v>1782574.062453334</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1122,13 +1122,13 @@
         <v>91</v>
       </c>
       <c r="C47">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1152,13 +1152,13 @@
         <v>93</v>
       </c>
       <c r="C49">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>94</v>
       </c>
       <c r="C50">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1182,13 +1182,13 @@
         <v>95</v>
       </c>
       <c r="C51">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1197,13 +1197,13 @@
         <v>96</v>
       </c>
       <c r="C52">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1212,13 +1212,13 @@
         <v>97</v>
       </c>
       <c r="C53">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1227,13 +1227,13 @@
         <v>98</v>
       </c>
       <c r="C54">
-        <v>1973564.140573333</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1242,13 +1242,13 @@
         <v>99</v>
       </c>
       <c r="C55">
-        <v>1909900.7812</v>
+        <v>1831093.464514666</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1259,13 +1259,13 @@
         <v>46</v>
       </c>
       <c r="C56">
-        <v>801703</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1274,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="C57">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>52</v>
       </c>
       <c r="C62">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>53</v>
       </c>
       <c r="C63">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>54</v>
       </c>
       <c r="C64">
-        <v>733617.4999999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>55</v>
       </c>
       <c r="C65">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>57</v>
       </c>
       <c r="C67">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>59</v>
       </c>
       <c r="C69">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>60</v>
       </c>
       <c r="C70">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>62</v>
       </c>
       <c r="C72">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>64</v>
       </c>
       <c r="C74">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>65</v>
       </c>
       <c r="C75">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>66</v>
       </c>
       <c r="C76">
-        <v>733617.4999999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>67</v>
       </c>
       <c r="C77">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>69</v>
       </c>
       <c r="C79">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>71</v>
       </c>
       <c r="C81">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>72</v>
       </c>
       <c r="C82">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>74</v>
       </c>
       <c r="C84">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>76</v>
       </c>
       <c r="C86">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>77</v>
       </c>
       <c r="C87">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>78</v>
       </c>
       <c r="C88">
-        <v>733617.4999999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>79</v>
       </c>
       <c r="C89">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>81</v>
       </c>
       <c r="C91">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>83</v>
       </c>
       <c r="C93">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>84</v>
       </c>
       <c r="C94">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>86</v>
       </c>
       <c r="C96">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>88</v>
       </c>
       <c r="C98">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>89</v>
       </c>
       <c r="C99">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>90</v>
       </c>
       <c r="C100">
-        <v>733617.4999999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>91</v>
       </c>
       <c r="C101">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>93</v>
       </c>
       <c r="C103">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>95</v>
       </c>
       <c r="C105">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>96</v>
       </c>
       <c r="C106">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>98</v>
       </c>
       <c r="C108">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2071,13 +2071,13 @@
         <v>46</v>
       </c>
       <c r="C110">
-        <v>384976</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2086,7 +2086,7 @@
         <v>47</v>
       </c>
       <c r="C111">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>52</v>
       </c>
       <c r="C116">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>53</v>
       </c>
       <c r="C117">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>54</v>
       </c>
       <c r="C118">
-        <v>352146.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>55</v>
       </c>
       <c r="C119">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>57</v>
       </c>
       <c r="C121">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>59</v>
       </c>
       <c r="C123">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>60</v>
       </c>
       <c r="C124">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>62</v>
       </c>
       <c r="C126">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>64</v>
       </c>
       <c r="C128">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>65</v>
       </c>
       <c r="C129">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>66</v>
       </c>
       <c r="C130">
-        <v>352146.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>67</v>
       </c>
       <c r="C131">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>69</v>
       </c>
       <c r="C133">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>71</v>
       </c>
       <c r="C135">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>72</v>
       </c>
       <c r="C136">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>74</v>
       </c>
       <c r="C138">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>76</v>
       </c>
       <c r="C140">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>77</v>
       </c>
       <c r="C141">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>78</v>
       </c>
       <c r="C142">
-        <v>352146.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>79</v>
       </c>
       <c r="C143">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>81</v>
       </c>
       <c r="C145">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>83</v>
       </c>
       <c r="C147">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>84</v>
       </c>
       <c r="C148">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>86</v>
       </c>
       <c r="C150">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>88</v>
       </c>
       <c r="C152">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>89</v>
       </c>
       <c r="C153">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>90</v>
       </c>
       <c r="C154">
-        <v>352146.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>91</v>
       </c>
       <c r="C155">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>93</v>
       </c>
       <c r="C157">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>95</v>
       </c>
       <c r="C159">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>96</v>
       </c>
       <c r="C160">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>98</v>
       </c>
       <c r="C162">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>46</v>
       </c>
       <c r="C164">
-        <v>489215</v>
+        <v>0</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -2898,7 +2898,7 @@
         <v>47</v>
       </c>
       <c r="C165">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>52</v>
       </c>
       <c r="C170">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>53</v>
       </c>
       <c r="C171">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>54</v>
       </c>
       <c r="C172">
-        <v>447220.2777777778</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>55</v>
       </c>
       <c r="C173">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>57</v>
       </c>
       <c r="C175">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>59</v>
       </c>
       <c r="C177">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>60</v>
       </c>
       <c r="C178">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>62</v>
       </c>
       <c r="C180">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>64</v>
       </c>
       <c r="C182">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>65</v>
       </c>
       <c r="C183">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>66</v>
       </c>
       <c r="C184">
-        <v>447220.2777777778</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>67</v>
       </c>
       <c r="C185">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>69</v>
       </c>
       <c r="C187">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>71</v>
       </c>
       <c r="C189">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>72</v>
       </c>
       <c r="C190">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>74</v>
       </c>
       <c r="C192">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>76</v>
       </c>
       <c r="C194">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>77</v>
       </c>
       <c r="C195">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>78</v>
       </c>
       <c r="C196">
-        <v>447220.2777777778</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>79</v>
       </c>
       <c r="C197">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>81</v>
       </c>
       <c r="C199">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>83</v>
       </c>
       <c r="C201">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>84</v>
       </c>
       <c r="C202">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>86</v>
       </c>
       <c r="C204">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>88</v>
       </c>
       <c r="C206">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>89</v>
       </c>
       <c r="C207">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>90</v>
       </c>
       <c r="C208">
-        <v>447220.2777777778</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>91</v>
       </c>
       <c r="C209">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>93</v>
       </c>
       <c r="C211">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>95</v>
       </c>
       <c r="C213">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>96</v>
       </c>
       <c r="C214">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>98</v>
       </c>
       <c r="C216">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -3695,13 +3695,13 @@
         <v>46</v>
       </c>
       <c r="C218">
-        <v>383059</v>
+        <v>0</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -3710,7 +3710,7 @@
         <v>47</v>
       </c>
       <c r="C219">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>52</v>
       </c>
       <c r="C224">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>53</v>
       </c>
       <c r="C225">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -3815,7 +3815,7 @@
         <v>54</v>
       </c>
       <c r="C226">
-        <v>349954.3055555556</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>55</v>
       </c>
       <c r="C227">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>57</v>
       </c>
       <c r="C229">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -3890,7 +3890,7 @@
         <v>59</v>
       </c>
       <c r="C231">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>60</v>
       </c>
       <c r="C232">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>62</v>
       </c>
       <c r="C234">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>64</v>
       </c>
       <c r="C236">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>65</v>
       </c>
       <c r="C237">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>66</v>
       </c>
       <c r="C238">
-        <v>349954.3055555556</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>67</v>
       </c>
       <c r="C239">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>69</v>
       </c>
       <c r="C241">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>71</v>
       </c>
       <c r="C243">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -4085,7 +4085,7 @@
         <v>72</v>
       </c>
       <c r="C244">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>74</v>
       </c>
       <c r="C246">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>76</v>
       </c>
       <c r="C248">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>77</v>
       </c>
       <c r="C249">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>78</v>
       </c>
       <c r="C250">
-        <v>349954.3055555556</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>79</v>
       </c>
       <c r="C251">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>81</v>
       </c>
       <c r="C253">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>83</v>
       </c>
       <c r="C255">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -4265,7 +4265,7 @@
         <v>84</v>
       </c>
       <c r="C256">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>86</v>
       </c>
       <c r="C258">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -4325,7 +4325,7 @@
         <v>88</v>
       </c>
       <c r="C260">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>89</v>
       </c>
       <c r="C261">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -4355,7 +4355,7 @@
         <v>90</v>
       </c>
       <c r="C262">
-        <v>349954.3055555556</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>91</v>
       </c>
       <c r="C263">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>93</v>
       </c>
       <c r="C265">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>95</v>
       </c>
       <c r="C267">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>96</v>
       </c>
       <c r="C268">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -4475,7 +4475,7 @@
         <v>98</v>
       </c>
       <c r="C270">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -4507,13 +4507,13 @@
         <v>46</v>
       </c>
       <c r="C272">
-        <v>83905</v>
+        <v>0</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -4522,7 +4522,7 @@
         <v>47</v>
       </c>
       <c r="C273">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>52</v>
       </c>
       <c r="C278">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>53</v>
       </c>
       <c r="C279">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>54</v>
       </c>
       <c r="C280">
-        <v>76615</v>
+        <v>82087.5</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>55</v>
       </c>
       <c r="C281">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>57</v>
       </c>
       <c r="C283">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>59</v>
       </c>
       <c r="C285">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         <v>60</v>
       </c>
       <c r="C286">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>62</v>
       </c>
       <c r="C288">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>64</v>
       </c>
       <c r="C290">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>65</v>
       </c>
       <c r="C291">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>66</v>
       </c>
       <c r="C292">
-        <v>76615</v>
+        <v>82087.5</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>67</v>
       </c>
       <c r="C293">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>69</v>
       </c>
       <c r="C295">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>71</v>
       </c>
       <c r="C297">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>72</v>
       </c>
       <c r="C298">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>74</v>
       </c>
       <c r="C300">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>76</v>
       </c>
       <c r="C302">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>77</v>
       </c>
       <c r="C303">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>78</v>
       </c>
       <c r="C304">
-        <v>76615</v>
+        <v>82087.5</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>79</v>
       </c>
       <c r="C305">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>81</v>
       </c>
       <c r="C307">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>83</v>
       </c>
       <c r="C309">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>84</v>
       </c>
       <c r="C310">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>86</v>
       </c>
       <c r="C312">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>88</v>
       </c>
       <c r="C314">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>89</v>
       </c>
       <c r="C315">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>90</v>
       </c>
       <c r="C316">
-        <v>76615</v>
+        <v>82087.5</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>91</v>
       </c>
       <c r="C317">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>93</v>
       </c>
       <c r="C319">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>95</v>
       </c>
       <c r="C321">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>96</v>
       </c>
       <c r="C322">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>98</v>
       </c>
       <c r="C324">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>11</v>
       </c>
       <c r="B326" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C326">
-        <v>430544</v>
+        <v>0</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -5333,10 +5333,10 @@
         <v>12</v>
       </c>
       <c r="B327" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C327">
-        <v>321784</v>
+        <v>0</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -5350,10 +5350,10 @@
         <v>13</v>
       </c>
       <c r="B328" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C328">
-        <v>311666.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -5367,10 +5367,10 @@
         <v>14</v>
       </c>
       <c r="B329" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C329">
-        <v>1100981.708612307</v>
+        <v>0</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -5384,7 +5384,7 @@
         <v>11</v>
       </c>
       <c r="B330" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -5401,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="B331" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -5418,7 +5418,7 @@
         <v>13</v>
       </c>
       <c r="B332" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>14</v>
       </c>
       <c r="B333" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>11</v>
       </c>
       <c r="B334" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>12</v>
       </c>
       <c r="B335" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>13</v>
       </c>
       <c r="B336" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -5503,7 +5503,7 @@
         <v>14</v>
       </c>
       <c r="B337" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>11</v>
       </c>
       <c r="B338" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>12</v>
       </c>
       <c r="B339" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>13</v>
       </c>
       <c r="B340" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         <v>14</v>
       </c>
       <c r="B341" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -5588,10 +5588,7 @@
         <v>11</v>
       </c>
       <c r="B342" s="1">
-        <v>50</v>
-      </c>
-      <c r="C342">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -5605,10 +5602,7 @@
         <v>12</v>
       </c>
       <c r="B343" s="1">
-        <v>50</v>
-      </c>
-      <c r="C343">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -5622,10 +5616,7 @@
         <v>13</v>
       </c>
       <c r="B344" s="1">
-        <v>50</v>
-      </c>
-      <c r="C344">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -5639,10 +5630,7 @@
         <v>14</v>
       </c>
       <c r="B345" s="1">
-        <v>50</v>
-      </c>
-      <c r="C345">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -5656,10 +5644,7 @@
         <v>11</v>
       </c>
       <c r="B346" s="1">
-        <v>51</v>
-      </c>
-      <c r="C346">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -5673,10 +5658,7 @@
         <v>12</v>
       </c>
       <c r="B347" s="1">
-        <v>51</v>
-      </c>
-      <c r="C347">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -5690,10 +5672,7 @@
         <v>13</v>
       </c>
       <c r="B348" s="1">
-        <v>51</v>
-      </c>
-      <c r="C348">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -5707,10 +5686,7 @@
         <v>14</v>
       </c>
       <c r="B349" s="1">
-        <v>51</v>
-      </c>
-      <c r="C349">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -5724,10 +5700,7 @@
         <v>11</v>
       </c>
       <c r="B350" s="1">
-        <v>52</v>
-      </c>
-      <c r="C350">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -5741,10 +5714,7 @@
         <v>12</v>
       </c>
       <c r="B351" s="1">
-        <v>52</v>
-      </c>
-      <c r="C351">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -5758,10 +5728,7 @@
         <v>13</v>
       </c>
       <c r="B352" s="1">
-        <v>52</v>
-      </c>
-      <c r="C352">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -5775,10 +5742,7 @@
         <v>14</v>
       </c>
       <c r="B353" s="1">
-        <v>52</v>
-      </c>
-      <c r="C353">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -5792,10 +5756,7 @@
         <v>11</v>
       </c>
       <c r="B354" s="1">
-        <v>53</v>
-      </c>
-      <c r="C354">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -5809,10 +5770,7 @@
         <v>12</v>
       </c>
       <c r="B355" s="1">
-        <v>53</v>
-      </c>
-      <c r="C355">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -5826,10 +5784,7 @@
         <v>13</v>
       </c>
       <c r="B356" s="1">
-        <v>53</v>
-      </c>
-      <c r="C356">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -5843,10 +5798,7 @@
         <v>14</v>
       </c>
       <c r="B357" s="1">
-        <v>53</v>
-      </c>
-      <c r="C357">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -5860,10 +5812,7 @@
         <v>11</v>
       </c>
       <c r="B358" s="1">
-        <v>54</v>
-      </c>
-      <c r="C358">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -5877,10 +5826,7 @@
         <v>12</v>
       </c>
       <c r="B359" s="1">
-        <v>54</v>
-      </c>
-      <c r="C359">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -5894,10 +5840,7 @@
         <v>13</v>
       </c>
       <c r="B360" s="1">
-        <v>54</v>
-      </c>
-      <c r="C360">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -5911,10 +5854,7 @@
         <v>14</v>
       </c>
       <c r="B361" s="1">
-        <v>54</v>
-      </c>
-      <c r="C361">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -5928,10 +5868,7 @@
         <v>11</v>
       </c>
       <c r="B362" s="1">
-        <v>55</v>
-      </c>
-      <c r="C362">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -5945,10 +5882,7 @@
         <v>12</v>
       </c>
       <c r="B363" s="1">
-        <v>55</v>
-      </c>
-      <c r="C363">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -5962,10 +5896,7 @@
         <v>13</v>
       </c>
       <c r="B364" s="1">
-        <v>55</v>
-      </c>
-      <c r="C364">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -5979,10 +5910,7 @@
         <v>14</v>
       </c>
       <c r="B365" s="1">
-        <v>55</v>
-      </c>
-      <c r="C365">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D365">
         <v>0</v>
@@ -5996,10 +5924,7 @@
         <v>11</v>
       </c>
       <c r="B366" s="1">
-        <v>56</v>
-      </c>
-      <c r="C366">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D366">
         <v>0</v>
@@ -6013,10 +5938,7 @@
         <v>12</v>
       </c>
       <c r="B367" s="1">
-        <v>56</v>
-      </c>
-      <c r="C367">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -6030,10 +5952,7 @@
         <v>13</v>
       </c>
       <c r="B368" s="1">
-        <v>56</v>
-      </c>
-      <c r="C368">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -6047,10 +5966,7 @@
         <v>14</v>
       </c>
       <c r="B369" s="1">
-        <v>56</v>
-      </c>
-      <c r="C369">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -6064,10 +5980,7 @@
         <v>11</v>
       </c>
       <c r="B370" s="1">
-        <v>57</v>
-      </c>
-      <c r="C370">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D370">
         <v>0</v>
@@ -6081,10 +5994,7 @@
         <v>12</v>
       </c>
       <c r="B371" s="1">
-        <v>57</v>
-      </c>
-      <c r="C371">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D371">
         <v>0</v>
@@ -6098,10 +6008,7 @@
         <v>13</v>
       </c>
       <c r="B372" s="1">
-        <v>57</v>
-      </c>
-      <c r="C372">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -6115,10 +6022,7 @@
         <v>14</v>
       </c>
       <c r="B373" s="1">
-        <v>57</v>
-      </c>
-      <c r="C373">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -6132,10 +6036,7 @@
         <v>11</v>
       </c>
       <c r="B374" s="1">
-        <v>58</v>
-      </c>
-      <c r="C374">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -6149,10 +6050,7 @@
         <v>12</v>
       </c>
       <c r="B375" s="1">
-        <v>58</v>
-      </c>
-      <c r="C375">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -6166,10 +6064,7 @@
         <v>13</v>
       </c>
       <c r="B376" s="1">
-        <v>58</v>
-      </c>
-      <c r="C376">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -6183,10 +6078,7 @@
         <v>14</v>
       </c>
       <c r="B377" s="1">
-        <v>58</v>
-      </c>
-      <c r="C377">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -6200,10 +6092,7 @@
         <v>11</v>
       </c>
       <c r="B378" s="1">
-        <v>59</v>
-      </c>
-      <c r="C378">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -6217,10 +6106,7 @@
         <v>12</v>
       </c>
       <c r="B379" s="1">
-        <v>59</v>
-      </c>
-      <c r="C379">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -6234,10 +6120,7 @@
         <v>13</v>
       </c>
       <c r="B380" s="1">
-        <v>59</v>
-      </c>
-      <c r="C380">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -6251,10 +6134,7 @@
         <v>14</v>
       </c>
       <c r="B381" s="1">
-        <v>59</v>
-      </c>
-      <c r="C381">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -6268,10 +6148,7 @@
         <v>11</v>
       </c>
       <c r="B382" s="1">
-        <v>60</v>
-      </c>
-      <c r="C382">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -6285,10 +6162,7 @@
         <v>12</v>
       </c>
       <c r="B383" s="1">
-        <v>60</v>
-      </c>
-      <c r="C383">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -6302,10 +6176,7 @@
         <v>13</v>
       </c>
       <c r="B384" s="1">
-        <v>60</v>
-      </c>
-      <c r="C384">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -6319,10 +6190,7 @@
         <v>14</v>
       </c>
       <c r="B385" s="1">
-        <v>60</v>
-      </c>
-      <c r="C385">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -6336,10 +6204,7 @@
         <v>11</v>
       </c>
       <c r="B386" s="1">
-        <v>61</v>
-      </c>
-      <c r="C386">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D386">
         <v>0</v>
@@ -6353,10 +6218,7 @@
         <v>12</v>
       </c>
       <c r="B387" s="1">
-        <v>61</v>
-      </c>
-      <c r="C387">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -6370,10 +6232,7 @@
         <v>13</v>
       </c>
       <c r="B388" s="1">
-        <v>61</v>
-      </c>
-      <c r="C388">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -6387,10 +6246,7 @@
         <v>14</v>
       </c>
       <c r="B389" s="1">
-        <v>61</v>
-      </c>
-      <c r="C389">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -6404,10 +6260,7 @@
         <v>11</v>
       </c>
       <c r="B390" s="1">
-        <v>62</v>
-      </c>
-      <c r="C390">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -6421,10 +6274,7 @@
         <v>12</v>
       </c>
       <c r="B391" s="1">
-        <v>62</v>
-      </c>
-      <c r="C391">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -6438,10 +6288,7 @@
         <v>13</v>
       </c>
       <c r="B392" s="1">
-        <v>62</v>
-      </c>
-      <c r="C392">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -6455,10 +6302,7 @@
         <v>14</v>
       </c>
       <c r="B393" s="1">
-        <v>62</v>
-      </c>
-      <c r="C393">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -6472,10 +6316,7 @@
         <v>11</v>
       </c>
       <c r="B394" s="1">
-        <v>63</v>
-      </c>
-      <c r="C394">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -6489,10 +6330,7 @@
         <v>12</v>
       </c>
       <c r="B395" s="1">
-        <v>63</v>
-      </c>
-      <c r="C395">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -6506,10 +6344,7 @@
         <v>13</v>
       </c>
       <c r="B396" s="1">
-        <v>63</v>
-      </c>
-      <c r="C396">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -6523,10 +6358,7 @@
         <v>14</v>
       </c>
       <c r="B397" s="1">
-        <v>63</v>
-      </c>
-      <c r="C397">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -6540,10 +6372,7 @@
         <v>11</v>
       </c>
       <c r="B398" s="1">
-        <v>64</v>
-      </c>
-      <c r="C398">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D398">
         <v>0</v>
@@ -6557,10 +6386,7 @@
         <v>12</v>
       </c>
       <c r="B399" s="1">
-        <v>64</v>
-      </c>
-      <c r="C399">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D399">
         <v>0</v>
@@ -6574,10 +6400,7 @@
         <v>13</v>
       </c>
       <c r="B400" s="1">
-        <v>64</v>
-      </c>
-      <c r="C400">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D400">
         <v>0</v>
@@ -6591,10 +6414,7 @@
         <v>14</v>
       </c>
       <c r="B401" s="1">
-        <v>64</v>
-      </c>
-      <c r="C401">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D401">
         <v>0</v>
@@ -6608,10 +6428,7 @@
         <v>11</v>
       </c>
       <c r="B402" s="1">
-        <v>65</v>
-      </c>
-      <c r="C402">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -6625,10 +6442,7 @@
         <v>12</v>
       </c>
       <c r="B403" s="1">
-        <v>65</v>
-      </c>
-      <c r="C403">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -6642,10 +6456,7 @@
         <v>13</v>
       </c>
       <c r="B404" s="1">
-        <v>65</v>
-      </c>
-      <c r="C404">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -6659,10 +6470,7 @@
         <v>14</v>
       </c>
       <c r="B405" s="1">
-        <v>65</v>
-      </c>
-      <c r="C405">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -6676,10 +6484,7 @@
         <v>11</v>
       </c>
       <c r="B406" s="1">
-        <v>66</v>
-      </c>
-      <c r="C406">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D406">
         <v>0</v>
@@ -6693,10 +6498,7 @@
         <v>12</v>
       </c>
       <c r="B407" s="1">
-        <v>66</v>
-      </c>
-      <c r="C407">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D407">
         <v>0</v>
@@ -6710,10 +6512,7 @@
         <v>13</v>
       </c>
       <c r="B408" s="1">
-        <v>66</v>
-      </c>
-      <c r="C408">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D408">
         <v>0</v>
@@ -6727,10 +6526,7 @@
         <v>14</v>
       </c>
       <c r="B409" s="1">
-        <v>66</v>
-      </c>
-      <c r="C409">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D409">
         <v>0</v>
@@ -6744,10 +6540,7 @@
         <v>11</v>
       </c>
       <c r="B410" s="1">
-        <v>67</v>
-      </c>
-      <c r="C410">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D410">
         <v>0</v>
@@ -6761,10 +6554,7 @@
         <v>12</v>
       </c>
       <c r="B411" s="1">
-        <v>67</v>
-      </c>
-      <c r="C411">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D411">
         <v>0</v>
@@ -6778,10 +6568,7 @@
         <v>13</v>
       </c>
       <c r="B412" s="1">
-        <v>67</v>
-      </c>
-      <c r="C412">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D412">
         <v>0</v>
@@ -6795,10 +6582,7 @@
         <v>14</v>
       </c>
       <c r="B413" s="1">
-        <v>67</v>
-      </c>
-      <c r="C413">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D413">
         <v>0</v>
@@ -6812,10 +6596,7 @@
         <v>11</v>
       </c>
       <c r="B414" s="1">
-        <v>68</v>
-      </c>
-      <c r="C414">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D414">
         <v>0</v>
@@ -6829,10 +6610,7 @@
         <v>12</v>
       </c>
       <c r="B415" s="1">
-        <v>68</v>
-      </c>
-      <c r="C415">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D415">
         <v>0</v>
@@ -6846,10 +6624,7 @@
         <v>13</v>
       </c>
       <c r="B416" s="1">
-        <v>68</v>
-      </c>
-      <c r="C416">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D416">
         <v>0</v>
@@ -6863,10 +6638,7 @@
         <v>14</v>
       </c>
       <c r="B417" s="1">
-        <v>68</v>
-      </c>
-      <c r="C417">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D417">
         <v>0</v>
@@ -6880,10 +6652,7 @@
         <v>11</v>
       </c>
       <c r="B418" s="1">
-        <v>69</v>
-      </c>
-      <c r="C418">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D418">
         <v>0</v>
@@ -6897,10 +6666,7 @@
         <v>12</v>
       </c>
       <c r="B419" s="1">
-        <v>69</v>
-      </c>
-      <c r="C419">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D419">
         <v>0</v>
@@ -6914,10 +6680,7 @@
         <v>13</v>
       </c>
       <c r="B420" s="1">
-        <v>69</v>
-      </c>
-      <c r="C420">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D420">
         <v>0</v>
@@ -6931,10 +6694,7 @@
         <v>14</v>
       </c>
       <c r="B421" s="1">
-        <v>69</v>
-      </c>
-      <c r="C421">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D421">
         <v>0</v>
@@ -6948,10 +6708,7 @@
         <v>11</v>
       </c>
       <c r="B422" s="1">
-        <v>70</v>
-      </c>
-      <c r="C422">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D422">
         <v>0</v>
@@ -6965,10 +6722,7 @@
         <v>12</v>
       </c>
       <c r="B423" s="1">
-        <v>70</v>
-      </c>
-      <c r="C423">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D423">
         <v>0</v>
@@ -6982,10 +6736,7 @@
         <v>13</v>
       </c>
       <c r="B424" s="1">
-        <v>70</v>
-      </c>
-      <c r="C424">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D424">
         <v>0</v>
@@ -6999,10 +6750,7 @@
         <v>14</v>
       </c>
       <c r="B425" s="1">
-        <v>70</v>
-      </c>
-      <c r="C425">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D425">
         <v>0</v>
@@ -7016,10 +6764,7 @@
         <v>11</v>
       </c>
       <c r="B426" s="1">
-        <v>71</v>
-      </c>
-      <c r="C426">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D426">
         <v>0</v>
@@ -7033,10 +6778,7 @@
         <v>12</v>
       </c>
       <c r="B427" s="1">
-        <v>71</v>
-      </c>
-      <c r="C427">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D427">
         <v>0</v>
@@ -7050,10 +6792,7 @@
         <v>13</v>
       </c>
       <c r="B428" s="1">
-        <v>71</v>
-      </c>
-      <c r="C428">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D428">
         <v>0</v>
@@ -7067,10 +6806,7 @@
         <v>14</v>
       </c>
       <c r="B429" s="1">
-        <v>71</v>
-      </c>
-      <c r="C429">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D429">
         <v>0</v>
@@ -7084,10 +6820,7 @@
         <v>11</v>
       </c>
       <c r="B430" s="1">
-        <v>72</v>
-      </c>
-      <c r="C430">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -7101,10 +6834,7 @@
         <v>12</v>
       </c>
       <c r="B431" s="1">
-        <v>72</v>
-      </c>
-      <c r="C431">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D431">
         <v>0</v>
@@ -7118,10 +6848,7 @@
         <v>13</v>
       </c>
       <c r="B432" s="1">
-        <v>72</v>
-      </c>
-      <c r="C432">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D432">
         <v>0</v>
@@ -7135,10 +6862,7 @@
         <v>14</v>
       </c>
       <c r="B433" s="1">
-        <v>72</v>
-      </c>
-      <c r="C433">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -7152,10 +6876,7 @@
         <v>11</v>
       </c>
       <c r="B434" s="1">
-        <v>73</v>
-      </c>
-      <c r="C434">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D434">
         <v>0</v>
@@ -7169,10 +6890,7 @@
         <v>12</v>
       </c>
       <c r="B435" s="1">
-        <v>73</v>
-      </c>
-      <c r="C435">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D435">
         <v>0</v>
@@ -7186,10 +6904,7 @@
         <v>13</v>
       </c>
       <c r="B436" s="1">
-        <v>73</v>
-      </c>
-      <c r="C436">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D436">
         <v>0</v>
@@ -7203,10 +6918,7 @@
         <v>14</v>
       </c>
       <c r="B437" s="1">
-        <v>73</v>
-      </c>
-      <c r="C437">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D437">
         <v>0</v>
@@ -7220,10 +6932,7 @@
         <v>11</v>
       </c>
       <c r="B438" s="1">
-        <v>74</v>
-      </c>
-      <c r="C438">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D438">
         <v>0</v>
@@ -7237,10 +6946,7 @@
         <v>12</v>
       </c>
       <c r="B439" s="1">
-        <v>74</v>
-      </c>
-      <c r="C439">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D439">
         <v>0</v>
@@ -7254,10 +6960,7 @@
         <v>13</v>
       </c>
       <c r="B440" s="1">
-        <v>74</v>
-      </c>
-      <c r="C440">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D440">
         <v>0</v>
@@ -7271,10 +6974,7 @@
         <v>14</v>
       </c>
       <c r="B441" s="1">
-        <v>74</v>
-      </c>
-      <c r="C441">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D441">
         <v>0</v>
@@ -7288,10 +6988,7 @@
         <v>11</v>
       </c>
       <c r="B442" s="1">
-        <v>75</v>
-      </c>
-      <c r="C442">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D442">
         <v>0</v>
@@ -7305,10 +7002,7 @@
         <v>12</v>
       </c>
       <c r="B443" s="1">
-        <v>75</v>
-      </c>
-      <c r="C443">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D443">
         <v>0</v>
@@ -7322,10 +7016,7 @@
         <v>13</v>
       </c>
       <c r="B444" s="1">
-        <v>75</v>
-      </c>
-      <c r="C444">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D444">
         <v>0</v>
@@ -7339,10 +7030,7 @@
         <v>14</v>
       </c>
       <c r="B445" s="1">
-        <v>75</v>
-      </c>
-      <c r="C445">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D445">
         <v>0</v>
@@ -7356,10 +7044,7 @@
         <v>11</v>
       </c>
       <c r="B446" s="1">
-        <v>76</v>
-      </c>
-      <c r="C446">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D446">
         <v>0</v>
@@ -7373,10 +7058,7 @@
         <v>12</v>
       </c>
       <c r="B447" s="1">
-        <v>76</v>
-      </c>
-      <c r="C447">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D447">
         <v>0</v>
@@ -7390,10 +7072,7 @@
         <v>13</v>
       </c>
       <c r="B448" s="1">
-        <v>76</v>
-      </c>
-      <c r="C448">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D448">
         <v>0</v>
@@ -7407,10 +7086,7 @@
         <v>14</v>
       </c>
       <c r="B449" s="1">
-        <v>76</v>
-      </c>
-      <c r="C449">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D449">
         <v>0</v>
@@ -7424,10 +7100,7 @@
         <v>11</v>
       </c>
       <c r="B450" s="1">
-        <v>77</v>
-      </c>
-      <c r="C450">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D450">
         <v>0</v>
@@ -7441,10 +7114,7 @@
         <v>12</v>
       </c>
       <c r="B451" s="1">
-        <v>77</v>
-      </c>
-      <c r="C451">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D451">
         <v>0</v>
@@ -7458,10 +7128,7 @@
         <v>13</v>
       </c>
       <c r="B452" s="1">
-        <v>77</v>
-      </c>
-      <c r="C452">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D452">
         <v>0</v>
@@ -7475,10 +7142,7 @@
         <v>14</v>
       </c>
       <c r="B453" s="1">
-        <v>77</v>
-      </c>
-      <c r="C453">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D453">
         <v>0</v>
@@ -7492,10 +7156,7 @@
         <v>11</v>
       </c>
       <c r="B454" s="1">
-        <v>78</v>
-      </c>
-      <c r="C454">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D454">
         <v>0</v>
@@ -7509,10 +7170,7 @@
         <v>12</v>
       </c>
       <c r="B455" s="1">
-        <v>78</v>
-      </c>
-      <c r="C455">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D455">
         <v>0</v>
@@ -7526,10 +7184,7 @@
         <v>13</v>
       </c>
       <c r="B456" s="1">
-        <v>78</v>
-      </c>
-      <c r="C456">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D456">
         <v>0</v>
@@ -7543,10 +7198,7 @@
         <v>14</v>
       </c>
       <c r="B457" s="1">
-        <v>78</v>
-      </c>
-      <c r="C457">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D457">
         <v>0</v>
@@ -7560,10 +7212,7 @@
         <v>11</v>
       </c>
       <c r="B458" s="1">
-        <v>79</v>
-      </c>
-      <c r="C458">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D458">
         <v>0</v>
@@ -7577,10 +7226,7 @@
         <v>12</v>
       </c>
       <c r="B459" s="1">
-        <v>79</v>
-      </c>
-      <c r="C459">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D459">
         <v>0</v>
@@ -7594,10 +7240,7 @@
         <v>13</v>
       </c>
       <c r="B460" s="1">
-        <v>79</v>
-      </c>
-      <c r="C460">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D460">
         <v>0</v>
@@ -7611,10 +7254,7 @@
         <v>14</v>
       </c>
       <c r="B461" s="1">
-        <v>79</v>
-      </c>
-      <c r="C461">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D461">
         <v>0</v>
@@ -7628,10 +7268,7 @@
         <v>11</v>
       </c>
       <c r="B462" s="1">
-        <v>80</v>
-      </c>
-      <c r="C462">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D462">
         <v>0</v>
@@ -7645,10 +7282,7 @@
         <v>12</v>
       </c>
       <c r="B463" s="1">
-        <v>80</v>
-      </c>
-      <c r="C463">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D463">
         <v>0</v>
@@ -7662,10 +7296,7 @@
         <v>13</v>
       </c>
       <c r="B464" s="1">
-        <v>80</v>
-      </c>
-      <c r="C464">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D464">
         <v>0</v>
@@ -7679,10 +7310,7 @@
         <v>14</v>
       </c>
       <c r="B465" s="1">
-        <v>80</v>
-      </c>
-      <c r="C465">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D465">
         <v>0</v>
@@ -7696,10 +7324,7 @@
         <v>11</v>
       </c>
       <c r="B466" s="1">
-        <v>81</v>
-      </c>
-      <c r="C466">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D466">
         <v>0</v>
@@ -7713,10 +7338,7 @@
         <v>12</v>
       </c>
       <c r="B467" s="1">
-        <v>81</v>
-      </c>
-      <c r="C467">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D467">
         <v>0</v>
@@ -7730,10 +7352,7 @@
         <v>13</v>
       </c>
       <c r="B468" s="1">
-        <v>81</v>
-      </c>
-      <c r="C468">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D468">
         <v>0</v>
@@ -7747,10 +7366,7 @@
         <v>14</v>
       </c>
       <c r="B469" s="1">
-        <v>81</v>
-      </c>
-      <c r="C469">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D469">
         <v>0</v>
@@ -7764,10 +7380,7 @@
         <v>11</v>
       </c>
       <c r="B470" s="1">
-        <v>82</v>
-      </c>
-      <c r="C470">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D470">
         <v>0</v>
@@ -7781,10 +7394,7 @@
         <v>12</v>
       </c>
       <c r="B471" s="1">
-        <v>82</v>
-      </c>
-      <c r="C471">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D471">
         <v>0</v>
@@ -7798,10 +7408,7 @@
         <v>13</v>
       </c>
       <c r="B472" s="1">
-        <v>82</v>
-      </c>
-      <c r="C472">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D472">
         <v>0</v>
@@ -7815,10 +7422,7 @@
         <v>14</v>
       </c>
       <c r="B473" s="1">
-        <v>82</v>
-      </c>
-      <c r="C473">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D473">
         <v>0</v>
@@ -7832,10 +7436,7 @@
         <v>11</v>
       </c>
       <c r="B474" s="1">
-        <v>83</v>
-      </c>
-      <c r="C474">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D474">
         <v>0</v>
@@ -7849,10 +7450,7 @@
         <v>12</v>
       </c>
       <c r="B475" s="1">
-        <v>83</v>
-      </c>
-      <c r="C475">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D475">
         <v>0</v>
@@ -7866,10 +7464,7 @@
         <v>13</v>
       </c>
       <c r="B476" s="1">
-        <v>83</v>
-      </c>
-      <c r="C476">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D476">
         <v>0</v>
@@ -7883,10 +7478,7 @@
         <v>14</v>
       </c>
       <c r="B477" s="1">
-        <v>83</v>
-      </c>
-      <c r="C477">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D477">
         <v>0</v>
@@ -7900,10 +7492,7 @@
         <v>11</v>
       </c>
       <c r="B478" s="1">
-        <v>84</v>
-      </c>
-      <c r="C478">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D478">
         <v>0</v>
@@ -7917,10 +7506,7 @@
         <v>12</v>
       </c>
       <c r="B479" s="1">
-        <v>84</v>
-      </c>
-      <c r="C479">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D479">
         <v>0</v>
@@ -7934,10 +7520,7 @@
         <v>13</v>
       </c>
       <c r="B480" s="1">
-        <v>84</v>
-      </c>
-      <c r="C480">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D480">
         <v>0</v>
@@ -7951,10 +7534,7 @@
         <v>14</v>
       </c>
       <c r="B481" s="1">
-        <v>84</v>
-      </c>
-      <c r="C481">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D481">
         <v>0</v>
@@ -7968,10 +7548,7 @@
         <v>11</v>
       </c>
       <c r="B482" s="1">
-        <v>85</v>
-      </c>
-      <c r="C482">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D482">
         <v>0</v>
@@ -7985,10 +7562,7 @@
         <v>12</v>
       </c>
       <c r="B483" s="1">
-        <v>85</v>
-      </c>
-      <c r="C483">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D483">
         <v>0</v>
@@ -8002,10 +7576,7 @@
         <v>13</v>
       </c>
       <c r="B484" s="1">
-        <v>85</v>
-      </c>
-      <c r="C484">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D484">
         <v>0</v>
@@ -8019,10 +7590,7 @@
         <v>14</v>
       </c>
       <c r="B485" s="1">
-        <v>85</v>
-      </c>
-      <c r="C485">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D485">
         <v>0</v>
@@ -8036,10 +7604,7 @@
         <v>11</v>
       </c>
       <c r="B486" s="1">
-        <v>86</v>
-      </c>
-      <c r="C486">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D486">
         <v>0</v>
@@ -8053,10 +7618,7 @@
         <v>12</v>
       </c>
       <c r="B487" s="1">
-        <v>86</v>
-      </c>
-      <c r="C487">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D487">
         <v>0</v>
@@ -8070,10 +7632,7 @@
         <v>13</v>
       </c>
       <c r="B488" s="1">
-        <v>86</v>
-      </c>
-      <c r="C488">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D488">
         <v>0</v>
@@ -8087,10 +7646,7 @@
         <v>14</v>
       </c>
       <c r="B489" s="1">
-        <v>86</v>
-      </c>
-      <c r="C489">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D489">
         <v>0</v>
@@ -8104,10 +7660,7 @@
         <v>11</v>
       </c>
       <c r="B490" s="1">
-        <v>87</v>
-      </c>
-      <c r="C490">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D490">
         <v>0</v>
@@ -8121,10 +7674,7 @@
         <v>12</v>
       </c>
       <c r="B491" s="1">
-        <v>87</v>
-      </c>
-      <c r="C491">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D491">
         <v>0</v>
@@ -8138,10 +7688,7 @@
         <v>13</v>
       </c>
       <c r="B492" s="1">
-        <v>87</v>
-      </c>
-      <c r="C492">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D492">
         <v>0</v>
@@ -8155,10 +7702,7 @@
         <v>14</v>
       </c>
       <c r="B493" s="1">
-        <v>87</v>
-      </c>
-      <c r="C493">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -8172,10 +7716,7 @@
         <v>11</v>
       </c>
       <c r="B494" s="1">
-        <v>88</v>
-      </c>
-      <c r="C494">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D494">
         <v>0</v>
@@ -8189,10 +7730,7 @@
         <v>12</v>
       </c>
       <c r="B495" s="1">
-        <v>88</v>
-      </c>
-      <c r="C495">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D495">
         <v>0</v>
@@ -8206,10 +7744,7 @@
         <v>13</v>
       </c>
       <c r="B496" s="1">
-        <v>88</v>
-      </c>
-      <c r="C496">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D496">
         <v>0</v>
@@ -8223,10 +7758,7 @@
         <v>14</v>
       </c>
       <c r="B497" s="1">
-        <v>88</v>
-      </c>
-      <c r="C497">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D497">
         <v>0</v>
@@ -8240,10 +7772,7 @@
         <v>11</v>
       </c>
       <c r="B498" s="1">
-        <v>89</v>
-      </c>
-      <c r="C498">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D498">
         <v>0</v>
@@ -8257,10 +7786,7 @@
         <v>12</v>
       </c>
       <c r="B499" s="1">
-        <v>89</v>
-      </c>
-      <c r="C499">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D499">
         <v>0</v>
@@ -8274,10 +7800,7 @@
         <v>13</v>
       </c>
       <c r="B500" s="1">
-        <v>89</v>
-      </c>
-      <c r="C500">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D500">
         <v>0</v>
@@ -8291,10 +7814,7 @@
         <v>14</v>
       </c>
       <c r="B501" s="1">
-        <v>89</v>
-      </c>
-      <c r="C501">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D501">
         <v>0</v>
@@ -8308,10 +7828,7 @@
         <v>11</v>
       </c>
       <c r="B502" s="1">
-        <v>90</v>
-      </c>
-      <c r="C502">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D502">
         <v>0</v>
@@ -8325,10 +7842,7 @@
         <v>12</v>
       </c>
       <c r="B503" s="1">
-        <v>90</v>
-      </c>
-      <c r="C503">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D503">
         <v>0</v>
@@ -8342,10 +7856,7 @@
         <v>13</v>
       </c>
       <c r="B504" s="1">
-        <v>90</v>
-      </c>
-      <c r="C504">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D504">
         <v>0</v>
@@ -8359,10 +7870,7 @@
         <v>14</v>
       </c>
       <c r="B505" s="1">
-        <v>90</v>
-      </c>
-      <c r="C505">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D505">
         <v>0</v>
@@ -8376,10 +7884,7 @@
         <v>11</v>
       </c>
       <c r="B506" s="1">
-        <v>91</v>
-      </c>
-      <c r="C506">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D506">
         <v>0</v>
@@ -8393,10 +7898,7 @@
         <v>12</v>
       </c>
       <c r="B507" s="1">
-        <v>91</v>
-      </c>
-      <c r="C507">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D507">
         <v>0</v>
@@ -8410,10 +7912,7 @@
         <v>13</v>
       </c>
       <c r="B508" s="1">
-        <v>91</v>
-      </c>
-      <c r="C508">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D508">
         <v>0</v>
@@ -8427,10 +7926,7 @@
         <v>14</v>
       </c>
       <c r="B509" s="1">
-        <v>91</v>
-      </c>
-      <c r="C509">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D509">
         <v>0</v>
@@ -8444,10 +7940,7 @@
         <v>11</v>
       </c>
       <c r="B510" s="1">
-        <v>92</v>
-      </c>
-      <c r="C510">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D510">
         <v>0</v>
@@ -8461,10 +7954,7 @@
         <v>12</v>
       </c>
       <c r="B511" s="1">
-        <v>92</v>
-      </c>
-      <c r="C511">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D511">
         <v>0</v>
@@ -8478,10 +7968,7 @@
         <v>13</v>
       </c>
       <c r="B512" s="1">
-        <v>92</v>
-      </c>
-      <c r="C512">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D512">
         <v>0</v>
@@ -8495,10 +7982,7 @@
         <v>14</v>
       </c>
       <c r="B513" s="1">
-        <v>92</v>
-      </c>
-      <c r="C513">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D513">
         <v>0</v>
@@ -8512,10 +7996,7 @@
         <v>11</v>
       </c>
       <c r="B514" s="1">
-        <v>93</v>
-      </c>
-      <c r="C514">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D514">
         <v>0</v>
@@ -8529,10 +8010,7 @@
         <v>12</v>
       </c>
       <c r="B515" s="1">
-        <v>93</v>
-      </c>
-      <c r="C515">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D515">
         <v>0</v>
@@ -8546,10 +8024,7 @@
         <v>13</v>
       </c>
       <c r="B516" s="1">
-        <v>93</v>
-      </c>
-      <c r="C516">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D516">
         <v>0</v>
@@ -8563,10 +8038,7 @@
         <v>14</v>
       </c>
       <c r="B517" s="1">
-        <v>93</v>
-      </c>
-      <c r="C517">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D517">
         <v>0</v>
@@ -8580,10 +8052,7 @@
         <v>11</v>
       </c>
       <c r="B518" s="1">
-        <v>94</v>
-      </c>
-      <c r="C518">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D518">
         <v>0</v>
@@ -8597,10 +8066,7 @@
         <v>12</v>
       </c>
       <c r="B519" s="1">
-        <v>94</v>
-      </c>
-      <c r="C519">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D519">
         <v>0</v>
@@ -8614,10 +8080,7 @@
         <v>13</v>
       </c>
       <c r="B520" s="1">
-        <v>94</v>
-      </c>
-      <c r="C520">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D520">
         <v>0</v>
@@ -8631,10 +8094,7 @@
         <v>14</v>
       </c>
       <c r="B521" s="1">
-        <v>94</v>
-      </c>
-      <c r="C521">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D521">
         <v>0</v>
@@ -8648,10 +8108,7 @@
         <v>11</v>
       </c>
       <c r="B522" s="1">
-        <v>95</v>
-      </c>
-      <c r="C522">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D522">
         <v>0</v>
@@ -8665,10 +8122,7 @@
         <v>12</v>
       </c>
       <c r="B523" s="1">
-        <v>95</v>
-      </c>
-      <c r="C523">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D523">
         <v>0</v>
@@ -8682,10 +8136,7 @@
         <v>13</v>
       </c>
       <c r="B524" s="1">
-        <v>95</v>
-      </c>
-      <c r="C524">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D524">
         <v>0</v>
@@ -8699,10 +8150,7 @@
         <v>14</v>
       </c>
       <c r="B525" s="1">
-        <v>95</v>
-      </c>
-      <c r="C525">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D525">
         <v>0</v>
@@ -8716,10 +8164,7 @@
         <v>11</v>
       </c>
       <c r="B526" s="1">
-        <v>96</v>
-      </c>
-      <c r="C526">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D526">
         <v>0</v>
@@ -8733,10 +8178,7 @@
         <v>12</v>
       </c>
       <c r="B527" s="1">
-        <v>96</v>
-      </c>
-      <c r="C527">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D527">
         <v>0</v>
@@ -8750,10 +8192,7 @@
         <v>13</v>
       </c>
       <c r="B528" s="1">
-        <v>96</v>
-      </c>
-      <c r="C528">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D528">
         <v>0</v>
@@ -8767,10 +8206,7 @@
         <v>14</v>
       </c>
       <c r="B529" s="1">
-        <v>96</v>
-      </c>
-      <c r="C529">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D529">
         <v>0</v>
@@ -8784,10 +8220,7 @@
         <v>11</v>
       </c>
       <c r="B530" s="1">
-        <v>97</v>
-      </c>
-      <c r="C530">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D530">
         <v>0</v>
@@ -8801,10 +8234,7 @@
         <v>12</v>
       </c>
       <c r="B531" s="1">
-        <v>97</v>
-      </c>
-      <c r="C531">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D531">
         <v>0</v>
@@ -8818,10 +8248,7 @@
         <v>13</v>
       </c>
       <c r="B532" s="1">
-        <v>97</v>
-      </c>
-      <c r="C532">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D532">
         <v>0</v>
@@ -8835,10 +8262,7 @@
         <v>14</v>
       </c>
       <c r="B533" s="1">
-        <v>97</v>
-      </c>
-      <c r="C533">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D533">
         <v>0</v>
@@ -8852,10 +8276,7 @@
         <v>11</v>
       </c>
       <c r="B534" s="1">
-        <v>98</v>
-      </c>
-      <c r="C534">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D534">
         <v>0</v>
@@ -8869,10 +8290,7 @@
         <v>12</v>
       </c>
       <c r="B535" s="1">
-        <v>98</v>
-      </c>
-      <c r="C535">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D535">
         <v>0</v>
@@ -8886,10 +8304,7 @@
         <v>13</v>
       </c>
       <c r="B536" s="1">
-        <v>98</v>
-      </c>
-      <c r="C536">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D536">
         <v>0</v>
@@ -8903,71 +8318,12 @@
         <v>14</v>
       </c>
       <c r="B537" s="1">
-        <v>98</v>
-      </c>
-      <c r="C537">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D537">
         <v>0</v>
       </c>
       <c r="E537">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5">
-      <c r="A538" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B538" s="1">
-        <v>99</v>
-      </c>
-      <c r="D538">
-        <v>0</v>
-      </c>
-      <c r="E538">
-        <v>53625000</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5">
-      <c r="A539" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B539" s="1">
-        <v>99</v>
-      </c>
-      <c r="D539">
-        <v>0</v>
-      </c>
-      <c r="E539">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5">
-      <c r="A540" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B540" s="1">
-        <v>99</v>
-      </c>
-      <c r="D540">
-        <v>0</v>
-      </c>
-      <c r="E540">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5">
-      <c r="A541" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B541" s="1">
-        <v>99</v>
-      </c>
-      <c r="D541">
-        <v>0</v>
-      </c>
-      <c r="E541">
         <v>33000000</v>
       </c>
     </row>

--- a/tranchedata.xlsx
+++ b/tranchedata.xlsx
@@ -537,7 +537,7 @@
         <v>52</v>
       </c>
       <c r="C8">
-        <v>1831093.464514666</v>
+        <v>1892129.913331822</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -552,13 +552,13 @@
         <v>53</v>
       </c>
       <c r="C9">
-        <v>1831093.464514666</v>
+        <v>1892129.913331822</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>65221702.36000001</v>
       </c>
       <c r="E9">
-        <v>346579204.64</v>
+        <v>281357502.28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -567,13 +567,13 @@
         <v>54</v>
       </c>
       <c r="C10">
-        <v>1831093.464514666</v>
+        <v>1387405.105687378</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>55000000</v>
       </c>
       <c r="E10">
-        <v>346579204.64</v>
+        <v>226357502.28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,13 +582,13 @@
         <v>55</v>
       </c>
       <c r="C11">
-        <v>1831093.464514666</v>
+        <v>1235786.208280866</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>58111292.09213597</v>
       </c>
       <c r="E11">
-        <v>346579204.64</v>
+        <v>168246210.187864</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -597,13 +597,13 @@
         <v>56</v>
       </c>
       <c r="C12">
-        <v>1831093.464514666</v>
+        <v>888900.8104925482</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>346579204.64</v>
+        <v>168246210.187864</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -612,13 +612,13 @@
         <v>57</v>
       </c>
       <c r="C13">
-        <v>1831093.464514666</v>
+        <v>918530.8375089663</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>143686931.94</v>
       </c>
       <c r="E13">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>58</v>
       </c>
       <c r="C14">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -642,13 +642,13 @@
         <v>59</v>
       </c>
       <c r="C15">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -657,13 +657,13 @@
         <v>60</v>
       </c>
       <c r="C16">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -672,13 +672,13 @@
         <v>61</v>
       </c>
       <c r="C17">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,13 +687,13 @@
         <v>62</v>
       </c>
       <c r="C18">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -702,13 +702,13 @@
         <v>63</v>
       </c>
       <c r="C19">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -717,13 +717,13 @@
         <v>64</v>
       </c>
       <c r="C20">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -732,13 +732,13 @@
         <v>65</v>
       </c>
       <c r="C21">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -747,13 +747,13 @@
         <v>66</v>
       </c>
       <c r="C22">
-        <v>1831093.464514666</v>
+        <v>121104.5298489115</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -762,13 +762,13 @@
         <v>67</v>
       </c>
       <c r="C23">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -777,13 +777,13 @@
         <v>68</v>
       </c>
       <c r="C24">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -792,13 +792,13 @@
         <v>69</v>
       </c>
       <c r="C25">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -807,13 +807,13 @@
         <v>70</v>
       </c>
       <c r="C26">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -822,13 +822,13 @@
         <v>71</v>
       </c>
       <c r="C27">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -837,13 +837,13 @@
         <v>72</v>
       </c>
       <c r="C28">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -852,13 +852,13 @@
         <v>73</v>
       </c>
       <c r="C29">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -867,13 +867,13 @@
         <v>74</v>
       </c>
       <c r="C30">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -882,13 +882,13 @@
         <v>75</v>
       </c>
       <c r="C31">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -897,13 +897,13 @@
         <v>76</v>
       </c>
       <c r="C32">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -912,13 +912,13 @@
         <v>77</v>
       </c>
       <c r="C33">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -927,13 +927,13 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1831093.464514666</v>
+        <v>121104.5298489115</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -942,13 +942,13 @@
         <v>79</v>
       </c>
       <c r="C35">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -957,13 +957,13 @@
         <v>80</v>
       </c>
       <c r="C36">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -972,13 +972,13 @@
         <v>81</v>
       </c>
       <c r="C37">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -987,13 +987,13 @@
         <v>82</v>
       </c>
       <c r="C38">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1017,13 +1017,13 @@
         <v>84</v>
       </c>
       <c r="C40">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1032,13 +1032,13 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1047,13 +1047,13 @@
         <v>86</v>
       </c>
       <c r="C42">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1062,13 +1062,13 @@
         <v>87</v>
       </c>
       <c r="C43">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1077,13 +1077,13 @@
         <v>88</v>
       </c>
       <c r="C44">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1092,13 +1092,13 @@
         <v>89</v>
       </c>
       <c r="C45">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1107,13 +1107,13 @@
         <v>90</v>
       </c>
       <c r="C46">
-        <v>1831093.464514666</v>
+        <v>121104.5298489115</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1122,13 +1122,13 @@
         <v>91</v>
       </c>
       <c r="C47">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1152,13 +1152,13 @@
         <v>93</v>
       </c>
       <c r="C49">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>94</v>
       </c>
       <c r="C50">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1182,13 +1182,13 @@
         <v>95</v>
       </c>
       <c r="C51">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1197,13 +1197,13 @@
         <v>96</v>
       </c>
       <c r="C52">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1212,13 +1212,13 @@
         <v>97</v>
       </c>
       <c r="C53">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1227,13 +1227,13 @@
         <v>98</v>
       </c>
       <c r="C54">
-        <v>1831093.464514666</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1242,13 +1242,13 @@
         <v>99</v>
       </c>
       <c r="C55">
-        <v>1831093.464514666</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>346579204.64</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1349,7 +1349,7 @@
         <v>52</v>
       </c>
       <c r="C62">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>53</v>
       </c>
       <c r="C63">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>54</v>
       </c>
       <c r="C64">
-        <v>786018.7499999999</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>55</v>
       </c>
       <c r="C65">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>57</v>
       </c>
       <c r="C67">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>59</v>
       </c>
       <c r="C69">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>60</v>
       </c>
       <c r="C70">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>62</v>
       </c>
       <c r="C72">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>64</v>
       </c>
       <c r="C74">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>65</v>
       </c>
       <c r="C75">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>66</v>
       </c>
       <c r="C76">
-        <v>786018.7499999999</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>67</v>
       </c>
       <c r="C77">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>69</v>
       </c>
       <c r="C79">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>71</v>
       </c>
       <c r="C81">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>72</v>
       </c>
       <c r="C82">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>74</v>
       </c>
       <c r="C84">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>76</v>
       </c>
       <c r="C86">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>77</v>
       </c>
       <c r="C87">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>78</v>
       </c>
       <c r="C88">
-        <v>786018.7499999999</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>79</v>
       </c>
       <c r="C89">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>81</v>
       </c>
       <c r="C91">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>83</v>
       </c>
       <c r="C93">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>84</v>
       </c>
       <c r="C94">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>86</v>
       </c>
       <c r="C96">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>88</v>
       </c>
       <c r="C98">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>89</v>
       </c>
       <c r="C99">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>90</v>
       </c>
       <c r="C100">
-        <v>786018.7499999999</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>91</v>
       </c>
       <c r="C101">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>93</v>
       </c>
       <c r="C103">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>95</v>
       </c>
       <c r="C105">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>96</v>
       </c>
       <c r="C106">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>98</v>
       </c>
       <c r="C108">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>52</v>
       </c>
       <c r="C116">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>53</v>
       </c>
       <c r="C117">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>54</v>
       </c>
       <c r="C118">
-        <v>377300</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>55</v>
       </c>
       <c r="C119">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>57</v>
       </c>
       <c r="C121">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>59</v>
       </c>
       <c r="C123">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>60</v>
       </c>
       <c r="C124">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>62</v>
       </c>
       <c r="C126">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>64</v>
       </c>
       <c r="C128">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>65</v>
       </c>
       <c r="C129">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>66</v>
       </c>
       <c r="C130">
-        <v>377300</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>67</v>
       </c>
       <c r="C131">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>69</v>
       </c>
       <c r="C133">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>71</v>
       </c>
       <c r="C135">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>72</v>
       </c>
       <c r="C136">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>74</v>
       </c>
       <c r="C138">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>76</v>
       </c>
       <c r="C140">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>77</v>
       </c>
       <c r="C141">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>78</v>
       </c>
       <c r="C142">
-        <v>377300</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>79</v>
       </c>
       <c r="C143">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>81</v>
       </c>
       <c r="C145">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>83</v>
       </c>
       <c r="C147">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>84</v>
       </c>
       <c r="C148">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>86</v>
       </c>
       <c r="C150">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>88</v>
       </c>
       <c r="C152">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>89</v>
       </c>
       <c r="C153">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>90</v>
       </c>
       <c r="C154">
-        <v>377300</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>91</v>
       </c>
       <c r="C155">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>93</v>
       </c>
       <c r="C157">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>95</v>
       </c>
       <c r="C159">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>96</v>
       </c>
       <c r="C160">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>98</v>
       </c>
       <c r="C162">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>52</v>
       </c>
       <c r="C170">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>53</v>
       </c>
       <c r="C171">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>54</v>
       </c>
       <c r="C172">
-        <v>479164.5833333333</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>55</v>
       </c>
       <c r="C173">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>57</v>
       </c>
       <c r="C175">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>59</v>
       </c>
       <c r="C177">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>60</v>
       </c>
       <c r="C178">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>62</v>
       </c>
       <c r="C180">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>64</v>
       </c>
       <c r="C182">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>65</v>
       </c>
       <c r="C183">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>66</v>
       </c>
       <c r="C184">
-        <v>479164.5833333333</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>67</v>
       </c>
       <c r="C185">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>69</v>
       </c>
       <c r="C187">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>71</v>
       </c>
       <c r="C189">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>72</v>
       </c>
       <c r="C190">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>74</v>
       </c>
       <c r="C192">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>76</v>
       </c>
       <c r="C194">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>77</v>
       </c>
       <c r="C195">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>78</v>
       </c>
       <c r="C196">
-        <v>479164.5833333333</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>79</v>
       </c>
       <c r="C197">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>81</v>
       </c>
       <c r="C199">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>83</v>
       </c>
       <c r="C201">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>84</v>
       </c>
       <c r="C202">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>86</v>
       </c>
       <c r="C204">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>88</v>
       </c>
       <c r="C206">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>89</v>
       </c>
       <c r="C207">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>90</v>
       </c>
       <c r="C208">
-        <v>479164.5833333333</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>91</v>
       </c>
       <c r="C209">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>93</v>
       </c>
       <c r="C211">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>95</v>
       </c>
       <c r="C213">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>96</v>
       </c>
       <c r="C214">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>98</v>
       </c>
       <c r="C216">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>52</v>
       </c>
       <c r="C224">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>53</v>
       </c>
       <c r="C225">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -3815,7 +3815,7 @@
         <v>54</v>
       </c>
       <c r="C226">
-        <v>374951.0416666667</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>55</v>
       </c>
       <c r="C227">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>57</v>
       </c>
       <c r="C229">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -3890,7 +3890,7 @@
         <v>59</v>
       </c>
       <c r="C231">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>60</v>
       </c>
       <c r="C232">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>62</v>
       </c>
       <c r="C234">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>64</v>
       </c>
       <c r="C236">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>65</v>
       </c>
       <c r="C237">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>66</v>
       </c>
       <c r="C238">
-        <v>374951.0416666667</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>67</v>
       </c>
       <c r="C239">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>69</v>
       </c>
       <c r="C241">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>71</v>
       </c>
       <c r="C243">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -4085,7 +4085,7 @@
         <v>72</v>
       </c>
       <c r="C244">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>74</v>
       </c>
       <c r="C246">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>76</v>
       </c>
       <c r="C248">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>77</v>
       </c>
       <c r="C249">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>78</v>
       </c>
       <c r="C250">
-        <v>374951.0416666667</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>79</v>
       </c>
       <c r="C251">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>81</v>
       </c>
       <c r="C253">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>83</v>
       </c>
       <c r="C255">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -4265,7 +4265,7 @@
         <v>84</v>
       </c>
       <c r="C256">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>86</v>
       </c>
       <c r="C258">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -4325,7 +4325,7 @@
         <v>88</v>
       </c>
       <c r="C260">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>89</v>
       </c>
       <c r="C261">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -4355,7 +4355,7 @@
         <v>90</v>
       </c>
       <c r="C262">
-        <v>374951.0416666667</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>91</v>
       </c>
       <c r="C263">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>93</v>
       </c>
       <c r="C265">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>95</v>
       </c>
       <c r="C267">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>96</v>
       </c>
       <c r="C268">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -4475,7 +4475,7 @@
         <v>98</v>
       </c>
       <c r="C270">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>52</v>
       </c>
       <c r="C278">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>53</v>
       </c>
       <c r="C279">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>54</v>
       </c>
       <c r="C280">
-        <v>82087.5</v>
+        <v>76615</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>55</v>
       </c>
       <c r="C281">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>57</v>
       </c>
       <c r="C283">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>59</v>
       </c>
       <c r="C285">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         <v>60</v>
       </c>
       <c r="C286">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>62</v>
       </c>
       <c r="C288">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>64</v>
       </c>
       <c r="C290">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>65</v>
       </c>
       <c r="C291">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>66</v>
       </c>
       <c r="C292">
-        <v>82087.5</v>
+        <v>76615</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>67</v>
       </c>
       <c r="C293">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>69</v>
       </c>
       <c r="C295">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>71</v>
       </c>
       <c r="C297">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>72</v>
       </c>
       <c r="C298">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>74</v>
       </c>
       <c r="C300">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>76</v>
       </c>
       <c r="C302">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>77</v>
       </c>
       <c r="C303">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>78</v>
       </c>
       <c r="C304">
-        <v>82087.5</v>
+        <v>76615</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>79</v>
       </c>
       <c r="C305">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>81</v>
       </c>
       <c r="C307">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>83</v>
       </c>
       <c r="C309">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>84</v>
       </c>
       <c r="C310">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>86</v>
       </c>
       <c r="C312">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>88</v>
       </c>
       <c r="C314">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>89</v>
       </c>
       <c r="C315">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>90</v>
       </c>
       <c r="C316">
-        <v>82087.5</v>
+        <v>76615</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>91</v>
       </c>
       <c r="C317">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>93</v>
       </c>
       <c r="C319">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>95</v>
       </c>
       <c r="C321">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>96</v>
       </c>
       <c r="C322">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>98</v>
       </c>
       <c r="C324">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -5590,6 +5590,9 @@
       <c r="B342" s="1">
         <v>51</v>
       </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
       <c r="D342">
         <v>0</v>
       </c>
@@ -5604,6 +5607,9 @@
       <c r="B343" s="1">
         <v>51</v>
       </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
       <c r="D343">
         <v>0</v>
       </c>
@@ -5618,6 +5624,9 @@
       <c r="B344" s="1">
         <v>51</v>
       </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
       <c r="D344">
         <v>0</v>
       </c>
@@ -5632,6 +5641,9 @@
       <c r="B345" s="1">
         <v>51</v>
       </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
       <c r="D345">
         <v>0</v>
       </c>
@@ -5646,6 +5658,9 @@
       <c r="B346" s="1">
         <v>52</v>
       </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
       <c r="D346">
         <v>0</v>
       </c>
@@ -5660,6 +5675,9 @@
       <c r="B347" s="1">
         <v>52</v>
       </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
       <c r="D347">
         <v>0</v>
       </c>
@@ -5674,6 +5692,9 @@
       <c r="B348" s="1">
         <v>52</v>
       </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
       <c r="D348">
         <v>0</v>
       </c>
@@ -5688,6 +5709,9 @@
       <c r="B349" s="1">
         <v>52</v>
       </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
       <c r="D349">
         <v>0</v>
       </c>
@@ -5702,6 +5726,9 @@
       <c r="B350" s="1">
         <v>53</v>
       </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
       <c r="D350">
         <v>0</v>
       </c>
@@ -5716,6 +5743,9 @@
       <c r="B351" s="1">
         <v>53</v>
       </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
       <c r="D351">
         <v>0</v>
       </c>
@@ -5730,6 +5760,9 @@
       <c r="B352" s="1">
         <v>53</v>
       </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
       <c r="D352">
         <v>0</v>
       </c>
@@ -5744,6 +5777,9 @@
       <c r="B353" s="1">
         <v>53</v>
       </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
       <c r="D353">
         <v>0</v>
       </c>
@@ -5758,6 +5794,9 @@
       <c r="B354" s="1">
         <v>54</v>
       </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
       <c r="D354">
         <v>0</v>
       </c>
@@ -5772,6 +5811,9 @@
       <c r="B355" s="1">
         <v>54</v>
       </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
       <c r="D355">
         <v>0</v>
       </c>
@@ -5786,6 +5828,9 @@
       <c r="B356" s="1">
         <v>54</v>
       </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
       <c r="D356">
         <v>0</v>
       </c>
@@ -5800,6 +5845,9 @@
       <c r="B357" s="1">
         <v>54</v>
       </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
       <c r="D357">
         <v>0</v>
       </c>
@@ -5814,6 +5862,9 @@
       <c r="B358" s="1">
         <v>55</v>
       </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
       <c r="D358">
         <v>0</v>
       </c>
@@ -5828,6 +5879,9 @@
       <c r="B359" s="1">
         <v>55</v>
       </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
       <c r="D359">
         <v>0</v>
       </c>
@@ -5842,6 +5896,9 @@
       <c r="B360" s="1">
         <v>55</v>
       </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
       <c r="D360">
         <v>0</v>
       </c>
@@ -5856,6 +5913,9 @@
       <c r="B361" s="1">
         <v>55</v>
       </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
       <c r="D361">
         <v>0</v>
       </c>
@@ -5870,6 +5930,9 @@
       <c r="B362" s="1">
         <v>56</v>
       </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
       <c r="D362">
         <v>0</v>
       </c>
@@ -5884,6 +5947,9 @@
       <c r="B363" s="1">
         <v>56</v>
       </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
       <c r="D363">
         <v>0</v>
       </c>
@@ -5898,6 +5964,9 @@
       <c r="B364" s="1">
         <v>56</v>
       </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
       <c r="D364">
         <v>0</v>
       </c>
@@ -5912,6 +5981,9 @@
       <c r="B365" s="1">
         <v>56</v>
       </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
       <c r="D365">
         <v>0</v>
       </c>
@@ -5926,6 +5998,9 @@
       <c r="B366" s="1">
         <v>57</v>
       </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
       <c r="D366">
         <v>0</v>
       </c>
@@ -5940,6 +6015,9 @@
       <c r="B367" s="1">
         <v>57</v>
       </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
       <c r="D367">
         <v>0</v>
       </c>
@@ -5954,6 +6032,9 @@
       <c r="B368" s="1">
         <v>57</v>
       </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
       <c r="D368">
         <v>0</v>
       </c>
@@ -5968,6 +6049,9 @@
       <c r="B369" s="1">
         <v>57</v>
       </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
       <c r="D369">
         <v>0</v>
       </c>
@@ -5982,6 +6066,9 @@
       <c r="B370" s="1">
         <v>58</v>
       </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
       <c r="D370">
         <v>0</v>
       </c>
@@ -5996,6 +6083,9 @@
       <c r="B371" s="1">
         <v>58</v>
       </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
       <c r="D371">
         <v>0</v>
       </c>
@@ -6010,6 +6100,9 @@
       <c r="B372" s="1">
         <v>58</v>
       </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
       <c r="D372">
         <v>0</v>
       </c>
@@ -6024,6 +6117,9 @@
       <c r="B373" s="1">
         <v>58</v>
       </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
       <c r="D373">
         <v>0</v>
       </c>
@@ -6038,6 +6134,9 @@
       <c r="B374" s="1">
         <v>59</v>
       </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
       <c r="D374">
         <v>0</v>
       </c>
@@ -6052,6 +6151,9 @@
       <c r="B375" s="1">
         <v>59</v>
       </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
       <c r="D375">
         <v>0</v>
       </c>
@@ -6066,6 +6168,9 @@
       <c r="B376" s="1">
         <v>59</v>
       </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
       <c r="D376">
         <v>0</v>
       </c>
@@ -6080,6 +6185,9 @@
       <c r="B377" s="1">
         <v>59</v>
       </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
       <c r="D377">
         <v>0</v>
       </c>
@@ -6094,6 +6202,9 @@
       <c r="B378" s="1">
         <v>60</v>
       </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
       <c r="D378">
         <v>0</v>
       </c>
@@ -6108,6 +6219,9 @@
       <c r="B379" s="1">
         <v>60</v>
       </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
       <c r="D379">
         <v>0</v>
       </c>
@@ -6122,6 +6236,9 @@
       <c r="B380" s="1">
         <v>60</v>
       </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
       <c r="D380">
         <v>0</v>
       </c>
@@ -6136,6 +6253,9 @@
       <c r="B381" s="1">
         <v>60</v>
       </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
       <c r="D381">
         <v>0</v>
       </c>
@@ -6150,6 +6270,9 @@
       <c r="B382" s="1">
         <v>61</v>
       </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
       <c r="D382">
         <v>0</v>
       </c>
@@ -6164,6 +6287,9 @@
       <c r="B383" s="1">
         <v>61</v>
       </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
       <c r="D383">
         <v>0</v>
       </c>
@@ -6178,6 +6304,9 @@
       <c r="B384" s="1">
         <v>61</v>
       </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
       <c r="D384">
         <v>0</v>
       </c>
@@ -6192,6 +6321,9 @@
       <c r="B385" s="1">
         <v>61</v>
       </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
       <c r="D385">
         <v>0</v>
       </c>
@@ -6206,6 +6338,9 @@
       <c r="B386" s="1">
         <v>62</v>
       </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
       <c r="D386">
         <v>0</v>
       </c>
@@ -6220,6 +6355,9 @@
       <c r="B387" s="1">
         <v>62</v>
       </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
       <c r="D387">
         <v>0</v>
       </c>
@@ -6234,6 +6372,9 @@
       <c r="B388" s="1">
         <v>62</v>
       </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
       <c r="D388">
         <v>0</v>
       </c>
@@ -6248,6 +6389,9 @@
       <c r="B389" s="1">
         <v>62</v>
       </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
       <c r="D389">
         <v>0</v>
       </c>
@@ -6262,6 +6406,9 @@
       <c r="B390" s="1">
         <v>63</v>
       </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
       <c r="D390">
         <v>0</v>
       </c>
@@ -6276,6 +6423,9 @@
       <c r="B391" s="1">
         <v>63</v>
       </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
       <c r="D391">
         <v>0</v>
       </c>
@@ -6290,6 +6440,9 @@
       <c r="B392" s="1">
         <v>63</v>
       </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
       <c r="D392">
         <v>0</v>
       </c>
@@ -6304,6 +6457,9 @@
       <c r="B393" s="1">
         <v>63</v>
       </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
       <c r="D393">
         <v>0</v>
       </c>
@@ -6318,6 +6474,9 @@
       <c r="B394" s="1">
         <v>64</v>
       </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
       <c r="D394">
         <v>0</v>
       </c>
@@ -6332,6 +6491,9 @@
       <c r="B395" s="1">
         <v>64</v>
       </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
       <c r="D395">
         <v>0</v>
       </c>
@@ -6346,6 +6508,9 @@
       <c r="B396" s="1">
         <v>64</v>
       </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
       <c r="D396">
         <v>0</v>
       </c>
@@ -6360,6 +6525,9 @@
       <c r="B397" s="1">
         <v>64</v>
       </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
       <c r="D397">
         <v>0</v>
       </c>
@@ -6374,6 +6542,9 @@
       <c r="B398" s="1">
         <v>65</v>
       </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
       <c r="D398">
         <v>0</v>
       </c>
@@ -6388,6 +6559,9 @@
       <c r="B399" s="1">
         <v>65</v>
       </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
       <c r="D399">
         <v>0</v>
       </c>
@@ -6402,6 +6576,9 @@
       <c r="B400" s="1">
         <v>65</v>
       </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
       <c r="D400">
         <v>0</v>
       </c>
@@ -6416,6 +6593,9 @@
       <c r="B401" s="1">
         <v>65</v>
       </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
       <c r="D401">
         <v>0</v>
       </c>
@@ -6430,6 +6610,9 @@
       <c r="B402" s="1">
         <v>66</v>
       </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
       <c r="D402">
         <v>0</v>
       </c>
@@ -6444,6 +6627,9 @@
       <c r="B403" s="1">
         <v>66</v>
       </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
       <c r="D403">
         <v>0</v>
       </c>
@@ -6458,6 +6644,9 @@
       <c r="B404" s="1">
         <v>66</v>
       </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
       <c r="D404">
         <v>0</v>
       </c>
@@ -6472,6 +6661,9 @@
       <c r="B405" s="1">
         <v>66</v>
       </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
       <c r="D405">
         <v>0</v>
       </c>
@@ -6486,6 +6678,9 @@
       <c r="B406" s="1">
         <v>67</v>
       </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
       <c r="D406">
         <v>0</v>
       </c>
@@ -6500,6 +6695,9 @@
       <c r="B407" s="1">
         <v>67</v>
       </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
       <c r="D407">
         <v>0</v>
       </c>
@@ -6514,6 +6712,9 @@
       <c r="B408" s="1">
         <v>67</v>
       </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
       <c r="D408">
         <v>0</v>
       </c>
@@ -6528,6 +6729,9 @@
       <c r="B409" s="1">
         <v>67</v>
       </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
       <c r="D409">
         <v>0</v>
       </c>
@@ -6542,6 +6746,9 @@
       <c r="B410" s="1">
         <v>68</v>
       </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
       <c r="D410">
         <v>0</v>
       </c>
@@ -6556,6 +6763,9 @@
       <c r="B411" s="1">
         <v>68</v>
       </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
       <c r="D411">
         <v>0</v>
       </c>
@@ -6570,6 +6780,9 @@
       <c r="B412" s="1">
         <v>68</v>
       </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
       <c r="D412">
         <v>0</v>
       </c>
@@ -6584,6 +6797,9 @@
       <c r="B413" s="1">
         <v>68</v>
       </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
       <c r="D413">
         <v>0</v>
       </c>
@@ -6598,6 +6814,9 @@
       <c r="B414" s="1">
         <v>69</v>
       </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
       <c r="D414">
         <v>0</v>
       </c>
@@ -6612,6 +6831,9 @@
       <c r="B415" s="1">
         <v>69</v>
       </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
       <c r="D415">
         <v>0</v>
       </c>
@@ -6626,6 +6848,9 @@
       <c r="B416" s="1">
         <v>69</v>
       </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
       <c r="D416">
         <v>0</v>
       </c>
@@ -6640,6 +6865,9 @@
       <c r="B417" s="1">
         <v>69</v>
       </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
       <c r="D417">
         <v>0</v>
       </c>
@@ -6654,6 +6882,9 @@
       <c r="B418" s="1">
         <v>70</v>
       </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
       <c r="D418">
         <v>0</v>
       </c>
@@ -6668,6 +6899,9 @@
       <c r="B419" s="1">
         <v>70</v>
       </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
       <c r="D419">
         <v>0</v>
       </c>
@@ -6682,6 +6916,9 @@
       <c r="B420" s="1">
         <v>70</v>
       </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
       <c r="D420">
         <v>0</v>
       </c>
@@ -6696,6 +6933,9 @@
       <c r="B421" s="1">
         <v>70</v>
       </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
       <c r="D421">
         <v>0</v>
       </c>
@@ -6710,6 +6950,9 @@
       <c r="B422" s="1">
         <v>71</v>
       </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
       <c r="D422">
         <v>0</v>
       </c>
@@ -6724,6 +6967,9 @@
       <c r="B423" s="1">
         <v>71</v>
       </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
       <c r="D423">
         <v>0</v>
       </c>
@@ -6738,6 +6984,9 @@
       <c r="B424" s="1">
         <v>71</v>
       </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
       <c r="D424">
         <v>0</v>
       </c>
@@ -6752,6 +7001,9 @@
       <c r="B425" s="1">
         <v>71</v>
       </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
       <c r="D425">
         <v>0</v>
       </c>
@@ -6766,6 +7018,9 @@
       <c r="B426" s="1">
         <v>72</v>
       </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
       <c r="D426">
         <v>0</v>
       </c>
@@ -6780,6 +7035,9 @@
       <c r="B427" s="1">
         <v>72</v>
       </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
       <c r="D427">
         <v>0</v>
       </c>
@@ -6794,6 +7052,9 @@
       <c r="B428" s="1">
         <v>72</v>
       </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
       <c r="D428">
         <v>0</v>
       </c>
@@ -6808,6 +7069,9 @@
       <c r="B429" s="1">
         <v>72</v>
       </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
       <c r="D429">
         <v>0</v>
       </c>
@@ -6822,6 +7086,9 @@
       <c r="B430" s="1">
         <v>73</v>
       </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
       <c r="D430">
         <v>0</v>
       </c>
@@ -6836,6 +7103,9 @@
       <c r="B431" s="1">
         <v>73</v>
       </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
       <c r="D431">
         <v>0</v>
       </c>
@@ -6850,6 +7120,9 @@
       <c r="B432" s="1">
         <v>73</v>
       </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
       <c r="D432">
         <v>0</v>
       </c>
@@ -6864,6 +7137,9 @@
       <c r="B433" s="1">
         <v>73</v>
       </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
       <c r="D433">
         <v>0</v>
       </c>
@@ -6878,6 +7154,9 @@
       <c r="B434" s="1">
         <v>74</v>
       </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
       <c r="D434">
         <v>0</v>
       </c>
@@ -6892,6 +7171,9 @@
       <c r="B435" s="1">
         <v>74</v>
       </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
       <c r="D435">
         <v>0</v>
       </c>
@@ -6906,6 +7188,9 @@
       <c r="B436" s="1">
         <v>74</v>
       </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
       <c r="D436">
         <v>0</v>
       </c>
@@ -6920,6 +7205,9 @@
       <c r="B437" s="1">
         <v>74</v>
       </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
       <c r="D437">
         <v>0</v>
       </c>
@@ -6934,6 +7222,9 @@
       <c r="B438" s="1">
         <v>75</v>
       </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
       <c r="D438">
         <v>0</v>
       </c>
@@ -6948,6 +7239,9 @@
       <c r="B439" s="1">
         <v>75</v>
       </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
       <c r="D439">
         <v>0</v>
       </c>
@@ -6962,6 +7256,9 @@
       <c r="B440" s="1">
         <v>75</v>
       </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
       <c r="D440">
         <v>0</v>
       </c>
@@ -6976,6 +7273,9 @@
       <c r="B441" s="1">
         <v>75</v>
       </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
       <c r="D441">
         <v>0</v>
       </c>
@@ -6990,6 +7290,9 @@
       <c r="B442" s="1">
         <v>76</v>
       </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
       <c r="D442">
         <v>0</v>
       </c>
@@ -7004,6 +7307,9 @@
       <c r="B443" s="1">
         <v>76</v>
       </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
       <c r="D443">
         <v>0</v>
       </c>
@@ -7018,6 +7324,9 @@
       <c r="B444" s="1">
         <v>76</v>
       </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
       <c r="D444">
         <v>0</v>
       </c>
@@ -7032,6 +7341,9 @@
       <c r="B445" s="1">
         <v>76</v>
       </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
       <c r="D445">
         <v>0</v>
       </c>
@@ -7046,6 +7358,9 @@
       <c r="B446" s="1">
         <v>77</v>
       </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
       <c r="D446">
         <v>0</v>
       </c>
@@ -7060,6 +7375,9 @@
       <c r="B447" s="1">
         <v>77</v>
       </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
       <c r="D447">
         <v>0</v>
       </c>
@@ -7074,6 +7392,9 @@
       <c r="B448" s="1">
         <v>77</v>
       </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
       <c r="D448">
         <v>0</v>
       </c>
@@ -7088,6 +7409,9 @@
       <c r="B449" s="1">
         <v>77</v>
       </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
       <c r="D449">
         <v>0</v>
       </c>
@@ -7102,6 +7426,9 @@
       <c r="B450" s="1">
         <v>78</v>
       </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
       <c r="D450">
         <v>0</v>
       </c>
@@ -7116,6 +7443,9 @@
       <c r="B451" s="1">
         <v>78</v>
       </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
       <c r="D451">
         <v>0</v>
       </c>
@@ -7130,6 +7460,9 @@
       <c r="B452" s="1">
         <v>78</v>
       </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
       <c r="D452">
         <v>0</v>
       </c>
@@ -7144,6 +7477,9 @@
       <c r="B453" s="1">
         <v>78</v>
       </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
       <c r="D453">
         <v>0</v>
       </c>
@@ -7158,6 +7494,9 @@
       <c r="B454" s="1">
         <v>79</v>
       </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
       <c r="D454">
         <v>0</v>
       </c>
@@ -7172,6 +7511,9 @@
       <c r="B455" s="1">
         <v>79</v>
       </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
       <c r="D455">
         <v>0</v>
       </c>
@@ -7186,6 +7528,9 @@
       <c r="B456" s="1">
         <v>79</v>
       </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
       <c r="D456">
         <v>0</v>
       </c>
@@ -7200,6 +7545,9 @@
       <c r="B457" s="1">
         <v>79</v>
       </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
       <c r="D457">
         <v>0</v>
       </c>
@@ -7214,6 +7562,9 @@
       <c r="B458" s="1">
         <v>80</v>
       </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
       <c r="D458">
         <v>0</v>
       </c>
@@ -7228,6 +7579,9 @@
       <c r="B459" s="1">
         <v>80</v>
       </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
       <c r="D459">
         <v>0</v>
       </c>
@@ -7242,6 +7596,9 @@
       <c r="B460" s="1">
         <v>80</v>
       </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
       <c r="D460">
         <v>0</v>
       </c>
@@ -7256,6 +7613,9 @@
       <c r="B461" s="1">
         <v>80</v>
       </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
       <c r="D461">
         <v>0</v>
       </c>
@@ -7270,6 +7630,9 @@
       <c r="B462" s="1">
         <v>81</v>
       </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
       <c r="D462">
         <v>0</v>
       </c>
@@ -7284,6 +7647,9 @@
       <c r="B463" s="1">
         <v>81</v>
       </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
       <c r="D463">
         <v>0</v>
       </c>
@@ -7298,6 +7664,9 @@
       <c r="B464" s="1">
         <v>81</v>
       </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
       <c r="D464">
         <v>0</v>
       </c>
@@ -7312,6 +7681,9 @@
       <c r="B465" s="1">
         <v>81</v>
       </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
       <c r="D465">
         <v>0</v>
       </c>
@@ -7326,6 +7698,9 @@
       <c r="B466" s="1">
         <v>82</v>
       </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
       <c r="D466">
         <v>0</v>
       </c>
@@ -7340,6 +7715,9 @@
       <c r="B467" s="1">
         <v>82</v>
       </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
       <c r="D467">
         <v>0</v>
       </c>
@@ -7354,6 +7732,9 @@
       <c r="B468" s="1">
         <v>82</v>
       </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
       <c r="D468">
         <v>0</v>
       </c>
@@ -7368,6 +7749,9 @@
       <c r="B469" s="1">
         <v>82</v>
       </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
       <c r="D469">
         <v>0</v>
       </c>
@@ -7382,6 +7766,9 @@
       <c r="B470" s="1">
         <v>83</v>
       </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
       <c r="D470">
         <v>0</v>
       </c>
@@ -7396,6 +7783,9 @@
       <c r="B471" s="1">
         <v>83</v>
       </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
       <c r="D471">
         <v>0</v>
       </c>
@@ -7410,6 +7800,9 @@
       <c r="B472" s="1">
         <v>83</v>
       </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
       <c r="D472">
         <v>0</v>
       </c>
@@ -7424,6 +7817,9 @@
       <c r="B473" s="1">
         <v>83</v>
       </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
       <c r="D473">
         <v>0</v>
       </c>
@@ -7438,6 +7834,9 @@
       <c r="B474" s="1">
         <v>84</v>
       </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
       <c r="D474">
         <v>0</v>
       </c>
@@ -7452,6 +7851,9 @@
       <c r="B475" s="1">
         <v>84</v>
       </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
       <c r="D475">
         <v>0</v>
       </c>
@@ -7466,6 +7868,9 @@
       <c r="B476" s="1">
         <v>84</v>
       </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
       <c r="D476">
         <v>0</v>
       </c>
@@ -7480,6 +7885,9 @@
       <c r="B477" s="1">
         <v>84</v>
       </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
       <c r="D477">
         <v>0</v>
       </c>
@@ -7494,6 +7902,9 @@
       <c r="B478" s="1">
         <v>85</v>
       </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
       <c r="D478">
         <v>0</v>
       </c>
@@ -7508,6 +7919,9 @@
       <c r="B479" s="1">
         <v>85</v>
       </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
       <c r="D479">
         <v>0</v>
       </c>
@@ -7522,6 +7936,9 @@
       <c r="B480" s="1">
         <v>85</v>
       </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
       <c r="D480">
         <v>0</v>
       </c>
@@ -7536,6 +7953,9 @@
       <c r="B481" s="1">
         <v>85</v>
       </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
       <c r="D481">
         <v>0</v>
       </c>
@@ -7550,6 +7970,9 @@
       <c r="B482" s="1">
         <v>86</v>
       </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
       <c r="D482">
         <v>0</v>
       </c>
@@ -7564,6 +7987,9 @@
       <c r="B483" s="1">
         <v>86</v>
       </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
       <c r="D483">
         <v>0</v>
       </c>
@@ -7578,6 +8004,9 @@
       <c r="B484" s="1">
         <v>86</v>
       </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
       <c r="D484">
         <v>0</v>
       </c>
@@ -7592,6 +8021,9 @@
       <c r="B485" s="1">
         <v>86</v>
       </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
       <c r="D485">
         <v>0</v>
       </c>
@@ -7606,6 +8038,9 @@
       <c r="B486" s="1">
         <v>87</v>
       </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
       <c r="D486">
         <v>0</v>
       </c>
@@ -7620,6 +8055,9 @@
       <c r="B487" s="1">
         <v>87</v>
       </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
       <c r="D487">
         <v>0</v>
       </c>
@@ -7634,6 +8072,9 @@
       <c r="B488" s="1">
         <v>87</v>
       </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
       <c r="D488">
         <v>0</v>
       </c>
@@ -7648,6 +8089,9 @@
       <c r="B489" s="1">
         <v>87</v>
       </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
       <c r="D489">
         <v>0</v>
       </c>
@@ -7662,6 +8106,9 @@
       <c r="B490" s="1">
         <v>88</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
       <c r="D490">
         <v>0</v>
       </c>
@@ -7676,6 +8123,9 @@
       <c r="B491" s="1">
         <v>88</v>
       </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
       <c r="D491">
         <v>0</v>
       </c>
@@ -7690,6 +8140,9 @@
       <c r="B492" s="1">
         <v>88</v>
       </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
       <c r="D492">
         <v>0</v>
       </c>
@@ -7704,6 +8157,9 @@
       <c r="B493" s="1">
         <v>88</v>
       </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
       <c r="D493">
         <v>0</v>
       </c>
@@ -7718,6 +8174,9 @@
       <c r="B494" s="1">
         <v>89</v>
       </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
       <c r="D494">
         <v>0</v>
       </c>
@@ -7732,6 +8191,9 @@
       <c r="B495" s="1">
         <v>89</v>
       </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
       <c r="D495">
         <v>0</v>
       </c>
@@ -7746,6 +8208,9 @@
       <c r="B496" s="1">
         <v>89</v>
       </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
       <c r="D496">
         <v>0</v>
       </c>
@@ -7760,6 +8225,9 @@
       <c r="B497" s="1">
         <v>89</v>
       </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
       <c r="D497">
         <v>0</v>
       </c>
@@ -7774,6 +8242,9 @@
       <c r="B498" s="1">
         <v>90</v>
       </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
       <c r="D498">
         <v>0</v>
       </c>
@@ -7788,6 +8259,9 @@
       <c r="B499" s="1">
         <v>90</v>
       </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
       <c r="D499">
         <v>0</v>
       </c>
@@ -7802,6 +8276,9 @@
       <c r="B500" s="1">
         <v>90</v>
       </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
       <c r="D500">
         <v>0</v>
       </c>
@@ -7816,6 +8293,9 @@
       <c r="B501" s="1">
         <v>90</v>
       </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
       <c r="D501">
         <v>0</v>
       </c>
@@ -7830,6 +8310,9 @@
       <c r="B502" s="1">
         <v>91</v>
       </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
       <c r="D502">
         <v>0</v>
       </c>
@@ -7844,6 +8327,9 @@
       <c r="B503" s="1">
         <v>91</v>
       </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
       <c r="D503">
         <v>0</v>
       </c>
@@ -7858,6 +8344,9 @@
       <c r="B504" s="1">
         <v>91</v>
       </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
       <c r="D504">
         <v>0</v>
       </c>
@@ -7872,6 +8361,9 @@
       <c r="B505" s="1">
         <v>91</v>
       </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
       <c r="D505">
         <v>0</v>
       </c>
@@ -7886,6 +8378,9 @@
       <c r="B506" s="1">
         <v>92</v>
       </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
       <c r="D506">
         <v>0</v>
       </c>
@@ -7900,6 +8395,9 @@
       <c r="B507" s="1">
         <v>92</v>
       </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
       <c r="D507">
         <v>0</v>
       </c>
@@ -7914,6 +8412,9 @@
       <c r="B508" s="1">
         <v>92</v>
       </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
       <c r="D508">
         <v>0</v>
       </c>
@@ -7928,6 +8429,9 @@
       <c r="B509" s="1">
         <v>92</v>
       </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
       <c r="D509">
         <v>0</v>
       </c>
@@ -7942,6 +8446,9 @@
       <c r="B510" s="1">
         <v>93</v>
       </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
       <c r="D510">
         <v>0</v>
       </c>
@@ -7956,6 +8463,9 @@
       <c r="B511" s="1">
         <v>93</v>
       </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
       <c r="D511">
         <v>0</v>
       </c>
@@ -7970,6 +8480,9 @@
       <c r="B512" s="1">
         <v>93</v>
       </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
       <c r="D512">
         <v>0</v>
       </c>
@@ -7984,6 +8497,9 @@
       <c r="B513" s="1">
         <v>93</v>
       </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
       <c r="D513">
         <v>0</v>
       </c>
@@ -7998,6 +8514,9 @@
       <c r="B514" s="1">
         <v>94</v>
       </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
       <c r="D514">
         <v>0</v>
       </c>
@@ -8012,6 +8531,9 @@
       <c r="B515" s="1">
         <v>94</v>
       </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
       <c r="D515">
         <v>0</v>
       </c>
@@ -8026,6 +8548,9 @@
       <c r="B516" s="1">
         <v>94</v>
       </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
       <c r="D516">
         <v>0</v>
       </c>
@@ -8040,6 +8565,9 @@
       <c r="B517" s="1">
         <v>94</v>
       </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
       <c r="D517">
         <v>0</v>
       </c>
@@ -8054,6 +8582,9 @@
       <c r="B518" s="1">
         <v>95</v>
       </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
       <c r="D518">
         <v>0</v>
       </c>
@@ -8068,6 +8599,9 @@
       <c r="B519" s="1">
         <v>95</v>
       </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
       <c r="D519">
         <v>0</v>
       </c>
@@ -8082,6 +8616,9 @@
       <c r="B520" s="1">
         <v>95</v>
       </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
       <c r="D520">
         <v>0</v>
       </c>
@@ -8096,6 +8633,9 @@
       <c r="B521" s="1">
         <v>95</v>
       </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
       <c r="D521">
         <v>0</v>
       </c>
@@ -8110,6 +8650,9 @@
       <c r="B522" s="1">
         <v>96</v>
       </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
       <c r="D522">
         <v>0</v>
       </c>
@@ -8124,6 +8667,9 @@
       <c r="B523" s="1">
         <v>96</v>
       </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
       <c r="D523">
         <v>0</v>
       </c>
@@ -8138,6 +8684,9 @@
       <c r="B524" s="1">
         <v>96</v>
       </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
       <c r="D524">
         <v>0</v>
       </c>
@@ -8152,6 +8701,9 @@
       <c r="B525" s="1">
         <v>96</v>
       </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
       <c r="D525">
         <v>0</v>
       </c>
@@ -8166,6 +8718,9 @@
       <c r="B526" s="1">
         <v>97</v>
       </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
       <c r="D526">
         <v>0</v>
       </c>
@@ -8180,6 +8735,9 @@
       <c r="B527" s="1">
         <v>97</v>
       </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
       <c r="D527">
         <v>0</v>
       </c>
@@ -8194,6 +8752,9 @@
       <c r="B528" s="1">
         <v>97</v>
       </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
       <c r="D528">
         <v>0</v>
       </c>
@@ -8208,6 +8769,9 @@
       <c r="B529" s="1">
         <v>97</v>
       </c>
+      <c r="C529">
+        <v>0</v>
+      </c>
       <c r="D529">
         <v>0</v>
       </c>
@@ -8222,6 +8786,9 @@
       <c r="B530" s="1">
         <v>98</v>
       </c>
+      <c r="C530">
+        <v>0</v>
+      </c>
       <c r="D530">
         <v>0</v>
       </c>
@@ -8236,6 +8803,9 @@
       <c r="B531" s="1">
         <v>98</v>
       </c>
+      <c r="C531">
+        <v>0</v>
+      </c>
       <c r="D531">
         <v>0</v>
       </c>
@@ -8250,6 +8820,9 @@
       <c r="B532" s="1">
         <v>98</v>
       </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
       <c r="D532">
         <v>0</v>
       </c>
@@ -8263,6 +8836,9 @@
       </c>
       <c r="B533" s="1">
         <v>98</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
       </c>
       <c r="D533">
         <v>0</v>

--- a/tranchedata.xlsx
+++ b/tranchedata.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E537"/>
+  <dimension ref="A1:E531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,25 +444,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>361495416</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -474,10 +474,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>1973564.140573333</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -489,10 +489,10 @@
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>1909900.7812</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -504,28 +504,28 @@
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>1973564.140573333</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>14916211.36000001</v>
       </c>
       <c r="E6">
-        <v>361495416</v>
+        <v>346579204.64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>1909900.7812</v>
+        <v>1892129.913331822</v>
       </c>
       <c r="D7">
-        <v>14916211.36000001</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>346579204.64</v>
@@ -534,58 +534,58 @@
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>1892129.913331822</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>65221702.36000001</v>
       </c>
       <c r="E8">
-        <v>346579204.64</v>
+        <v>281357502.28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>1892129.913331822</v>
+        <v>1387405.105687378</v>
       </c>
       <c r="D9">
-        <v>65221702.36000001</v>
+        <v>55000000</v>
       </c>
       <c r="E9">
-        <v>281357502.28</v>
+        <v>226357502.28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>1387405.105687378</v>
+        <v>1235786.208280866</v>
       </c>
       <c r="D10">
-        <v>55000000</v>
+        <v>58111292.09213597</v>
       </c>
       <c r="E10">
-        <v>226357502.28</v>
+        <v>168246210.187864</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11">
-        <v>1235786.208280866</v>
+        <v>888900.8104925482</v>
       </c>
       <c r="D11">
-        <v>58111292.09213597</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>168246210.187864</v>
@@ -594,28 +594,28 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12">
-        <v>888900.8104925482</v>
+        <v>918530.8375089663</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>143686931.94</v>
       </c>
       <c r="E12">
-        <v>168246210.187864</v>
+        <v>24559278.24786399</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13">
-        <v>918530.8375089663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D13">
-        <v>143686931.94</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>24559278.24786399</v>
@@ -624,10 +624,10 @@
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -639,7 +639,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>134080.0151898663</v>
@@ -654,10 +654,10 @@
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -669,10 +669,10 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -684,10 +684,10 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -699,10 +699,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -714,7 +714,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>134080.0151898663</v>
@@ -729,10 +729,10 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21">
-        <v>134080.0151898663</v>
+        <v>121104.5298489115</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -744,10 +744,10 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22">
-        <v>121104.5298489115</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -759,10 +759,10 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -774,10 +774,10 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -789,10 +789,10 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -804,10 +804,10 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -819,7 +819,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27">
         <v>134080.0151898663</v>
@@ -834,10 +834,10 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -849,10 +849,10 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -864,10 +864,10 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -879,10 +879,10 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -894,7 +894,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32">
         <v>134080.0151898663</v>
@@ -909,10 +909,10 @@
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33">
-        <v>134080.0151898663</v>
+        <v>121104.5298489115</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -924,10 +924,10 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34">
-        <v>121104.5298489115</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -939,10 +939,10 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -954,10 +954,10 @@
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -969,10 +969,10 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -984,10 +984,10 @@
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -999,7 +999,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39">
         <v>134080.0151898663</v>
@@ -1014,10 +1014,10 @@
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1029,10 +1029,10 @@
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1044,10 +1044,10 @@
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1059,10 +1059,10 @@
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1074,7 +1074,7 @@
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44">
         <v>134080.0151898663</v>
@@ -1089,10 +1089,10 @@
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45">
-        <v>134080.0151898663</v>
+        <v>121104.5298489115</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1104,10 +1104,10 @@
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46">
-        <v>121104.5298489115</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1119,10 +1119,10 @@
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1134,10 +1134,10 @@
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1149,10 +1149,10 @@
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C49">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1164,10 +1164,10 @@
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1179,7 +1179,7 @@
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51">
         <v>134080.0151898663</v>
@@ -1194,10 +1194,10 @@
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C52">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1209,10 +1209,10 @@
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53">
-        <v>129754.8534095481</v>
+        <v>134080.0151898663</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1224,10 +1224,10 @@
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54">
-        <v>134080.0151898663</v>
+        <v>129754.8534095481</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1237,44 +1237,44 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B55" s="1">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C55">
-        <v>129754.8534095481</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>24559278.24786399</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A56" s="1"/>
       <c r="B56" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1286,7 +1286,7 @@
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C58">
         <v>812219.3749999999</v>
@@ -1301,7 +1301,7 @@
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C59">
         <v>786018.7499999999</v>
@@ -1316,7 +1316,7 @@
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C60">
         <v>812219.3749999999</v>
@@ -1331,10 +1331,10 @@
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C61">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1346,10 +1346,10 @@
     <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C62">
-        <v>812219.3749999999</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1361,7 +1361,7 @@
     <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C63">
         <v>812219.3749999999</v>
@@ -1376,10 +1376,10 @@
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C64">
-        <v>733617.4999999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1391,7 +1391,7 @@
     <row r="65" spans="1:5">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C65">
         <v>812219.3749999999</v>
@@ -1406,7 +1406,7 @@
     <row r="66" spans="1:5">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C66">
         <v>786018.7499999999</v>
@@ -1421,7 +1421,7 @@
     <row r="67" spans="1:5">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C67">
         <v>812219.3749999999</v>
@@ -1436,10 +1436,10 @@
     <row r="68" spans="1:5">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C68">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1451,10 +1451,10 @@
     <row r="69" spans="1:5">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C69">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1466,7 +1466,7 @@
     <row r="70" spans="1:5">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C70">
         <v>812219.3749999999</v>
@@ -1481,7 +1481,7 @@
     <row r="71" spans="1:5">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C71">
         <v>786018.7499999999</v>
@@ -1496,7 +1496,7 @@
     <row r="72" spans="1:5">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C72">
         <v>812219.3749999999</v>
@@ -1511,10 +1511,10 @@
     <row r="73" spans="1:5">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C73">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1526,10 +1526,10 @@
     <row r="74" spans="1:5">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C74">
-        <v>812219.3749999999</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     <row r="75" spans="1:5">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C75">
         <v>812219.3749999999</v>
@@ -1556,10 +1556,10 @@
     <row r="76" spans="1:5">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C76">
-        <v>733617.4999999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     <row r="77" spans="1:5">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C77">
         <v>812219.3749999999</v>
@@ -1586,7 +1586,7 @@
     <row r="78" spans="1:5">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C78">
         <v>786018.7499999999</v>
@@ -1601,7 +1601,7 @@
     <row r="79" spans="1:5">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C79">
         <v>812219.3749999999</v>
@@ -1616,10 +1616,10 @@
     <row r="80" spans="1:5">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C80">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1631,10 +1631,10 @@
     <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C81">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1646,7 +1646,7 @@
     <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C82">
         <v>812219.3749999999</v>
@@ -1661,7 +1661,7 @@
     <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C83">
         <v>786018.7499999999</v>
@@ -1676,7 +1676,7 @@
     <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C84">
         <v>812219.3749999999</v>
@@ -1691,10 +1691,10 @@
     <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C85">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -1706,10 +1706,10 @@
     <row r="86" spans="1:5">
       <c r="A86" s="1"/>
       <c r="B86" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C86">
-        <v>812219.3749999999</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1721,7 +1721,7 @@
     <row r="87" spans="1:5">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C87">
         <v>812219.3749999999</v>
@@ -1736,10 +1736,10 @@
     <row r="88" spans="1:5">
       <c r="A88" s="1"/>
       <c r="B88" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C88">
-        <v>733617.4999999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1751,7 +1751,7 @@
     <row r="89" spans="1:5">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C89">
         <v>812219.3749999999</v>
@@ -1766,7 +1766,7 @@
     <row r="90" spans="1:5">
       <c r="A90" s="1"/>
       <c r="B90" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C90">
         <v>786018.7499999999</v>
@@ -1781,7 +1781,7 @@
     <row r="91" spans="1:5">
       <c r="A91" s="1"/>
       <c r="B91" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C91">
         <v>812219.3749999999</v>
@@ -1796,10 +1796,10 @@
     <row r="92" spans="1:5">
       <c r="A92" s="1"/>
       <c r="B92" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C92">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -1811,10 +1811,10 @@
     <row r="93" spans="1:5">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C93">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     <row r="94" spans="1:5">
       <c r="A94" s="1"/>
       <c r="B94" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C94">
         <v>812219.3749999999</v>
@@ -1841,7 +1841,7 @@
     <row r="95" spans="1:5">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C95">
         <v>786018.7499999999</v>
@@ -1856,7 +1856,7 @@
     <row r="96" spans="1:5">
       <c r="A96" s="1"/>
       <c r="B96" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C96">
         <v>812219.3749999999</v>
@@ -1871,10 +1871,10 @@
     <row r="97" spans="1:5">
       <c r="A97" s="1"/>
       <c r="B97" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C97">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -1886,10 +1886,10 @@
     <row r="98" spans="1:5">
       <c r="A98" s="1"/>
       <c r="B98" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C98">
-        <v>812219.3749999999</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     <row r="99" spans="1:5">
       <c r="A99" s="1"/>
       <c r="B99" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C99">
         <v>812219.3749999999</v>
@@ -1916,10 +1916,10 @@
     <row r="100" spans="1:5">
       <c r="A100" s="1"/>
       <c r="B100" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C100">
-        <v>733617.4999999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -1931,7 +1931,7 @@
     <row r="101" spans="1:5">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C101">
         <v>812219.3749999999</v>
@@ -1946,7 +1946,7 @@
     <row r="102" spans="1:5">
       <c r="A102" s="1"/>
       <c r="B102" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C102">
         <v>786018.7499999999</v>
@@ -1961,7 +1961,7 @@
     <row r="103" spans="1:5">
       <c r="A103" s="1"/>
       <c r="B103" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C103">
         <v>812219.3749999999</v>
@@ -1976,10 +1976,10 @@
     <row r="104" spans="1:5">
       <c r="A104" s="1"/>
       <c r="B104" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C104">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -1991,10 +1991,10 @@
     <row r="105" spans="1:5">
       <c r="A105" s="1"/>
       <c r="B105" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C105">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2006,7 +2006,7 @@
     <row r="106" spans="1:5">
       <c r="A106" s="1"/>
       <c r="B106" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C106">
         <v>812219.3749999999</v>
@@ -2021,7 +2021,7 @@
     <row r="107" spans="1:5">
       <c r="A107" s="1"/>
       <c r="B107" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C107">
         <v>786018.7499999999</v>
@@ -2034,59 +2034,59 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B108" s="1">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C108">
-        <v>812219.3749999999</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>141625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1"/>
       <c r="B109" s="1">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C109">
-        <v>786018.7499999999</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>141625000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A110" s="1"/>
       <c r="B110" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>377300</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1"/>
       <c r="B111" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2098,10 +2098,10 @@
     <row r="112" spans="1:5">
       <c r="A112" s="1"/>
       <c r="B112" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C112">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2113,10 +2113,10 @@
     <row r="113" spans="1:5">
       <c r="A113" s="1"/>
       <c r="B113" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C113">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="114" spans="1:5">
       <c r="A114" s="1"/>
       <c r="B114" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C114">
         <v>389876.6666666667</v>
@@ -2143,10 +2143,10 @@
     <row r="115" spans="1:5">
       <c r="A115" s="1"/>
       <c r="B115" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C115">
-        <v>377300</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2158,7 +2158,7 @@
     <row r="116" spans="1:5">
       <c r="A116" s="1"/>
       <c r="B116" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C116">
         <v>389876.6666666667</v>
@@ -2173,10 +2173,10 @@
     <row r="117" spans="1:5">
       <c r="A117" s="1"/>
       <c r="B117" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C117">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2188,10 +2188,10 @@
     <row r="118" spans="1:5">
       <c r="A118" s="1"/>
       <c r="B118" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C118">
-        <v>352146.6666666667</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2203,10 +2203,10 @@
     <row r="119" spans="1:5">
       <c r="A119" s="1"/>
       <c r="B119" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C119">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2218,10 +2218,10 @@
     <row r="120" spans="1:5">
       <c r="A120" s="1"/>
       <c r="B120" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C120">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     <row r="121" spans="1:5">
       <c r="A121" s="1"/>
       <c r="B121" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C121">
         <v>389876.6666666667</v>
@@ -2248,7 +2248,7 @@
     <row r="122" spans="1:5">
       <c r="A122" s="1"/>
       <c r="B122" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C122">
         <v>377300</v>
@@ -2263,7 +2263,7 @@
     <row r="123" spans="1:5">
       <c r="A123" s="1"/>
       <c r="B123" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C123">
         <v>389876.6666666667</v>
@@ -2278,10 +2278,10 @@
     <row r="124" spans="1:5">
       <c r="A124" s="1"/>
       <c r="B124" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C124">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2293,10 +2293,10 @@
     <row r="125" spans="1:5">
       <c r="A125" s="1"/>
       <c r="B125" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C125">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2308,7 +2308,7 @@
     <row r="126" spans="1:5">
       <c r="A126" s="1"/>
       <c r="B126" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C126">
         <v>389876.6666666667</v>
@@ -2323,10 +2323,10 @@
     <row r="127" spans="1:5">
       <c r="A127" s="1"/>
       <c r="B127" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C127">
-        <v>377300</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2338,7 +2338,7 @@
     <row r="128" spans="1:5">
       <c r="A128" s="1"/>
       <c r="B128" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C128">
         <v>389876.6666666667</v>
@@ -2353,10 +2353,10 @@
     <row r="129" spans="1:5">
       <c r="A129" s="1"/>
       <c r="B129" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C129">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2368,10 +2368,10 @@
     <row r="130" spans="1:5">
       <c r="A130" s="1"/>
       <c r="B130" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C130">
-        <v>352146.6666666667</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2383,10 +2383,10 @@
     <row r="131" spans="1:5">
       <c r="A131" s="1"/>
       <c r="B131" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C131">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2398,10 +2398,10 @@
     <row r="132" spans="1:5">
       <c r="A132" s="1"/>
       <c r="B132" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C132">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2413,7 +2413,7 @@
     <row r="133" spans="1:5">
       <c r="A133" s="1"/>
       <c r="B133" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C133">
         <v>389876.6666666667</v>
@@ -2428,7 +2428,7 @@
     <row r="134" spans="1:5">
       <c r="A134" s="1"/>
       <c r="B134" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C134">
         <v>377300</v>
@@ -2443,7 +2443,7 @@
     <row r="135" spans="1:5">
       <c r="A135" s="1"/>
       <c r="B135" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C135">
         <v>389876.6666666667</v>
@@ -2458,10 +2458,10 @@
     <row r="136" spans="1:5">
       <c r="A136" s="1"/>
       <c r="B136" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C136">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2473,10 +2473,10 @@
     <row r="137" spans="1:5">
       <c r="A137" s="1"/>
       <c r="B137" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C137">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2488,7 +2488,7 @@
     <row r="138" spans="1:5">
       <c r="A138" s="1"/>
       <c r="B138" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C138">
         <v>389876.6666666667</v>
@@ -2503,10 +2503,10 @@
     <row r="139" spans="1:5">
       <c r="A139" s="1"/>
       <c r="B139" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C139">
-        <v>377300</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -2518,7 +2518,7 @@
     <row r="140" spans="1:5">
       <c r="A140" s="1"/>
       <c r="B140" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C140">
         <v>389876.6666666667</v>
@@ -2533,10 +2533,10 @@
     <row r="141" spans="1:5">
       <c r="A141" s="1"/>
       <c r="B141" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C141">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2548,10 +2548,10 @@
     <row r="142" spans="1:5">
       <c r="A142" s="1"/>
       <c r="B142" s="1">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C142">
-        <v>352146.6666666667</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2563,10 +2563,10 @@
     <row r="143" spans="1:5">
       <c r="A143" s="1"/>
       <c r="B143" s="1">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C143">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2578,10 +2578,10 @@
     <row r="144" spans="1:5">
       <c r="A144" s="1"/>
       <c r="B144" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C144">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2593,7 +2593,7 @@
     <row r="145" spans="1:5">
       <c r="A145" s="1"/>
       <c r="B145" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C145">
         <v>389876.6666666667</v>
@@ -2608,7 +2608,7 @@
     <row r="146" spans="1:5">
       <c r="A146" s="1"/>
       <c r="B146" s="1">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C146">
         <v>377300</v>
@@ -2623,7 +2623,7 @@
     <row r="147" spans="1:5">
       <c r="A147" s="1"/>
       <c r="B147" s="1">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C147">
         <v>389876.6666666667</v>
@@ -2638,10 +2638,10 @@
     <row r="148" spans="1:5">
       <c r="A148" s="1"/>
       <c r="B148" s="1">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C148">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -2653,10 +2653,10 @@
     <row r="149" spans="1:5">
       <c r="A149" s="1"/>
       <c r="B149" s="1">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C149">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="150" spans="1:5">
       <c r="A150" s="1"/>
       <c r="B150" s="1">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C150">
         <v>389876.6666666667</v>
@@ -2683,10 +2683,10 @@
     <row r="151" spans="1:5">
       <c r="A151" s="1"/>
       <c r="B151" s="1">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C151">
-        <v>377300</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -2698,7 +2698,7 @@
     <row r="152" spans="1:5">
       <c r="A152" s="1"/>
       <c r="B152" s="1">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C152">
         <v>389876.6666666667</v>
@@ -2713,10 +2713,10 @@
     <row r="153" spans="1:5">
       <c r="A153" s="1"/>
       <c r="B153" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C153">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -2728,10 +2728,10 @@
     <row r="154" spans="1:5">
       <c r="A154" s="1"/>
       <c r="B154" s="1">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C154">
-        <v>352146.6666666667</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -2743,10 +2743,10 @@
     <row r="155" spans="1:5">
       <c r="A155" s="1"/>
       <c r="B155" s="1">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C155">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     <row r="156" spans="1:5">
       <c r="A156" s="1"/>
       <c r="B156" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C156">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -2773,7 +2773,7 @@
     <row r="157" spans="1:5">
       <c r="A157" s="1"/>
       <c r="B157" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C157">
         <v>389876.6666666667</v>
@@ -2788,7 +2788,7 @@
     <row r="158" spans="1:5">
       <c r="A158" s="1"/>
       <c r="B158" s="1">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C158">
         <v>377300</v>
@@ -2803,7 +2803,7 @@
     <row r="159" spans="1:5">
       <c r="A159" s="1"/>
       <c r="B159" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C159">
         <v>389876.6666666667</v>
@@ -2818,10 +2818,10 @@
     <row r="160" spans="1:5">
       <c r="A160" s="1"/>
       <c r="B160" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C160">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -2831,74 +2831,74 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B161" s="1">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C161">
-        <v>377300</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>66000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1"/>
       <c r="B162" s="1">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C162">
-        <v>389876.6666666667</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>66000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1"/>
       <c r="B163" s="1">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C163">
-        <v>377300</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
-        <v>66000000</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A164" s="1"/>
       <c r="B164" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1"/>
       <c r="B165" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -2910,7 +2910,7 @@
     <row r="166" spans="1:5">
       <c r="A166" s="1"/>
       <c r="B166" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C166">
         <v>495136.7361111111</v>
@@ -2925,10 +2925,10 @@
     <row r="167" spans="1:5">
       <c r="A167" s="1"/>
       <c r="B167" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C167">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -2940,10 +2940,10 @@
     <row r="168" spans="1:5">
       <c r="A168" s="1"/>
       <c r="B168" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C168">
-        <v>495136.7361111111</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -2955,10 +2955,10 @@
     <row r="169" spans="1:5">
       <c r="A169" s="1"/>
       <c r="B169" s="1">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C169">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -2970,10 +2970,10 @@
     <row r="170" spans="1:5">
       <c r="A170" s="1"/>
       <c r="B170" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C170">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -2985,7 +2985,7 @@
     <row r="171" spans="1:5">
       <c r="A171" s="1"/>
       <c r="B171" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C171">
         <v>495136.7361111111</v>
@@ -3000,10 +3000,10 @@
     <row r="172" spans="1:5">
       <c r="A172" s="1"/>
       <c r="B172" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C172">
-        <v>447220.2777777778</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     <row r="173" spans="1:5">
       <c r="A173" s="1"/>
       <c r="B173" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C173">
         <v>495136.7361111111</v>
@@ -3030,10 +3030,10 @@
     <row r="174" spans="1:5">
       <c r="A174" s="1"/>
       <c r="B174" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C174">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -3045,10 +3045,10 @@
     <row r="175" spans="1:5">
       <c r="A175" s="1"/>
       <c r="B175" s="1">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C175">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -3060,10 +3060,10 @@
     <row r="176" spans="1:5">
       <c r="A176" s="1"/>
       <c r="B176" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C176">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -3075,10 +3075,10 @@
     <row r="177" spans="1:5">
       <c r="A177" s="1"/>
       <c r="B177" s="1">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C177">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -3090,7 +3090,7 @@
     <row r="178" spans="1:5">
       <c r="A178" s="1"/>
       <c r="B178" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C178">
         <v>495136.7361111111</v>
@@ -3105,10 +3105,10 @@
     <row r="179" spans="1:5">
       <c r="A179" s="1"/>
       <c r="B179" s="1">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C179">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -3120,10 +3120,10 @@
     <row r="180" spans="1:5">
       <c r="A180" s="1"/>
       <c r="B180" s="1">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C180">
-        <v>495136.7361111111</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3135,10 +3135,10 @@
     <row r="181" spans="1:5">
       <c r="A181" s="1"/>
       <c r="B181" s="1">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C181">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -3150,10 +3150,10 @@
     <row r="182" spans="1:5">
       <c r="A182" s="1"/>
       <c r="B182" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C182">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -3165,7 +3165,7 @@
     <row r="183" spans="1:5">
       <c r="A183" s="1"/>
       <c r="B183" s="1">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C183">
         <v>495136.7361111111</v>
@@ -3180,10 +3180,10 @@
     <row r="184" spans="1:5">
       <c r="A184" s="1"/>
       <c r="B184" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C184">
-        <v>447220.2777777778</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -3195,7 +3195,7 @@
     <row r="185" spans="1:5">
       <c r="A185" s="1"/>
       <c r="B185" s="1">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C185">
         <v>495136.7361111111</v>
@@ -3210,10 +3210,10 @@
     <row r="186" spans="1:5">
       <c r="A186" s="1"/>
       <c r="B186" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C186">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -3225,10 +3225,10 @@
     <row r="187" spans="1:5">
       <c r="A187" s="1"/>
       <c r="B187" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C187">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -3240,10 +3240,10 @@
     <row r="188" spans="1:5">
       <c r="A188" s="1"/>
       <c r="B188" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C188">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -3255,10 +3255,10 @@
     <row r="189" spans="1:5">
       <c r="A189" s="1"/>
       <c r="B189" s="1">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C189">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -3270,7 +3270,7 @@
     <row r="190" spans="1:5">
       <c r="A190" s="1"/>
       <c r="B190" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C190">
         <v>495136.7361111111</v>
@@ -3285,10 +3285,10 @@
     <row r="191" spans="1:5">
       <c r="A191" s="1"/>
       <c r="B191" s="1">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C191">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -3300,10 +3300,10 @@
     <row r="192" spans="1:5">
       <c r="A192" s="1"/>
       <c r="B192" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C192">
-        <v>495136.7361111111</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3315,10 +3315,10 @@
     <row r="193" spans="1:5">
       <c r="A193" s="1"/>
       <c r="B193" s="1">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C193">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -3330,10 +3330,10 @@
     <row r="194" spans="1:5">
       <c r="A194" s="1"/>
       <c r="B194" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C194">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -3345,7 +3345,7 @@
     <row r="195" spans="1:5">
       <c r="A195" s="1"/>
       <c r="B195" s="1">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C195">
         <v>495136.7361111111</v>
@@ -3360,10 +3360,10 @@
     <row r="196" spans="1:5">
       <c r="A196" s="1"/>
       <c r="B196" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C196">
-        <v>447220.2777777778</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -3375,7 +3375,7 @@
     <row r="197" spans="1:5">
       <c r="A197" s="1"/>
       <c r="B197" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C197">
         <v>495136.7361111111</v>
@@ -3390,10 +3390,10 @@
     <row r="198" spans="1:5">
       <c r="A198" s="1"/>
       <c r="B198" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C198">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     <row r="199" spans="1:5">
       <c r="A199" s="1"/>
       <c r="B199" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C199">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -3420,10 +3420,10 @@
     <row r="200" spans="1:5">
       <c r="A200" s="1"/>
       <c r="B200" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C200">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -3435,10 +3435,10 @@
     <row r="201" spans="1:5">
       <c r="A201" s="1"/>
       <c r="B201" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C201">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -3450,7 +3450,7 @@
     <row r="202" spans="1:5">
       <c r="A202" s="1"/>
       <c r="B202" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C202">
         <v>495136.7361111111</v>
@@ -3465,10 +3465,10 @@
     <row r="203" spans="1:5">
       <c r="A203" s="1"/>
       <c r="B203" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C203">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -3480,10 +3480,10 @@
     <row r="204" spans="1:5">
       <c r="A204" s="1"/>
       <c r="B204" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C204">
-        <v>495136.7361111111</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -3495,10 +3495,10 @@
     <row r="205" spans="1:5">
       <c r="A205" s="1"/>
       <c r="B205" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C205">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -3510,10 +3510,10 @@
     <row r="206" spans="1:5">
       <c r="A206" s="1"/>
       <c r="B206" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C206">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     <row r="207" spans="1:5">
       <c r="A207" s="1"/>
       <c r="B207" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C207">
         <v>495136.7361111111</v>
@@ -3540,10 +3540,10 @@
     <row r="208" spans="1:5">
       <c r="A208" s="1"/>
       <c r="B208" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C208">
-        <v>447220.2777777778</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -3555,7 +3555,7 @@
     <row r="209" spans="1:5">
       <c r="A209" s="1"/>
       <c r="B209" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C209">
         <v>495136.7361111111</v>
@@ -3570,10 +3570,10 @@
     <row r="210" spans="1:5">
       <c r="A210" s="1"/>
       <c r="B210" s="1">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C210">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -3585,10 +3585,10 @@
     <row r="211" spans="1:5">
       <c r="A211" s="1"/>
       <c r="B211" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C211">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -3600,10 +3600,10 @@
     <row r="212" spans="1:5">
       <c r="A212" s="1"/>
       <c r="B212" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C212">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -3615,10 +3615,10 @@
     <row r="213" spans="1:5">
       <c r="A213" s="1"/>
       <c r="B213" s="1">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C213">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -3628,89 +3628,89 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="1"/>
+      <c r="A214" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B214" s="1">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C214">
-        <v>495136.7361111111</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>79750000</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1"/>
       <c r="B215" s="1">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C215">
-        <v>479164.5833333333</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>79750000</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1"/>
       <c r="B216" s="1">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C216">
-        <v>495136.7361111111</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>79750000</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1"/>
       <c r="B217" s="1">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C217">
-        <v>479164.5833333333</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>79750000</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A218" s="1"/>
       <c r="B218" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1"/>
       <c r="B219" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -3722,7 +3722,7 @@
     <row r="220" spans="1:5">
       <c r="A220" s="1"/>
       <c r="B220" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C220">
         <v>387449.4097222222</v>
@@ -3737,10 +3737,10 @@
     <row r="221" spans="1:5">
       <c r="A221" s="1"/>
       <c r="B221" s="1">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C221">
-        <v>374951.0416666667</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -3752,7 +3752,7 @@
     <row r="222" spans="1:5">
       <c r="A222" s="1"/>
       <c r="B222" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C222">
         <v>387449.4097222222</v>
@@ -3767,7 +3767,7 @@
     <row r="223" spans="1:5">
       <c r="A223" s="1"/>
       <c r="B223" s="1">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C223">
         <v>374951.0416666667</v>
@@ -3782,7 +3782,7 @@
     <row r="224" spans="1:5">
       <c r="A224" s="1"/>
       <c r="B224" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C224">
         <v>387449.4097222222</v>
@@ -3797,10 +3797,10 @@
     <row r="225" spans="1:5">
       <c r="A225" s="1"/>
       <c r="B225" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C225">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -3812,10 +3812,10 @@
     <row r="226" spans="1:5">
       <c r="A226" s="1"/>
       <c r="B226" s="1">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C226">
-        <v>349954.3055555556</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -3827,7 +3827,7 @@
     <row r="227" spans="1:5">
       <c r="A227" s="1"/>
       <c r="B227" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C227">
         <v>387449.4097222222</v>
@@ -3842,7 +3842,7 @@
     <row r="228" spans="1:5">
       <c r="A228" s="1"/>
       <c r="B228" s="1">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C228">
         <v>374951.0416666667</v>
@@ -3857,7 +3857,7 @@
     <row r="229" spans="1:5">
       <c r="A229" s="1"/>
       <c r="B229" s="1">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C229">
         <v>387449.4097222222</v>
@@ -3872,7 +3872,7 @@
     <row r="230" spans="1:5">
       <c r="A230" s="1"/>
       <c r="B230" s="1">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C230">
         <v>374951.0416666667</v>
@@ -3887,7 +3887,7 @@
     <row r="231" spans="1:5">
       <c r="A231" s="1"/>
       <c r="B231" s="1">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C231">
         <v>387449.4097222222</v>
@@ -3902,7 +3902,7 @@
     <row r="232" spans="1:5">
       <c r="A232" s="1"/>
       <c r="B232" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C232">
         <v>387449.4097222222</v>
@@ -3917,10 +3917,10 @@
     <row r="233" spans="1:5">
       <c r="A233" s="1"/>
       <c r="B233" s="1">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C233">
-        <v>374951.0416666667</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     <row r="234" spans="1:5">
       <c r="A234" s="1"/>
       <c r="B234" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C234">
         <v>387449.4097222222</v>
@@ -3947,7 +3947,7 @@
     <row r="235" spans="1:5">
       <c r="A235" s="1"/>
       <c r="B235" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C235">
         <v>374951.0416666667</v>
@@ -3962,7 +3962,7 @@
     <row r="236" spans="1:5">
       <c r="A236" s="1"/>
       <c r="B236" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C236">
         <v>387449.4097222222</v>
@@ -3977,10 +3977,10 @@
     <row r="237" spans="1:5">
       <c r="A237" s="1"/>
       <c r="B237" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C237">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -3992,10 +3992,10 @@
     <row r="238" spans="1:5">
       <c r="A238" s="1"/>
       <c r="B238" s="1">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C238">
-        <v>349954.3055555556</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -4007,7 +4007,7 @@
     <row r="239" spans="1:5">
       <c r="A239" s="1"/>
       <c r="B239" s="1">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C239">
         <v>387449.4097222222</v>
@@ -4022,7 +4022,7 @@
     <row r="240" spans="1:5">
       <c r="A240" s="1"/>
       <c r="B240" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C240">
         <v>374951.0416666667</v>
@@ -4037,7 +4037,7 @@
     <row r="241" spans="1:5">
       <c r="A241" s="1"/>
       <c r="B241" s="1">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C241">
         <v>387449.4097222222</v>
@@ -4052,7 +4052,7 @@
     <row r="242" spans="1:5">
       <c r="A242" s="1"/>
       <c r="B242" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C242">
         <v>374951.0416666667</v>
@@ -4067,7 +4067,7 @@
     <row r="243" spans="1:5">
       <c r="A243" s="1"/>
       <c r="B243" s="1">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C243">
         <v>387449.4097222222</v>
@@ -4082,7 +4082,7 @@
     <row r="244" spans="1:5">
       <c r="A244" s="1"/>
       <c r="B244" s="1">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C244">
         <v>387449.4097222222</v>
@@ -4097,10 +4097,10 @@
     <row r="245" spans="1:5">
       <c r="A245" s="1"/>
       <c r="B245" s="1">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C245">
-        <v>374951.0416666667</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -4112,7 +4112,7 @@
     <row r="246" spans="1:5">
       <c r="A246" s="1"/>
       <c r="B246" s="1">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C246">
         <v>387449.4097222222</v>
@@ -4127,7 +4127,7 @@
     <row r="247" spans="1:5">
       <c r="A247" s="1"/>
       <c r="B247" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C247">
         <v>374951.0416666667</v>
@@ -4142,7 +4142,7 @@
     <row r="248" spans="1:5">
       <c r="A248" s="1"/>
       <c r="B248" s="1">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C248">
         <v>387449.4097222222</v>
@@ -4157,10 +4157,10 @@
     <row r="249" spans="1:5">
       <c r="A249" s="1"/>
       <c r="B249" s="1">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C249">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -4172,10 +4172,10 @@
     <row r="250" spans="1:5">
       <c r="A250" s="1"/>
       <c r="B250" s="1">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C250">
-        <v>349954.3055555556</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     <row r="251" spans="1:5">
       <c r="A251" s="1"/>
       <c r="B251" s="1">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C251">
         <v>387449.4097222222</v>
@@ -4202,7 +4202,7 @@
     <row r="252" spans="1:5">
       <c r="A252" s="1"/>
       <c r="B252" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C252">
         <v>374951.0416666667</v>
@@ -4217,7 +4217,7 @@
     <row r="253" spans="1:5">
       <c r="A253" s="1"/>
       <c r="B253" s="1">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C253">
         <v>387449.4097222222</v>
@@ -4232,7 +4232,7 @@
     <row r="254" spans="1:5">
       <c r="A254" s="1"/>
       <c r="B254" s="1">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C254">
         <v>374951.0416666667</v>
@@ -4247,7 +4247,7 @@
     <row r="255" spans="1:5">
       <c r="A255" s="1"/>
       <c r="B255" s="1">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C255">
         <v>387449.4097222222</v>
@@ -4262,7 +4262,7 @@
     <row r="256" spans="1:5">
       <c r="A256" s="1"/>
       <c r="B256" s="1">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C256">
         <v>387449.4097222222</v>
@@ -4277,10 +4277,10 @@
     <row r="257" spans="1:5">
       <c r="A257" s="1"/>
       <c r="B257" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C257">
-        <v>374951.0416666667</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -4292,7 +4292,7 @@
     <row r="258" spans="1:5">
       <c r="A258" s="1"/>
       <c r="B258" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C258">
         <v>387449.4097222222</v>
@@ -4307,7 +4307,7 @@
     <row r="259" spans="1:5">
       <c r="A259" s="1"/>
       <c r="B259" s="1">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C259">
         <v>374951.0416666667</v>
@@ -4322,7 +4322,7 @@
     <row r="260" spans="1:5">
       <c r="A260" s="1"/>
       <c r="B260" s="1">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C260">
         <v>387449.4097222222</v>
@@ -4337,10 +4337,10 @@
     <row r="261" spans="1:5">
       <c r="A261" s="1"/>
       <c r="B261" s="1">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C261">
-        <v>387449.4097222222</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -4352,10 +4352,10 @@
     <row r="262" spans="1:5">
       <c r="A262" s="1"/>
       <c r="B262" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C262">
-        <v>349954.3055555556</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -4367,7 +4367,7 @@
     <row r="263" spans="1:5">
       <c r="A263" s="1"/>
       <c r="B263" s="1">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C263">
         <v>387449.4097222222</v>
@@ -4382,7 +4382,7 @@
     <row r="264" spans="1:5">
       <c r="A264" s="1"/>
       <c r="B264" s="1">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C264">
         <v>374951.0416666667</v>
@@ -4397,7 +4397,7 @@
     <row r="265" spans="1:5">
       <c r="A265" s="1"/>
       <c r="B265" s="1">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C265">
         <v>387449.4097222222</v>
@@ -4412,7 +4412,7 @@
     <row r="266" spans="1:5">
       <c r="A266" s="1"/>
       <c r="B266" s="1">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C266">
         <v>374951.0416666667</v>
@@ -4425,104 +4425,104 @@
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="1"/>
+      <c r="A267" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B267" s="1">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C267">
-        <v>387449.4097222222</v>
+        <v>84823.75</v>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>59125000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1"/>
       <c r="B268" s="1">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C268">
-        <v>387449.4097222222</v>
+        <v>84823.75</v>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>59125000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1"/>
       <c r="B269" s="1">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C269">
-        <v>374951.0416666667</v>
+        <v>82087.5</v>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>59125000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1"/>
       <c r="B270" s="1">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C270">
-        <v>387449.4097222222</v>
+        <v>84823.75</v>
       </c>
       <c r="D270">
         <v>0</v>
       </c>
       <c r="E270">
-        <v>59125000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1"/>
       <c r="B271" s="1">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C271">
-        <v>374951.0416666667</v>
+        <v>82087.5</v>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>59125000</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A272" s="1"/>
       <c r="B272" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>84823.75</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="1"/>
       <c r="B273" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>84823.75</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -4534,10 +4534,10 @@
     <row r="274" spans="1:5">
       <c r="A274" s="1"/>
       <c r="B274" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C274">
-        <v>84823.75</v>
+        <v>76615</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -4549,10 +4549,10 @@
     <row r="275" spans="1:5">
       <c r="A275" s="1"/>
       <c r="B275" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C275">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -4564,10 +4564,10 @@
     <row r="276" spans="1:5">
       <c r="A276" s="1"/>
       <c r="B276" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C276">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -4579,10 +4579,10 @@
     <row r="277" spans="1:5">
       <c r="A277" s="1"/>
       <c r="B277" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C277">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -4594,10 +4594,10 @@
     <row r="278" spans="1:5">
       <c r="A278" s="1"/>
       <c r="B278" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C278">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -4609,7 +4609,7 @@
     <row r="279" spans="1:5">
       <c r="A279" s="1"/>
       <c r="B279" s="1">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C279">
         <v>84823.75</v>
@@ -4624,10 +4624,10 @@
     <row r="280" spans="1:5">
       <c r="A280" s="1"/>
       <c r="B280" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C280">
-        <v>76615</v>
+        <v>84823.75</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -4639,10 +4639,10 @@
     <row r="281" spans="1:5">
       <c r="A281" s="1"/>
       <c r="B281" s="1">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C281">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -4654,10 +4654,10 @@
     <row r="282" spans="1:5">
       <c r="A282" s="1"/>
       <c r="B282" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C282">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -4669,10 +4669,10 @@
     <row r="283" spans="1:5">
       <c r="A283" s="1"/>
       <c r="B283" s="1">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C283">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -4684,10 +4684,10 @@
     <row r="284" spans="1:5">
       <c r="A284" s="1"/>
       <c r="B284" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C284">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -4699,7 +4699,7 @@
     <row r="285" spans="1:5">
       <c r="A285" s="1"/>
       <c r="B285" s="1">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C285">
         <v>84823.75</v>
@@ -4714,10 +4714,10 @@
     <row r="286" spans="1:5">
       <c r="A286" s="1"/>
       <c r="B286" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C286">
-        <v>84823.75</v>
+        <v>76615</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -4729,10 +4729,10 @@
     <row r="287" spans="1:5">
       <c r="A287" s="1"/>
       <c r="B287" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C287">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -4744,10 +4744,10 @@
     <row r="288" spans="1:5">
       <c r="A288" s="1"/>
       <c r="B288" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C288">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -4759,10 +4759,10 @@
     <row r="289" spans="1:5">
       <c r="A289" s="1"/>
       <c r="B289" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C289">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -4774,10 +4774,10 @@
     <row r="290" spans="1:5">
       <c r="A290" s="1"/>
       <c r="B290" s="1">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C290">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -4789,7 +4789,7 @@
     <row r="291" spans="1:5">
       <c r="A291" s="1"/>
       <c r="B291" s="1">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C291">
         <v>84823.75</v>
@@ -4804,10 +4804,10 @@
     <row r="292" spans="1:5">
       <c r="A292" s="1"/>
       <c r="B292" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C292">
-        <v>76615</v>
+        <v>84823.75</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -4819,10 +4819,10 @@
     <row r="293" spans="1:5">
       <c r="A293" s="1"/>
       <c r="B293" s="1">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C293">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -4834,10 +4834,10 @@
     <row r="294" spans="1:5">
       <c r="A294" s="1"/>
       <c r="B294" s="1">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C294">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -4849,10 +4849,10 @@
     <row r="295" spans="1:5">
       <c r="A295" s="1"/>
       <c r="B295" s="1">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C295">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -4864,10 +4864,10 @@
     <row r="296" spans="1:5">
       <c r="A296" s="1"/>
       <c r="B296" s="1">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C296">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -4879,7 +4879,7 @@
     <row r="297" spans="1:5">
       <c r="A297" s="1"/>
       <c r="B297" s="1">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C297">
         <v>84823.75</v>
@@ -4894,10 +4894,10 @@
     <row r="298" spans="1:5">
       <c r="A298" s="1"/>
       <c r="B298" s="1">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C298">
-        <v>84823.75</v>
+        <v>76615</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -4909,10 +4909,10 @@
     <row r="299" spans="1:5">
       <c r="A299" s="1"/>
       <c r="B299" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C299">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -4924,10 +4924,10 @@
     <row r="300" spans="1:5">
       <c r="A300" s="1"/>
       <c r="B300" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C300">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -4939,10 +4939,10 @@
     <row r="301" spans="1:5">
       <c r="A301" s="1"/>
       <c r="B301" s="1">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C301">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -4954,10 +4954,10 @@
     <row r="302" spans="1:5">
       <c r="A302" s="1"/>
       <c r="B302" s="1">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C302">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     <row r="303" spans="1:5">
       <c r="A303" s="1"/>
       <c r="B303" s="1">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C303">
         <v>84823.75</v>
@@ -4984,10 +4984,10 @@
     <row r="304" spans="1:5">
       <c r="A304" s="1"/>
       <c r="B304" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C304">
-        <v>76615</v>
+        <v>84823.75</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -4999,10 +4999,10 @@
     <row r="305" spans="1:5">
       <c r="A305" s="1"/>
       <c r="B305" s="1">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C305">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -5014,10 +5014,10 @@
     <row r="306" spans="1:5">
       <c r="A306" s="1"/>
       <c r="B306" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C306">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -5029,10 +5029,10 @@
     <row r="307" spans="1:5">
       <c r="A307" s="1"/>
       <c r="B307" s="1">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C307">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -5044,10 +5044,10 @@
     <row r="308" spans="1:5">
       <c r="A308" s="1"/>
       <c r="B308" s="1">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C308">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -5059,7 +5059,7 @@
     <row r="309" spans="1:5">
       <c r="A309" s="1"/>
       <c r="B309" s="1">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C309">
         <v>84823.75</v>
@@ -5074,10 +5074,10 @@
     <row r="310" spans="1:5">
       <c r="A310" s="1"/>
       <c r="B310" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C310">
-        <v>84823.75</v>
+        <v>76615</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -5089,10 +5089,10 @@
     <row r="311" spans="1:5">
       <c r="A311" s="1"/>
       <c r="B311" s="1">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C311">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -5104,10 +5104,10 @@
     <row r="312" spans="1:5">
       <c r="A312" s="1"/>
       <c r="B312" s="1">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C312">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -5119,10 +5119,10 @@
     <row r="313" spans="1:5">
       <c r="A313" s="1"/>
       <c r="B313" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C313">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -5134,10 +5134,10 @@
     <row r="314" spans="1:5">
       <c r="A314" s="1"/>
       <c r="B314" s="1">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C314">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -5149,7 +5149,7 @@
     <row r="315" spans="1:5">
       <c r="A315" s="1"/>
       <c r="B315" s="1">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C315">
         <v>84823.75</v>
@@ -5164,10 +5164,10 @@
     <row r="316" spans="1:5">
       <c r="A316" s="1"/>
       <c r="B316" s="1">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C316">
-        <v>76615</v>
+        <v>84823.75</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -5179,10 +5179,10 @@
     <row r="317" spans="1:5">
       <c r="A317" s="1"/>
       <c r="B317" s="1">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C317">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -5194,10 +5194,10 @@
     <row r="318" spans="1:5">
       <c r="A318" s="1"/>
       <c r="B318" s="1">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C318">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -5209,10 +5209,10 @@
     <row r="319" spans="1:5">
       <c r="A319" s="1"/>
       <c r="B319" s="1">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C319">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -5222,101 +5222,113 @@
       </c>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320" s="1"/>
+      <c r="A320" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B320" s="1">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C320">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D320">
         <v>0</v>
       </c>
       <c r="E320">
-        <v>12375000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321" s="1"/>
+      <c r="A321" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B321" s="1">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C321">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D321">
         <v>0</v>
       </c>
       <c r="E321">
-        <v>12375000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322" s="1"/>
+      <c r="A322" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B322" s="1">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C322">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D322">
         <v>0</v>
       </c>
       <c r="E322">
-        <v>12375000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="1"/>
+      <c r="A323" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B323" s="1">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C323">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D323">
         <v>0</v>
       </c>
       <c r="E323">
-        <v>12375000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324" s="1"/>
+      <c r="A324" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B324" s="1">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C324">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D324">
         <v>0</v>
       </c>
       <c r="E324">
-        <v>12375000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325" s="1"/>
+      <c r="A325" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B325" s="1">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C325">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D325">
         <v>0</v>
       </c>
       <c r="E325">
-        <v>12375000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B326" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -5325,15 +5337,15 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B327" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -5347,10 +5359,10 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B328" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -5359,15 +5371,15 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B329" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -5381,10 +5393,10 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B330" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -5393,15 +5405,15 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B331" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -5415,10 +5427,10 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B332" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -5427,15 +5439,15 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B333" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -5449,10 +5461,10 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B334" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -5461,15 +5473,15 @@
         <v>0</v>
       </c>
       <c r="E334">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B335" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -5483,10 +5495,10 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B336" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -5495,15 +5507,15 @@
         <v>0</v>
       </c>
       <c r="E336">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B337" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -5517,10 +5529,10 @@
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B338" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -5529,15 +5541,15 @@
         <v>0</v>
       </c>
       <c r="E338">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B339" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -5551,10 +5563,10 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B340" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -5563,15 +5575,15 @@
         <v>0</v>
       </c>
       <c r="E340">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B341" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -5585,10 +5597,10 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B342" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -5597,15 +5609,15 @@
         <v>0</v>
       </c>
       <c r="E342">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B343" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -5619,10 +5631,10 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B344" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -5631,15 +5643,15 @@
         <v>0</v>
       </c>
       <c r="E344">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B345" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -5653,10 +5665,10 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B346" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -5665,15 +5677,15 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B347" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -5687,10 +5699,10 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B348" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5699,15 +5711,15 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B349" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5721,10 +5733,10 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B350" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5733,15 +5745,15 @@
         <v>0</v>
       </c>
       <c r="E350">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B351" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5755,10 +5767,10 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B352" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5767,15 +5779,15 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B353" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -5789,10 +5801,10 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B354" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5801,15 +5813,15 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B355" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5823,10 +5835,10 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B356" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5835,15 +5847,15 @@
         <v>0</v>
       </c>
       <c r="E356">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B357" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -5857,10 +5869,10 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B358" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5869,15 +5881,15 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B359" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -5891,10 +5903,10 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B360" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -5903,15 +5915,15 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B361" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -5925,10 +5937,10 @@
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B362" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -5937,15 +5949,15 @@
         <v>0</v>
       </c>
       <c r="E362">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B363" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -5959,10 +5971,10 @@
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B364" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -5971,15 +5983,15 @@
         <v>0</v>
       </c>
       <c r="E364">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B365" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -5993,10 +6005,10 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B366" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -6005,15 +6017,15 @@
         <v>0</v>
       </c>
       <c r="E366">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B367" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -6027,10 +6039,10 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B368" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -6039,15 +6051,15 @@
         <v>0</v>
       </c>
       <c r="E368">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B369" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -6061,10 +6073,10 @@
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B370" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -6073,15 +6085,15 @@
         <v>0</v>
       </c>
       <c r="E370">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B371" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -6095,10 +6107,10 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B372" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -6107,15 +6119,15 @@
         <v>0</v>
       </c>
       <c r="E372">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B373" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -6129,10 +6141,10 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B374" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -6141,15 +6153,15 @@
         <v>0</v>
       </c>
       <c r="E374">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B375" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -6163,10 +6175,10 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B376" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -6175,15 +6187,15 @@
         <v>0</v>
       </c>
       <c r="E376">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B377" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -6197,10 +6209,10 @@
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B378" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -6209,15 +6221,15 @@
         <v>0</v>
       </c>
       <c r="E378">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B379" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -6231,10 +6243,10 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B380" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -6243,15 +6255,15 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B381" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -6265,10 +6277,10 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B382" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -6277,15 +6289,15 @@
         <v>0</v>
       </c>
       <c r="E382">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B383" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -6299,10 +6311,10 @@
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B384" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -6311,15 +6323,15 @@
         <v>0</v>
       </c>
       <c r="E384">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B385" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -6333,10 +6345,10 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B386" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -6345,15 +6357,15 @@
         <v>0</v>
       </c>
       <c r="E386">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B387" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -6367,10 +6379,10 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B388" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -6379,15 +6391,15 @@
         <v>0</v>
       </c>
       <c r="E388">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B389" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -6401,10 +6413,10 @@
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B390" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -6413,15 +6425,15 @@
         <v>0</v>
       </c>
       <c r="E390">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B391" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -6435,10 +6447,10 @@
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B392" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -6447,15 +6459,15 @@
         <v>0</v>
       </c>
       <c r="E392">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B393" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -6469,10 +6481,10 @@
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B394" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -6481,15 +6493,15 @@
         <v>0</v>
       </c>
       <c r="E394">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B395" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -6503,10 +6515,10 @@
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B396" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6515,15 +6527,15 @@
         <v>0</v>
       </c>
       <c r="E396">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B397" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -6537,10 +6549,10 @@
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B398" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -6549,15 +6561,15 @@
         <v>0</v>
       </c>
       <c r="E398">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B399" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -6571,10 +6583,10 @@
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B400" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -6583,15 +6595,15 @@
         <v>0</v>
       </c>
       <c r="E400">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B401" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -6605,10 +6617,10 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B402" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -6617,15 +6629,15 @@
         <v>0</v>
       </c>
       <c r="E402">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B403" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -6639,10 +6651,10 @@
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B404" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -6651,15 +6663,15 @@
         <v>0</v>
       </c>
       <c r="E404">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B405" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6673,10 +6685,10 @@
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B406" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6685,15 +6697,15 @@
         <v>0</v>
       </c>
       <c r="E406">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B407" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -6707,10 +6719,10 @@
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B408" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -6719,15 +6731,15 @@
         <v>0</v>
       </c>
       <c r="E408">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B409" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -6741,10 +6753,10 @@
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B410" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6753,15 +6765,15 @@
         <v>0</v>
       </c>
       <c r="E410">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B411" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6775,10 +6787,10 @@
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B412" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6787,15 +6799,15 @@
         <v>0</v>
       </c>
       <c r="E412">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B413" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6809,10 +6821,10 @@
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B414" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -6821,15 +6833,15 @@
         <v>0</v>
       </c>
       <c r="E414">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B415" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -6843,10 +6855,10 @@
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B416" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -6855,15 +6867,15 @@
         <v>0</v>
       </c>
       <c r="E416">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B417" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -6877,10 +6889,10 @@
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B418" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -6889,15 +6901,15 @@
         <v>0</v>
       </c>
       <c r="E418">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B419" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6911,10 +6923,10 @@
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B420" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6923,15 +6935,15 @@
         <v>0</v>
       </c>
       <c r="E420">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B421" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6945,10 +6957,10 @@
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B422" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6957,15 +6969,15 @@
         <v>0</v>
       </c>
       <c r="E422">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B423" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6979,10 +6991,10 @@
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B424" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -6991,15 +7003,15 @@
         <v>0</v>
       </c>
       <c r="E424">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B425" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -7013,10 +7025,10 @@
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B426" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -7025,15 +7037,15 @@
         <v>0</v>
       </c>
       <c r="E426">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B427" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -7047,10 +7059,10 @@
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B428" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -7059,15 +7071,15 @@
         <v>0</v>
       </c>
       <c r="E428">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B429" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -7081,10 +7093,10 @@
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B430" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -7093,15 +7105,15 @@
         <v>0</v>
       </c>
       <c r="E430">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B431" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -7115,10 +7127,10 @@
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B432" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -7127,15 +7139,15 @@
         <v>0</v>
       </c>
       <c r="E432">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B433" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -7149,10 +7161,10 @@
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B434" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -7161,15 +7173,15 @@
         <v>0</v>
       </c>
       <c r="E434">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B435" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -7183,10 +7195,10 @@
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B436" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -7195,15 +7207,15 @@
         <v>0</v>
       </c>
       <c r="E436">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B437" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -7217,10 +7229,10 @@
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B438" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -7229,15 +7241,15 @@
         <v>0</v>
       </c>
       <c r="E438">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B439" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -7251,10 +7263,10 @@
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B440" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -7263,15 +7275,15 @@
         <v>0</v>
       </c>
       <c r="E440">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B441" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -7285,10 +7297,10 @@
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B442" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -7297,15 +7309,15 @@
         <v>0</v>
       </c>
       <c r="E442">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B443" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -7319,10 +7331,10 @@
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B444" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -7331,15 +7343,15 @@
         <v>0</v>
       </c>
       <c r="E444">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="445" spans="1:5">
       <c r="A445" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B445" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -7353,10 +7365,10 @@
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B446" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -7365,15 +7377,15 @@
         <v>0</v>
       </c>
       <c r="E446">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B447" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -7387,10 +7399,10 @@
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B448" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -7399,15 +7411,15 @@
         <v>0</v>
       </c>
       <c r="E448">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B449" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -7421,10 +7433,10 @@
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B450" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -7433,15 +7445,15 @@
         <v>0</v>
       </c>
       <c r="E450">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B451" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -7455,10 +7467,10 @@
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B452" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -7467,15 +7479,15 @@
         <v>0</v>
       </c>
       <c r="E452">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B453" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -7489,10 +7501,10 @@
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B454" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -7501,15 +7513,15 @@
         <v>0</v>
       </c>
       <c r="E454">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B455" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -7523,10 +7535,10 @@
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B456" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -7535,15 +7547,15 @@
         <v>0</v>
       </c>
       <c r="E456">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B457" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -7557,10 +7569,10 @@
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B458" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -7569,15 +7581,15 @@
         <v>0</v>
       </c>
       <c r="E458">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B459" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -7591,10 +7603,10 @@
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B460" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -7603,15 +7615,15 @@
         <v>0</v>
       </c>
       <c r="E460">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B461" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -7625,10 +7637,10 @@
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B462" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -7637,15 +7649,15 @@
         <v>0</v>
       </c>
       <c r="E462">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B463" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -7659,10 +7671,10 @@
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B464" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -7671,15 +7683,15 @@
         <v>0</v>
       </c>
       <c r="E464">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B465" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -7693,10 +7705,10 @@
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B466" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -7705,15 +7717,15 @@
         <v>0</v>
       </c>
       <c r="E466">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B467" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -7727,10 +7739,10 @@
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B468" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C468">
         <v>0</v>
@@ -7739,15 +7751,15 @@
         <v>0</v>
       </c>
       <c r="E468">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B469" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -7761,10 +7773,10 @@
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B470" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -7773,15 +7785,15 @@
         <v>0</v>
       </c>
       <c r="E470">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B471" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -7795,10 +7807,10 @@
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B472" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -7807,15 +7819,15 @@
         <v>0</v>
       </c>
       <c r="E472">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B473" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -7829,10 +7841,10 @@
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B474" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -7841,15 +7853,15 @@
         <v>0</v>
       </c>
       <c r="E474">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B475" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -7863,10 +7875,10 @@
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B476" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -7875,15 +7887,15 @@
         <v>0</v>
       </c>
       <c r="E476">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B477" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -7897,10 +7909,10 @@
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B478" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -7909,15 +7921,15 @@
         <v>0</v>
       </c>
       <c r="E478">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B479" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -7931,10 +7943,10 @@
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B480" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -7943,15 +7955,15 @@
         <v>0</v>
       </c>
       <c r="E480">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B481" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -7965,10 +7977,10 @@
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B482" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -7977,15 +7989,15 @@
         <v>0</v>
       </c>
       <c r="E482">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B483" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -7999,10 +8011,10 @@
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B484" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -8011,15 +8023,15 @@
         <v>0</v>
       </c>
       <c r="E484">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B485" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -8033,10 +8045,10 @@
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B486" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -8045,15 +8057,15 @@
         <v>0</v>
       </c>
       <c r="E486">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B487" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -8067,10 +8079,10 @@
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B488" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -8079,15 +8091,15 @@
         <v>0</v>
       </c>
       <c r="E488">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B489" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -8101,10 +8113,10 @@
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B490" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -8113,15 +8125,15 @@
         <v>0</v>
       </c>
       <c r="E490">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B491" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -8135,10 +8147,10 @@
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B492" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -8147,15 +8159,15 @@
         <v>0</v>
       </c>
       <c r="E492">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B493" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -8169,10 +8181,10 @@
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B494" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -8181,15 +8193,15 @@
         <v>0</v>
       </c>
       <c r="E494">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B495" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -8203,10 +8215,10 @@
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B496" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -8215,15 +8227,15 @@
         <v>0</v>
       </c>
       <c r="E496">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B497" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -8237,10 +8249,10 @@
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B498" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -8249,15 +8261,15 @@
         <v>0</v>
       </c>
       <c r="E498">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B499" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -8271,10 +8283,10 @@
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B500" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -8283,15 +8295,15 @@
         <v>0</v>
       </c>
       <c r="E500">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B501" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -8305,10 +8317,10 @@
     </row>
     <row r="502" spans="1:5">
       <c r="A502" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B502" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -8317,15 +8329,15 @@
         <v>0</v>
       </c>
       <c r="E502">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="503" spans="1:5">
       <c r="A503" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B503" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -8339,10 +8351,10 @@
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B504" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -8351,15 +8363,15 @@
         <v>0</v>
       </c>
       <c r="E504">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B505" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -8373,10 +8385,10 @@
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B506" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -8385,15 +8397,15 @@
         <v>0</v>
       </c>
       <c r="E506">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="507" spans="1:5">
       <c r="A507" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B507" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -8407,10 +8419,10 @@
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B508" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -8419,15 +8431,15 @@
         <v>0</v>
       </c>
       <c r="E508">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="509" spans="1:5">
       <c r="A509" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B509" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -8441,10 +8453,10 @@
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B510" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -8453,15 +8465,15 @@
         <v>0</v>
       </c>
       <c r="E510">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B511" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -8475,10 +8487,10 @@
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B512" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C512">
         <v>0</v>
@@ -8487,15 +8499,15 @@
         <v>0</v>
       </c>
       <c r="E512">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B513" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -8509,10 +8521,10 @@
     </row>
     <row r="514" spans="1:5">
       <c r="A514" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B514" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -8521,15 +8533,15 @@
         <v>0</v>
       </c>
       <c r="E514">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B515" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -8543,10 +8555,10 @@
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B516" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -8555,15 +8567,15 @@
         <v>0</v>
       </c>
       <c r="E516">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B517" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -8577,10 +8589,10 @@
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B518" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -8589,15 +8601,15 @@
         <v>0</v>
       </c>
       <c r="E518">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B519" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -8611,10 +8623,10 @@
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B520" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -8623,15 +8635,15 @@
         <v>0</v>
       </c>
       <c r="E520">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B521" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -8645,10 +8657,10 @@
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B522" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -8657,15 +8669,15 @@
         <v>0</v>
       </c>
       <c r="E522">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B523" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -8679,10 +8691,10 @@
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B524" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -8691,15 +8703,15 @@
         <v>0</v>
       </c>
       <c r="E524">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B525" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -8713,10 +8725,10 @@
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B526" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -8725,15 +8737,15 @@
         <v>0</v>
       </c>
       <c r="E526">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B527" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -8747,30 +8759,24 @@
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B528" s="1">
-        <v>97</v>
-      </c>
-      <c r="C528">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D528">
         <v>0</v>
       </c>
       <c r="E528">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B529" s="1">
-        <v>97</v>
-      </c>
-      <c r="C529">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D529">
         <v>0</v>
@@ -8781,136 +8787,40 @@
     </row>
     <row r="530" spans="1:5">
       <c r="A530" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B530" s="1">
-        <v>98</v>
-      </c>
-      <c r="C530">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D530">
         <v>0</v>
       </c>
       <c r="E530">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B531" s="1">
-        <v>98</v>
-      </c>
-      <c r="C531">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D531">
         <v>0</v>
       </c>
       <c r="E531">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5">
-      <c r="A532" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B532" s="1">
-        <v>98</v>
-      </c>
-      <c r="C532">
-        <v>0</v>
-      </c>
-      <c r="D532">
-        <v>0</v>
-      </c>
-      <c r="E532">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5">
-      <c r="A533" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B533" s="1">
-        <v>98</v>
-      </c>
-      <c r="C533">
-        <v>0</v>
-      </c>
-      <c r="D533">
-        <v>0</v>
-      </c>
-      <c r="E533">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5">
-      <c r="A534" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B534" s="1">
-        <v>99</v>
-      </c>
-      <c r="D534">
-        <v>0</v>
-      </c>
-      <c r="E534">
-        <v>53625000</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5">
-      <c r="A535" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B535" s="1">
-        <v>99</v>
-      </c>
-      <c r="D535">
-        <v>0</v>
-      </c>
-      <c r="E535">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5">
-      <c r="A536" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B536" s="1">
-        <v>99</v>
-      </c>
-      <c r="D536">
-        <v>0</v>
-      </c>
-      <c r="E536">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5">
-      <c r="A537" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B537" s="1">
-        <v>99</v>
-      </c>
-      <c r="D537">
-        <v>0</v>
-      </c>
-      <c r="E537">
         <v>33000000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:A55"/>
-    <mergeCell ref="A56:A109"/>
-    <mergeCell ref="A110:A163"/>
-    <mergeCell ref="A164:A217"/>
-    <mergeCell ref="A218:A271"/>
-    <mergeCell ref="A272:A325"/>
+    <mergeCell ref="A2:A54"/>
+    <mergeCell ref="A55:A107"/>
+    <mergeCell ref="A108:A160"/>
+    <mergeCell ref="A161:A213"/>
+    <mergeCell ref="A214:A266"/>
+    <mergeCell ref="A267:A319"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tranchedata.xlsx
+++ b/tranchedata.xlsx
@@ -495,10 +495,10 @@
         <v>1973564.140573333</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>94485124.06601793</v>
       </c>
       <c r="E5">
-        <v>361495416</v>
+        <v>267010291.9339821</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -507,13 +507,13 @@
         <v>51</v>
       </c>
       <c r="C6">
-        <v>1909900.7812</v>
+        <v>1410704.375717872</v>
       </c>
       <c r="D6">
-        <v>14916211.36000001</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>346579204.64</v>
+        <v>267010291.9339821</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -522,13 +522,13 @@
         <v>52</v>
       </c>
       <c r="C7">
-        <v>1892129.913331822</v>
+        <v>1457727.854908468</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>346579204.64</v>
+        <v>267010291.9339821</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -537,13 +537,13 @@
         <v>53</v>
       </c>
       <c r="C8">
-        <v>1892129.913331822</v>
+        <v>1457727.854908468</v>
       </c>
       <c r="D8">
-        <v>65221702.36000001</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>281357502.28</v>
+        <v>267010291.9339821</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -552,13 +552,13 @@
         <v>54</v>
       </c>
       <c r="C9">
-        <v>1387405.105687378</v>
+        <v>1316657.41733668</v>
       </c>
       <c r="D9">
-        <v>55000000</v>
+        <v>11650000</v>
       </c>
       <c r="E9">
-        <v>226357502.28</v>
+        <v>255360291.9339821</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -567,13 +567,13 @@
         <v>55</v>
       </c>
       <c r="C10">
-        <v>1235786.208280866</v>
+        <v>1394125.32713069</v>
       </c>
       <c r="D10">
-        <v>58111292.09213597</v>
+        <v>14916211.36000001</v>
       </c>
       <c r="E10">
-        <v>168246210.187864</v>
+        <v>240444080.5739821</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,13 +582,13 @@
         <v>56</v>
       </c>
       <c r="C11">
-        <v>888900.8104925482</v>
+        <v>1270346.225699205</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>64667166.12400001</v>
       </c>
       <c r="E11">
-        <v>168246210.187864</v>
+        <v>175776914.449982</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -597,13 +597,13 @@
         <v>57</v>
       </c>
       <c r="C12">
-        <v>918530.8375089663</v>
+        <v>959644.2990555409</v>
       </c>
       <c r="D12">
-        <v>143686931.94</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>24559278.24786399</v>
+        <v>175776914.449982</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -612,13 +612,13 @@
         <v>58</v>
       </c>
       <c r="C13">
-        <v>129754.8534095481</v>
+        <v>928688.0313440718</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>24559278.24786399</v>
+        <v>175776914.449982</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>59</v>
       </c>
       <c r="C14">
-        <v>134080.0151898663</v>
+        <v>959644.2990555409</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>65221702.36</v>
       </c>
       <c r="E14">
-        <v>24559278.24786399</v>
+        <v>110555212.089982</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -642,13 +642,13 @@
         <v>60</v>
       </c>
       <c r="C15">
-        <v>134080.0151898663</v>
+        <v>603570.0384490298</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>52552749.77999999</v>
       </c>
       <c r="E15">
-        <v>24559278.24786399</v>
+        <v>58002462.30998205</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -657,13 +657,13 @@
         <v>61</v>
       </c>
       <c r="C16">
-        <v>129754.8534095481</v>
+        <v>306446.3425377385</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>55000000</v>
       </c>
       <c r="E16">
-        <v>24559278.24786399</v>
+        <v>3002462.309982054</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -672,13 +672,13 @@
         <v>62</v>
       </c>
       <c r="C17">
-        <v>134080.0151898663</v>
+        <v>16391.77617788536</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3002462.309982054</v>
       </c>
       <c r="E17">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,13 +687,13 @@
         <v>63</v>
       </c>
       <c r="C18">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -702,13 +702,13 @@
         <v>64</v>
       </c>
       <c r="C19">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -717,13 +717,13 @@
         <v>65</v>
       </c>
       <c r="C20">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -732,13 +732,13 @@
         <v>66</v>
       </c>
       <c r="C21">
-        <v>121104.5298489115</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -747,13 +747,13 @@
         <v>67</v>
       </c>
       <c r="C22">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -762,13 +762,13 @@
         <v>68</v>
       </c>
       <c r="C23">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -777,13 +777,13 @@
         <v>69</v>
       </c>
       <c r="C24">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -792,13 +792,13 @@
         <v>70</v>
       </c>
       <c r="C25">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -807,13 +807,13 @@
         <v>71</v>
       </c>
       <c r="C26">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -822,13 +822,13 @@
         <v>72</v>
       </c>
       <c r="C27">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -837,13 +837,13 @@
         <v>73</v>
       </c>
       <c r="C28">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -852,13 +852,13 @@
         <v>74</v>
       </c>
       <c r="C29">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -867,13 +867,13 @@
         <v>75</v>
       </c>
       <c r="C30">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -882,13 +882,13 @@
         <v>76</v>
       </c>
       <c r="C31">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -897,13 +897,13 @@
         <v>77</v>
       </c>
       <c r="C32">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -912,13 +912,13 @@
         <v>78</v>
       </c>
       <c r="C33">
-        <v>121104.5298489115</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -927,13 +927,13 @@
         <v>79</v>
       </c>
       <c r="C34">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -942,13 +942,13 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -957,13 +957,13 @@
         <v>81</v>
       </c>
       <c r="C36">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -972,13 +972,13 @@
         <v>82</v>
       </c>
       <c r="C37">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -987,13 +987,13 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>84</v>
       </c>
       <c r="C39">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1017,13 +1017,13 @@
         <v>85</v>
       </c>
       <c r="C40">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1032,13 +1032,13 @@
         <v>86</v>
       </c>
       <c r="C41">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1047,13 +1047,13 @@
         <v>87</v>
       </c>
       <c r="C42">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1062,13 +1062,13 @@
         <v>88</v>
       </c>
       <c r="C43">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1077,13 +1077,13 @@
         <v>89</v>
       </c>
       <c r="C44">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1092,13 +1092,13 @@
         <v>90</v>
       </c>
       <c r="C45">
-        <v>121104.5298489115</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1107,13 +1107,13 @@
         <v>91</v>
       </c>
       <c r="C46">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1122,13 +1122,13 @@
         <v>92</v>
       </c>
       <c r="C47">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>93</v>
       </c>
       <c r="C48">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1152,13 +1152,13 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>95</v>
       </c>
       <c r="C50">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1182,13 +1182,13 @@
         <v>96</v>
       </c>
       <c r="C51">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1197,13 +1197,13 @@
         <v>97</v>
       </c>
       <c r="C52">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1212,13 +1212,13 @@
         <v>98</v>
       </c>
       <c r="C53">
-        <v>134080.0151898663</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1227,13 +1227,13 @@
         <v>99</v>
       </c>
       <c r="C54">
-        <v>129754.8534095481</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>24559278.24786399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1472,10 +1472,10 @@
         <v>812219.3749999999</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>87497537.69001794</v>
       </c>
       <c r="E70">
-        <v>141625000</v>
+        <v>54127462.30998206</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1484,13 +1484,13 @@
         <v>63</v>
       </c>
       <c r="C71">
-        <v>786018.7499999999</v>
+        <v>300407.4158204004</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>54127462.30998206</v>
       </c>
       <c r="E71">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1499,13 +1499,13 @@
         <v>64</v>
       </c>
       <c r="C72">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1514,13 +1514,13 @@
         <v>65</v>
       </c>
       <c r="C73">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1529,13 +1529,13 @@
         <v>66</v>
       </c>
       <c r="C74">
-        <v>733617.4999999999</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1544,13 +1544,13 @@
         <v>67</v>
       </c>
       <c r="C75">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1559,13 +1559,13 @@
         <v>68</v>
       </c>
       <c r="C76">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1574,13 +1574,13 @@
         <v>69</v>
       </c>
       <c r="C77">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1589,13 +1589,13 @@
         <v>70</v>
       </c>
       <c r="C78">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1604,13 +1604,13 @@
         <v>71</v>
       </c>
       <c r="C79">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1619,13 +1619,13 @@
         <v>72</v>
       </c>
       <c r="C80">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1634,13 +1634,13 @@
         <v>73</v>
       </c>
       <c r="C81">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1649,13 +1649,13 @@
         <v>74</v>
       </c>
       <c r="C82">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1664,13 +1664,13 @@
         <v>75</v>
       </c>
       <c r="C83">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1679,13 +1679,13 @@
         <v>76</v>
       </c>
       <c r="C84">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1694,13 +1694,13 @@
         <v>77</v>
       </c>
       <c r="C85">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1709,13 +1709,13 @@
         <v>78</v>
       </c>
       <c r="C86">
-        <v>733617.4999999999</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1724,13 +1724,13 @@
         <v>79</v>
       </c>
       <c r="C87">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1739,13 +1739,13 @@
         <v>80</v>
       </c>
       <c r="C88">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1754,13 +1754,13 @@
         <v>81</v>
       </c>
       <c r="C89">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1769,13 +1769,13 @@
         <v>82</v>
       </c>
       <c r="C90">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1784,13 +1784,13 @@
         <v>83</v>
       </c>
       <c r="C91">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1799,13 +1799,13 @@
         <v>84</v>
       </c>
       <c r="C92">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1814,13 +1814,13 @@
         <v>85</v>
       </c>
       <c r="C93">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1829,13 +1829,13 @@
         <v>86</v>
       </c>
       <c r="C94">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1844,13 +1844,13 @@
         <v>87</v>
       </c>
       <c r="C95">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1859,13 +1859,13 @@
         <v>88</v>
       </c>
       <c r="C96">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -1874,13 +1874,13 @@
         <v>89</v>
       </c>
       <c r="C97">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -1889,13 +1889,13 @@
         <v>90</v>
       </c>
       <c r="C98">
-        <v>733617.4999999999</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -1904,13 +1904,13 @@
         <v>91</v>
       </c>
       <c r="C99">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -1919,13 +1919,13 @@
         <v>92</v>
       </c>
       <c r="C100">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -1934,13 +1934,13 @@
         <v>93</v>
       </c>
       <c r="C101">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -1949,13 +1949,13 @@
         <v>94</v>
       </c>
       <c r="C102">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -1964,13 +1964,13 @@
         <v>95</v>
       </c>
       <c r="C103">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -1979,13 +1979,13 @@
         <v>96</v>
       </c>
       <c r="C104">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -1994,13 +1994,13 @@
         <v>97</v>
       </c>
       <c r="C105">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2009,13 +2009,13 @@
         <v>98</v>
       </c>
       <c r="C106">
-        <v>812219.3749999999</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2024,13 +2024,13 @@
         <v>99</v>
       </c>
       <c r="C107">
-        <v>786018.7499999999</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>141625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2284,10 +2284,10 @@
         <v>377300</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>3983829.78215389</v>
       </c>
       <c r="E124">
-        <v>66000000</v>
+        <v>62016170.21784611</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2296,13 +2296,13 @@
         <v>64</v>
       </c>
       <c r="C125">
-        <v>389876.6666666667</v>
+        <v>366343.2988479764</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>10204238.35</v>
       </c>
       <c r="E125">
-        <v>66000000</v>
+        <v>51811931.86784611</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2311,13 +2311,13 @@
         <v>65</v>
       </c>
       <c r="C126">
-        <v>389876.6666666667</v>
+        <v>306064.5953060043</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>66000000</v>
+        <v>51811931.86784611</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2326,13 +2326,13 @@
         <v>66</v>
       </c>
       <c r="C127">
-        <v>352146.6666666667</v>
+        <v>276445.4409215522</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>66000000</v>
+        <v>51811931.86784611</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2341,13 +2341,13 @@
         <v>67</v>
       </c>
       <c r="C128">
-        <v>389876.6666666667</v>
+        <v>306064.5953060043</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>51811931.86784611</v>
       </c>
       <c r="E128">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2356,13 +2356,13 @@
         <v>68</v>
       </c>
       <c r="C129">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2371,13 +2371,13 @@
         <v>69</v>
       </c>
       <c r="C130">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2386,13 +2386,13 @@
         <v>70</v>
       </c>
       <c r="C131">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2401,13 +2401,13 @@
         <v>71</v>
       </c>
       <c r="C132">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2416,13 +2416,13 @@
         <v>72</v>
       </c>
       <c r="C133">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2431,13 +2431,13 @@
         <v>73</v>
       </c>
       <c r="C134">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2446,13 +2446,13 @@
         <v>74</v>
       </c>
       <c r="C135">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2461,13 +2461,13 @@
         <v>75</v>
       </c>
       <c r="C136">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2476,13 +2476,13 @@
         <v>76</v>
       </c>
       <c r="C137">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2491,13 +2491,13 @@
         <v>77</v>
       </c>
       <c r="C138">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2506,13 +2506,13 @@
         <v>78</v>
       </c>
       <c r="C139">
-        <v>352146.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2521,13 +2521,13 @@
         <v>79</v>
       </c>
       <c r="C140">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2536,13 +2536,13 @@
         <v>80</v>
       </c>
       <c r="C141">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2551,13 +2551,13 @@
         <v>81</v>
       </c>
       <c r="C142">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2566,13 +2566,13 @@
         <v>82</v>
       </c>
       <c r="C143">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2581,13 +2581,13 @@
         <v>83</v>
       </c>
       <c r="C144">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2596,13 +2596,13 @@
         <v>84</v>
       </c>
       <c r="C145">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2611,13 +2611,13 @@
         <v>85</v>
       </c>
       <c r="C146">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2626,13 +2626,13 @@
         <v>86</v>
       </c>
       <c r="C147">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2641,13 +2641,13 @@
         <v>87</v>
       </c>
       <c r="C148">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2656,13 +2656,13 @@
         <v>88</v>
       </c>
       <c r="C149">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2671,13 +2671,13 @@
         <v>89</v>
       </c>
       <c r="C150">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2686,13 +2686,13 @@
         <v>90</v>
       </c>
       <c r="C151">
-        <v>352146.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2701,13 +2701,13 @@
         <v>91</v>
       </c>
       <c r="C152">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2716,13 +2716,13 @@
         <v>92</v>
       </c>
       <c r="C153">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2731,13 +2731,13 @@
         <v>93</v>
       </c>
       <c r="C154">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2746,13 +2746,13 @@
         <v>94</v>
       </c>
       <c r="C155">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -2761,13 +2761,13 @@
         <v>95</v>
       </c>
       <c r="C156">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -2776,13 +2776,13 @@
         <v>96</v>
       </c>
       <c r="C157">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -2791,13 +2791,13 @@
         <v>97</v>
       </c>
       <c r="C158">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -2806,13 +2806,13 @@
         <v>98</v>
       </c>
       <c r="C159">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -2821,13 +2821,13 @@
         <v>99</v>
       </c>
       <c r="C160">
-        <v>377300</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>495136.7361111111</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>79750000</v>
       </c>
       <c r="E181">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3153,13 +3153,13 @@
         <v>68</v>
       </c>
       <c r="C182">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3168,13 +3168,13 @@
         <v>69</v>
       </c>
       <c r="C183">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3183,13 +3183,13 @@
         <v>70</v>
       </c>
       <c r="C184">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3198,13 +3198,13 @@
         <v>71</v>
       </c>
       <c r="C185">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3213,13 +3213,13 @@
         <v>72</v>
       </c>
       <c r="C186">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3228,13 +3228,13 @@
         <v>73</v>
       </c>
       <c r="C187">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3243,13 +3243,13 @@
         <v>74</v>
       </c>
       <c r="C188">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3258,13 +3258,13 @@
         <v>75</v>
       </c>
       <c r="C189">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3273,13 +3273,13 @@
         <v>76</v>
       </c>
       <c r="C190">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3288,13 +3288,13 @@
         <v>77</v>
       </c>
       <c r="C191">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3303,13 +3303,13 @@
         <v>78</v>
       </c>
       <c r="C192">
-        <v>447220.2777777778</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3318,13 +3318,13 @@
         <v>79</v>
       </c>
       <c r="C193">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3333,13 +3333,13 @@
         <v>80</v>
       </c>
       <c r="C194">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3348,13 +3348,13 @@
         <v>81</v>
       </c>
       <c r="C195">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3363,13 +3363,13 @@
         <v>82</v>
       </c>
       <c r="C196">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3378,13 +3378,13 @@
         <v>83</v>
       </c>
       <c r="C197">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3393,13 +3393,13 @@
         <v>84</v>
       </c>
       <c r="C198">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3408,13 +3408,13 @@
         <v>85</v>
       </c>
       <c r="C199">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3423,13 +3423,13 @@
         <v>86</v>
       </c>
       <c r="C200">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3438,13 +3438,13 @@
         <v>87</v>
       </c>
       <c r="C201">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3453,13 +3453,13 @@
         <v>88</v>
       </c>
       <c r="C202">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3468,13 +3468,13 @@
         <v>89</v>
       </c>
       <c r="C203">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3483,13 +3483,13 @@
         <v>90</v>
       </c>
       <c r="C204">
-        <v>447220.2777777778</v>
+        <v>0</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3498,13 +3498,13 @@
         <v>91</v>
       </c>
       <c r="C205">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3513,13 +3513,13 @@
         <v>92</v>
       </c>
       <c r="C206">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3528,13 +3528,13 @@
         <v>93</v>
       </c>
       <c r="C207">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3543,13 +3543,13 @@
         <v>94</v>
       </c>
       <c r="C208">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3558,13 +3558,13 @@
         <v>95</v>
       </c>
       <c r="C209">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3573,13 +3573,13 @@
         <v>96</v>
       </c>
       <c r="C210">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3588,13 +3588,13 @@
         <v>97</v>
       </c>
       <c r="C211">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3603,13 +3603,13 @@
         <v>98</v>
       </c>
       <c r="C212">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3618,13 +3618,13 @@
         <v>99</v>
       </c>
       <c r="C213">
-        <v>479164.5833333333</v>
+        <v>0</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3938,10 +3938,10 @@
         <v>387449.4097222222</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>12125000.07215391</v>
       </c>
       <c r="E234">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -3950,13 +3950,13 @@
         <v>68</v>
       </c>
       <c r="C235">
-        <v>374951.0416666667</v>
+        <v>298058.3328757573</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -3965,13 +3965,13 @@
         <v>69</v>
       </c>
       <c r="C236">
-        <v>387449.4097222222</v>
+        <v>307993.6106382826</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -3980,13 +3980,13 @@
         <v>70</v>
       </c>
       <c r="C237">
-        <v>374951.0416666667</v>
+        <v>298058.3328757573</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -3995,13 +3995,13 @@
         <v>71</v>
       </c>
       <c r="C238">
-        <v>387449.4097222222</v>
+        <v>307993.6106382826</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4010,13 +4010,13 @@
         <v>72</v>
       </c>
       <c r="C239">
-        <v>387449.4097222222</v>
+        <v>307993.6106382826</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4025,13 +4025,13 @@
         <v>73</v>
       </c>
       <c r="C240">
-        <v>374951.0416666667</v>
+        <v>298058.3328757573</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4040,13 +4040,13 @@
         <v>74</v>
       </c>
       <c r="C241">
-        <v>387449.4097222222</v>
+        <v>307993.6106382826</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4055,13 +4055,13 @@
         <v>75</v>
       </c>
       <c r="C242">
-        <v>374951.0416666667</v>
+        <v>298058.3328757573</v>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4070,13 +4070,13 @@
         <v>76</v>
       </c>
       <c r="C243">
-        <v>387449.4097222222</v>
+        <v>307993.6106382826</v>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4085,13 +4085,13 @@
         <v>77</v>
       </c>
       <c r="C244">
-        <v>387449.4097222222</v>
+        <v>307993.6106382826</v>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4100,13 +4100,13 @@
         <v>78</v>
       </c>
       <c r="C245">
-        <v>349954.3055555556</v>
+        <v>278187.7773507068</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4115,13 +4115,13 @@
         <v>79</v>
       </c>
       <c r="C246">
-        <v>387449.4097222222</v>
+        <v>307993.6106382826</v>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246">
-        <v>59125000</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4130,13 +4130,13 @@
         <v>80</v>
       </c>
       <c r="C247">
-        <v>374951.0416666667</v>
+        <v>298058.3328757573</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>46999999.92784609</v>
       </c>
       <c r="E247">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4145,13 +4145,13 @@
         <v>81</v>
       </c>
       <c r="C248">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4160,13 +4160,13 @@
         <v>82</v>
       </c>
       <c r="C249">
-        <v>374951.0416666667</v>
+        <v>0</v>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4175,13 +4175,13 @@
         <v>83</v>
       </c>
       <c r="C250">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4190,13 +4190,13 @@
         <v>84</v>
       </c>
       <c r="C251">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4205,13 +4205,13 @@
         <v>85</v>
       </c>
       <c r="C252">
-        <v>374951.0416666667</v>
+        <v>0</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4220,13 +4220,13 @@
         <v>86</v>
       </c>
       <c r="C253">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4235,13 +4235,13 @@
         <v>87</v>
       </c>
       <c r="C254">
-        <v>374951.0416666667</v>
+        <v>0</v>
       </c>
       <c r="D254">
         <v>0</v>
       </c>
       <c r="E254">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4250,13 +4250,13 @@
         <v>88</v>
       </c>
       <c r="C255">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4265,13 +4265,13 @@
         <v>89</v>
       </c>
       <c r="C256">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4280,13 +4280,13 @@
         <v>90</v>
       </c>
       <c r="C257">
-        <v>349954.3055555556</v>
+        <v>0</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4295,13 +4295,13 @@
         <v>91</v>
       </c>
       <c r="C258">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4310,13 +4310,13 @@
         <v>92</v>
       </c>
       <c r="C259">
-        <v>374951.0416666667</v>
+        <v>0</v>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4325,13 +4325,13 @@
         <v>93</v>
       </c>
       <c r="C260">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4340,13 +4340,13 @@
         <v>94</v>
       </c>
       <c r="C261">
-        <v>374951.0416666667</v>
+        <v>0</v>
       </c>
       <c r="D261">
         <v>0</v>
       </c>
       <c r="E261">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4355,13 +4355,13 @@
         <v>95</v>
       </c>
       <c r="C262">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4370,13 +4370,13 @@
         <v>96</v>
       </c>
       <c r="C263">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4385,13 +4385,13 @@
         <v>97</v>
       </c>
       <c r="C264">
-        <v>374951.0416666667</v>
+        <v>0</v>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4400,13 +4400,13 @@
         <v>98</v>
       </c>
       <c r="C265">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4415,13 +4415,13 @@
         <v>99</v>
       </c>
       <c r="C266">
-        <v>374951.0416666667</v>
+        <v>0</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4930,10 +4930,10 @@
         <v>82087.5</v>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>12375000</v>
       </c>
       <c r="E300">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -4942,13 +4942,13 @@
         <v>81</v>
       </c>
       <c r="C301">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D301">
         <v>0</v>
       </c>
       <c r="E301">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -4957,13 +4957,13 @@
         <v>82</v>
       </c>
       <c r="C302">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D302">
         <v>0</v>
       </c>
       <c r="E302">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -4972,13 +4972,13 @@
         <v>83</v>
       </c>
       <c r="C303">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D303">
         <v>0</v>
       </c>
       <c r="E303">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -4987,13 +4987,13 @@
         <v>84</v>
       </c>
       <c r="C304">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D304">
         <v>0</v>
       </c>
       <c r="E304">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5002,13 +5002,13 @@
         <v>85</v>
       </c>
       <c r="C305">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D305">
         <v>0</v>
       </c>
       <c r="E305">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5017,13 +5017,13 @@
         <v>86</v>
       </c>
       <c r="C306">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D306">
         <v>0</v>
       </c>
       <c r="E306">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5032,13 +5032,13 @@
         <v>87</v>
       </c>
       <c r="C307">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D307">
         <v>0</v>
       </c>
       <c r="E307">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5047,13 +5047,13 @@
         <v>88</v>
       </c>
       <c r="C308">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D308">
         <v>0</v>
       </c>
       <c r="E308">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5062,13 +5062,13 @@
         <v>89</v>
       </c>
       <c r="C309">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5077,13 +5077,13 @@
         <v>90</v>
       </c>
       <c r="C310">
-        <v>76615</v>
+        <v>0</v>
       </c>
       <c r="D310">
         <v>0</v>
       </c>
       <c r="E310">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5092,13 +5092,13 @@
         <v>91</v>
       </c>
       <c r="C311">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D311">
         <v>0</v>
       </c>
       <c r="E311">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5107,13 +5107,13 @@
         <v>92</v>
       </c>
       <c r="C312">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D312">
         <v>0</v>
       </c>
       <c r="E312">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5122,13 +5122,13 @@
         <v>93</v>
       </c>
       <c r="C313">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D313">
         <v>0</v>
       </c>
       <c r="E313">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5137,13 +5137,13 @@
         <v>94</v>
       </c>
       <c r="C314">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D314">
         <v>0</v>
       </c>
       <c r="E314">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5152,13 +5152,13 @@
         <v>95</v>
       </c>
       <c r="C315">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D315">
         <v>0</v>
       </c>
       <c r="E315">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5167,13 +5167,13 @@
         <v>96</v>
       </c>
       <c r="C316">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D316">
         <v>0</v>
       </c>
       <c r="E316">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5182,13 +5182,13 @@
         <v>97</v>
       </c>
       <c r="C317">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D317">
         <v>0</v>
       </c>
       <c r="E317">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5197,13 +5197,13 @@
         <v>98</v>
       </c>
       <c r="C318">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D318">
         <v>0</v>
       </c>
       <c r="E318">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5212,13 +5212,13 @@
         <v>99</v>
       </c>
       <c r="C319">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D319">
         <v>0</v>
       </c>
       <c r="E319">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7472,14 +7472,11 @@
       <c r="B452" s="1">
         <v>80</v>
       </c>
-      <c r="C452">
-        <v>0</v>
-      </c>
       <c r="D452">
-        <v>0</v>
+        <v>21625000.07215391</v>
       </c>
       <c r="E452">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -7489,9 +7486,6 @@
       <c r="B453" s="1">
         <v>80</v>
       </c>
-      <c r="C453">
-        <v>0</v>
-      </c>
       <c r="D453">
         <v>0</v>
       </c>
@@ -7506,9 +7500,6 @@
       <c r="B454" s="1">
         <v>80</v>
       </c>
-      <c r="C454">
-        <v>0</v>
-      </c>
       <c r="D454">
         <v>0</v>
       </c>
@@ -7523,9 +7514,6 @@
       <c r="B455" s="1">
         <v>80</v>
       </c>
-      <c r="C455">
-        <v>0</v>
-      </c>
       <c r="D455">
         <v>0</v>
       </c>
@@ -7540,14 +7528,11 @@
       <c r="B456" s="1">
         <v>81</v>
       </c>
-      <c r="C456">
-        <v>0</v>
-      </c>
       <c r="D456">
         <v>0</v>
       </c>
       <c r="E456">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -7557,9 +7542,6 @@
       <c r="B457" s="1">
         <v>81</v>
       </c>
-      <c r="C457">
-        <v>0</v>
-      </c>
       <c r="D457">
         <v>0</v>
       </c>
@@ -7574,9 +7556,6 @@
       <c r="B458" s="1">
         <v>81</v>
       </c>
-      <c r="C458">
-        <v>0</v>
-      </c>
       <c r="D458">
         <v>0</v>
       </c>
@@ -7591,9 +7570,6 @@
       <c r="B459" s="1">
         <v>81</v>
       </c>
-      <c r="C459">
-        <v>0</v>
-      </c>
       <c r="D459">
         <v>0</v>
       </c>
@@ -7608,14 +7584,11 @@
       <c r="B460" s="1">
         <v>82</v>
       </c>
-      <c r="C460">
-        <v>0</v>
-      </c>
       <c r="D460">
         <v>0</v>
       </c>
       <c r="E460">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -7625,9 +7598,6 @@
       <c r="B461" s="1">
         <v>82</v>
       </c>
-      <c r="C461">
-        <v>0</v>
-      </c>
       <c r="D461">
         <v>0</v>
       </c>
@@ -7642,9 +7612,6 @@
       <c r="B462" s="1">
         <v>82</v>
       </c>
-      <c r="C462">
-        <v>0</v>
-      </c>
       <c r="D462">
         <v>0</v>
       </c>
@@ -7659,9 +7626,6 @@
       <c r="B463" s="1">
         <v>82</v>
       </c>
-      <c r="C463">
-        <v>0</v>
-      </c>
       <c r="D463">
         <v>0</v>
       </c>
@@ -7676,14 +7640,11 @@
       <c r="B464" s="1">
         <v>83</v>
       </c>
-      <c r="C464">
-        <v>0</v>
-      </c>
       <c r="D464">
         <v>0</v>
       </c>
       <c r="E464">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -7693,9 +7654,6 @@
       <c r="B465" s="1">
         <v>83</v>
       </c>
-      <c r="C465">
-        <v>0</v>
-      </c>
       <c r="D465">
         <v>0</v>
       </c>
@@ -7710,9 +7668,6 @@
       <c r="B466" s="1">
         <v>83</v>
       </c>
-      <c r="C466">
-        <v>0</v>
-      </c>
       <c r="D466">
         <v>0</v>
       </c>
@@ -7727,9 +7682,6 @@
       <c r="B467" s="1">
         <v>83</v>
       </c>
-      <c r="C467">
-        <v>0</v>
-      </c>
       <c r="D467">
         <v>0</v>
       </c>
@@ -7744,14 +7696,11 @@
       <c r="B468" s="1">
         <v>84</v>
       </c>
-      <c r="C468">
-        <v>0</v>
-      </c>
       <c r="D468">
         <v>0</v>
       </c>
       <c r="E468">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -7761,9 +7710,6 @@
       <c r="B469" s="1">
         <v>84</v>
       </c>
-      <c r="C469">
-        <v>0</v>
-      </c>
       <c r="D469">
         <v>0</v>
       </c>
@@ -7778,9 +7724,6 @@
       <c r="B470" s="1">
         <v>84</v>
       </c>
-      <c r="C470">
-        <v>0</v>
-      </c>
       <c r="D470">
         <v>0</v>
       </c>
@@ -7795,9 +7738,6 @@
       <c r="B471" s="1">
         <v>84</v>
       </c>
-      <c r="C471">
-        <v>0</v>
-      </c>
       <c r="D471">
         <v>0</v>
       </c>
@@ -7812,14 +7752,11 @@
       <c r="B472" s="1">
         <v>85</v>
       </c>
-      <c r="C472">
-        <v>0</v>
-      </c>
       <c r="D472">
         <v>0</v>
       </c>
       <c r="E472">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -7829,9 +7766,6 @@
       <c r="B473" s="1">
         <v>85</v>
       </c>
-      <c r="C473">
-        <v>0</v>
-      </c>
       <c r="D473">
         <v>0</v>
       </c>
@@ -7846,9 +7780,6 @@
       <c r="B474" s="1">
         <v>85</v>
       </c>
-      <c r="C474">
-        <v>0</v>
-      </c>
       <c r="D474">
         <v>0</v>
       </c>
@@ -7863,9 +7794,6 @@
       <c r="B475" s="1">
         <v>85</v>
       </c>
-      <c r="C475">
-        <v>0</v>
-      </c>
       <c r="D475">
         <v>0</v>
       </c>
@@ -7880,14 +7808,11 @@
       <c r="B476" s="1">
         <v>86</v>
       </c>
-      <c r="C476">
-        <v>0</v>
-      </c>
       <c r="D476">
         <v>0</v>
       </c>
       <c r="E476">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -7897,9 +7822,6 @@
       <c r="B477" s="1">
         <v>86</v>
       </c>
-      <c r="C477">
-        <v>0</v>
-      </c>
       <c r="D477">
         <v>0</v>
       </c>
@@ -7914,9 +7836,6 @@
       <c r="B478" s="1">
         <v>86</v>
       </c>
-      <c r="C478">
-        <v>0</v>
-      </c>
       <c r="D478">
         <v>0</v>
       </c>
@@ -7931,9 +7850,6 @@
       <c r="B479" s="1">
         <v>86</v>
       </c>
-      <c r="C479">
-        <v>0</v>
-      </c>
       <c r="D479">
         <v>0</v>
       </c>
@@ -7948,14 +7864,11 @@
       <c r="B480" s="1">
         <v>87</v>
       </c>
-      <c r="C480">
-        <v>0</v>
-      </c>
       <c r="D480">
         <v>0</v>
       </c>
       <c r="E480">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -7965,9 +7878,6 @@
       <c r="B481" s="1">
         <v>87</v>
       </c>
-      <c r="C481">
-        <v>0</v>
-      </c>
       <c r="D481">
         <v>0</v>
       </c>
@@ -7982,9 +7892,6 @@
       <c r="B482" s="1">
         <v>87</v>
       </c>
-      <c r="C482">
-        <v>0</v>
-      </c>
       <c r="D482">
         <v>0</v>
       </c>
@@ -7999,9 +7906,6 @@
       <c r="B483" s="1">
         <v>87</v>
       </c>
-      <c r="C483">
-        <v>0</v>
-      </c>
       <c r="D483">
         <v>0</v>
       </c>
@@ -8016,14 +7920,11 @@
       <c r="B484" s="1">
         <v>88</v>
       </c>
-      <c r="C484">
-        <v>0</v>
-      </c>
       <c r="D484">
         <v>0</v>
       </c>
       <c r="E484">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8033,9 +7934,6 @@
       <c r="B485" s="1">
         <v>88</v>
       </c>
-      <c r="C485">
-        <v>0</v>
-      </c>
       <c r="D485">
         <v>0</v>
       </c>
@@ -8050,9 +7948,6 @@
       <c r="B486" s="1">
         <v>88</v>
       </c>
-      <c r="C486">
-        <v>0</v>
-      </c>
       <c r="D486">
         <v>0</v>
       </c>
@@ -8067,9 +7962,6 @@
       <c r="B487" s="1">
         <v>88</v>
       </c>
-      <c r="C487">
-        <v>0</v>
-      </c>
       <c r="D487">
         <v>0</v>
       </c>
@@ -8084,14 +7976,11 @@
       <c r="B488" s="1">
         <v>89</v>
       </c>
-      <c r="C488">
-        <v>0</v>
-      </c>
       <c r="D488">
         <v>0</v>
       </c>
       <c r="E488">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8101,9 +7990,6 @@
       <c r="B489" s="1">
         <v>89</v>
       </c>
-      <c r="C489">
-        <v>0</v>
-      </c>
       <c r="D489">
         <v>0</v>
       </c>
@@ -8118,9 +8004,6 @@
       <c r="B490" s="1">
         <v>89</v>
       </c>
-      <c r="C490">
-        <v>0</v>
-      </c>
       <c r="D490">
         <v>0</v>
       </c>
@@ -8135,9 +8018,6 @@
       <c r="B491" s="1">
         <v>89</v>
       </c>
-      <c r="C491">
-        <v>0</v>
-      </c>
       <c r="D491">
         <v>0</v>
       </c>
@@ -8152,14 +8032,11 @@
       <c r="B492" s="1">
         <v>90</v>
       </c>
-      <c r="C492">
-        <v>0</v>
-      </c>
       <c r="D492">
         <v>0</v>
       </c>
       <c r="E492">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8169,9 +8046,6 @@
       <c r="B493" s="1">
         <v>90</v>
       </c>
-      <c r="C493">
-        <v>0</v>
-      </c>
       <c r="D493">
         <v>0</v>
       </c>
@@ -8186,9 +8060,6 @@
       <c r="B494" s="1">
         <v>90</v>
       </c>
-      <c r="C494">
-        <v>0</v>
-      </c>
       <c r="D494">
         <v>0</v>
       </c>
@@ -8203,9 +8074,6 @@
       <c r="B495" s="1">
         <v>90</v>
       </c>
-      <c r="C495">
-        <v>0</v>
-      </c>
       <c r="D495">
         <v>0</v>
       </c>
@@ -8220,14 +8088,11 @@
       <c r="B496" s="1">
         <v>91</v>
       </c>
-      <c r="C496">
-        <v>0</v>
-      </c>
       <c r="D496">
         <v>0</v>
       </c>
       <c r="E496">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8237,9 +8102,6 @@
       <c r="B497" s="1">
         <v>91</v>
       </c>
-      <c r="C497">
-        <v>0</v>
-      </c>
       <c r="D497">
         <v>0</v>
       </c>
@@ -8254,9 +8116,6 @@
       <c r="B498" s="1">
         <v>91</v>
       </c>
-      <c r="C498">
-        <v>0</v>
-      </c>
       <c r="D498">
         <v>0</v>
       </c>
@@ -8271,9 +8130,6 @@
       <c r="B499" s="1">
         <v>91</v>
       </c>
-      <c r="C499">
-        <v>0</v>
-      </c>
       <c r="D499">
         <v>0</v>
       </c>
@@ -8288,14 +8144,11 @@
       <c r="B500" s="1">
         <v>92</v>
       </c>
-      <c r="C500">
-        <v>0</v>
-      </c>
       <c r="D500">
         <v>0</v>
       </c>
       <c r="E500">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8305,9 +8158,6 @@
       <c r="B501" s="1">
         <v>92</v>
       </c>
-      <c r="C501">
-        <v>0</v>
-      </c>
       <c r="D501">
         <v>0</v>
       </c>
@@ -8322,9 +8172,6 @@
       <c r="B502" s="1">
         <v>92</v>
       </c>
-      <c r="C502">
-        <v>0</v>
-      </c>
       <c r="D502">
         <v>0</v>
       </c>
@@ -8339,9 +8186,6 @@
       <c r="B503" s="1">
         <v>92</v>
       </c>
-      <c r="C503">
-        <v>0</v>
-      </c>
       <c r="D503">
         <v>0</v>
       </c>
@@ -8356,14 +8200,11 @@
       <c r="B504" s="1">
         <v>93</v>
       </c>
-      <c r="C504">
-        <v>0</v>
-      </c>
       <c r="D504">
         <v>0</v>
       </c>
       <c r="E504">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -8373,9 +8214,6 @@
       <c r="B505" s="1">
         <v>93</v>
       </c>
-      <c r="C505">
-        <v>0</v>
-      </c>
       <c r="D505">
         <v>0</v>
       </c>
@@ -8390,9 +8228,6 @@
       <c r="B506" s="1">
         <v>93</v>
       </c>
-      <c r="C506">
-        <v>0</v>
-      </c>
       <c r="D506">
         <v>0</v>
       </c>
@@ -8407,9 +8242,6 @@
       <c r="B507" s="1">
         <v>93</v>
       </c>
-      <c r="C507">
-        <v>0</v>
-      </c>
       <c r="D507">
         <v>0</v>
       </c>
@@ -8424,14 +8256,11 @@
       <c r="B508" s="1">
         <v>94</v>
       </c>
-      <c r="C508">
-        <v>0</v>
-      </c>
       <c r="D508">
         <v>0</v>
       </c>
       <c r="E508">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -8441,9 +8270,6 @@
       <c r="B509" s="1">
         <v>94</v>
       </c>
-      <c r="C509">
-        <v>0</v>
-      </c>
       <c r="D509">
         <v>0</v>
       </c>
@@ -8458,9 +8284,6 @@
       <c r="B510" s="1">
         <v>94</v>
       </c>
-      <c r="C510">
-        <v>0</v>
-      </c>
       <c r="D510">
         <v>0</v>
       </c>
@@ -8475,9 +8298,6 @@
       <c r="B511" s="1">
         <v>94</v>
       </c>
-      <c r="C511">
-        <v>0</v>
-      </c>
       <c r="D511">
         <v>0</v>
       </c>
@@ -8492,14 +8312,11 @@
       <c r="B512" s="1">
         <v>95</v>
       </c>
-      <c r="C512">
-        <v>0</v>
-      </c>
       <c r="D512">
         <v>0</v>
       </c>
       <c r="E512">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -8509,9 +8326,6 @@
       <c r="B513" s="1">
         <v>95</v>
       </c>
-      <c r="C513">
-        <v>0</v>
-      </c>
       <c r="D513">
         <v>0</v>
       </c>
@@ -8526,9 +8340,6 @@
       <c r="B514" s="1">
         <v>95</v>
       </c>
-      <c r="C514">
-        <v>0</v>
-      </c>
       <c r="D514">
         <v>0</v>
       </c>
@@ -8543,9 +8354,6 @@
       <c r="B515" s="1">
         <v>95</v>
       </c>
-      <c r="C515">
-        <v>0</v>
-      </c>
       <c r="D515">
         <v>0</v>
       </c>
@@ -8560,14 +8368,11 @@
       <c r="B516" s="1">
         <v>96</v>
       </c>
-      <c r="C516">
-        <v>0</v>
-      </c>
       <c r="D516">
         <v>0</v>
       </c>
       <c r="E516">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -8577,9 +8382,6 @@
       <c r="B517" s="1">
         <v>96</v>
       </c>
-      <c r="C517">
-        <v>0</v>
-      </c>
       <c r="D517">
         <v>0</v>
       </c>
@@ -8594,9 +8396,6 @@
       <c r="B518" s="1">
         <v>96</v>
       </c>
-      <c r="C518">
-        <v>0</v>
-      </c>
       <c r="D518">
         <v>0</v>
       </c>
@@ -8611,9 +8410,6 @@
       <c r="B519" s="1">
         <v>96</v>
       </c>
-      <c r="C519">
-        <v>0</v>
-      </c>
       <c r="D519">
         <v>0</v>
       </c>
@@ -8628,14 +8424,11 @@
       <c r="B520" s="1">
         <v>97</v>
       </c>
-      <c r="C520">
-        <v>0</v>
-      </c>
       <c r="D520">
         <v>0</v>
       </c>
       <c r="E520">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -8645,9 +8438,6 @@
       <c r="B521" s="1">
         <v>97</v>
       </c>
-      <c r="C521">
-        <v>0</v>
-      </c>
       <c r="D521">
         <v>0</v>
       </c>
@@ -8662,9 +8452,6 @@
       <c r="B522" s="1">
         <v>97</v>
       </c>
-      <c r="C522">
-        <v>0</v>
-      </c>
       <c r="D522">
         <v>0</v>
       </c>
@@ -8679,9 +8466,6 @@
       <c r="B523" s="1">
         <v>97</v>
       </c>
-      <c r="C523">
-        <v>0</v>
-      </c>
       <c r="D523">
         <v>0</v>
       </c>
@@ -8696,14 +8480,11 @@
       <c r="B524" s="1">
         <v>98</v>
       </c>
-      <c r="C524">
-        <v>0</v>
-      </c>
       <c r="D524">
         <v>0</v>
       </c>
       <c r="E524">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -8713,9 +8494,6 @@
       <c r="B525" s="1">
         <v>98</v>
       </c>
-      <c r="C525">
-        <v>0</v>
-      </c>
       <c r="D525">
         <v>0</v>
       </c>
@@ -8730,9 +8508,6 @@
       <c r="B526" s="1">
         <v>98</v>
       </c>
-      <c r="C526">
-        <v>0</v>
-      </c>
       <c r="D526">
         <v>0</v>
       </c>
@@ -8747,9 +8522,6 @@
       <c r="B527" s="1">
         <v>98</v>
       </c>
-      <c r="C527">
-        <v>0</v>
-      </c>
       <c r="D527">
         <v>0</v>
       </c>
@@ -8768,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="E528">
-        <v>53625000</v>
+        <v>31999999.92784609</v>
       </c>
     </row>
     <row r="529" spans="1:5">

--- a/tranchedata.xlsx
+++ b/tranchedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Interest Payment</t>
   </si>
@@ -3953,7 +3953,7 @@
         <v>298058.3328757573</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>46999999.92784609</v>
       </c>
       <c r="E235">
         <v>46999999.92784609</v>
@@ -3965,13 +3965,13 @@
         <v>69</v>
       </c>
       <c r="C236">
-        <v>307993.6106382826</v>
+        <v>0</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -3980,13 +3980,13 @@
         <v>70</v>
       </c>
       <c r="C237">
-        <v>298058.3328757573</v>
+        <v>0</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -3995,13 +3995,13 @@
         <v>71</v>
       </c>
       <c r="C238">
-        <v>307993.6106382826</v>
+        <v>0</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4010,13 +4010,13 @@
         <v>72</v>
       </c>
       <c r="C239">
-        <v>307993.6106382826</v>
+        <v>0</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4025,13 +4025,13 @@
         <v>73</v>
       </c>
       <c r="C240">
-        <v>298058.3328757573</v>
+        <v>0</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4040,13 +4040,13 @@
         <v>74</v>
       </c>
       <c r="C241">
-        <v>307993.6106382826</v>
+        <v>0</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4055,13 +4055,13 @@
         <v>75</v>
       </c>
       <c r="C242">
-        <v>298058.3328757573</v>
+        <v>0</v>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4070,13 +4070,13 @@
         <v>76</v>
       </c>
       <c r="C243">
-        <v>307993.6106382826</v>
+        <v>0</v>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4085,13 +4085,13 @@
         <v>77</v>
       </c>
       <c r="C244">
-        <v>307993.6106382826</v>
+        <v>0</v>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4100,13 +4100,13 @@
         <v>78</v>
       </c>
       <c r="C245">
-        <v>278187.7773507068</v>
+        <v>0</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4115,13 +4115,13 @@
         <v>79</v>
       </c>
       <c r="C246">
-        <v>307993.6106382826</v>
+        <v>0</v>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4130,10 +4130,10 @@
         <v>80</v>
       </c>
       <c r="C247">
-        <v>298058.3328757573</v>
+        <v>0</v>
       </c>
       <c r="D247">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>82087.5</v>
       </c>
       <c r="D288">
-        <v>0</v>
+        <v>12375000</v>
       </c>
       <c r="E288">
         <v>12375000</v>
@@ -4762,13 +4762,13 @@
         <v>69</v>
       </c>
       <c r="C289">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D289">
         <v>0</v>
       </c>
       <c r="E289">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -4777,13 +4777,13 @@
         <v>70</v>
       </c>
       <c r="C290">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D290">
         <v>0</v>
       </c>
       <c r="E290">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -4792,13 +4792,13 @@
         <v>71</v>
       </c>
       <c r="C291">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D291">
         <v>0</v>
       </c>
       <c r="E291">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -4807,13 +4807,13 @@
         <v>72</v>
       </c>
       <c r="C292">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D292">
         <v>0</v>
       </c>
       <c r="E292">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -4822,13 +4822,13 @@
         <v>73</v>
       </c>
       <c r="C293">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D293">
         <v>0</v>
       </c>
       <c r="E293">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -4837,13 +4837,13 @@
         <v>74</v>
       </c>
       <c r="C294">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -4852,13 +4852,13 @@
         <v>75</v>
       </c>
       <c r="C295">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D295">
         <v>0</v>
       </c>
       <c r="E295">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -4867,13 +4867,13 @@
         <v>76</v>
       </c>
       <c r="C296">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D296">
         <v>0</v>
       </c>
       <c r="E296">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -4882,13 +4882,13 @@
         <v>77</v>
       </c>
       <c r="C297">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D297">
         <v>0</v>
       </c>
       <c r="E297">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -4897,13 +4897,13 @@
         <v>78</v>
       </c>
       <c r="C298">
-        <v>76615</v>
+        <v>0</v>
       </c>
       <c r="D298">
         <v>0</v>
       </c>
       <c r="E298">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -4912,13 +4912,13 @@
         <v>79</v>
       </c>
       <c r="C299">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D299">
         <v>0</v>
       </c>
       <c r="E299">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -4927,10 +4927,10 @@
         <v>80</v>
       </c>
       <c r="C300">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D300">
-        <v>12375000</v>
+        <v>0</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -5239,11 +5239,9 @@
       </c>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A321" s="1"/>
       <c r="B321" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5252,15 +5250,13 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>33000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A322" s="1"/>
       <c r="B322" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5269,15 +5265,13 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A323" s="1"/>
       <c r="B323" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -5286,15 +5280,13 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>33000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A324" s="1"/>
       <c r="B324" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -5307,11 +5299,9 @@
       </c>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A325" s="1"/>
       <c r="B325" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -5320,15 +5310,13 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>33000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A326" s="1"/>
       <c r="B326" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -5337,15 +5325,13 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A327" s="1"/>
       <c r="B327" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -5354,15 +5340,13 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>33000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A328" s="1"/>
       <c r="B328" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -5375,11 +5359,9 @@
       </c>
     </row>
     <row r="329" spans="1:5">
-      <c r="A329" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A329" s="1"/>
       <c r="B329" s="1">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -5388,15 +5370,13 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <v>33000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A330" s="1"/>
       <c r="B330" s="1">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -5405,15 +5385,13 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="331" spans="1:5">
-      <c r="A331" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A331" s="1"/>
       <c r="B331" s="1">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -5422,15 +5400,13 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>33000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A332" s="1"/>
       <c r="B332" s="1">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -5443,11 +5419,9 @@
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A333" s="1"/>
       <c r="B333" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -5456,15 +5430,13 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>33000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="334" spans="1:5">
-      <c r="A334" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A334" s="1"/>
       <c r="B334" s="1">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -5473,15 +5445,13 @@
         <v>0</v>
       </c>
       <c r="E334">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="335" spans="1:5">
-      <c r="A335" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A335" s="1"/>
       <c r="B335" s="1">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -5490,15 +5460,13 @@
         <v>0</v>
       </c>
       <c r="E335">
-        <v>33000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A336" s="1"/>
       <c r="B336" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -5511,11 +5479,9 @@
       </c>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A337" s="1"/>
       <c r="B337" s="1">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -5524,15 +5490,13 @@
         <v>0</v>
       </c>
       <c r="E337">
-        <v>33000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A338" s="1"/>
       <c r="B338" s="1">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -5541,15 +5505,13 @@
         <v>0</v>
       </c>
       <c r="E338">
-        <v>44000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A339" s="1"/>
       <c r="B339" s="1">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -5558,15 +5520,13 @@
         <v>0</v>
       </c>
       <c r="E339">
-        <v>33000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A340" s="1"/>
       <c r="B340" s="1">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -5579,28 +5539,24 @@
       </c>
     </row>
     <row r="341" spans="1:5">
-      <c r="A341" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A341" s="1"/>
       <c r="B341" s="1">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C341">
         <v>0</v>
       </c>
       <c r="D341">
-        <v>0</v>
+        <v>53625000</v>
       </c>
       <c r="E341">
-        <v>33000000</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="342" spans="1:5">
-      <c r="A342" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A342" s="1"/>
       <c r="B342" s="1">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -5609,15 +5565,13 @@
         <v>0</v>
       </c>
       <c r="E342">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A343" s="1"/>
       <c r="B343" s="1">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -5626,15 +5580,13 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:5">
-      <c r="A344" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A344" s="1"/>
       <c r="B344" s="1">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -5643,15 +5595,13 @@
         <v>0</v>
       </c>
       <c r="E344">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:5">
-      <c r="A345" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A345" s="1"/>
       <c r="B345" s="1">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -5660,15 +5610,13 @@
         <v>0</v>
       </c>
       <c r="E345">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A346" s="1"/>
       <c r="B346" s="1">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -5677,15 +5625,13 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:5">
-      <c r="A347" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A347" s="1"/>
       <c r="B347" s="1">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -5694,15 +5640,13 @@
         <v>0</v>
       </c>
       <c r="E347">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A348" s="1"/>
       <c r="B348" s="1">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5711,15 +5655,13 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:5">
-      <c r="A349" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A349" s="1"/>
       <c r="B349" s="1">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5728,15 +5670,13 @@
         <v>0</v>
       </c>
       <c r="E349">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:5">
-      <c r="A350" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A350" s="1"/>
       <c r="B350" s="1">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5745,15 +5685,13 @@
         <v>0</v>
       </c>
       <c r="E350">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:5">
-      <c r="A351" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A351" s="1"/>
       <c r="B351" s="1">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5762,15 +5700,13 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:5">
-      <c r="A352" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A352" s="1"/>
       <c r="B352" s="1">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5779,15 +5715,13 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:5">
-      <c r="A353" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A353" s="1"/>
       <c r="B353" s="1">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -5796,15 +5730,13 @@
         <v>0</v>
       </c>
       <c r="E353">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:5">
-      <c r="A354" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A354" s="1"/>
       <c r="B354" s="1">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5813,15 +5745,13 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:5">
-      <c r="A355" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A355" s="1"/>
       <c r="B355" s="1">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5830,15 +5760,13 @@
         <v>0</v>
       </c>
       <c r="E355">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:5">
-      <c r="A356" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A356" s="1"/>
       <c r="B356" s="1">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5847,15 +5775,13 @@
         <v>0</v>
       </c>
       <c r="E356">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:5">
-      <c r="A357" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A357" s="1"/>
       <c r="B357" s="1">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -5864,15 +5790,13 @@
         <v>0</v>
       </c>
       <c r="E357">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:5">
-      <c r="A358" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A358" s="1"/>
       <c r="B358" s="1">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5881,15 +5805,13 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A359" s="1"/>
       <c r="B359" s="1">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -5898,15 +5820,13 @@
         <v>0</v>
       </c>
       <c r="E359">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A360" s="1"/>
       <c r="B360" s="1">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -5915,15 +5835,13 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A361" s="1"/>
       <c r="B361" s="1">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -5932,15 +5850,13 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A362" s="1"/>
       <c r="B362" s="1">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -5949,15 +5865,13 @@
         <v>0</v>
       </c>
       <c r="E362">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:5">
-      <c r="A363" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A363" s="1"/>
       <c r="B363" s="1">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -5966,15 +5880,13 @@
         <v>0</v>
       </c>
       <c r="E363">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:5">
-      <c r="A364" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A364" s="1"/>
       <c r="B364" s="1">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -5983,15 +5895,13 @@
         <v>0</v>
       </c>
       <c r="E364">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:5">
-      <c r="A365" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A365" s="1"/>
       <c r="B365" s="1">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -6000,15 +5910,13 @@
         <v>0</v>
       </c>
       <c r="E365">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A366" s="1"/>
       <c r="B366" s="1">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -6017,15 +5925,13 @@
         <v>0</v>
       </c>
       <c r="E366">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:5">
-      <c r="A367" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A367" s="1"/>
       <c r="B367" s="1">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -6034,15 +5940,13 @@
         <v>0</v>
       </c>
       <c r="E367">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:5">
-      <c r="A368" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A368" s="1"/>
       <c r="B368" s="1">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -6051,15 +5955,13 @@
         <v>0</v>
       </c>
       <c r="E368">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A369" s="1"/>
       <c r="B369" s="1">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -6068,15 +5970,13 @@
         <v>0</v>
       </c>
       <c r="E369">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:5">
-      <c r="A370" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A370" s="1"/>
       <c r="B370" s="1">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -6085,15 +5985,13 @@
         <v>0</v>
       </c>
       <c r="E370">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A371" s="1"/>
       <c r="B371" s="1">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -6102,15 +6000,13 @@
         <v>0</v>
       </c>
       <c r="E371">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:5">
-      <c r="A372" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A372" s="1"/>
       <c r="B372" s="1">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -6119,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="E372">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6127,7 +6023,7 @@
         <v>12</v>
       </c>
       <c r="B373" s="1">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -6140,11 +6036,9 @@
       </c>
     </row>
     <row r="374" spans="1:5">
-      <c r="A374" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A374" s="1"/>
       <c r="B374" s="1">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -6153,15 +6047,13 @@
         <v>0</v>
       </c>
       <c r="E374">
-        <v>44000000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="375" spans="1:5">
-      <c r="A375" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A375" s="1"/>
       <c r="B375" s="1">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -6174,11 +6066,9 @@
       </c>
     </row>
     <row r="376" spans="1:5">
-      <c r="A376" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A376" s="1"/>
       <c r="B376" s="1">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -6187,15 +6077,13 @@
         <v>0</v>
       </c>
       <c r="E376">
-        <v>53625000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="377" spans="1:5">
-      <c r="A377" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A377" s="1"/>
       <c r="B377" s="1">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -6208,11 +6096,9 @@
       </c>
     </row>
     <row r="378" spans="1:5">
-      <c r="A378" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A378" s="1"/>
       <c r="B378" s="1">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -6221,15 +6107,13 @@
         <v>0</v>
       </c>
       <c r="E378">
-        <v>44000000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="379" spans="1:5">
-      <c r="A379" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A379" s="1"/>
       <c r="B379" s="1">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -6242,11 +6126,9 @@
       </c>
     </row>
     <row r="380" spans="1:5">
-      <c r="A380" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A380" s="1"/>
       <c r="B380" s="1">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -6255,15 +6137,13 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>53625000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="381" spans="1:5">
-      <c r="A381" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A381" s="1"/>
       <c r="B381" s="1">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -6276,11 +6156,9 @@
       </c>
     </row>
     <row r="382" spans="1:5">
-      <c r="A382" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A382" s="1"/>
       <c r="B382" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -6289,15 +6167,13 @@
         <v>0</v>
       </c>
       <c r="E382">
-        <v>44000000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="383" spans="1:5">
-      <c r="A383" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A383" s="1"/>
       <c r="B383" s="1">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -6310,11 +6186,9 @@
       </c>
     </row>
     <row r="384" spans="1:5">
-      <c r="A384" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A384" s="1"/>
       <c r="B384" s="1">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -6323,15 +6197,13 @@
         <v>0</v>
       </c>
       <c r="E384">
-        <v>53625000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="385" spans="1:5">
-      <c r="A385" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A385" s="1"/>
       <c r="B385" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -6344,11 +6216,9 @@
       </c>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A386" s="1"/>
       <c r="B386" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -6357,15 +6227,13 @@
         <v>0</v>
       </c>
       <c r="E386">
-        <v>44000000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="387" spans="1:5">
-      <c r="A387" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A387" s="1"/>
       <c r="B387" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -6378,11 +6246,9 @@
       </c>
     </row>
     <row r="388" spans="1:5">
-      <c r="A388" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A388" s="1"/>
       <c r="B388" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -6391,15 +6257,13 @@
         <v>0</v>
       </c>
       <c r="E388">
-        <v>53625000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="389" spans="1:5">
-      <c r="A389" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A389" s="1"/>
       <c r="B389" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -6412,9 +6276,7 @@
       </c>
     </row>
     <row r="390" spans="1:5">
-      <c r="A390" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A390" s="1"/>
       <c r="B390" s="1">
         <v>64</v>
       </c>
@@ -6425,15 +6287,13 @@
         <v>0</v>
       </c>
       <c r="E390">
-        <v>44000000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="391" spans="1:5">
-      <c r="A391" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A391" s="1"/>
       <c r="B391" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -6446,11 +6306,9 @@
       </c>
     </row>
     <row r="392" spans="1:5">
-      <c r="A392" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A392" s="1"/>
       <c r="B392" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -6459,15 +6317,13 @@
         <v>0</v>
       </c>
       <c r="E392">
-        <v>53625000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="393" spans="1:5">
-      <c r="A393" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A393" s="1"/>
       <c r="B393" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -6480,28 +6336,24 @@
       </c>
     </row>
     <row r="394" spans="1:5">
-      <c r="A394" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A394" s="1"/>
       <c r="B394" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C394">
         <v>0</v>
       </c>
       <c r="D394">
-        <v>0</v>
+        <v>33000000</v>
       </c>
       <c r="E394">
-        <v>44000000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="395" spans="1:5">
-      <c r="A395" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A395" s="1"/>
       <c r="B395" s="1">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -6510,15 +6362,13 @@
         <v>0</v>
       </c>
       <c r="E395">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:5">
-      <c r="A396" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A396" s="1"/>
       <c r="B396" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6527,15 +6377,13 @@
         <v>0</v>
       </c>
       <c r="E396">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A397" s="1"/>
       <c r="B397" s="1">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -6544,15 +6392,13 @@
         <v>0</v>
       </c>
       <c r="E397">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:5">
-      <c r="A398" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A398" s="1"/>
       <c r="B398" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -6561,15 +6407,13 @@
         <v>0</v>
       </c>
       <c r="E398">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:5">
-      <c r="A399" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A399" s="1"/>
       <c r="B399" s="1">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -6578,15 +6422,13 @@
         <v>0</v>
       </c>
       <c r="E399">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:5">
-      <c r="A400" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A400" s="1"/>
       <c r="B400" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -6595,15 +6437,13 @@
         <v>0</v>
       </c>
       <c r="E400">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A401" s="1"/>
       <c r="B401" s="1">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -6612,15 +6452,13 @@
         <v>0</v>
       </c>
       <c r="E401">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A402" s="1"/>
       <c r="B402" s="1">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -6629,15 +6467,13 @@
         <v>0</v>
       </c>
       <c r="E402">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A403" s="1"/>
       <c r="B403" s="1">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -6646,15 +6482,13 @@
         <v>0</v>
       </c>
       <c r="E403">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:5">
-      <c r="A404" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A404" s="1"/>
       <c r="B404" s="1">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -6663,15 +6497,13 @@
         <v>0</v>
       </c>
       <c r="E404">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:5">
-      <c r="A405" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A405" s="1"/>
       <c r="B405" s="1">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6680,15 +6512,13 @@
         <v>0</v>
       </c>
       <c r="E405">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:5">
-      <c r="A406" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A406" s="1"/>
       <c r="B406" s="1">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6697,15 +6527,13 @@
         <v>0</v>
       </c>
       <c r="E406">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:5">
-      <c r="A407" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A407" s="1"/>
       <c r="B407" s="1">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -6714,15 +6542,13 @@
         <v>0</v>
       </c>
       <c r="E407">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:5">
-      <c r="A408" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A408" s="1"/>
       <c r="B408" s="1">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -6731,15 +6557,13 @@
         <v>0</v>
       </c>
       <c r="E408">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:5">
-      <c r="A409" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A409" s="1"/>
       <c r="B409" s="1">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -6748,15 +6572,13 @@
         <v>0</v>
       </c>
       <c r="E409">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:5">
-      <c r="A410" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A410" s="1"/>
       <c r="B410" s="1">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6765,15 +6587,13 @@
         <v>0</v>
       </c>
       <c r="E410">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:5">
-      <c r="A411" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A411" s="1"/>
       <c r="B411" s="1">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6782,15 +6602,13 @@
         <v>0</v>
       </c>
       <c r="E411">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A412" s="1"/>
       <c r="B412" s="1">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6799,15 +6617,13 @@
         <v>0</v>
       </c>
       <c r="E412">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:5">
-      <c r="A413" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A413" s="1"/>
       <c r="B413" s="1">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6816,15 +6632,13 @@
         <v>0</v>
       </c>
       <c r="E413">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:5">
-      <c r="A414" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A414" s="1"/>
       <c r="B414" s="1">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -6833,15 +6647,13 @@
         <v>0</v>
       </c>
       <c r="E414">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A415" s="1"/>
       <c r="B415" s="1">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -6850,15 +6662,13 @@
         <v>0</v>
       </c>
       <c r="E415">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:5">
-      <c r="A416" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A416" s="1"/>
       <c r="B416" s="1">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -6867,15 +6677,13 @@
         <v>0</v>
       </c>
       <c r="E416">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:5">
-      <c r="A417" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A417" s="1"/>
       <c r="B417" s="1">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -6884,15 +6692,13 @@
         <v>0</v>
       </c>
       <c r="E417">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A418" s="1"/>
       <c r="B418" s="1">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -6901,15 +6707,13 @@
         <v>0</v>
       </c>
       <c r="E418">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A419" s="1"/>
       <c r="B419" s="1">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6918,15 +6722,13 @@
         <v>0</v>
       </c>
       <c r="E419">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:5">
-      <c r="A420" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A420" s="1"/>
       <c r="B420" s="1">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6935,15 +6737,13 @@
         <v>0</v>
       </c>
       <c r="E420">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:5">
-      <c r="A421" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A421" s="1"/>
       <c r="B421" s="1">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6952,15 +6752,13 @@
         <v>0</v>
       </c>
       <c r="E421">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:5">
-      <c r="A422" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A422" s="1"/>
       <c r="B422" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6969,15 +6767,13 @@
         <v>0</v>
       </c>
       <c r="E422">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:5">
-      <c r="A423" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A423" s="1"/>
       <c r="B423" s="1">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6986,15 +6782,13 @@
         <v>0</v>
       </c>
       <c r="E423">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A424" s="1"/>
       <c r="B424" s="1">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -7003,15 +6797,13 @@
         <v>0</v>
       </c>
       <c r="E424">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:5">
-      <c r="A425" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A425" s="1"/>
       <c r="B425" s="1">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -7020,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="E425">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7028,7 +6820,7 @@
         <v>13</v>
       </c>
       <c r="B426" s="1">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -7041,11 +6833,9 @@
       </c>
     </row>
     <row r="427" spans="1:5">
-      <c r="A427" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A427" s="1"/>
       <c r="B427" s="1">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -7054,15 +6844,13 @@
         <v>0</v>
       </c>
       <c r="E427">
-        <v>33000000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="428" spans="1:5">
-      <c r="A428" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A428" s="1"/>
       <c r="B428" s="1">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -7071,15 +6859,13 @@
         <v>0</v>
       </c>
       <c r="E428">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="429" spans="1:5">
-      <c r="A429" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A429" s="1"/>
       <c r="B429" s="1">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -7088,15 +6874,13 @@
         <v>0</v>
       </c>
       <c r="E429">
-        <v>33000000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="430" spans="1:5">
-      <c r="A430" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A430" s="1"/>
       <c r="B430" s="1">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -7109,11 +6893,9 @@
       </c>
     </row>
     <row r="431" spans="1:5">
-      <c r="A431" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A431" s="1"/>
       <c r="B431" s="1">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -7122,15 +6904,13 @@
         <v>0</v>
       </c>
       <c r="E431">
-        <v>33000000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="432" spans="1:5">
-      <c r="A432" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A432" s="1"/>
       <c r="B432" s="1">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -7139,15 +6919,13 @@
         <v>0</v>
       </c>
       <c r="E432">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="433" spans="1:5">
-      <c r="A433" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A433" s="1"/>
       <c r="B433" s="1">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -7156,15 +6934,13 @@
         <v>0</v>
       </c>
       <c r="E433">
-        <v>33000000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="434" spans="1:5">
-      <c r="A434" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A434" s="1"/>
       <c r="B434" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -7177,11 +6953,9 @@
       </c>
     </row>
     <row r="435" spans="1:5">
-      <c r="A435" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A435" s="1"/>
       <c r="B435" s="1">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -7190,15 +6964,13 @@
         <v>0</v>
       </c>
       <c r="E435">
-        <v>33000000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="436" spans="1:5">
-      <c r="A436" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A436" s="1"/>
       <c r="B436" s="1">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -7207,15 +6979,13 @@
         <v>0</v>
       </c>
       <c r="E436">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="437" spans="1:5">
-      <c r="A437" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A437" s="1"/>
       <c r="B437" s="1">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -7224,15 +6994,13 @@
         <v>0</v>
       </c>
       <c r="E437">
-        <v>33000000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="438" spans="1:5">
-      <c r="A438" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A438" s="1"/>
       <c r="B438" s="1">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -7245,11 +7013,9 @@
       </c>
     </row>
     <row r="439" spans="1:5">
-      <c r="A439" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A439" s="1"/>
       <c r="B439" s="1">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -7258,15 +7024,13 @@
         <v>0</v>
       </c>
       <c r="E439">
-        <v>33000000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="440" spans="1:5">
-      <c r="A440" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A440" s="1"/>
       <c r="B440" s="1">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -7275,15 +7039,13 @@
         <v>0</v>
       </c>
       <c r="E440">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="441" spans="1:5">
-      <c r="A441" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A441" s="1"/>
       <c r="B441" s="1">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -7292,15 +7054,13 @@
         <v>0</v>
       </c>
       <c r="E441">
-        <v>33000000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="442" spans="1:5">
-      <c r="A442" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A442" s="1"/>
       <c r="B442" s="1">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -7313,11 +7073,9 @@
       </c>
     </row>
     <row r="443" spans="1:5">
-      <c r="A443" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A443" s="1"/>
       <c r="B443" s="1">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -7326,15 +7084,13 @@
         <v>0</v>
       </c>
       <c r="E443">
-        <v>33000000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="444" spans="1:5">
-      <c r="A444" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A444" s="1"/>
       <c r="B444" s="1">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -7343,15 +7099,13 @@
         <v>0</v>
       </c>
       <c r="E444">
-        <v>53625000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="445" spans="1:5">
-      <c r="A445" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A445" s="1"/>
       <c r="B445" s="1">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -7360,15 +7114,13 @@
         <v>0</v>
       </c>
       <c r="E445">
-        <v>33000000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="446" spans="1:5">
-      <c r="A446" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A446" s="1"/>
       <c r="B446" s="1">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -7381,466 +7133,483 @@
       </c>
     </row>
     <row r="447" spans="1:5">
-      <c r="A447" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A447" s="1"/>
       <c r="B447" s="1">
+        <v>68</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>44000000</v>
+      </c>
+      <c r="E447">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1">
+        <v>69</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="1"/>
+      <c r="B449" s="1">
+        <v>70</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="1"/>
+      <c r="B450" s="1">
+        <v>71</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="1"/>
+      <c r="B451" s="1">
+        <v>72</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="1"/>
+      <c r="B452" s="1">
+        <v>73</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="1"/>
+      <c r="B453" s="1">
+        <v>74</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="1"/>
+      <c r="B454" s="1">
+        <v>75</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1">
+        <v>76</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="1"/>
+      <c r="B456" s="1">
+        <v>77</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="1"/>
+      <c r="B457" s="1">
         <v>78</v>
       </c>
-      <c r="C447">
-        <v>0</v>
-      </c>
-      <c r="D447">
-        <v>0</v>
-      </c>
-      <c r="E447">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
-      <c r="A448" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B448" s="1">
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="1"/>
+      <c r="B458" s="1">
         <v>79</v>
       </c>
-      <c r="C448">
-        <v>0</v>
-      </c>
-      <c r="D448">
-        <v>0</v>
-      </c>
-      <c r="E448">
-        <v>53625000</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
-      <c r="A449" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B449" s="1">
-        <v>79</v>
-      </c>
-      <c r="C449">
-        <v>0</v>
-      </c>
-      <c r="D449">
-        <v>0</v>
-      </c>
-      <c r="E449">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
-      <c r="A450" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B450" s="1">
-        <v>79</v>
-      </c>
-      <c r="C450">
-        <v>0</v>
-      </c>
-      <c r="D450">
-        <v>0</v>
-      </c>
-      <c r="E450">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
-      <c r="A451" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B451" s="1">
-        <v>79</v>
-      </c>
-      <c r="C451">
-        <v>0</v>
-      </c>
-      <c r="D451">
-        <v>0</v>
-      </c>
-      <c r="E451">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
-      <c r="A452" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B452" s="1">
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="1"/>
+      <c r="B459" s="1">
         <v>80</v>
       </c>
-      <c r="D452">
-        <v>21625000.07215391</v>
-      </c>
-      <c r="E452">
-        <v>31999999.92784609</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
-      <c r="A453" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B453" s="1">
-        <v>80</v>
-      </c>
-      <c r="D453">
-        <v>0</v>
-      </c>
-      <c r="E453">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
-      <c r="A454" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B454" s="1">
-        <v>80</v>
-      </c>
-      <c r="D454">
-        <v>0</v>
-      </c>
-      <c r="E454">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
-      <c r="A455" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B455" s="1">
-        <v>80</v>
-      </c>
-      <c r="D455">
-        <v>0</v>
-      </c>
-      <c r="E455">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
-      <c r="A456" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B456" s="1">
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="1"/>
+      <c r="B460" s="1">
         <v>81</v>
       </c>
-      <c r="D456">
-        <v>0</v>
-      </c>
-      <c r="E456">
-        <v>31999999.92784609</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
-      <c r="A457" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B457" s="1">
-        <v>81</v>
-      </c>
-      <c r="D457">
-        <v>0</v>
-      </c>
-      <c r="E457">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
-      <c r="A458" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B458" s="1">
-        <v>81</v>
-      </c>
-      <c r="D458">
-        <v>0</v>
-      </c>
-      <c r="E458">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
-      <c r="A459" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B459" s="1">
-        <v>81</v>
-      </c>
-      <c r="D459">
-        <v>0</v>
-      </c>
-      <c r="E459">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
-      <c r="A460" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B460" s="1">
-        <v>82</v>
+      <c r="C460">
+        <v>0</v>
       </c>
       <c r="D460">
         <v>0</v>
       </c>
       <c r="E460">
-        <v>31999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:5">
-      <c r="A461" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A461" s="1"/>
       <c r="B461" s="1">
         <v>82</v>
       </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
       <c r="D461">
         <v>0</v>
       </c>
       <c r="E461">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:5">
-      <c r="A462" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A462" s="1"/>
       <c r="B462" s="1">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
       </c>
       <c r="D462">
         <v>0</v>
       </c>
       <c r="E462">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:5">
-      <c r="A463" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A463" s="1"/>
       <c r="B463" s="1">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
       </c>
       <c r="D463">
         <v>0</v>
       </c>
       <c r="E463">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:5">
-      <c r="A464" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A464" s="1"/>
       <c r="B464" s="1">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
       </c>
       <c r="D464">
         <v>0</v>
       </c>
       <c r="E464">
-        <v>31999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:5">
-      <c r="A465" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A465" s="1"/>
       <c r="B465" s="1">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
       </c>
       <c r="D465">
         <v>0</v>
       </c>
       <c r="E465">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:5">
-      <c r="A466" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A466" s="1"/>
       <c r="B466" s="1">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
       </c>
       <c r="D466">
         <v>0</v>
       </c>
       <c r="E466">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:5">
-      <c r="A467" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A467" s="1"/>
       <c r="B467" s="1">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
       </c>
       <c r="D467">
         <v>0</v>
       </c>
       <c r="E467">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:5">
-      <c r="A468" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A468" s="1"/>
       <c r="B468" s="1">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
       </c>
       <c r="D468">
         <v>0</v>
       </c>
       <c r="E468">
-        <v>31999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:5">
-      <c r="A469" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A469" s="1"/>
       <c r="B469" s="1">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
       </c>
       <c r="D469">
         <v>0</v>
       </c>
       <c r="E469">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:5">
-      <c r="A470" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A470" s="1"/>
       <c r="B470" s="1">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
       </c>
       <c r="D470">
         <v>0</v>
       </c>
       <c r="E470">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:5">
-      <c r="A471" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A471" s="1"/>
       <c r="B471" s="1">
-        <v>84</v>
+        <v>92</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
       </c>
       <c r="D471">
         <v>0</v>
       </c>
       <c r="E471">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:5">
-      <c r="A472" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A472" s="1"/>
       <c r="B472" s="1">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
       </c>
       <c r="D472">
         <v>0</v>
       </c>
       <c r="E472">
-        <v>31999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:5">
-      <c r="A473" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A473" s="1"/>
       <c r="B473" s="1">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
       </c>
       <c r="D473">
         <v>0</v>
       </c>
       <c r="E473">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:5">
-      <c r="A474" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A474" s="1"/>
       <c r="B474" s="1">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
       </c>
       <c r="D474">
         <v>0</v>
       </c>
       <c r="E474">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:5">
-      <c r="A475" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A475" s="1"/>
       <c r="B475" s="1">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
       </c>
       <c r="D475">
         <v>0</v>
       </c>
       <c r="E475">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:5">
-      <c r="A476" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A476" s="1"/>
       <c r="B476" s="1">
-        <v>86</v>
+        <v>97</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
       </c>
       <c r="D476">
         <v>0</v>
       </c>
       <c r="E476">
-        <v>31999999.92784609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:5">
-      <c r="A477" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A477" s="1"/>
       <c r="B477" s="1">
-        <v>86</v>
+        <v>98</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
       </c>
       <c r="D477">
         <v>0</v>
       </c>
       <c r="E477">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:5">
-      <c r="A478" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A478" s="1"/>
       <c r="B478" s="1">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
       </c>
       <c r="D478">
         <v>0</v>
       </c>
       <c r="E478">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -7848,7 +7617,10 @@
         <v>14</v>
       </c>
       <c r="B479" s="1">
-        <v>86</v>
+        <v>47</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
       </c>
       <c r="D479">
         <v>0</v>
@@ -7858,25 +7630,27 @@
       </c>
     </row>
     <row r="480" spans="1:5">
-      <c r="A480" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A480" s="1"/>
       <c r="B480" s="1">
-        <v>87</v>
+        <v>48</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
       </c>
       <c r="D480">
         <v>0</v>
       </c>
       <c r="E480">
-        <v>31999999.92784609</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="481" spans="1:5">
-      <c r="A481" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A481" s="1"/>
       <c r="B481" s="1">
-        <v>87</v>
+        <v>49</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
       </c>
       <c r="D481">
         <v>0</v>
@@ -7886,25 +7660,27 @@
       </c>
     </row>
     <row r="482" spans="1:5">
-      <c r="A482" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A482" s="1"/>
       <c r="B482" s="1">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
       </c>
       <c r="D482">
         <v>0</v>
       </c>
       <c r="E482">
-        <v>44000000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="483" spans="1:5">
-      <c r="A483" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A483" s="1"/>
       <c r="B483" s="1">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
       </c>
       <c r="D483">
         <v>0</v>
@@ -7914,25 +7690,27 @@
       </c>
     </row>
     <row r="484" spans="1:5">
-      <c r="A484" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A484" s="1"/>
       <c r="B484" s="1">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
       </c>
       <c r="D484">
         <v>0</v>
       </c>
       <c r="E484">
-        <v>31999999.92784609</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="485" spans="1:5">
-      <c r="A485" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A485" s="1"/>
       <c r="B485" s="1">
-        <v>88</v>
+        <v>53</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
       </c>
       <c r="D485">
         <v>0</v>
@@ -7942,25 +7720,27 @@
       </c>
     </row>
     <row r="486" spans="1:5">
-      <c r="A486" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A486" s="1"/>
       <c r="B486" s="1">
-        <v>88</v>
+        <v>54</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
       </c>
       <c r="D486">
         <v>0</v>
       </c>
       <c r="E486">
-        <v>44000000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="487" spans="1:5">
-      <c r="A487" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A487" s="1"/>
       <c r="B487" s="1">
-        <v>88</v>
+        <v>55</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
       </c>
       <c r="D487">
         <v>0</v>
@@ -7970,25 +7750,27 @@
       </c>
     </row>
     <row r="488" spans="1:5">
-      <c r="A488" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A488" s="1"/>
       <c r="B488" s="1">
-        <v>89</v>
+        <v>56</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
       </c>
       <c r="D488">
         <v>0</v>
       </c>
       <c r="E488">
-        <v>31999999.92784609</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="489" spans="1:5">
-      <c r="A489" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A489" s="1"/>
       <c r="B489" s="1">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="C489">
+        <v>0</v>
       </c>
       <c r="D489">
         <v>0</v>
@@ -7998,25 +7780,27 @@
       </c>
     </row>
     <row r="490" spans="1:5">
-      <c r="A490" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A490" s="1"/>
       <c r="B490" s="1">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
       </c>
       <c r="D490">
         <v>0</v>
       </c>
       <c r="E490">
-        <v>44000000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="491" spans="1:5">
-      <c r="A491" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A491" s="1"/>
       <c r="B491" s="1">
-        <v>89</v>
+        <v>59</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
       </c>
       <c r="D491">
         <v>0</v>
@@ -8026,25 +7810,27 @@
       </c>
     </row>
     <row r="492" spans="1:5">
-      <c r="A492" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A492" s="1"/>
       <c r="B492" s="1">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
       </c>
       <c r="D492">
         <v>0</v>
       </c>
       <c r="E492">
-        <v>31999999.92784609</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="493" spans="1:5">
-      <c r="A493" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A493" s="1"/>
       <c r="B493" s="1">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -8054,25 +7840,27 @@
       </c>
     </row>
     <row r="494" spans="1:5">
-      <c r="A494" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A494" s="1"/>
       <c r="B494" s="1">
-        <v>90</v>
+        <v>62</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
       </c>
       <c r="D494">
         <v>0</v>
       </c>
       <c r="E494">
-        <v>44000000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="495" spans="1:5">
-      <c r="A495" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A495" s="1"/>
       <c r="B495" s="1">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
       </c>
       <c r="D495">
         <v>0</v>
@@ -8082,25 +7870,27 @@
       </c>
     </row>
     <row r="496" spans="1:5">
-      <c r="A496" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A496" s="1"/>
       <c r="B496" s="1">
-        <v>91</v>
+        <v>64</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
       </c>
       <c r="D496">
         <v>0</v>
       </c>
       <c r="E496">
-        <v>31999999.92784609</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="497" spans="1:5">
-      <c r="A497" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A497" s="1"/>
       <c r="B497" s="1">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
       </c>
       <c r="D497">
         <v>0</v>
@@ -8110,25 +7900,27 @@
       </c>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A498" s="1"/>
       <c r="B498" s="1">
-        <v>91</v>
+        <v>66</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
       </c>
       <c r="D498">
         <v>0</v>
       </c>
       <c r="E498">
-        <v>44000000</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A499" s="1"/>
       <c r="B499" s="1">
-        <v>91</v>
+        <v>67</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
       </c>
       <c r="D499">
         <v>0</v>
@@ -8138,461 +7930,497 @@
       </c>
     </row>
     <row r="500" spans="1:5">
-      <c r="A500" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A500" s="1"/>
       <c r="B500" s="1">
+        <v>68</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <v>33000000</v>
+      </c>
+      <c r="E500">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="1"/>
+      <c r="B501" s="1">
+        <v>69</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="1"/>
+      <c r="B502" s="1">
+        <v>70</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+      <c r="E502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="1"/>
+      <c r="B503" s="1">
+        <v>71</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+      <c r="E503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="1"/>
+      <c r="B504" s="1">
+        <v>72</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+      <c r="E504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="1"/>
+      <c r="B505" s="1">
+        <v>73</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505">
+        <v>0</v>
+      </c>
+      <c r="E505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="1"/>
+      <c r="B506" s="1">
+        <v>74</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+      <c r="E506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="1"/>
+      <c r="B507" s="1">
+        <v>75</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+      <c r="E507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="1"/>
+      <c r="B508" s="1">
+        <v>76</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508">
+        <v>0</v>
+      </c>
+      <c r="E508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="1"/>
+      <c r="B509" s="1">
+        <v>77</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+      <c r="E509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="1"/>
+      <c r="B510" s="1">
+        <v>78</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510">
+        <v>0</v>
+      </c>
+      <c r="E510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="1"/>
+      <c r="B511" s="1">
+        <v>79</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>0</v>
+      </c>
+      <c r="E511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="1"/>
+      <c r="B512" s="1">
+        <v>80</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512">
+        <v>0</v>
+      </c>
+      <c r="E512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="1"/>
+      <c r="B513" s="1">
+        <v>81</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513">
+        <v>0</v>
+      </c>
+      <c r="E513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="1"/>
+      <c r="B514" s="1">
+        <v>82</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514">
+        <v>0</v>
+      </c>
+      <c r="E514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="1"/>
+      <c r="B515" s="1">
+        <v>83</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515">
+        <v>0</v>
+      </c>
+      <c r="E515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="1"/>
+      <c r="B516" s="1">
+        <v>84</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516">
+        <v>0</v>
+      </c>
+      <c r="E516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="1"/>
+      <c r="B517" s="1">
+        <v>85</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517">
+        <v>0</v>
+      </c>
+      <c r="E517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="1"/>
+      <c r="B518" s="1">
+        <v>86</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="1"/>
+      <c r="B519" s="1">
+        <v>87</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="1"/>
+      <c r="B520" s="1">
+        <v>88</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520">
+        <v>0</v>
+      </c>
+      <c r="E520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="1"/>
+      <c r="B521" s="1">
+        <v>89</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+      <c r="E521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="1"/>
+      <c r="B522" s="1">
+        <v>90</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="1"/>
+      <c r="B523" s="1">
+        <v>91</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523">
+        <v>0</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="1"/>
+      <c r="B524" s="1">
         <v>92</v>
       </c>
-      <c r="D500">
-        <v>0</v>
-      </c>
-      <c r="E500">
-        <v>31999999.92784609</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
-      <c r="A501" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B501" s="1">
-        <v>92</v>
-      </c>
-      <c r="D501">
-        <v>0</v>
-      </c>
-      <c r="E501">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
-      <c r="A502" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B502" s="1">
-        <v>92</v>
-      </c>
-      <c r="D502">
-        <v>0</v>
-      </c>
-      <c r="E502">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
-      <c r="A503" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B503" s="1">
-        <v>92</v>
-      </c>
-      <c r="D503">
-        <v>0</v>
-      </c>
-      <c r="E503">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
-      <c r="A504" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B504" s="1">
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="1"/>
+      <c r="B525" s="1">
         <v>93</v>
       </c>
-      <c r="D504">
-        <v>0</v>
-      </c>
-      <c r="E504">
-        <v>31999999.92784609</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
-      <c r="A505" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B505" s="1">
-        <v>93</v>
-      </c>
-      <c r="D505">
-        <v>0</v>
-      </c>
-      <c r="E505">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
-      <c r="A506" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B506" s="1">
-        <v>93</v>
-      </c>
-      <c r="D506">
-        <v>0</v>
-      </c>
-      <c r="E506">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
-      <c r="A507" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B507" s="1">
-        <v>93</v>
-      </c>
-      <c r="D507">
-        <v>0</v>
-      </c>
-      <c r="E507">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
-      <c r="A508" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B508" s="1">
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525">
+        <v>0</v>
+      </c>
+      <c r="E525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="1"/>
+      <c r="B526" s="1">
         <v>94</v>
       </c>
-      <c r="D508">
-        <v>0</v>
-      </c>
-      <c r="E508">
-        <v>31999999.92784609</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
-      <c r="A509" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B509" s="1">
-        <v>94</v>
-      </c>
-      <c r="D509">
-        <v>0</v>
-      </c>
-      <c r="E509">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
-      <c r="A510" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B510" s="1">
-        <v>94</v>
-      </c>
-      <c r="D510">
-        <v>0</v>
-      </c>
-      <c r="E510">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
-      <c r="A511" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B511" s="1">
-        <v>94</v>
-      </c>
-      <c r="D511">
-        <v>0</v>
-      </c>
-      <c r="E511">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
-      <c r="A512" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B512" s="1">
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="1"/>
+      <c r="B527" s="1">
         <v>95</v>
       </c>
-      <c r="D512">
-        <v>0</v>
-      </c>
-      <c r="E512">
-        <v>31999999.92784609</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
-      <c r="A513" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B513" s="1">
-        <v>95</v>
-      </c>
-      <c r="D513">
-        <v>0</v>
-      </c>
-      <c r="E513">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
-      <c r="A514" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B514" s="1">
-        <v>95</v>
-      </c>
-      <c r="D514">
-        <v>0</v>
-      </c>
-      <c r="E514">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
-      <c r="A515" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B515" s="1">
-        <v>95</v>
-      </c>
-      <c r="D515">
-        <v>0</v>
-      </c>
-      <c r="E515">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
-      <c r="A516" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B516" s="1">
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="1"/>
+      <c r="B528" s="1">
         <v>96</v>
       </c>
-      <c r="D516">
-        <v>0</v>
-      </c>
-      <c r="E516">
-        <v>31999999.92784609</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
-      <c r="A517" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B517" s="1">
-        <v>96</v>
-      </c>
-      <c r="D517">
-        <v>0</v>
-      </c>
-      <c r="E517">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
-      <c r="A518" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B518" s="1">
-        <v>96</v>
-      </c>
-      <c r="D518">
-        <v>0</v>
-      </c>
-      <c r="E518">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5">
-      <c r="A519" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B519" s="1">
-        <v>96</v>
-      </c>
-      <c r="D519">
-        <v>0</v>
-      </c>
-      <c r="E519">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
-      <c r="A520" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B520" s="1">
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528">
+        <v>0</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="1"/>
+      <c r="B529" s="1">
         <v>97</v>
       </c>
-      <c r="D520">
-        <v>0</v>
-      </c>
-      <c r="E520">
-        <v>31999999.92784609</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
-      <c r="A521" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B521" s="1">
-        <v>97</v>
-      </c>
-      <c r="D521">
-        <v>0</v>
-      </c>
-      <c r="E521">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
-      <c r="A522" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B522" s="1">
-        <v>97</v>
-      </c>
-      <c r="D522">
-        <v>0</v>
-      </c>
-      <c r="E522">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
-      <c r="A523" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B523" s="1">
-        <v>97</v>
-      </c>
-      <c r="D523">
-        <v>0</v>
-      </c>
-      <c r="E523">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5">
-      <c r="A524" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B524" s="1">
+      <c r="C529">
+        <v>0</v>
+      </c>
+      <c r="D529">
+        <v>0</v>
+      </c>
+      <c r="E529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="1"/>
+      <c r="B530" s="1">
         <v>98</v>
       </c>
-      <c r="D524">
-        <v>0</v>
-      </c>
-      <c r="E524">
-        <v>31999999.92784609</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5">
-      <c r="A525" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B525" s="1">
-        <v>98</v>
-      </c>
-      <c r="D525">
-        <v>0</v>
-      </c>
-      <c r="E525">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5">
-      <c r="A526" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B526" s="1">
-        <v>98</v>
-      </c>
-      <c r="D526">
-        <v>0</v>
-      </c>
-      <c r="E526">
-        <v>44000000</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5">
-      <c r="A527" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B527" s="1">
-        <v>98</v>
-      </c>
-      <c r="D527">
-        <v>0</v>
-      </c>
-      <c r="E527">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
-      <c r="A528" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B528" s="1">
-        <v>99</v>
-      </c>
-      <c r="D528">
-        <v>0</v>
-      </c>
-      <c r="E528">
-        <v>31999999.92784609</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
-      <c r="A529" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B529" s="1">
-        <v>99</v>
-      </c>
-      <c r="D529">
-        <v>0</v>
-      </c>
-      <c r="E529">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
-      <c r="A530" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B530" s="1">
-        <v>99</v>
+      <c r="C530">
+        <v>0</v>
       </c>
       <c r="D530">
         <v>0</v>
       </c>
       <c r="E530">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:5">
-      <c r="A531" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A531" s="1"/>
       <c r="B531" s="1">
         <v>99</v>
       </c>
+      <c r="C531">
+        <v>0</v>
+      </c>
       <c r="D531">
         <v>0</v>
       </c>
       <c r="E531">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="A2:A54"/>
     <mergeCell ref="A55:A107"/>
     <mergeCell ref="A108:A160"/>
     <mergeCell ref="A161:A213"/>
     <mergeCell ref="A214:A266"/>
     <mergeCell ref="A267:A319"/>
+    <mergeCell ref="A320:A372"/>
+    <mergeCell ref="A373:A425"/>
+    <mergeCell ref="A426:A478"/>
+    <mergeCell ref="A479:A531"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tranchedata.xlsx
+++ b/tranchedata.xlsx
@@ -5229,7 +5229,7 @@
         <v>47</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -5244,7 +5244,7 @@
         <v>48</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -5259,7 +5259,7 @@
         <v>49</v>
       </c>
       <c r="C322">
-        <v>0</v>
+        <v>398165.625</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>50</v>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>51</v>
       </c>
       <c r="C324">
-        <v>0</v>
+        <v>398165.625</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -5304,7 +5304,7 @@
         <v>52</v>
       </c>
       <c r="C325">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -5319,7 +5319,7 @@
         <v>53</v>
       </c>
       <c r="C326">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -5334,7 +5334,7 @@
         <v>54</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>371621.25</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>55</v>
       </c>
       <c r="C328">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>56</v>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>398165.625</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -5379,7 +5379,7 @@
         <v>57</v>
       </c>
       <c r="C330">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>58</v>
       </c>
       <c r="C331">
-        <v>0</v>
+        <v>398165.625</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -5409,7 +5409,7 @@
         <v>59</v>
       </c>
       <c r="C332">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -5424,7 +5424,7 @@
         <v>60</v>
       </c>
       <c r="C333">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>61</v>
       </c>
       <c r="C334">
-        <v>0</v>
+        <v>398165.625</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -5454,7 +5454,7 @@
         <v>62</v>
       </c>
       <c r="C335">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>63</v>
       </c>
       <c r="C336">
-        <v>0</v>
+        <v>398165.625</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -5484,7 +5484,7 @@
         <v>64</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>65</v>
       </c>
       <c r="C338">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>66</v>
       </c>
       <c r="C339">
-        <v>0</v>
+        <v>371621.25</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>67</v>
       </c>
       <c r="C340">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>68</v>
       </c>
       <c r="C341">
-        <v>0</v>
+        <v>398165.625</v>
       </c>
       <c r="D341">
         <v>53625000</v>
@@ -6026,7 +6026,7 @@
         <v>47</v>
       </c>
       <c r="C373">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -6041,7 +6041,7 @@
         <v>48</v>
       </c>
       <c r="C374">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -6056,7 +6056,7 @@
         <v>49</v>
       </c>
       <c r="C375">
-        <v>0</v>
+        <v>300025</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>50</v>
       </c>
       <c r="C376">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -6086,7 +6086,7 @@
         <v>51</v>
       </c>
       <c r="C377">
-        <v>0</v>
+        <v>300025</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -6101,7 +6101,7 @@
         <v>52</v>
       </c>
       <c r="C378">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -6116,7 +6116,7 @@
         <v>53</v>
       </c>
       <c r="C379">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>54</v>
       </c>
       <c r="C380">
-        <v>0</v>
+        <v>280023.3333333333</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         <v>55</v>
       </c>
       <c r="C381">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -6161,7 +6161,7 @@
         <v>56</v>
       </c>
       <c r="C382">
-        <v>0</v>
+        <v>300025</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         <v>57</v>
       </c>
       <c r="C383">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -6191,7 +6191,7 @@
         <v>58</v>
       </c>
       <c r="C384">
-        <v>0</v>
+        <v>300025</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -6206,7 +6206,7 @@
         <v>59</v>
       </c>
       <c r="C385">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         <v>60</v>
       </c>
       <c r="C386">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D386">
         <v>0</v>
@@ -6236,7 +6236,7 @@
         <v>61</v>
       </c>
       <c r="C387">
-        <v>0</v>
+        <v>300025</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>62</v>
       </c>
       <c r="C388">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -6266,7 +6266,7 @@
         <v>63</v>
       </c>
       <c r="C389">
-        <v>0</v>
+        <v>300025</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>64</v>
       </c>
       <c r="C390">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>65</v>
       </c>
       <c r="C391">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -6311,7 +6311,7 @@
         <v>66</v>
       </c>
       <c r="C392">
-        <v>0</v>
+        <v>280023.3333333333</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -6326,7 +6326,7 @@
         <v>67</v>
       </c>
       <c r="C393">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>68</v>
       </c>
       <c r="C394">
-        <v>0</v>
+        <v>300025</v>
       </c>
       <c r="D394">
         <v>33000000</v>
@@ -6823,7 +6823,7 @@
         <v>47</v>
       </c>
       <c r="C426">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D426">
         <v>0</v>
@@ -6838,7 +6838,7 @@
         <v>48</v>
       </c>
       <c r="C427">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D427">
         <v>0</v>
@@ -6853,7 +6853,7 @@
         <v>49</v>
       </c>
       <c r="C428">
-        <v>0</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D428">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>50</v>
       </c>
       <c r="C429">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D429">
         <v>0</v>
@@ -6883,7 +6883,7 @@
         <v>51</v>
       </c>
       <c r="C430">
-        <v>0</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -6898,7 +6898,7 @@
         <v>52</v>
       </c>
       <c r="C431">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D431">
         <v>0</v>
@@ -6913,7 +6913,7 @@
         <v>53</v>
       </c>
       <c r="C432">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D432">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>54</v>
       </c>
       <c r="C433">
-        <v>0</v>
+        <v>176244.4444444444</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -6943,7 +6943,7 @@
         <v>55</v>
       </c>
       <c r="C434">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D434">
         <v>0</v>
@@ -6958,7 +6958,7 @@
         <v>56</v>
       </c>
       <c r="C435">
-        <v>0</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D435">
         <v>0</v>
@@ -6973,7 +6973,7 @@
         <v>57</v>
       </c>
       <c r="C436">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D436">
         <v>0</v>
@@ -6988,7 +6988,7 @@
         <v>58</v>
       </c>
       <c r="C437">
-        <v>0</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D437">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>59</v>
       </c>
       <c r="C438">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D438">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>60</v>
       </c>
       <c r="C439">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D439">
         <v>0</v>
@@ -7033,7 +7033,7 @@
         <v>61</v>
       </c>
       <c r="C440">
-        <v>0</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D440">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>62</v>
       </c>
       <c r="C441">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D441">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>63</v>
       </c>
       <c r="C442">
-        <v>0</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D442">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>64</v>
       </c>
       <c r="C443">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D443">
         <v>0</v>
@@ -7093,7 +7093,7 @@
         <v>65</v>
       </c>
       <c r="C444">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D444">
         <v>0</v>
@@ -7108,7 +7108,7 @@
         <v>66</v>
       </c>
       <c r="C445">
-        <v>0</v>
+        <v>176244.4444444444</v>
       </c>
       <c r="D445">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>67</v>
       </c>
       <c r="C446">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D446">
         <v>0</v>
@@ -7138,7 +7138,7 @@
         <v>68</v>
       </c>
       <c r="C447">
-        <v>0</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D447">
         <v>44000000</v>

--- a/tranchedata.xlsx
+++ b/tranchedata.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,10 +444,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2">
-        <v>1973564.140573333</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -459,7 +459,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>1973564.140573333</v>
@@ -474,10 +474,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>1909900.7812</v>
+        <v>1973564.140573333</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -489,10 +489,10 @@
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>1973564.140573333</v>
+        <v>1909900.7812</v>
       </c>
       <c r="D5">
         <v>94485124.06601793</v>
@@ -504,10 +504,10 @@
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>1410704.375717872</v>
+        <v>1457727.854908468</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -519,10 +519,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>1457727.854908468</v>
+        <v>1410704.375717872</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -534,7 +534,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>1457727.854908468</v>
@@ -549,10 +549,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>1316657.41733668</v>
+        <v>1457727.854908468</v>
       </c>
       <c r="D9">
         <v>11650000</v>
@@ -564,10 +564,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>1394125.32713069</v>
+        <v>1259209.972892236</v>
       </c>
       <c r="D10">
         <v>14916211.36000001</v>
@@ -579,10 +579,10 @@
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>1270346.225699205</v>
+        <v>1312691.099889179</v>
       </c>
       <c r="D11">
         <v>64667166.12400001</v>
@@ -594,10 +594,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12">
-        <v>959644.2990555409</v>
+        <v>928688.0313440718</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -609,10 +609,10 @@
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>928688.0313440718</v>
+        <v>959644.2990555409</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -624,10 +624,10 @@
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14">
-        <v>959644.2990555409</v>
+        <v>928688.0313440718</v>
       </c>
       <c r="D14">
         <v>65221702.36</v>
@@ -639,7 +639,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>603570.0384490298</v>
@@ -654,10 +654,10 @@
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>306446.3425377385</v>
+        <v>316661.2206223298</v>
       </c>
       <c r="D16">
         <v>55000000</v>
@@ -669,10 +669,10 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17">
-        <v>16391.77617788536</v>
+        <v>15863.00920440518</v>
       </c>
       <c r="D17">
         <v>3002462.309982054</v>
@@ -684,7 +684,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -699,7 +699,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -714,7 +714,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -729,7 +729,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -744,7 +744,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -759,7 +759,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -774,7 +774,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -789,7 +789,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -804,7 +804,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -819,7 +819,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -834,7 +834,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -849,7 +849,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -864,7 +864,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -879,7 +879,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -894,7 +894,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -909,7 +909,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -924,7 +924,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -939,7 +939,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -954,7 +954,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -969,7 +969,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -984,7 +984,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -999,7 +999,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1014,7 +1014,7 @@
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1074,7 +1074,7 @@
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1104,7 +1104,7 @@
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1119,7 +1119,7 @@
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1134,7 +1134,7 @@
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1179,7 +1179,7 @@
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1194,7 +1194,7 @@
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1209,7 +1209,7 @@
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1224,42 +1224,42 @@
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
+        <v>98</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1">
         <v>99</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1" t="s">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="1">
-        <v>47</v>
-      </c>
-      <c r="C55">
-        <v>812219.3749999999</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>141625000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1"/>
       <c r="B56" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C56">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1271,10 +1271,10 @@
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C57">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1286,7 +1286,7 @@
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C58">
         <v>812219.3749999999</v>
@@ -1301,7 +1301,7 @@
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C59">
         <v>786018.7499999999</v>
@@ -1316,7 +1316,7 @@
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C60">
         <v>812219.3749999999</v>
@@ -1331,10 +1331,10 @@
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C61">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1346,10 +1346,10 @@
     <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C62">
-        <v>733617.4999999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1361,7 +1361,7 @@
     <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C63">
         <v>812219.3749999999</v>
@@ -1376,10 +1376,10 @@
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C64">
-        <v>786018.7499999999</v>
+        <v>733617.4999999999</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1391,7 +1391,7 @@
     <row r="65" spans="1:5">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C65">
         <v>812219.3749999999</v>
@@ -1406,7 +1406,7 @@
     <row r="66" spans="1:5">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C66">
         <v>786018.7499999999</v>
@@ -1421,7 +1421,7 @@
     <row r="67" spans="1:5">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C67">
         <v>812219.3749999999</v>
@@ -1436,10 +1436,10 @@
     <row r="68" spans="1:5">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C68">
-        <v>812219.3749999999</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1451,10 +1451,10 @@
     <row r="69" spans="1:5">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C69">
-        <v>786018.7499999999</v>
+        <v>812219.3749999999</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1466,43 +1466,43 @@
     <row r="70" spans="1:5">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C70">
         <v>812219.3749999999</v>
       </c>
       <c r="D70">
-        <v>87497537.69001794</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>54127462.30998206</v>
+        <v>141625000</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C71">
-        <v>300407.4158204004</v>
+        <v>786018.7499999999</v>
       </c>
       <c r="D71">
+        <v>87497537.69001794</v>
+      </c>
+      <c r="E71">
         <v>54127462.30998206</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>310420.9963477471</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>54127462.30998206</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1511,7 +1511,7 @@
     <row r="73" spans="1:5">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1526,7 +1526,7 @@
     <row r="74" spans="1:5">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     <row r="75" spans="1:5">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1556,7 +1556,7 @@
     <row r="76" spans="1:5">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     <row r="77" spans="1:5">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     <row r="78" spans="1:5">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1601,7 +1601,7 @@
     <row r="79" spans="1:5">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1616,7 +1616,7 @@
     <row r="80" spans="1:5">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1631,7 +1631,7 @@
     <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1646,7 +1646,7 @@
     <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1676,7 +1676,7 @@
     <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1706,7 +1706,7 @@
     <row r="86" spans="1:5">
       <c r="A86" s="1"/>
       <c r="B86" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1721,7 +1721,7 @@
     <row r="87" spans="1:5">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1736,7 +1736,7 @@
     <row r="88" spans="1:5">
       <c r="A88" s="1"/>
       <c r="B88" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1751,7 +1751,7 @@
     <row r="89" spans="1:5">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1766,7 +1766,7 @@
     <row r="90" spans="1:5">
       <c r="A90" s="1"/>
       <c r="B90" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     <row r="91" spans="1:5">
       <c r="A91" s="1"/>
       <c r="B91" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1796,7 +1796,7 @@
     <row r="92" spans="1:5">
       <c r="A92" s="1"/>
       <c r="B92" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1811,7 +1811,7 @@
     <row r="93" spans="1:5">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     <row r="94" spans="1:5">
       <c r="A94" s="1"/>
       <c r="B94" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1841,7 +1841,7 @@
     <row r="95" spans="1:5">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     <row r="96" spans="1:5">
       <c r="A96" s="1"/>
       <c r="B96" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1871,7 +1871,7 @@
     <row r="97" spans="1:5">
       <c r="A97" s="1"/>
       <c r="B97" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1886,7 +1886,7 @@
     <row r="98" spans="1:5">
       <c r="A98" s="1"/>
       <c r="B98" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     <row r="99" spans="1:5">
       <c r="A99" s="1"/>
       <c r="B99" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1916,7 +1916,7 @@
     <row r="100" spans="1:5">
       <c r="A100" s="1"/>
       <c r="B100" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1931,7 +1931,7 @@
     <row r="101" spans="1:5">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     <row r="102" spans="1:5">
       <c r="A102" s="1"/>
       <c r="B102" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1961,7 +1961,7 @@
     <row r="103" spans="1:5">
       <c r="A103" s="1"/>
       <c r="B103" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -1976,7 +1976,7 @@
     <row r="104" spans="1:5">
       <c r="A104" s="1"/>
       <c r="B104" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -1991,7 +1991,7 @@
     <row r="105" spans="1:5">
       <c r="A105" s="1"/>
       <c r="B105" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2006,7 +2006,7 @@
     <row r="106" spans="1:5">
       <c r="A106" s="1"/>
       <c r="B106" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2021,7 +2021,7 @@
     <row r="107" spans="1:5">
       <c r="A107" s="1"/>
       <c r="B107" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2034,41 +2034,41 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A108" s="1"/>
       <c r="B108" s="1">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C108">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1"/>
       <c r="B109" s="1">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C109">
-        <v>389876.6666666667</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>66000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B110" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C110">
         <v>377300</v>
@@ -2083,7 +2083,7 @@
     <row r="111" spans="1:5">
       <c r="A111" s="1"/>
       <c r="B111" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C111">
         <v>389876.6666666667</v>
@@ -2098,10 +2098,10 @@
     <row r="112" spans="1:5">
       <c r="A112" s="1"/>
       <c r="B112" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C112">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2113,10 +2113,10 @@
     <row r="113" spans="1:5">
       <c r="A113" s="1"/>
       <c r="B113" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C113">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="114" spans="1:5">
       <c r="A114" s="1"/>
       <c r="B114" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C114">
         <v>389876.6666666667</v>
@@ -2143,10 +2143,10 @@
     <row r="115" spans="1:5">
       <c r="A115" s="1"/>
       <c r="B115" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C115">
-        <v>352146.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2158,7 +2158,7 @@
     <row r="116" spans="1:5">
       <c r="A116" s="1"/>
       <c r="B116" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C116">
         <v>389876.6666666667</v>
@@ -2173,10 +2173,10 @@
     <row r="117" spans="1:5">
       <c r="A117" s="1"/>
       <c r="B117" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C117">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2188,10 +2188,10 @@
     <row r="118" spans="1:5">
       <c r="A118" s="1"/>
       <c r="B118" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C118">
-        <v>389876.6666666667</v>
+        <v>352146.6666666667</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2203,10 +2203,10 @@
     <row r="119" spans="1:5">
       <c r="A119" s="1"/>
       <c r="B119" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C119">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2218,10 +2218,10 @@
     <row r="120" spans="1:5">
       <c r="A120" s="1"/>
       <c r="B120" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C120">
-        <v>389876.6666666667</v>
+        <v>377300</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     <row r="121" spans="1:5">
       <c r="A121" s="1"/>
       <c r="B121" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C121">
         <v>389876.6666666667</v>
@@ -2248,7 +2248,7 @@
     <row r="122" spans="1:5">
       <c r="A122" s="1"/>
       <c r="B122" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C122">
         <v>377300</v>
@@ -2263,7 +2263,7 @@
     <row r="123" spans="1:5">
       <c r="A123" s="1"/>
       <c r="B123" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C123">
         <v>389876.6666666667</v>
@@ -2278,58 +2278,58 @@
     <row r="124" spans="1:5">
       <c r="A124" s="1"/>
       <c r="B124" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C124">
-        <v>377300</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D124">
-        <v>3983829.78215389</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>62016170.21784611</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1"/>
       <c r="B125" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C125">
-        <v>366343.2988479764</v>
+        <v>377300</v>
       </c>
       <c r="D125">
-        <v>10204238.35</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>51811931.86784611</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1"/>
       <c r="B126" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C126">
-        <v>306064.5953060043</v>
+        <v>389876.6666666667</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>3983829.78215389</v>
       </c>
       <c r="E126">
-        <v>51811931.86784611</v>
+        <v>62016170.21784611</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1"/>
       <c r="B127" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C127">
-        <v>276445.4409215522</v>
+        <v>354525.7730786868</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>10204238.35</v>
       </c>
       <c r="E127">
         <v>51811931.86784611</v>
@@ -2338,43 +2338,43 @@
     <row r="128" spans="1:5">
       <c r="A128" s="1"/>
       <c r="B128" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C128">
         <v>306064.5953060043</v>
       </c>
       <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
         <v>51811931.86784611</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1"/>
       <c r="B129" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>306064.5953060043</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>51811931.86784611</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1"/>
       <c r="B130" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>276445.4409215522</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>51811931.86784611</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     <row r="131" spans="1:5">
       <c r="A131" s="1"/>
       <c r="B131" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="132" spans="1:5">
       <c r="A132" s="1"/>
       <c r="B132" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2413,7 +2413,7 @@
     <row r="133" spans="1:5">
       <c r="A133" s="1"/>
       <c r="B133" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2428,7 +2428,7 @@
     <row r="134" spans="1:5">
       <c r="A134" s="1"/>
       <c r="B134" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2443,7 +2443,7 @@
     <row r="135" spans="1:5">
       <c r="A135" s="1"/>
       <c r="B135" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2458,7 +2458,7 @@
     <row r="136" spans="1:5">
       <c r="A136" s="1"/>
       <c r="B136" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     <row r="137" spans="1:5">
       <c r="A137" s="1"/>
       <c r="B137" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2488,7 +2488,7 @@
     <row r="138" spans="1:5">
       <c r="A138" s="1"/>
       <c r="B138" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2503,7 +2503,7 @@
     <row r="139" spans="1:5">
       <c r="A139" s="1"/>
       <c r="B139" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2518,7 +2518,7 @@
     <row r="140" spans="1:5">
       <c r="A140" s="1"/>
       <c r="B140" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="141" spans="1:5">
       <c r="A141" s="1"/>
       <c r="B141" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2548,7 +2548,7 @@
     <row r="142" spans="1:5">
       <c r="A142" s="1"/>
       <c r="B142" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2563,7 +2563,7 @@
     <row r="143" spans="1:5">
       <c r="A143" s="1"/>
       <c r="B143" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2578,7 +2578,7 @@
     <row r="144" spans="1:5">
       <c r="A144" s="1"/>
       <c r="B144" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2593,7 +2593,7 @@
     <row r="145" spans="1:5">
       <c r="A145" s="1"/>
       <c r="B145" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2608,7 +2608,7 @@
     <row r="146" spans="1:5">
       <c r="A146" s="1"/>
       <c r="B146" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     <row r="147" spans="1:5">
       <c r="A147" s="1"/>
       <c r="B147" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2638,7 +2638,7 @@
     <row r="148" spans="1:5">
       <c r="A148" s="1"/>
       <c r="B148" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2653,7 +2653,7 @@
     <row r="149" spans="1:5">
       <c r="A149" s="1"/>
       <c r="B149" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="150" spans="1:5">
       <c r="A150" s="1"/>
       <c r="B150" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2683,7 +2683,7 @@
     <row r="151" spans="1:5">
       <c r="A151" s="1"/>
       <c r="B151" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2698,7 +2698,7 @@
     <row r="152" spans="1:5">
       <c r="A152" s="1"/>
       <c r="B152" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     <row r="153" spans="1:5">
       <c r="A153" s="1"/>
       <c r="B153" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     <row r="154" spans="1:5">
       <c r="A154" s="1"/>
       <c r="B154" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2743,7 +2743,7 @@
     <row r="155" spans="1:5">
       <c r="A155" s="1"/>
       <c r="B155" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2758,7 +2758,7 @@
     <row r="156" spans="1:5">
       <c r="A156" s="1"/>
       <c r="B156" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2773,7 +2773,7 @@
     <row r="157" spans="1:5">
       <c r="A157" s="1"/>
       <c r="B157" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2788,7 +2788,7 @@
     <row r="158" spans="1:5">
       <c r="A158" s="1"/>
       <c r="B158" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="159" spans="1:5">
       <c r="A159" s="1"/>
       <c r="B159" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2818,7 +2818,7 @@
     <row r="160" spans="1:5">
       <c r="A160" s="1"/>
       <c r="B160" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2831,59 +2831,59 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A161" s="1"/>
       <c r="B161" s="1">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C161">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1"/>
       <c r="B162" s="1">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C162">
-        <v>495136.7361111111</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>79750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1"/>
       <c r="B163" s="1">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="1">
+        <v>46</v>
+      </c>
+      <c r="C164">
         <v>479164.5833333333</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <v>79750000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1">
-        <v>50</v>
-      </c>
-      <c r="C164">
-        <v>495136.7361111111</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -2895,10 +2895,10 @@
     <row r="165" spans="1:5">
       <c r="A165" s="1"/>
       <c r="B165" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C165">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -2910,7 +2910,7 @@
     <row r="166" spans="1:5">
       <c r="A166" s="1"/>
       <c r="B166" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C166">
         <v>495136.7361111111</v>
@@ -2925,10 +2925,10 @@
     <row r="167" spans="1:5">
       <c r="A167" s="1"/>
       <c r="B167" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C167">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -2940,10 +2940,10 @@
     <row r="168" spans="1:5">
       <c r="A168" s="1"/>
       <c r="B168" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C168">
-        <v>447220.2777777778</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -2955,10 +2955,10 @@
     <row r="169" spans="1:5">
       <c r="A169" s="1"/>
       <c r="B169" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C169">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -2970,10 +2970,10 @@
     <row r="170" spans="1:5">
       <c r="A170" s="1"/>
       <c r="B170" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C170">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -2985,7 +2985,7 @@
     <row r="171" spans="1:5">
       <c r="A171" s="1"/>
       <c r="B171" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C171">
         <v>495136.7361111111</v>
@@ -3000,10 +3000,10 @@
     <row r="172" spans="1:5">
       <c r="A172" s="1"/>
       <c r="B172" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C172">
-        <v>479164.5833333333</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     <row r="173" spans="1:5">
       <c r="A173" s="1"/>
       <c r="B173" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C173">
         <v>495136.7361111111</v>
@@ -3030,10 +3030,10 @@
     <row r="174" spans="1:5">
       <c r="A174" s="1"/>
       <c r="B174" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C174">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -3045,10 +3045,10 @@
     <row r="175" spans="1:5">
       <c r="A175" s="1"/>
       <c r="B175" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C175">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -3060,10 +3060,10 @@
     <row r="176" spans="1:5">
       <c r="A176" s="1"/>
       <c r="B176" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C176">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -3075,10 +3075,10 @@
     <row r="177" spans="1:5">
       <c r="A177" s="1"/>
       <c r="B177" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C177">
-        <v>479164.5833333333</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -3090,7 +3090,7 @@
     <row r="178" spans="1:5">
       <c r="A178" s="1"/>
       <c r="B178" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C178">
         <v>495136.7361111111</v>
@@ -3105,10 +3105,10 @@
     <row r="179" spans="1:5">
       <c r="A179" s="1"/>
       <c r="B179" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C179">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -3120,10 +3120,10 @@
     <row r="180" spans="1:5">
       <c r="A180" s="1"/>
       <c r="B180" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C180">
-        <v>447220.2777777778</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3135,58 +3135,58 @@
     <row r="181" spans="1:5">
       <c r="A181" s="1"/>
       <c r="B181" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C181">
-        <v>495136.7361111111</v>
+        <v>479164.5833333333</v>
       </c>
       <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
         <v>79750000</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1"/>
       <c r="B182" s="1">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1"/>
       <c r="B183" s="1">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>495136.7361111111</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>79750000</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1"/>
       <c r="B184" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>447220.2777777778</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>79750000</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -3195,7 +3195,7 @@
     <row r="185" spans="1:5">
       <c r="A185" s="1"/>
       <c r="B185" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3210,7 +3210,7 @@
     <row r="186" spans="1:5">
       <c r="A186" s="1"/>
       <c r="B186" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     <row r="187" spans="1:5">
       <c r="A187" s="1"/>
       <c r="B187" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3240,7 +3240,7 @@
     <row r="188" spans="1:5">
       <c r="A188" s="1"/>
       <c r="B188" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     <row r="189" spans="1:5">
       <c r="A189" s="1"/>
       <c r="B189" s="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3270,7 +3270,7 @@
     <row r="190" spans="1:5">
       <c r="A190" s="1"/>
       <c r="B190" s="1">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     <row r="191" spans="1:5">
       <c r="A191" s="1"/>
       <c r="B191" s="1">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3300,7 +3300,7 @@
     <row r="192" spans="1:5">
       <c r="A192" s="1"/>
       <c r="B192" s="1">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3315,7 +3315,7 @@
     <row r="193" spans="1:5">
       <c r="A193" s="1"/>
       <c r="B193" s="1">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3330,7 +3330,7 @@
     <row r="194" spans="1:5">
       <c r="A194" s="1"/>
       <c r="B194" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3345,7 +3345,7 @@
     <row r="195" spans="1:5">
       <c r="A195" s="1"/>
       <c r="B195" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     <row r="196" spans="1:5">
       <c r="A196" s="1"/>
       <c r="B196" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3375,7 +3375,7 @@
     <row r="197" spans="1:5">
       <c r="A197" s="1"/>
       <c r="B197" s="1">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3390,7 +3390,7 @@
     <row r="198" spans="1:5">
       <c r="A198" s="1"/>
       <c r="B198" s="1">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3405,7 +3405,7 @@
     <row r="199" spans="1:5">
       <c r="A199" s="1"/>
       <c r="B199" s="1">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3420,7 +3420,7 @@
     <row r="200" spans="1:5">
       <c r="A200" s="1"/>
       <c r="B200" s="1">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     <row r="201" spans="1:5">
       <c r="A201" s="1"/>
       <c r="B201" s="1">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3450,7 +3450,7 @@
     <row r="202" spans="1:5">
       <c r="A202" s="1"/>
       <c r="B202" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3465,7 +3465,7 @@
     <row r="203" spans="1:5">
       <c r="A203" s="1"/>
       <c r="B203" s="1">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3480,7 +3480,7 @@
     <row r="204" spans="1:5">
       <c r="A204" s="1"/>
       <c r="B204" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3495,7 +3495,7 @@
     <row r="205" spans="1:5">
       <c r="A205" s="1"/>
       <c r="B205" s="1">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     <row r="206" spans="1:5">
       <c r="A206" s="1"/>
       <c r="B206" s="1">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     <row r="207" spans="1:5">
       <c r="A207" s="1"/>
       <c r="B207" s="1">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3540,7 +3540,7 @@
     <row r="208" spans="1:5">
       <c r="A208" s="1"/>
       <c r="B208" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3555,7 +3555,7 @@
     <row r="209" spans="1:5">
       <c r="A209" s="1"/>
       <c r="B209" s="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3570,7 +3570,7 @@
     <row r="210" spans="1:5">
       <c r="A210" s="1"/>
       <c r="B210" s="1">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3585,7 +3585,7 @@
     <row r="211" spans="1:5">
       <c r="A211" s="1"/>
       <c r="B211" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3600,7 +3600,7 @@
     <row r="212" spans="1:5">
       <c r="A212" s="1"/>
       <c r="B212" s="1">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3615,7 +3615,7 @@
     <row r="213" spans="1:5">
       <c r="A213" s="1"/>
       <c r="B213" s="1">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3628,71 +3628,71 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A214" s="1"/>
       <c r="B214" s="1">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C214">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1"/>
       <c r="B215" s="1">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C215">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1"/>
       <c r="B216" s="1">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C216">
-        <v>374951.0416666667</v>
+        <v>0</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1"/>
       <c r="B217" s="1">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C217">
-        <v>387449.4097222222</v>
+        <v>0</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>59125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B218" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C218">
         <v>374951.0416666667</v>
@@ -3707,7 +3707,7 @@
     <row r="219" spans="1:5">
       <c r="A219" s="1"/>
       <c r="B219" s="1">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C219">
         <v>387449.4097222222</v>
@@ -3722,7 +3722,7 @@
     <row r="220" spans="1:5">
       <c r="A220" s="1"/>
       <c r="B220" s="1">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C220">
         <v>387449.4097222222</v>
@@ -3737,10 +3737,10 @@
     <row r="221" spans="1:5">
       <c r="A221" s="1"/>
       <c r="B221" s="1">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C221">
-        <v>349954.3055555556</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -3752,7 +3752,7 @@
     <row r="222" spans="1:5">
       <c r="A222" s="1"/>
       <c r="B222" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C222">
         <v>387449.4097222222</v>
@@ -3767,7 +3767,7 @@
     <row r="223" spans="1:5">
       <c r="A223" s="1"/>
       <c r="B223" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C223">
         <v>374951.0416666667</v>
@@ -3782,7 +3782,7 @@
     <row r="224" spans="1:5">
       <c r="A224" s="1"/>
       <c r="B224" s="1">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C224">
         <v>387449.4097222222</v>
@@ -3797,10 +3797,10 @@
     <row r="225" spans="1:5">
       <c r="A225" s="1"/>
       <c r="B225" s="1">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C225">
-        <v>374951.0416666667</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -3812,10 +3812,10 @@
     <row r="226" spans="1:5">
       <c r="A226" s="1"/>
       <c r="B226" s="1">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C226">
-        <v>387449.4097222222</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -3827,7 +3827,7 @@
     <row r="227" spans="1:5">
       <c r="A227" s="1"/>
       <c r="B227" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C227">
         <v>387449.4097222222</v>
@@ -3842,7 +3842,7 @@
     <row r="228" spans="1:5">
       <c r="A228" s="1"/>
       <c r="B228" s="1">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C228">
         <v>374951.0416666667</v>
@@ -3857,7 +3857,7 @@
     <row r="229" spans="1:5">
       <c r="A229" s="1"/>
       <c r="B229" s="1">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C229">
         <v>387449.4097222222</v>
@@ -3872,7 +3872,7 @@
     <row r="230" spans="1:5">
       <c r="A230" s="1"/>
       <c r="B230" s="1">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C230">
         <v>374951.0416666667</v>
@@ -3887,7 +3887,7 @@
     <row r="231" spans="1:5">
       <c r="A231" s="1"/>
       <c r="B231" s="1">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C231">
         <v>387449.4097222222</v>
@@ -3902,7 +3902,7 @@
     <row r="232" spans="1:5">
       <c r="A232" s="1"/>
       <c r="B232" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C232">
         <v>387449.4097222222</v>
@@ -3917,10 +3917,10 @@
     <row r="233" spans="1:5">
       <c r="A233" s="1"/>
       <c r="B233" s="1">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C233">
-        <v>349954.3055555556</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -3932,97 +3932,97 @@
     <row r="234" spans="1:5">
       <c r="A234" s="1"/>
       <c r="B234" s="1">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C234">
         <v>387449.4097222222</v>
       </c>
       <c r="D234">
-        <v>12125000.07215391</v>
+        <v>0</v>
       </c>
       <c r="E234">
-        <v>46999999.92784609</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1"/>
       <c r="B235" s="1">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C235">
-        <v>298058.3328757573</v>
+        <v>374951.0416666667</v>
       </c>
       <c r="D235">
-        <v>46999999.92784609</v>
+        <v>0</v>
       </c>
       <c r="E235">
-        <v>46999999.92784609</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1"/>
       <c r="B236" s="1">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1"/>
       <c r="B237" s="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>387449.4097222222</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>59125000</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1"/>
       <c r="B238" s="1">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>349954.3055555556</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>12125000.07215391</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1"/>
       <c r="B239" s="1">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>307993.6106382826</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>46999999.92784609</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>46999999.92784609</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1"/>
       <c r="B240" s="1">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     <row r="241" spans="1:5">
       <c r="A241" s="1"/>
       <c r="B241" s="1">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4052,7 +4052,7 @@
     <row r="242" spans="1:5">
       <c r="A242" s="1"/>
       <c r="B242" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4067,7 +4067,7 @@
     <row r="243" spans="1:5">
       <c r="A243" s="1"/>
       <c r="B243" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4082,7 +4082,7 @@
     <row r="244" spans="1:5">
       <c r="A244" s="1"/>
       <c r="B244" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     <row r="245" spans="1:5">
       <c r="A245" s="1"/>
       <c r="B245" s="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4112,7 +4112,7 @@
     <row r="246" spans="1:5">
       <c r="A246" s="1"/>
       <c r="B246" s="1">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4127,7 +4127,7 @@
     <row r="247" spans="1:5">
       <c r="A247" s="1"/>
       <c r="B247" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4142,7 +4142,7 @@
     <row r="248" spans="1:5">
       <c r="A248" s="1"/>
       <c r="B248" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     <row r="249" spans="1:5">
       <c r="A249" s="1"/>
       <c r="B249" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4172,7 +4172,7 @@
     <row r="250" spans="1:5">
       <c r="A250" s="1"/>
       <c r="B250" s="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     <row r="251" spans="1:5">
       <c r="A251" s="1"/>
       <c r="B251" s="1">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4202,7 +4202,7 @@
     <row r="252" spans="1:5">
       <c r="A252" s="1"/>
       <c r="B252" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     <row r="253" spans="1:5">
       <c r="A253" s="1"/>
       <c r="B253" s="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4232,7 +4232,7 @@
     <row r="254" spans="1:5">
       <c r="A254" s="1"/>
       <c r="B254" s="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4247,7 +4247,7 @@
     <row r="255" spans="1:5">
       <c r="A255" s="1"/>
       <c r="B255" s="1">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4262,7 +4262,7 @@
     <row r="256" spans="1:5">
       <c r="A256" s="1"/>
       <c r="B256" s="1">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     <row r="257" spans="1:5">
       <c r="A257" s="1"/>
       <c r="B257" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4292,7 +4292,7 @@
     <row r="258" spans="1:5">
       <c r="A258" s="1"/>
       <c r="B258" s="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4307,7 +4307,7 @@
     <row r="259" spans="1:5">
       <c r="A259" s="1"/>
       <c r="B259" s="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4322,7 +4322,7 @@
     <row r="260" spans="1:5">
       <c r="A260" s="1"/>
       <c r="B260" s="1">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     <row r="261" spans="1:5">
       <c r="A261" s="1"/>
       <c r="B261" s="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4352,7 +4352,7 @@
     <row r="262" spans="1:5">
       <c r="A262" s="1"/>
       <c r="B262" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4367,7 +4367,7 @@
     <row r="263" spans="1:5">
       <c r="A263" s="1"/>
       <c r="B263" s="1">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4382,7 +4382,7 @@
     <row r="264" spans="1:5">
       <c r="A264" s="1"/>
       <c r="B264" s="1">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     <row r="265" spans="1:5">
       <c r="A265" s="1"/>
       <c r="B265" s="1">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4412,7 +4412,7 @@
     <row r="266" spans="1:5">
       <c r="A266" s="1"/>
       <c r="B266" s="1">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -4425,89 +4425,89 @@
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A267" s="1"/>
       <c r="B267" s="1">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C267">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1"/>
       <c r="B268" s="1">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C268">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1"/>
       <c r="B269" s="1">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C269">
-        <v>82087.5</v>
+        <v>0</v>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1"/>
       <c r="B270" s="1">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C270">
-        <v>84823.75</v>
+        <v>0</v>
       </c>
       <c r="D270">
         <v>0</v>
       </c>
       <c r="E270">
-        <v>12375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1"/>
       <c r="B271" s="1">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" s="1">
+        <v>46</v>
+      </c>
+      <c r="C272">
         <v>82087.5</v>
-      </c>
-      <c r="D271">
-        <v>0</v>
-      </c>
-      <c r="E271">
-        <v>12375000</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1">
-        <v>52</v>
-      </c>
-      <c r="C272">
-        <v>84823.75</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -4519,7 +4519,7 @@
     <row r="273" spans="1:5">
       <c r="A273" s="1"/>
       <c r="B273" s="1">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C273">
         <v>84823.75</v>
@@ -4534,10 +4534,10 @@
     <row r="274" spans="1:5">
       <c r="A274" s="1"/>
       <c r="B274" s="1">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C274">
-        <v>76615</v>
+        <v>84823.75</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -4549,10 +4549,10 @@
     <row r="275" spans="1:5">
       <c r="A275" s="1"/>
       <c r="B275" s="1">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C275">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -4564,10 +4564,10 @@
     <row r="276" spans="1:5">
       <c r="A276" s="1"/>
       <c r="B276" s="1">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C276">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -4579,10 +4579,10 @@
     <row r="277" spans="1:5">
       <c r="A277" s="1"/>
       <c r="B277" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C277">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -4594,10 +4594,10 @@
     <row r="278" spans="1:5">
       <c r="A278" s="1"/>
       <c r="B278" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C278">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -4609,7 +4609,7 @@
     <row r="279" spans="1:5">
       <c r="A279" s="1"/>
       <c r="B279" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C279">
         <v>84823.75</v>
@@ -4624,10 +4624,10 @@
     <row r="280" spans="1:5">
       <c r="A280" s="1"/>
       <c r="B280" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C280">
-        <v>84823.75</v>
+        <v>76615</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -4639,10 +4639,10 @@
     <row r="281" spans="1:5">
       <c r="A281" s="1"/>
       <c r="B281" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C281">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -4654,10 +4654,10 @@
     <row r="282" spans="1:5">
       <c r="A282" s="1"/>
       <c r="B282" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C282">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -4669,10 +4669,10 @@
     <row r="283" spans="1:5">
       <c r="A283" s="1"/>
       <c r="B283" s="1">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C283">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -4684,10 +4684,10 @@
     <row r="284" spans="1:5">
       <c r="A284" s="1"/>
       <c r="B284" s="1">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C284">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -4699,7 +4699,7 @@
     <row r="285" spans="1:5">
       <c r="A285" s="1"/>
       <c r="B285" s="1">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C285">
         <v>84823.75</v>
@@ -4714,10 +4714,10 @@
     <row r="286" spans="1:5">
       <c r="A286" s="1"/>
       <c r="B286" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C286">
-        <v>76615</v>
+        <v>84823.75</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -4729,10 +4729,10 @@
     <row r="287" spans="1:5">
       <c r="A287" s="1"/>
       <c r="B287" s="1">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C287">
-        <v>84823.75</v>
+        <v>82087.5</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -4744,13 +4744,13 @@
     <row r="288" spans="1:5">
       <c r="A288" s="1"/>
       <c r="B288" s="1">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C288">
-        <v>82087.5</v>
+        <v>84823.75</v>
       </c>
       <c r="D288">
-        <v>12375000</v>
+        <v>0</v>
       </c>
       <c r="E288">
         <v>12375000</v>
@@ -4759,82 +4759,82 @@
     <row r="289" spans="1:5">
       <c r="A289" s="1"/>
       <c r="B289" s="1">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>82087.5</v>
       </c>
       <c r="D289">
         <v>0</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="1"/>
       <c r="B290" s="1">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>84823.75</v>
       </c>
       <c r="D290">
         <v>0</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1"/>
       <c r="B291" s="1">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>84823.75</v>
       </c>
       <c r="D291">
         <v>0</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1"/>
       <c r="B292" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C292">
-        <v>0</v>
+        <v>76615</v>
       </c>
       <c r="D292">
         <v>0</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1"/>
       <c r="B293" s="1">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>84823.75</v>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>12375000</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>12375000</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="1"/>
       <c r="B294" s="1">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -4849,7 +4849,7 @@
     <row r="295" spans="1:5">
       <c r="A295" s="1"/>
       <c r="B295" s="1">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -4864,7 +4864,7 @@
     <row r="296" spans="1:5">
       <c r="A296" s="1"/>
       <c r="B296" s="1">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -4879,7 +4879,7 @@
     <row r="297" spans="1:5">
       <c r="A297" s="1"/>
       <c r="B297" s="1">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -4894,7 +4894,7 @@
     <row r="298" spans="1:5">
       <c r="A298" s="1"/>
       <c r="B298" s="1">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -4909,7 +4909,7 @@
     <row r="299" spans="1:5">
       <c r="A299" s="1"/>
       <c r="B299" s="1">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -4924,7 +4924,7 @@
     <row r="300" spans="1:5">
       <c r="A300" s="1"/>
       <c r="B300" s="1">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -4939,7 +4939,7 @@
     <row r="301" spans="1:5">
       <c r="A301" s="1"/>
       <c r="B301" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -4954,7 +4954,7 @@
     <row r="302" spans="1:5">
       <c r="A302" s="1"/>
       <c r="B302" s="1">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     <row r="303" spans="1:5">
       <c r="A303" s="1"/>
       <c r="B303" s="1">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -4984,7 +4984,7 @@
     <row r="304" spans="1:5">
       <c r="A304" s="1"/>
       <c r="B304" s="1">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -4999,7 +4999,7 @@
     <row r="305" spans="1:5">
       <c r="A305" s="1"/>
       <c r="B305" s="1">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -5014,7 +5014,7 @@
     <row r="306" spans="1:5">
       <c r="A306" s="1"/>
       <c r="B306" s="1">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -5029,7 +5029,7 @@
     <row r="307" spans="1:5">
       <c r="A307" s="1"/>
       <c r="B307" s="1">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -5044,7 +5044,7 @@
     <row r="308" spans="1:5">
       <c r="A308" s="1"/>
       <c r="B308" s="1">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -5059,7 +5059,7 @@
     <row r="309" spans="1:5">
       <c r="A309" s="1"/>
       <c r="B309" s="1">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -5074,7 +5074,7 @@
     <row r="310" spans="1:5">
       <c r="A310" s="1"/>
       <c r="B310" s="1">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -5089,7 +5089,7 @@
     <row r="311" spans="1:5">
       <c r="A311" s="1"/>
       <c r="B311" s="1">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -5104,7 +5104,7 @@
     <row r="312" spans="1:5">
       <c r="A312" s="1"/>
       <c r="B312" s="1">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -5119,7 +5119,7 @@
     <row r="313" spans="1:5">
       <c r="A313" s="1"/>
       <c r="B313" s="1">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5134,7 +5134,7 @@
     <row r="314" spans="1:5">
       <c r="A314" s="1"/>
       <c r="B314" s="1">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5149,7 +5149,7 @@
     <row r="315" spans="1:5">
       <c r="A315" s="1"/>
       <c r="B315" s="1">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5164,7 +5164,7 @@
     <row r="316" spans="1:5">
       <c r="A316" s="1"/>
       <c r="B316" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -5179,7 +5179,7 @@
     <row r="317" spans="1:5">
       <c r="A317" s="1"/>
       <c r="B317" s="1">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5194,7 +5194,7 @@
     <row r="318" spans="1:5">
       <c r="A318" s="1"/>
       <c r="B318" s="1">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -5209,7 +5209,7 @@
     <row r="319" spans="1:5">
       <c r="A319" s="1"/>
       <c r="B319" s="1">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -5222,104 +5222,104 @@
       </c>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A320" s="1"/>
       <c r="B320" s="1">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C320">
-        <v>411437.8125</v>
+        <v>0</v>
       </c>
       <c r="D320">
         <v>0</v>
       </c>
       <c r="E320">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1"/>
       <c r="B321" s="1">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C321">
-        <v>411437.8125</v>
+        <v>0</v>
       </c>
       <c r="D321">
         <v>0</v>
       </c>
       <c r="E321">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="1"/>
       <c r="B322" s="1">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C322">
-        <v>398165.625</v>
+        <v>0</v>
       </c>
       <c r="D322">
         <v>0</v>
       </c>
       <c r="E322">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="1"/>
       <c r="B323" s="1">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C323">
-        <v>411437.8125</v>
+        <v>0</v>
       </c>
       <c r="D323">
         <v>0</v>
       </c>
       <c r="E323">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="1"/>
       <c r="B324" s="1">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C324">
-        <v>398165.625</v>
+        <v>0</v>
       </c>
       <c r="D324">
         <v>0</v>
       </c>
       <c r="E324">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="1"/>
       <c r="B325" s="1">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C325">
-        <v>411437.8125</v>
+        <v>0</v>
       </c>
       <c r="D325">
         <v>0</v>
       </c>
       <c r="E325">
-        <v>53625000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326" s="1"/>
+      <c r="A326" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B326" s="1">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C326">
-        <v>411437.8125</v>
+        <v>398165.625</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -5331,10 +5331,10 @@
     <row r="327" spans="1:5">
       <c r="A327" s="1"/>
       <c r="B327" s="1">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C327">
-        <v>371621.25</v>
+        <v>411437.8125</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -5346,7 +5346,7 @@
     <row r="328" spans="1:5">
       <c r="A328" s="1"/>
       <c r="B328" s="1">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C328">
         <v>411437.8125</v>
@@ -5361,7 +5361,7 @@
     <row r="329" spans="1:5">
       <c r="A329" s="1"/>
       <c r="B329" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C329">
         <v>398165.625</v>
@@ -5376,7 +5376,7 @@
     <row r="330" spans="1:5">
       <c r="A330" s="1"/>
       <c r="B330" s="1">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C330">
         <v>411437.8125</v>
@@ -5391,7 +5391,7 @@
     <row r="331" spans="1:5">
       <c r="A331" s="1"/>
       <c r="B331" s="1">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C331">
         <v>398165.625</v>
@@ -5406,7 +5406,7 @@
     <row r="332" spans="1:5">
       <c r="A332" s="1"/>
       <c r="B332" s="1">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C332">
         <v>411437.8125</v>
@@ -5421,7 +5421,7 @@
     <row r="333" spans="1:5">
       <c r="A333" s="1"/>
       <c r="B333" s="1">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C333">
         <v>411437.8125</v>
@@ -5436,10 +5436,10 @@
     <row r="334" spans="1:5">
       <c r="A334" s="1"/>
       <c r="B334" s="1">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C334">
-        <v>398165.625</v>
+        <v>371621.25</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -5451,7 +5451,7 @@
     <row r="335" spans="1:5">
       <c r="A335" s="1"/>
       <c r="B335" s="1">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C335">
         <v>411437.8125</v>
@@ -5466,7 +5466,7 @@
     <row r="336" spans="1:5">
       <c r="A336" s="1"/>
       <c r="B336" s="1">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C336">
         <v>398165.625</v>
@@ -5481,7 +5481,7 @@
     <row r="337" spans="1:5">
       <c r="A337" s="1"/>
       <c r="B337" s="1">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C337">
         <v>411437.8125</v>
@@ -5496,10 +5496,10 @@
     <row r="338" spans="1:5">
       <c r="A338" s="1"/>
       <c r="B338" s="1">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C338">
-        <v>411437.8125</v>
+        <v>398165.625</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -5511,10 +5511,10 @@
     <row r="339" spans="1:5">
       <c r="A339" s="1"/>
       <c r="B339" s="1">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C339">
-        <v>371621.25</v>
+        <v>411437.8125</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -5526,7 +5526,7 @@
     <row r="340" spans="1:5">
       <c r="A340" s="1"/>
       <c r="B340" s="1">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C340">
         <v>411437.8125</v>
@@ -5541,13 +5541,13 @@
     <row r="341" spans="1:5">
       <c r="A341" s="1"/>
       <c r="B341" s="1">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C341">
         <v>398165.625</v>
       </c>
       <c r="D341">
-        <v>53625000</v>
+        <v>0</v>
       </c>
       <c r="E341">
         <v>53625000</v>
@@ -5556,97 +5556,97 @@
     <row r="342" spans="1:5">
       <c r="A342" s="1"/>
       <c r="B342" s="1">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C342">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D342">
         <v>0</v>
       </c>
       <c r="E342">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1"/>
       <c r="B343" s="1">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C343">
-        <v>0</v>
+        <v>398165.625</v>
       </c>
       <c r="D343">
         <v>0</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="1"/>
       <c r="B344" s="1">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C344">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D344">
         <v>0</v>
       </c>
       <c r="E344">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="1"/>
       <c r="B345" s="1">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C345">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D345">
         <v>0</v>
       </c>
       <c r="E345">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="1"/>
       <c r="B346" s="1">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C346">
-        <v>0</v>
+        <v>371621.25</v>
       </c>
       <c r="D346">
         <v>0</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1"/>
       <c r="B347" s="1">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C347">
-        <v>0</v>
+        <v>411437.8125</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>53625000</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="1"/>
       <c r="B348" s="1">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5661,7 +5661,7 @@
     <row r="349" spans="1:5">
       <c r="A349" s="1"/>
       <c r="B349" s="1">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5676,7 +5676,7 @@
     <row r="350" spans="1:5">
       <c r="A350" s="1"/>
       <c r="B350" s="1">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5691,7 +5691,7 @@
     <row r="351" spans="1:5">
       <c r="A351" s="1"/>
       <c r="B351" s="1">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5706,7 +5706,7 @@
     <row r="352" spans="1:5">
       <c r="A352" s="1"/>
       <c r="B352" s="1">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5721,7 +5721,7 @@
     <row r="353" spans="1:5">
       <c r="A353" s="1"/>
       <c r="B353" s="1">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -5736,7 +5736,7 @@
     <row r="354" spans="1:5">
       <c r="A354" s="1"/>
       <c r="B354" s="1">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5751,7 +5751,7 @@
     <row r="355" spans="1:5">
       <c r="A355" s="1"/>
       <c r="B355" s="1">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5766,7 +5766,7 @@
     <row r="356" spans="1:5">
       <c r="A356" s="1"/>
       <c r="B356" s="1">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5781,7 +5781,7 @@
     <row r="357" spans="1:5">
       <c r="A357" s="1"/>
       <c r="B357" s="1">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -5796,7 +5796,7 @@
     <row r="358" spans="1:5">
       <c r="A358" s="1"/>
       <c r="B358" s="1">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5811,7 +5811,7 @@
     <row r="359" spans="1:5">
       <c r="A359" s="1"/>
       <c r="B359" s="1">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -5826,7 +5826,7 @@
     <row r="360" spans="1:5">
       <c r="A360" s="1"/>
       <c r="B360" s="1">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -5841,7 +5841,7 @@
     <row r="361" spans="1:5">
       <c r="A361" s="1"/>
       <c r="B361" s="1">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -5856,7 +5856,7 @@
     <row r="362" spans="1:5">
       <c r="A362" s="1"/>
       <c r="B362" s="1">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -5871,7 +5871,7 @@
     <row r="363" spans="1:5">
       <c r="A363" s="1"/>
       <c r="B363" s="1">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -5886,7 +5886,7 @@
     <row r="364" spans="1:5">
       <c r="A364" s="1"/>
       <c r="B364" s="1">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -5901,7 +5901,7 @@
     <row r="365" spans="1:5">
       <c r="A365" s="1"/>
       <c r="B365" s="1">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -5916,7 +5916,7 @@
     <row r="366" spans="1:5">
       <c r="A366" s="1"/>
       <c r="B366" s="1">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -5931,7 +5931,7 @@
     <row r="367" spans="1:5">
       <c r="A367" s="1"/>
       <c r="B367" s="1">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -5946,7 +5946,7 @@
     <row r="368" spans="1:5">
       <c r="A368" s="1"/>
       <c r="B368" s="1">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -5961,7 +5961,7 @@
     <row r="369" spans="1:5">
       <c r="A369" s="1"/>
       <c r="B369" s="1">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -5976,7 +5976,7 @@
     <row r="370" spans="1:5">
       <c r="A370" s="1"/>
       <c r="B370" s="1">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -5991,7 +5991,7 @@
     <row r="371" spans="1:5">
       <c r="A371" s="1"/>
       <c r="B371" s="1">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -6006,7 +6006,7 @@
     <row r="372" spans="1:5">
       <c r="A372" s="1"/>
       <c r="B372" s="1">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -6019,119 +6019,119 @@
       </c>
     </row>
     <row r="373" spans="1:5">
-      <c r="A373" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A373" s="1"/>
       <c r="B373" s="1">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C373">
-        <v>310025.8333333333</v>
+        <v>0</v>
       </c>
       <c r="D373">
         <v>0</v>
       </c>
       <c r="E373">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="1"/>
       <c r="B374" s="1">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C374">
-        <v>310025.8333333333</v>
+        <v>0</v>
       </c>
       <c r="D374">
         <v>0</v>
       </c>
       <c r="E374">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="1"/>
       <c r="B375" s="1">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C375">
-        <v>300025</v>
+        <v>0</v>
       </c>
       <c r="D375">
         <v>0</v>
       </c>
       <c r="E375">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="1"/>
       <c r="B376" s="1">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C376">
-        <v>310025.8333333333</v>
+        <v>0</v>
       </c>
       <c r="D376">
         <v>0</v>
       </c>
       <c r="E376">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="1"/>
       <c r="B377" s="1">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C377">
-        <v>300025</v>
+        <v>0</v>
       </c>
       <c r="D377">
         <v>0</v>
       </c>
       <c r="E377">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="1"/>
       <c r="B378" s="1">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C378">
-        <v>310025.8333333333</v>
+        <v>0</v>
       </c>
       <c r="D378">
         <v>0</v>
       </c>
       <c r="E378">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="1"/>
       <c r="B379" s="1">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C379">
-        <v>310025.8333333333</v>
+        <v>0</v>
       </c>
       <c r="D379">
         <v>0</v>
       </c>
       <c r="E379">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
-      <c r="A380" s="1"/>
+      <c r="A380" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B380" s="1">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C380">
-        <v>280023.3333333333</v>
+        <v>300025</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -6143,7 +6143,7 @@
     <row r="381" spans="1:5">
       <c r="A381" s="1"/>
       <c r="B381" s="1">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C381">
         <v>310025.8333333333</v>
@@ -6158,10 +6158,10 @@
     <row r="382" spans="1:5">
       <c r="A382" s="1"/>
       <c r="B382" s="1">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C382">
-        <v>300025</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -6173,10 +6173,10 @@
     <row r="383" spans="1:5">
       <c r="A383" s="1"/>
       <c r="B383" s="1">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C383">
-        <v>310025.8333333333</v>
+        <v>300025</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -6188,10 +6188,10 @@
     <row r="384" spans="1:5">
       <c r="A384" s="1"/>
       <c r="B384" s="1">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C384">
-        <v>300025</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -6203,10 +6203,10 @@
     <row r="385" spans="1:5">
       <c r="A385" s="1"/>
       <c r="B385" s="1">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C385">
-        <v>310025.8333333333</v>
+        <v>300025</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -6218,7 +6218,7 @@
     <row r="386" spans="1:5">
       <c r="A386" s="1"/>
       <c r="B386" s="1">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C386">
         <v>310025.8333333333</v>
@@ -6233,10 +6233,10 @@
     <row r="387" spans="1:5">
       <c r="A387" s="1"/>
       <c r="B387" s="1">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C387">
-        <v>300025</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -6248,10 +6248,10 @@
     <row r="388" spans="1:5">
       <c r="A388" s="1"/>
       <c r="B388" s="1">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C388">
-        <v>310025.8333333333</v>
+        <v>280023.3333333333</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -6263,10 +6263,10 @@
     <row r="389" spans="1:5">
       <c r="A389" s="1"/>
       <c r="B389" s="1">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C389">
-        <v>300025</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -6278,10 +6278,10 @@
     <row r="390" spans="1:5">
       <c r="A390" s="1"/>
       <c r="B390" s="1">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C390">
-        <v>310025.8333333333</v>
+        <v>300025</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -6293,7 +6293,7 @@
     <row r="391" spans="1:5">
       <c r="A391" s="1"/>
       <c r="B391" s="1">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C391">
         <v>310025.8333333333</v>
@@ -6308,10 +6308,10 @@
     <row r="392" spans="1:5">
       <c r="A392" s="1"/>
       <c r="B392" s="1">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C392">
-        <v>280023.3333333333</v>
+        <v>300025</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -6323,7 +6323,7 @@
     <row r="393" spans="1:5">
       <c r="A393" s="1"/>
       <c r="B393" s="1">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C393">
         <v>310025.8333333333</v>
@@ -6338,13 +6338,13 @@
     <row r="394" spans="1:5">
       <c r="A394" s="1"/>
       <c r="B394" s="1">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C394">
-        <v>300025</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D394">
-        <v>33000000</v>
+        <v>0</v>
       </c>
       <c r="E394">
         <v>33000000</v>
@@ -6353,112 +6353,112 @@
     <row r="395" spans="1:5">
       <c r="A395" s="1"/>
       <c r="B395" s="1">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C395">
-        <v>0</v>
+        <v>300025</v>
       </c>
       <c r="D395">
         <v>0</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="1"/>
       <c r="B396" s="1">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C396">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D396">
         <v>0</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="1"/>
       <c r="B397" s="1">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C397">
-        <v>0</v>
+        <v>300025</v>
       </c>
       <c r="D397">
         <v>0</v>
       </c>
       <c r="E397">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="1"/>
       <c r="B398" s="1">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C398">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D398">
         <v>0</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="1"/>
       <c r="B399" s="1">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C399">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D399">
         <v>0</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="1"/>
       <c r="B400" s="1">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C400">
-        <v>0</v>
+        <v>280023.3333333333</v>
       </c>
       <c r="D400">
         <v>0</v>
       </c>
       <c r="E400">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="1"/>
       <c r="B401" s="1">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C401">
-        <v>0</v>
+        <v>310025.8333333333</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>33000000</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="1"/>
       <c r="B402" s="1">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -6473,7 +6473,7 @@
     <row r="403" spans="1:5">
       <c r="A403" s="1"/>
       <c r="B403" s="1">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -6488,7 +6488,7 @@
     <row r="404" spans="1:5">
       <c r="A404" s="1"/>
       <c r="B404" s="1">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -6503,7 +6503,7 @@
     <row r="405" spans="1:5">
       <c r="A405" s="1"/>
       <c r="B405" s="1">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6518,7 +6518,7 @@
     <row r="406" spans="1:5">
       <c r="A406" s="1"/>
       <c r="B406" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6533,7 +6533,7 @@
     <row r="407" spans="1:5">
       <c r="A407" s="1"/>
       <c r="B407" s="1">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -6548,7 +6548,7 @@
     <row r="408" spans="1:5">
       <c r="A408" s="1"/>
       <c r="B408" s="1">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -6563,7 +6563,7 @@
     <row r="409" spans="1:5">
       <c r="A409" s="1"/>
       <c r="B409" s="1">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -6578,7 +6578,7 @@
     <row r="410" spans="1:5">
       <c r="A410" s="1"/>
       <c r="B410" s="1">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6593,7 +6593,7 @@
     <row r="411" spans="1:5">
       <c r="A411" s="1"/>
       <c r="B411" s="1">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6608,7 +6608,7 @@
     <row r="412" spans="1:5">
       <c r="A412" s="1"/>
       <c r="B412" s="1">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6623,7 +6623,7 @@
     <row r="413" spans="1:5">
       <c r="A413" s="1"/>
       <c r="B413" s="1">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6638,7 +6638,7 @@
     <row r="414" spans="1:5">
       <c r="A414" s="1"/>
       <c r="B414" s="1">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -6653,7 +6653,7 @@
     <row r="415" spans="1:5">
       <c r="A415" s="1"/>
       <c r="B415" s="1">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -6668,7 +6668,7 @@
     <row r="416" spans="1:5">
       <c r="A416" s="1"/>
       <c r="B416" s="1">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -6683,7 +6683,7 @@
     <row r="417" spans="1:5">
       <c r="A417" s="1"/>
       <c r="B417" s="1">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -6698,7 +6698,7 @@
     <row r="418" spans="1:5">
       <c r="A418" s="1"/>
       <c r="B418" s="1">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -6713,7 +6713,7 @@
     <row r="419" spans="1:5">
       <c r="A419" s="1"/>
       <c r="B419" s="1">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6728,7 +6728,7 @@
     <row r="420" spans="1:5">
       <c r="A420" s="1"/>
       <c r="B420" s="1">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6743,7 +6743,7 @@
     <row r="421" spans="1:5">
       <c r="A421" s="1"/>
       <c r="B421" s="1">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6758,7 +6758,7 @@
     <row r="422" spans="1:5">
       <c r="A422" s="1"/>
       <c r="B422" s="1">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6773,7 +6773,7 @@
     <row r="423" spans="1:5">
       <c r="A423" s="1"/>
       <c r="B423" s="1">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6788,7 +6788,7 @@
     <row r="424" spans="1:5">
       <c r="A424" s="1"/>
       <c r="B424" s="1">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -6803,7 +6803,7 @@
     <row r="425" spans="1:5">
       <c r="A425" s="1"/>
       <c r="B425" s="1">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -6816,134 +6816,134 @@
       </c>
     </row>
     <row r="426" spans="1:5">
-      <c r="A426" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A426" s="1"/>
       <c r="B426" s="1">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C426">
-        <v>195127.7777777778</v>
+        <v>0</v>
       </c>
       <c r="D426">
         <v>0</v>
       </c>
       <c r="E426">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="1"/>
       <c r="B427" s="1">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C427">
-        <v>195127.7777777778</v>
+        <v>0</v>
       </c>
       <c r="D427">
         <v>0</v>
       </c>
       <c r="E427">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="1"/>
       <c r="B428" s="1">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C428">
-        <v>188833.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D428">
         <v>0</v>
       </c>
       <c r="E428">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="1"/>
       <c r="B429" s="1">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C429">
-        <v>195127.7777777778</v>
+        <v>0</v>
       </c>
       <c r="D429">
         <v>0</v>
       </c>
       <c r="E429">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="1"/>
       <c r="B430" s="1">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C430">
-        <v>188833.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D430">
         <v>0</v>
       </c>
       <c r="E430">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="1"/>
       <c r="B431" s="1">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C431">
-        <v>195127.7777777778</v>
+        <v>0</v>
       </c>
       <c r="D431">
         <v>0</v>
       </c>
       <c r="E431">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="1"/>
       <c r="B432" s="1">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C432">
-        <v>195127.7777777778</v>
+        <v>0</v>
       </c>
       <c r="D432">
         <v>0</v>
       </c>
       <c r="E432">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="1"/>
       <c r="B433" s="1">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C433">
-        <v>176244.4444444444</v>
+        <v>0</v>
       </c>
       <c r="D433">
         <v>0</v>
       </c>
       <c r="E433">
-        <v>44000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:5">
-      <c r="A434" s="1"/>
+      <c r="A434" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B434" s="1">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C434">
-        <v>195127.7777777778</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D434">
         <v>0</v>
@@ -6955,10 +6955,10 @@
     <row r="435" spans="1:5">
       <c r="A435" s="1"/>
       <c r="B435" s="1">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C435">
-        <v>188833.3333333333</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D435">
         <v>0</v>
@@ -6970,7 +6970,7 @@
     <row r="436" spans="1:5">
       <c r="A436" s="1"/>
       <c r="B436" s="1">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C436">
         <v>195127.7777777778</v>
@@ -6985,7 +6985,7 @@
     <row r="437" spans="1:5">
       <c r="A437" s="1"/>
       <c r="B437" s="1">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C437">
         <v>188833.3333333333</v>
@@ -7000,7 +7000,7 @@
     <row r="438" spans="1:5">
       <c r="A438" s="1"/>
       <c r="B438" s="1">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C438">
         <v>195127.7777777778</v>
@@ -7015,10 +7015,10 @@
     <row r="439" spans="1:5">
       <c r="A439" s="1"/>
       <c r="B439" s="1">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C439">
-        <v>195127.7777777778</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D439">
         <v>0</v>
@@ -7030,10 +7030,10 @@
     <row r="440" spans="1:5">
       <c r="A440" s="1"/>
       <c r="B440" s="1">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C440">
-        <v>188833.3333333333</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D440">
         <v>0</v>
@@ -7045,7 +7045,7 @@
     <row r="441" spans="1:5">
       <c r="A441" s="1"/>
       <c r="B441" s="1">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C441">
         <v>195127.7777777778</v>
@@ -7060,10 +7060,10 @@
     <row r="442" spans="1:5">
       <c r="A442" s="1"/>
       <c r="B442" s="1">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C442">
-        <v>188833.3333333333</v>
+        <v>176244.4444444444</v>
       </c>
       <c r="D442">
         <v>0</v>
@@ -7075,7 +7075,7 @@
     <row r="443" spans="1:5">
       <c r="A443" s="1"/>
       <c r="B443" s="1">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C443">
         <v>195127.7777777778</v>
@@ -7090,10 +7090,10 @@
     <row r="444" spans="1:5">
       <c r="A444" s="1"/>
       <c r="B444" s="1">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C444">
-        <v>195127.7777777778</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D444">
         <v>0</v>
@@ -7105,10 +7105,10 @@
     <row r="445" spans="1:5">
       <c r="A445" s="1"/>
       <c r="B445" s="1">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C445">
-        <v>176244.4444444444</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D445">
         <v>0</v>
@@ -7120,10 +7120,10 @@
     <row r="446" spans="1:5">
       <c r="A446" s="1"/>
       <c r="B446" s="1">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C446">
-        <v>195127.7777777778</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D446">
         <v>0</v>
@@ -7135,13 +7135,13 @@
     <row r="447" spans="1:5">
       <c r="A447" s="1"/>
       <c r="B447" s="1">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C447">
-        <v>188833.3333333333</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D447">
-        <v>44000000</v>
+        <v>0</v>
       </c>
       <c r="E447">
         <v>44000000</v>
@@ -7150,127 +7150,127 @@
     <row r="448" spans="1:5">
       <c r="A448" s="1"/>
       <c r="B448" s="1">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C448">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D448">
         <v>0</v>
       </c>
       <c r="E448">
-        <v>0</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="1"/>
       <c r="B449" s="1">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C449">
-        <v>0</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D449">
         <v>0</v>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="1"/>
       <c r="B450" s="1">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C450">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D450">
         <v>0</v>
       </c>
       <c r="E450">
-        <v>0</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="1"/>
       <c r="B451" s="1">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C451">
-        <v>0</v>
+        <v>188833.3333333333</v>
       </c>
       <c r="D451">
         <v>0</v>
       </c>
       <c r="E451">
-        <v>0</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="1"/>
       <c r="B452" s="1">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C452">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D452">
         <v>0</v>
       </c>
       <c r="E452">
-        <v>0</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="1"/>
       <c r="B453" s="1">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C453">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D453">
         <v>0</v>
       </c>
       <c r="E453">
-        <v>0</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="1"/>
       <c r="B454" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C454">
-        <v>0</v>
+        <v>176244.4444444444</v>
       </c>
       <c r="D454">
         <v>0</v>
       </c>
       <c r="E454">
-        <v>0</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="1"/>
       <c r="B455" s="1">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C455">
-        <v>0</v>
+        <v>195127.7777777778</v>
       </c>
       <c r="D455">
-        <v>0</v>
+        <v>44000000</v>
       </c>
       <c r="E455">
-        <v>0</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="1"/>
       <c r="B456" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -7285,7 +7285,7 @@
     <row r="457" spans="1:5">
       <c r="A457" s="1"/>
       <c r="B457" s="1">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -7300,7 +7300,7 @@
     <row r="458" spans="1:5">
       <c r="A458" s="1"/>
       <c r="B458" s="1">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -7315,7 +7315,7 @@
     <row r="459" spans="1:5">
       <c r="A459" s="1"/>
       <c r="B459" s="1">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -7330,7 +7330,7 @@
     <row r="460" spans="1:5">
       <c r="A460" s="1"/>
       <c r="B460" s="1">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -7345,7 +7345,7 @@
     <row r="461" spans="1:5">
       <c r="A461" s="1"/>
       <c r="B461" s="1">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -7360,7 +7360,7 @@
     <row r="462" spans="1:5">
       <c r="A462" s="1"/>
       <c r="B462" s="1">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -7375,7 +7375,7 @@
     <row r="463" spans="1:5">
       <c r="A463" s="1"/>
       <c r="B463" s="1">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -7390,7 +7390,7 @@
     <row r="464" spans="1:5">
       <c r="A464" s="1"/>
       <c r="B464" s="1">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -7405,7 +7405,7 @@
     <row r="465" spans="1:5">
       <c r="A465" s="1"/>
       <c r="B465" s="1">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -7420,7 +7420,7 @@
     <row r="466" spans="1:5">
       <c r="A466" s="1"/>
       <c r="B466" s="1">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -7435,7 +7435,7 @@
     <row r="467" spans="1:5">
       <c r="A467" s="1"/>
       <c r="B467" s="1">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -7450,7 +7450,7 @@
     <row r="468" spans="1:5">
       <c r="A468" s="1"/>
       <c r="B468" s="1">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C468">
         <v>0</v>
@@ -7465,7 +7465,7 @@
     <row r="469" spans="1:5">
       <c r="A469" s="1"/>
       <c r="B469" s="1">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -7480,7 +7480,7 @@
     <row r="470" spans="1:5">
       <c r="A470" s="1"/>
       <c r="B470" s="1">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -7495,7 +7495,7 @@
     <row r="471" spans="1:5">
       <c r="A471" s="1"/>
       <c r="B471" s="1">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -7510,7 +7510,7 @@
     <row r="472" spans="1:5">
       <c r="A472" s="1"/>
       <c r="B472" s="1">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -7525,7 +7525,7 @@
     <row r="473" spans="1:5">
       <c r="A473" s="1"/>
       <c r="B473" s="1">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -7540,7 +7540,7 @@
     <row r="474" spans="1:5">
       <c r="A474" s="1"/>
       <c r="B474" s="1">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -7555,7 +7555,7 @@
     <row r="475" spans="1:5">
       <c r="A475" s="1"/>
       <c r="B475" s="1">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -7570,7 +7570,7 @@
     <row r="476" spans="1:5">
       <c r="A476" s="1"/>
       <c r="B476" s="1">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -7585,7 +7585,7 @@
     <row r="477" spans="1:5">
       <c r="A477" s="1"/>
       <c r="B477" s="1">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -7600,7 +7600,7 @@
     <row r="478" spans="1:5">
       <c r="A478" s="1"/>
       <c r="B478" s="1">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -7613,11 +7613,9 @@
       </c>
     </row>
     <row r="479" spans="1:5">
-      <c r="A479" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A479" s="1"/>
       <c r="B479" s="1">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -7626,13 +7624,13 @@
         <v>0</v>
       </c>
       <c r="E479">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="1"/>
       <c r="B480" s="1">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -7641,13 +7639,13 @@
         <v>0</v>
       </c>
       <c r="E480">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="1"/>
       <c r="B481" s="1">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -7656,13 +7654,13 @@
         <v>0</v>
       </c>
       <c r="E481">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="1"/>
       <c r="B482" s="1">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -7671,13 +7669,13 @@
         <v>0</v>
       </c>
       <c r="E482">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="1"/>
       <c r="B483" s="1">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -7686,13 +7684,13 @@
         <v>0</v>
       </c>
       <c r="E483">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="1"/>
       <c r="B484" s="1">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -7701,13 +7699,13 @@
         <v>0</v>
       </c>
       <c r="E484">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="1"/>
       <c r="B485" s="1">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -7716,13 +7714,13 @@
         <v>0</v>
       </c>
       <c r="E485">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="1"/>
       <c r="B486" s="1">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -7731,13 +7729,13 @@
         <v>0</v>
       </c>
       <c r="E486">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="1"/>
       <c r="B487" s="1">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -7746,13 +7744,15 @@
         <v>0</v>
       </c>
       <c r="E487">
-        <v>33000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:5">
-      <c r="A488" s="1"/>
+      <c r="A488" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B488" s="1">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -7767,7 +7767,7 @@
     <row r="489" spans="1:5">
       <c r="A489" s="1"/>
       <c r="B489" s="1">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -7782,7 +7782,7 @@
     <row r="490" spans="1:5">
       <c r="A490" s="1"/>
       <c r="B490" s="1">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -7797,7 +7797,7 @@
     <row r="491" spans="1:5">
       <c r="A491" s="1"/>
       <c r="B491" s="1">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -7812,7 +7812,7 @@
     <row r="492" spans="1:5">
       <c r="A492" s="1"/>
       <c r="B492" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -7827,7 +7827,7 @@
     <row r="493" spans="1:5">
       <c r="A493" s="1"/>
       <c r="B493" s="1">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -7842,7 +7842,7 @@
     <row r="494" spans="1:5">
       <c r="A494" s="1"/>
       <c r="B494" s="1">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -7857,7 +7857,7 @@
     <row r="495" spans="1:5">
       <c r="A495" s="1"/>
       <c r="B495" s="1">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -7872,7 +7872,7 @@
     <row r="496" spans="1:5">
       <c r="A496" s="1"/>
       <c r="B496" s="1">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -7887,7 +7887,7 @@
     <row r="497" spans="1:5">
       <c r="A497" s="1"/>
       <c r="B497" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -7902,7 +7902,7 @@
     <row r="498" spans="1:5">
       <c r="A498" s="1"/>
       <c r="B498" s="1">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -7917,7 +7917,7 @@
     <row r="499" spans="1:5">
       <c r="A499" s="1"/>
       <c r="B499" s="1">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -7932,13 +7932,13 @@
     <row r="500" spans="1:5">
       <c r="A500" s="1"/>
       <c r="B500" s="1">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C500">
         <v>0</v>
       </c>
       <c r="D500">
-        <v>33000000</v>
+        <v>0</v>
       </c>
       <c r="E500">
         <v>33000000</v>
@@ -7947,7 +7947,7 @@
     <row r="501" spans="1:5">
       <c r="A501" s="1"/>
       <c r="B501" s="1">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -7956,13 +7956,13 @@
         <v>0</v>
       </c>
       <c r="E501">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="502" spans="1:5">
       <c r="A502" s="1"/>
       <c r="B502" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -7971,13 +7971,13 @@
         <v>0</v>
       </c>
       <c r="E502">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="503" spans="1:5">
       <c r="A503" s="1"/>
       <c r="B503" s="1">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -7986,13 +7986,13 @@
         <v>0</v>
       </c>
       <c r="E503">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="1"/>
       <c r="B504" s="1">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -8001,13 +8001,13 @@
         <v>0</v>
       </c>
       <c r="E504">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="1"/>
       <c r="B505" s="1">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -8016,13 +8016,13 @@
         <v>0</v>
       </c>
       <c r="E505">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="1"/>
       <c r="B506" s="1">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         <v>0</v>
       </c>
       <c r="E506">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="507" spans="1:5">
       <c r="A507" s="1"/>
       <c r="B507" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -8046,13 +8046,13 @@
         <v>0</v>
       </c>
       <c r="E507">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="1"/>
       <c r="B508" s="1">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -8061,28 +8061,28 @@
         <v>0</v>
       </c>
       <c r="E508">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="509" spans="1:5">
       <c r="A509" s="1"/>
       <c r="B509" s="1">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C509">
         <v>0</v>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>33000000</v>
       </c>
       <c r="E509">
-        <v>0</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="1"/>
       <c r="B510" s="1">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -8097,7 +8097,7 @@
     <row r="511" spans="1:5">
       <c r="A511" s="1"/>
       <c r="B511" s="1">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -8112,7 +8112,7 @@
     <row r="512" spans="1:5">
       <c r="A512" s="1"/>
       <c r="B512" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C512">
         <v>0</v>
@@ -8127,7 +8127,7 @@
     <row r="513" spans="1:5">
       <c r="A513" s="1"/>
       <c r="B513" s="1">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -8142,7 +8142,7 @@
     <row r="514" spans="1:5">
       <c r="A514" s="1"/>
       <c r="B514" s="1">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -8157,7 +8157,7 @@
     <row r="515" spans="1:5">
       <c r="A515" s="1"/>
       <c r="B515" s="1">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -8172,7 +8172,7 @@
     <row r="516" spans="1:5">
       <c r="A516" s="1"/>
       <c r="B516" s="1">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -8187,7 +8187,7 @@
     <row r="517" spans="1:5">
       <c r="A517" s="1"/>
       <c r="B517" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -8202,7 +8202,7 @@
     <row r="518" spans="1:5">
       <c r="A518" s="1"/>
       <c r="B518" s="1">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -8217,7 +8217,7 @@
     <row r="519" spans="1:5">
       <c r="A519" s="1"/>
       <c r="B519" s="1">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -8232,7 +8232,7 @@
     <row r="520" spans="1:5">
       <c r="A520" s="1"/>
       <c r="B520" s="1">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -8247,7 +8247,7 @@
     <row r="521" spans="1:5">
       <c r="A521" s="1"/>
       <c r="B521" s="1">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -8262,7 +8262,7 @@
     <row r="522" spans="1:5">
       <c r="A522" s="1"/>
       <c r="B522" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -8277,7 +8277,7 @@
     <row r="523" spans="1:5">
       <c r="A523" s="1"/>
       <c r="B523" s="1">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -8292,7 +8292,7 @@
     <row r="524" spans="1:5">
       <c r="A524" s="1"/>
       <c r="B524" s="1">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -8307,7 +8307,7 @@
     <row r="525" spans="1:5">
       <c r="A525" s="1"/>
       <c r="B525" s="1">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -8322,7 +8322,7 @@
     <row r="526" spans="1:5">
       <c r="A526" s="1"/>
       <c r="B526" s="1">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -8337,7 +8337,7 @@
     <row r="527" spans="1:5">
       <c r="A527" s="1"/>
       <c r="B527" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -8352,7 +8352,7 @@
     <row r="528" spans="1:5">
       <c r="A528" s="1"/>
       <c r="B528" s="1">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -8367,7 +8367,7 @@
     <row r="529" spans="1:5">
       <c r="A529" s="1"/>
       <c r="B529" s="1">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -8382,7 +8382,7 @@
     <row r="530" spans="1:5">
       <c r="A530" s="1"/>
       <c r="B530" s="1">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -8397,30 +8397,180 @@
     <row r="531" spans="1:5">
       <c r="A531" s="1"/>
       <c r="B531" s="1">
+        <v>89</v>
+      </c>
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531">
+        <v>0</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="1"/>
+      <c r="B532" s="1">
+        <v>90</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532">
+        <v>0</v>
+      </c>
+      <c r="E532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="1"/>
+      <c r="B533" s="1">
+        <v>91</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533">
+        <v>0</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="1"/>
+      <c r="B534" s="1">
+        <v>92</v>
+      </c>
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="D534">
+        <v>0</v>
+      </c>
+      <c r="E534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="1"/>
+      <c r="B535" s="1">
+        <v>93</v>
+      </c>
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535">
+        <v>0</v>
+      </c>
+      <c r="E535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="1"/>
+      <c r="B536" s="1">
+        <v>94</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+      <c r="D536">
+        <v>0</v>
+      </c>
+      <c r="E536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="1"/>
+      <c r="B537" s="1">
+        <v>95</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537">
+        <v>0</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="1"/>
+      <c r="B538" s="1">
+        <v>96</v>
+      </c>
+      <c r="C538">
+        <v>0</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="1"/>
+      <c r="B539" s="1">
+        <v>97</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539">
+        <v>0</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" s="1"/>
+      <c r="B540" s="1">
+        <v>98</v>
+      </c>
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540">
+        <v>0</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="1"/>
+      <c r="B541" s="1">
         <v>99</v>
       </c>
-      <c r="C531">
-        <v>0</v>
-      </c>
-      <c r="D531">
-        <v>0</v>
-      </c>
-      <c r="E531">
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541">
+        <v>0</v>
+      </c>
+      <c r="E541">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A2:A54"/>
-    <mergeCell ref="A55:A107"/>
-    <mergeCell ref="A108:A160"/>
-    <mergeCell ref="A161:A213"/>
-    <mergeCell ref="A214:A266"/>
-    <mergeCell ref="A267:A319"/>
-    <mergeCell ref="A320:A372"/>
-    <mergeCell ref="A373:A425"/>
-    <mergeCell ref="A426:A478"/>
-    <mergeCell ref="A479:A531"/>
+    <mergeCell ref="A2:A55"/>
+    <mergeCell ref="A56:A109"/>
+    <mergeCell ref="A110:A163"/>
+    <mergeCell ref="A164:A217"/>
+    <mergeCell ref="A218:A271"/>
+    <mergeCell ref="A272:A325"/>
+    <mergeCell ref="A326:A379"/>
+    <mergeCell ref="A380:A433"/>
+    <mergeCell ref="A434:A487"/>
+    <mergeCell ref="A488:A541"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
